--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6532000</v>
+        <v>5272200</v>
       </c>
       <c r="E8" s="3">
-        <v>6626400</v>
+        <v>6727600</v>
       </c>
       <c r="F8" s="3">
-        <v>5932500</v>
+        <v>6589100</v>
       </c>
       <c r="G8" s="3">
-        <v>7290700</v>
+        <v>6684400</v>
       </c>
       <c r="H8" s="3">
-        <v>6156500</v>
+        <v>5984400</v>
       </c>
       <c r="I8" s="3">
+        <v>7354500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>6210300</v>
+      </c>
+      <c r="K8" s="3">
         <v>6265200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5464700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>5504500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5212800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5780500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6191100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>6346800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4208600</v>
+        <v>3764700</v>
       </c>
       <c r="E9" s="3">
-        <v>4235000</v>
+        <v>4447000</v>
       </c>
       <c r="F9" s="3">
-        <v>3949500</v>
+        <v>4245400</v>
       </c>
       <c r="G9" s="3">
-        <v>4830100</v>
+        <v>4272000</v>
       </c>
       <c r="H9" s="3">
-        <v>4203100</v>
+        <v>3984000</v>
       </c>
       <c r="I9" s="3">
+        <v>4872300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>4239900</v>
+      </c>
+      <c r="K9" s="3">
         <v>4662100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3530100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3775500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>3518600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4149100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4238900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6463000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2323400</v>
+        <v>1507400</v>
       </c>
       <c r="E10" s="3">
-        <v>2391400</v>
+        <v>2280500</v>
       </c>
       <c r="F10" s="3">
-        <v>1983000</v>
+        <v>2343700</v>
       </c>
       <c r="G10" s="3">
-        <v>2460600</v>
+        <v>2412400</v>
       </c>
       <c r="H10" s="3">
-        <v>1953300</v>
+        <v>2000300</v>
       </c>
       <c r="I10" s="3">
+        <v>2482100</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1970400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1603100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1934700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1729000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1694200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1631400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1952300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-116200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,52 +906,60 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>41700</v>
+        <v>131800</v>
       </c>
       <c r="E12" s="3">
-        <v>78000</v>
+        <v>80900</v>
       </c>
       <c r="F12" s="3">
-        <v>50500</v>
+        <v>42100</v>
       </c>
       <c r="G12" s="3">
-        <v>65900</v>
+        <v>78600</v>
       </c>
       <c r="H12" s="3">
-        <v>27500</v>
+        <v>50900</v>
       </c>
       <c r="I12" s="3">
+        <v>66500</v>
+      </c>
+      <c r="J12" s="3">
+        <v>27700</v>
+      </c>
+      <c r="K12" s="3">
         <v>58200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>40600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>107700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>39300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>65100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>35900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>83300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -983,82 +1022,94 @@
       <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <v>-147100</v>
-      </c>
-      <c r="H14" s="3">
-        <v>163600</v>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="I14" s="3">
+        <v>-148400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>165000</v>
+      </c>
+      <c r="K14" s="3">
         <v>-68100</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-2200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>1362100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-153700</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>644500</v>
+        <v>701100</v>
       </c>
       <c r="E15" s="3">
-        <v>632400</v>
+        <v>691100</v>
       </c>
       <c r="F15" s="3">
-        <v>602800</v>
+        <v>650200</v>
       </c>
       <c r="G15" s="3">
-        <v>513900</v>
+        <v>638000</v>
       </c>
       <c r="H15" s="3">
-        <v>490800</v>
+        <v>608100</v>
       </c>
       <c r="I15" s="3">
+        <v>518400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>495100</v>
+      </c>
+      <c r="K15" s="3">
         <v>516100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>486400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>511600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>538600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>518400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>509400</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5615200</v>
+        <v>5131500</v>
       </c>
       <c r="E17" s="3">
-        <v>5587700</v>
+        <v>5910200</v>
       </c>
       <c r="F17" s="3">
-        <v>5188100</v>
+        <v>5664300</v>
       </c>
       <c r="G17" s="3">
-        <v>5968700</v>
+        <v>5636600</v>
       </c>
       <c r="H17" s="3">
-        <v>5436200</v>
+        <v>5233400</v>
       </c>
       <c r="I17" s="3">
+        <v>6020900</v>
+      </c>
+      <c r="J17" s="3">
+        <v>5483700</v>
+      </c>
+      <c r="K17" s="3">
         <v>5738100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4596200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4899700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4581100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6672500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5163400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6659000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>916800</v>
+        <v>140700</v>
       </c>
       <c r="E18" s="3">
-        <v>1038700</v>
+        <v>817400</v>
       </c>
       <c r="F18" s="3">
-        <v>744400</v>
+        <v>924800</v>
       </c>
       <c r="G18" s="3">
-        <v>1322000</v>
+        <v>1047800</v>
       </c>
       <c r="H18" s="3">
-        <v>720300</v>
+        <v>751000</v>
       </c>
       <c r="I18" s="3">
+        <v>1333600</v>
+      </c>
+      <c r="J18" s="3">
+        <v>726600</v>
+      </c>
+      <c r="K18" s="3">
         <v>527000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>868500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>604800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>631700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-892000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>1027700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-312200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>129600</v>
+        <v>-52100</v>
       </c>
       <c r="E20" s="3">
-        <v>211900</v>
+        <v>125200</v>
       </c>
       <c r="F20" s="3">
-        <v>148200</v>
+        <v>130700</v>
       </c>
       <c r="G20" s="3">
-        <v>82400</v>
+        <v>213800</v>
       </c>
       <c r="H20" s="3">
-        <v>152600</v>
+        <v>149500</v>
       </c>
       <c r="I20" s="3">
+        <v>83100</v>
+      </c>
+      <c r="J20" s="3">
+        <v>154000</v>
+      </c>
+      <c r="K20" s="3">
         <v>176800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>90000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>25800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>225500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>113300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>149200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>118600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1708500</v>
+        <v>876100</v>
       </c>
       <c r="E21" s="3">
-        <v>1925900</v>
+        <v>1662500</v>
       </c>
       <c r="F21" s="3">
-        <v>1509800</v>
+        <v>1723400</v>
       </c>
       <c r="G21" s="3">
-        <v>1951100</v>
+        <v>1942700</v>
       </c>
       <c r="H21" s="3">
-        <v>1373600</v>
+        <v>1523000</v>
       </c>
       <c r="I21" s="3">
+        <v>1968200</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1385600</v>
+      </c>
+      <c r="K21" s="3">
         <v>1233100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1452700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1227500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1405900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-194100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1677400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1205500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>85600</v>
+        <v>83100</v>
       </c>
       <c r="E22" s="3">
-        <v>84500</v>
+        <v>80900</v>
       </c>
       <c r="F22" s="3">
-        <v>82400</v>
+        <v>86400</v>
       </c>
       <c r="G22" s="3">
-        <v>76900</v>
+        <v>85300</v>
       </c>
       <c r="H22" s="3">
-        <v>76900</v>
+        <v>83100</v>
       </c>
       <c r="I22" s="3">
+        <v>77500</v>
+      </c>
+      <c r="J22" s="3">
+        <v>77500</v>
+      </c>
+      <c r="K22" s="3">
         <v>94400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>70300</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="M22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>80800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>69600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>68400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>74000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>960800</v>
+        <v>5500</v>
       </c>
       <c r="E23" s="3">
-        <v>1166100</v>
+        <v>861700</v>
       </c>
       <c r="F23" s="3">
-        <v>810300</v>
+        <v>969200</v>
       </c>
       <c r="G23" s="3">
-        <v>1327500</v>
+        <v>1176300</v>
       </c>
       <c r="H23" s="3">
-        <v>796100</v>
+        <v>817400</v>
       </c>
       <c r="I23" s="3">
+        <v>1339100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>803000</v>
+      </c>
+      <c r="K23" s="3">
         <v>609400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>888300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>630600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>776400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-848200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1108500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-267600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>373300</v>
+        <v>80900</v>
       </c>
       <c r="E24" s="3">
-        <v>443600</v>
+        <v>354400</v>
       </c>
       <c r="F24" s="3">
-        <v>265700</v>
+        <v>376600</v>
       </c>
       <c r="G24" s="3">
-        <v>456800</v>
+        <v>447500</v>
       </c>
       <c r="H24" s="3">
-        <v>363400</v>
+        <v>268000</v>
       </c>
       <c r="I24" s="3">
+        <v>460800</v>
+      </c>
+      <c r="J24" s="3">
+        <v>366600</v>
+      </c>
+      <c r="K24" s="3">
         <v>306300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>305200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>159300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>166100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>193000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>193000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>120900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>587400</v>
+        <v>-75300</v>
       </c>
       <c r="E26" s="3">
-        <v>722500</v>
+        <v>507300</v>
       </c>
       <c r="F26" s="3">
-        <v>544600</v>
+        <v>592600</v>
       </c>
       <c r="G26" s="3">
-        <v>870700</v>
+        <v>728800</v>
       </c>
       <c r="H26" s="3">
-        <v>432600</v>
+        <v>549400</v>
       </c>
       <c r="I26" s="3">
+        <v>878300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>436400</v>
+      </c>
+      <c r="K26" s="3">
         <v>303000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>583000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>471200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>610400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>915500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-388500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>466700</v>
+        <v>-176100</v>
       </c>
       <c r="E27" s="3">
-        <v>596200</v>
+        <v>393200</v>
       </c>
       <c r="F27" s="3">
-        <v>388700</v>
+        <v>470700</v>
       </c>
       <c r="G27" s="3">
-        <v>667600</v>
+        <v>601400</v>
       </c>
       <c r="H27" s="3">
-        <v>242700</v>
+        <v>392100</v>
       </c>
       <c r="I27" s="3">
+        <v>673400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>244800</v>
+      </c>
+      <c r="K27" s="3">
         <v>222900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>445800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>348900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>491400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>798900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-442500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-129600</v>
+        <v>52100</v>
       </c>
       <c r="E32" s="3">
-        <v>-211900</v>
+        <v>-125200</v>
       </c>
       <c r="F32" s="3">
-        <v>-148200</v>
+        <v>-130700</v>
       </c>
       <c r="G32" s="3">
-        <v>-82400</v>
+        <v>-213800</v>
       </c>
       <c r="H32" s="3">
-        <v>-152600</v>
+        <v>-149500</v>
       </c>
       <c r="I32" s="3">
+        <v>-83100</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-154000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-176800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-90000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-25800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-225500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-113300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-149200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-118600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>466700</v>
+        <v>-176100</v>
       </c>
       <c r="E33" s="3">
-        <v>596200</v>
+        <v>393200</v>
       </c>
       <c r="F33" s="3">
-        <v>388700</v>
+        <v>470700</v>
       </c>
       <c r="G33" s="3">
-        <v>667600</v>
+        <v>601400</v>
       </c>
       <c r="H33" s="3">
-        <v>242700</v>
+        <v>392100</v>
       </c>
       <c r="I33" s="3">
+        <v>673400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>244800</v>
+      </c>
+      <c r="K33" s="3">
         <v>222900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>445800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>348900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>491400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>798900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-442500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>466700</v>
+        <v>-176100</v>
       </c>
       <c r="E35" s="3">
-        <v>596200</v>
+        <v>393200</v>
       </c>
       <c r="F35" s="3">
-        <v>388700</v>
+        <v>470700</v>
       </c>
       <c r="G35" s="3">
-        <v>667600</v>
+        <v>601400</v>
       </c>
       <c r="H35" s="3">
-        <v>242700</v>
+        <v>392100</v>
       </c>
       <c r="I35" s="3">
+        <v>673400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>244800</v>
+      </c>
+      <c r="K35" s="3">
         <v>222900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>445800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>348900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>491400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>798900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-442500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,404 +2138,460 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3466400</v>
+        <v>3066900</v>
       </c>
       <c r="E41" s="3">
-        <v>4052700</v>
+        <v>3246400</v>
       </c>
       <c r="F41" s="3">
-        <v>4023100</v>
+        <v>3496700</v>
       </c>
       <c r="G41" s="3">
-        <v>4420500</v>
+        <v>4088200</v>
       </c>
       <c r="H41" s="3">
-        <v>3747500</v>
+        <v>4058200</v>
       </c>
       <c r="I41" s="3">
+        <v>4459200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>3780200</v>
+      </c>
+      <c r="K41" s="3">
         <v>3213800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4718100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>4456500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>5209400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4715700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3504000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>2428600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2452900</v>
+        <v>7094200</v>
       </c>
       <c r="E42" s="3">
-        <v>3206200</v>
+        <v>3456800</v>
       </c>
       <c r="F42" s="3">
-        <v>2734000</v>
+        <v>2474400</v>
       </c>
       <c r="G42" s="3">
-        <v>2994200</v>
+        <v>3234200</v>
       </c>
       <c r="H42" s="3">
-        <v>4193300</v>
+        <v>2757900</v>
       </c>
       <c r="I42" s="3">
+        <v>3020400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>4229900</v>
+      </c>
+      <c r="K42" s="3">
         <v>2617600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1327500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1279100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1220700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>905400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>821300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1461400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3412600</v>
+        <v>2906300</v>
       </c>
       <c r="E43" s="3">
-        <v>3346700</v>
+        <v>3381500</v>
       </c>
       <c r="F43" s="3">
-        <v>4000000</v>
+        <v>3442400</v>
       </c>
       <c r="G43" s="3">
-        <v>3765000</v>
+        <v>3376000</v>
       </c>
       <c r="H43" s="3">
-        <v>3168800</v>
+        <v>4035000</v>
       </c>
       <c r="I43" s="3">
+        <v>3798000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3196500</v>
+      </c>
+      <c r="K43" s="3">
         <v>2945900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>3542100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2825200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2287700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>2318000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2921700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2924000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2124600</v>
+        <v>1596100</v>
       </c>
       <c r="E44" s="3">
-        <v>1782100</v>
+        <v>2043500</v>
       </c>
       <c r="F44" s="3">
-        <v>1905000</v>
+        <v>2143200</v>
       </c>
       <c r="G44" s="3">
-        <v>1725000</v>
+        <v>1797600</v>
       </c>
       <c r="H44" s="3">
-        <v>1829300</v>
+        <v>1921700</v>
       </c>
       <c r="I44" s="3">
+        <v>1740000</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1845300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1639300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1486700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1686400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1729000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1495600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1647100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1952000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>256900</v>
+        <v>376600</v>
       </c>
       <c r="E45" s="3">
-        <v>274500</v>
+        <v>330100</v>
       </c>
       <c r="F45" s="3">
-        <v>303000</v>
+        <v>259200</v>
       </c>
       <c r="G45" s="3">
-        <v>289900</v>
+        <v>276900</v>
       </c>
       <c r="H45" s="3">
-        <v>415000</v>
+        <v>305700</v>
       </c>
       <c r="I45" s="3">
+        <v>292400</v>
+      </c>
+      <c r="J45" s="3">
+        <v>418700</v>
+      </c>
+      <c r="K45" s="3">
         <v>424900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>362300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>297300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>269300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>286100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>280500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>232400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11713500</v>
+        <v>15040100</v>
       </c>
       <c r="E46" s="3">
-        <v>12662100</v>
+        <v>12458300</v>
       </c>
       <c r="F46" s="3">
-        <v>12965200</v>
+        <v>11815900</v>
       </c>
       <c r="G46" s="3">
-        <v>13194700</v>
+        <v>12772800</v>
       </c>
       <c r="H46" s="3">
-        <v>13353900</v>
+        <v>13078500</v>
       </c>
       <c r="I46" s="3">
+        <v>13310000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>13470600</v>
+      </c>
+      <c r="K46" s="3">
         <v>10841700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>11436800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>10544500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>10716100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>9720900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>9174500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>8998400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8757600</v>
+        <v>8778800</v>
       </c>
       <c r="E47" s="3">
-        <v>6129000</v>
+        <v>8379000</v>
       </c>
       <c r="F47" s="3">
-        <v>6015900</v>
+        <v>8834200</v>
       </c>
       <c r="G47" s="3">
-        <v>6225700</v>
+        <v>6182600</v>
       </c>
       <c r="H47" s="3">
-        <v>5946800</v>
+        <v>6068500</v>
       </c>
       <c r="I47" s="3">
+        <v>6280100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>5998800</v>
+      </c>
+      <c r="K47" s="3">
         <v>5680000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>5236400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>5466300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>4431900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>4404900</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>4145800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>4468700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>18247700</v>
+        <v>16982800</v>
       </c>
       <c r="E48" s="3">
-        <v>18078600</v>
+        <v>18252100</v>
       </c>
       <c r="F48" s="3">
-        <v>18006100</v>
+        <v>18407200</v>
       </c>
       <c r="G48" s="3">
-        <v>16596300</v>
+        <v>18236600</v>
       </c>
       <c r="H48" s="3">
-        <v>15543300</v>
+        <v>18163500</v>
       </c>
       <c r="I48" s="3">
+        <v>16741400</v>
+      </c>
+      <c r="J48" s="3">
+        <v>15679200</v>
+      </c>
+      <c r="K48" s="3">
         <v>15670700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>14865800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>15319700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>15457700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>15748300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>16063500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>17152900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4664300</v>
+        <v>4279800</v>
       </c>
       <c r="E49" s="3">
-        <v>4520500</v>
+        <v>4610900</v>
       </c>
       <c r="F49" s="3">
-        <v>4633600</v>
+        <v>4705100</v>
       </c>
       <c r="G49" s="3">
-        <v>3642100</v>
+        <v>4560000</v>
       </c>
       <c r="H49" s="3">
-        <v>3174300</v>
+        <v>4674100</v>
       </c>
       <c r="I49" s="3">
+        <v>3673900</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3202100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3188600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>2882300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>2971000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>1852400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>1867000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>1934300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>2010700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>876200</v>
+        <v>1823100</v>
       </c>
       <c r="E52" s="3">
-        <v>845500</v>
+        <v>1019000</v>
       </c>
       <c r="F52" s="3">
-        <v>879500</v>
+        <v>883900</v>
       </c>
       <c r="G52" s="3">
-        <v>924500</v>
+        <v>852900</v>
       </c>
       <c r="H52" s="3">
-        <v>1245100</v>
+        <v>887200</v>
       </c>
       <c r="I52" s="3">
+        <v>932600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1256000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1408700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1115600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1126500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>935700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>1169100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3635200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>5062600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>44259300</v>
+        <v>46904600</v>
       </c>
       <c r="E54" s="3">
-        <v>42235700</v>
+        <v>44719400</v>
       </c>
       <c r="F54" s="3">
-        <v>42500300</v>
+        <v>44646200</v>
       </c>
       <c r="G54" s="3">
-        <v>40583200</v>
+        <v>42604900</v>
       </c>
       <c r="H54" s="3">
-        <v>39263400</v>
+        <v>42871900</v>
       </c>
       <c r="I54" s="3">
+        <v>40938000</v>
+      </c>
+      <c r="J54" s="3">
+        <v>39606700</v>
+      </c>
+      <c r="K54" s="3">
         <v>36789600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>35536800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>35428000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>33393800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>32910200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>34953400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>37693400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,272 +2878,310 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4293200</v>
+        <v>3826800</v>
       </c>
       <c r="E57" s="3">
-        <v>3895700</v>
+        <v>4602100</v>
       </c>
       <c r="F57" s="3">
-        <v>4770800</v>
+        <v>4330700</v>
       </c>
       <c r="G57" s="3">
-        <v>4832300</v>
+        <v>3929800</v>
       </c>
       <c r="H57" s="3">
-        <v>4065900</v>
+        <v>4812500</v>
       </c>
       <c r="I57" s="3">
+        <v>4874500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4101400</v>
+      </c>
+      <c r="K57" s="3">
         <v>3877000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3910000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>3659900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>3268400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>3028300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3460200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4379500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1585500</v>
+        <v>622500</v>
       </c>
       <c r="E58" s="3">
-        <v>1553700</v>
+        <v>894900</v>
       </c>
       <c r="F58" s="3">
-        <v>1775500</v>
+        <v>1599400</v>
       </c>
       <c r="G58" s="3">
-        <v>925600</v>
+        <v>1567300</v>
       </c>
       <c r="H58" s="3">
-        <v>957500</v>
+        <v>1791000</v>
       </c>
       <c r="I58" s="3">
+        <v>933700</v>
+      </c>
+      <c r="J58" s="3">
+        <v>965800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1001400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1902800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1012000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>274900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>218800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>190700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>305200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4375500</v>
+        <v>8464300</v>
       </c>
       <c r="E59" s="3">
-        <v>5150700</v>
+        <v>4908900</v>
       </c>
       <c r="F59" s="3">
-        <v>4790600</v>
+        <v>4413800</v>
       </c>
       <c r="G59" s="3">
-        <v>4870700</v>
+        <v>5195800</v>
       </c>
       <c r="H59" s="3">
-        <v>6129000</v>
+        <v>4832500</v>
       </c>
       <c r="I59" s="3">
+        <v>4913300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>6182600</v>
+      </c>
+      <c r="K59" s="3">
         <v>4643400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3090900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2986700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2753400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2555900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2606400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3211500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10254200</v>
+        <v>12913500</v>
       </c>
       <c r="E60" s="3">
-        <v>10600100</v>
+        <v>10405900</v>
       </c>
       <c r="F60" s="3">
-        <v>11336900</v>
+        <v>10343900</v>
       </c>
       <c r="G60" s="3">
-        <v>10628600</v>
+        <v>10692800</v>
       </c>
       <c r="H60" s="3">
-        <v>11152400</v>
+        <v>11436000</v>
       </c>
       <c r="I60" s="3">
+        <v>10721600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>11249900</v>
+      </c>
+      <c r="K60" s="3">
         <v>9521900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>8903700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>7658700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>6296600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5802900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>6257300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>7896200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7266600</v>
+        <v>7002200</v>
       </c>
       <c r="E61" s="3">
-        <v>6113700</v>
+        <v>7549400</v>
       </c>
       <c r="F61" s="3">
-        <v>5746900</v>
+        <v>7330100</v>
       </c>
       <c r="G61" s="3">
-        <v>5390100</v>
+        <v>6167100</v>
       </c>
       <c r="H61" s="3">
-        <v>5009100</v>
+        <v>5797200</v>
       </c>
       <c r="I61" s="3">
+        <v>5437200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>5052900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5035400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>5017900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>5375500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>5134200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>5244200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>5276700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5869100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8437000</v>
+        <v>8339100</v>
       </c>
       <c r="E62" s="3">
-        <v>7945100</v>
+        <v>8086600</v>
       </c>
       <c r="F62" s="3">
-        <v>7650900</v>
+        <v>8510800</v>
       </c>
       <c r="G62" s="3">
-        <v>7718900</v>
+        <v>8014600</v>
       </c>
       <c r="H62" s="3">
-        <v>6868000</v>
+        <v>7717800</v>
       </c>
       <c r="I62" s="3">
+        <v>7786400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6928000</v>
+      </c>
+      <c r="K62" s="3">
         <v>6508900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>6244300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>6311200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>5978000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>6342600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7216600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>7582800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>30142300</v>
+        <v>32604400</v>
       </c>
       <c r="E66" s="3">
-        <v>28753300</v>
+        <v>30307300</v>
       </c>
       <c r="F66" s="3">
-        <v>28915800</v>
+        <v>30405800</v>
       </c>
       <c r="G66" s="3">
-        <v>27510400</v>
+        <v>29004700</v>
       </c>
       <c r="H66" s="3">
-        <v>26619900</v>
+        <v>29168600</v>
       </c>
       <c r="I66" s="3">
+        <v>27750900</v>
+      </c>
+      <c r="J66" s="3">
+        <v>26852700</v>
+      </c>
+      <c r="K66" s="3">
         <v>24489800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>23702500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>22843700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20852200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20777000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>22206400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>24881300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11580600</v>
+        <v>11741700</v>
       </c>
       <c r="E72" s="3">
-        <v>10946000</v>
+        <v>11808100</v>
       </c>
       <c r="F72" s="3">
-        <v>11050300</v>
+        <v>11681900</v>
       </c>
       <c r="G72" s="3">
-        <v>10494700</v>
+        <v>11041700</v>
       </c>
       <c r="H72" s="3">
-        <v>10108200</v>
+        <v>11146900</v>
       </c>
       <c r="I72" s="3">
+        <v>10586400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>10196600</v>
+      </c>
+      <c r="K72" s="3">
         <v>9765600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>9846900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>9714200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>9680500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>9272100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>9885900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>9820100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14117000</v>
+        <v>14300200</v>
       </c>
       <c r="E76" s="3">
-        <v>13482300</v>
+        <v>14412100</v>
       </c>
       <c r="F76" s="3">
-        <v>13584500</v>
+        <v>14240400</v>
       </c>
       <c r="G76" s="3">
-        <v>13072800</v>
+        <v>13600200</v>
       </c>
       <c r="H76" s="3">
-        <v>12643500</v>
+        <v>13703200</v>
       </c>
       <c r="I76" s="3">
+        <v>13187100</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12754000</v>
+      </c>
+      <c r="K76" s="3">
         <v>12299800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>11834200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>12584200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12541600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>12133200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>12746900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12812100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>466700</v>
+        <v>-176100</v>
       </c>
       <c r="E81" s="3">
-        <v>596200</v>
+        <v>393200</v>
       </c>
       <c r="F81" s="3">
-        <v>388700</v>
+        <v>470700</v>
       </c>
       <c r="G81" s="3">
-        <v>667600</v>
+        <v>601400</v>
       </c>
       <c r="H81" s="3">
-        <v>242700</v>
+        <v>392100</v>
       </c>
       <c r="I81" s="3">
+        <v>673400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>244800</v>
+      </c>
+      <c r="K81" s="3">
         <v>222900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>445800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>348900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>491400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>798900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-442500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>662100</v>
+        <v>787500</v>
       </c>
       <c r="E83" s="3">
-        <v>675300</v>
+        <v>719900</v>
       </c>
       <c r="F83" s="3">
-        <v>617100</v>
+        <v>667900</v>
       </c>
       <c r="G83" s="3">
-        <v>546800</v>
+        <v>681200</v>
       </c>
       <c r="H83" s="3">
-        <v>500700</v>
+        <v>622500</v>
       </c>
       <c r="I83" s="3">
+        <v>551600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>505100</v>
+      </c>
+      <c r="K83" s="3">
         <v>529200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>494100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>596900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>548700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>584600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>500400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>1533000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1180400</v>
+        <v>1243800</v>
       </c>
       <c r="E89" s="3">
-        <v>1245100</v>
+        <v>1086600</v>
       </c>
       <c r="F89" s="3">
-        <v>950900</v>
+        <v>1190700</v>
       </c>
       <c r="G89" s="3">
-        <v>1224300</v>
+        <v>1256000</v>
       </c>
       <c r="H89" s="3">
-        <v>1066200</v>
+        <v>959200</v>
       </c>
       <c r="I89" s="3">
+        <v>1235000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1075500</v>
+      </c>
+      <c r="K89" s="3">
         <v>1353800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1181400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>832500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>888600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1110800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1036700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>718400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-596200</v>
+        <v>-646800</v>
       </c>
       <c r="E91" s="3">
-        <v>-540200</v>
+        <v>-670100</v>
       </c>
       <c r="F91" s="3">
-        <v>-568800</v>
+        <v>-601400</v>
       </c>
       <c r="G91" s="3">
-        <v>-623700</v>
+        <v>-544900</v>
       </c>
       <c r="H91" s="3">
-        <v>-542400</v>
+        <v>-573700</v>
       </c>
       <c r="I91" s="3">
+        <v>-629100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-547200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-473200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-571100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-356800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-373600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-478000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-2849300</v>
+        <v>-710000</v>
       </c>
       <c r="E94" s="3">
-        <v>-455700</v>
+        <v>-706600</v>
       </c>
       <c r="F94" s="3">
-        <v>-1087000</v>
+        <v>-2874200</v>
       </c>
       <c r="G94" s="3">
-        <v>-822400</v>
+        <v>-459700</v>
       </c>
       <c r="H94" s="3">
-        <v>-490800</v>
+        <v>-1096500</v>
       </c>
       <c r="I94" s="3">
+        <v>-829600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-495100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-590700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-352300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>379200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>445400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-206600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4157,43 +4624,49 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-847700</v>
+        <v>109700</v>
       </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>79100</v>
+        <v>-855100</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>79700</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-760900</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>59500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-653000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-99800</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1088100</v>
+        <v>-671200</v>
       </c>
       <c r="E100" s="3">
-        <v>-764200</v>
+        <v>-608100</v>
       </c>
       <c r="F100" s="3">
-        <v>-252500</v>
+        <v>1097600</v>
       </c>
       <c r="G100" s="3">
-        <v>267900</v>
+        <v>-770900</v>
       </c>
       <c r="H100" s="3">
-        <v>-39500</v>
+        <v>-254700</v>
       </c>
       <c r="I100" s="3">
+        <v>270300</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-232800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>886400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-31400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-682200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-142500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>191300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="F101" s="3">
         <v>-5500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>5500</v>
       </c>
-      <c r="F101" s="3">
-        <v>-9900</v>
-      </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="I101" s="3">
         <v>2200</v>
       </c>
-      <c r="H101" s="3">
-        <v>-13200</v>
-      </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-7700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-7900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-11200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-11200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-16800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-39900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-586300</v>
+        <v>-179400</v>
       </c>
       <c r="E102" s="3">
-        <v>30700</v>
+        <v>-242600</v>
       </c>
       <c r="F102" s="3">
-        <v>-398600</v>
+        <v>-591500</v>
       </c>
       <c r="G102" s="3">
-        <v>672000</v>
+        <v>31000</v>
       </c>
       <c r="H102" s="3">
-        <v>522600</v>
+        <v>-402100</v>
       </c>
       <c r="I102" s="3">
+        <v>677900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>527200</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>350300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-742800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>493700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>796600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1322800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>663200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5272200</v>
+        <v>3711900</v>
       </c>
       <c r="E8" s="3">
-        <v>6727600</v>
+        <v>5630600</v>
       </c>
       <c r="F8" s="3">
-        <v>6589100</v>
+        <v>7184900</v>
       </c>
       <c r="G8" s="3">
-        <v>6684400</v>
+        <v>7037100</v>
       </c>
       <c r="H8" s="3">
-        <v>5984400</v>
+        <v>7138800</v>
       </c>
       <c r="I8" s="3">
-        <v>7354500</v>
+        <v>6391200</v>
       </c>
       <c r="J8" s="3">
+        <v>7854500</v>
+      </c>
+      <c r="K8" s="3">
         <v>6210300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6265200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5464700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5504500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5212800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5780500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6191100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6346800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3764700</v>
+        <v>2397700</v>
       </c>
       <c r="E9" s="3">
-        <v>4447000</v>
+        <v>4020700</v>
       </c>
       <c r="F9" s="3">
-        <v>4245400</v>
+        <v>4749300</v>
       </c>
       <c r="G9" s="3">
-        <v>4272000</v>
+        <v>4534100</v>
       </c>
       <c r="H9" s="3">
-        <v>3984000</v>
+        <v>4562400</v>
       </c>
       <c r="I9" s="3">
-        <v>4872300</v>
+        <v>4254900</v>
       </c>
       <c r="J9" s="3">
+        <v>5203600</v>
+      </c>
+      <c r="K9" s="3">
         <v>4239900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4662100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3530100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3775500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3518600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4149100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4238900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6463000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1507400</v>
+        <v>1314200</v>
       </c>
       <c r="E10" s="3">
-        <v>2280500</v>
+        <v>1609900</v>
       </c>
       <c r="F10" s="3">
-        <v>2343700</v>
+        <v>2435600</v>
       </c>
       <c r="G10" s="3">
-        <v>2412400</v>
+        <v>2503000</v>
       </c>
       <c r="H10" s="3">
-        <v>2000300</v>
+        <v>2576400</v>
       </c>
       <c r="I10" s="3">
-        <v>2482100</v>
+        <v>2136300</v>
       </c>
       <c r="J10" s="3">
+        <v>2650900</v>
+      </c>
+      <c r="K10" s="3">
         <v>1970400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1603100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1934700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1729000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1694200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1631400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1952300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-116200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,58 +921,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>131800</v>
+        <v>98200</v>
       </c>
       <c r="E12" s="3">
-        <v>80900</v>
+        <v>140800</v>
       </c>
       <c r="F12" s="3">
-        <v>42100</v>
+        <v>86400</v>
       </c>
       <c r="G12" s="3">
-        <v>78600</v>
+        <v>45000</v>
       </c>
       <c r="H12" s="3">
-        <v>50900</v>
+        <v>84000</v>
       </c>
       <c r="I12" s="3">
-        <v>66500</v>
+        <v>54400</v>
       </c>
       <c r="J12" s="3">
+        <v>71000</v>
+      </c>
+      <c r="K12" s="3">
         <v>27700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>58200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>40600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>107700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>39300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>65100</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>35900</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>83300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,88 +1048,94 @@
       <c r="H14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="3">
-        <v>-148400</v>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="J14" s="3">
+        <v>-158500</v>
+      </c>
+      <c r="K14" s="3">
         <v>165000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-68100</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-3400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-2200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1362100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-153700</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>701100</v>
+        <v>582000</v>
       </c>
       <c r="E15" s="3">
-        <v>691100</v>
+        <v>748800</v>
       </c>
       <c r="F15" s="3">
-        <v>650200</v>
+        <v>738100</v>
       </c>
       <c r="G15" s="3">
-        <v>638000</v>
+        <v>694400</v>
       </c>
       <c r="H15" s="3">
-        <v>608100</v>
+        <v>681400</v>
       </c>
       <c r="I15" s="3">
+        <v>649400</v>
+      </c>
+      <c r="J15" s="3">
+        <v>553600</v>
+      </c>
+      <c r="K15" s="3">
+        <v>495100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>516100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>486400</v>
+      </c>
+      <c r="N15" s="3">
+        <v>511600</v>
+      </c>
+      <c r="O15" s="3">
+        <v>538600</v>
+      </c>
+      <c r="P15" s="3">
         <v>518400</v>
       </c>
-      <c r="J15" s="3">
-        <v>495100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>516100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>486400</v>
-      </c>
-      <c r="M15" s="3">
-        <v>511600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>538600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>518400</v>
-      </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>509400</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5131500</v>
+        <v>3611400</v>
       </c>
       <c r="E17" s="3">
-        <v>5910200</v>
+        <v>5480400</v>
       </c>
       <c r="F17" s="3">
-        <v>5664300</v>
+        <v>6312000</v>
       </c>
       <c r="G17" s="3">
-        <v>5636600</v>
+        <v>6049400</v>
       </c>
       <c r="H17" s="3">
-        <v>5233400</v>
+        <v>6019800</v>
       </c>
       <c r="I17" s="3">
-        <v>6020900</v>
+        <v>5589200</v>
       </c>
       <c r="J17" s="3">
+        <v>6430200</v>
+      </c>
+      <c r="K17" s="3">
         <v>5483700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5738100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4596200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4899700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4581100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6672500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5163400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6659000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>140700</v>
+        <v>100500</v>
       </c>
       <c r="E18" s="3">
-        <v>817400</v>
+        <v>150200</v>
       </c>
       <c r="F18" s="3">
-        <v>924800</v>
+        <v>873000</v>
       </c>
       <c r="G18" s="3">
-        <v>1047800</v>
+        <v>987700</v>
       </c>
       <c r="H18" s="3">
-        <v>751000</v>
+        <v>1119000</v>
       </c>
       <c r="I18" s="3">
-        <v>1333600</v>
+        <v>802000</v>
       </c>
       <c r="J18" s="3">
+        <v>1424200</v>
+      </c>
+      <c r="K18" s="3">
         <v>726600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>527000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>868500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>604800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>631700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-892000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1027700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-312200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-52100</v>
+        <v>56800</v>
       </c>
       <c r="E20" s="3">
-        <v>125200</v>
+        <v>-55600</v>
       </c>
       <c r="F20" s="3">
-        <v>130700</v>
+        <v>133700</v>
       </c>
       <c r="G20" s="3">
-        <v>213800</v>
+        <v>139600</v>
       </c>
       <c r="H20" s="3">
-        <v>149500</v>
+        <v>228300</v>
       </c>
       <c r="I20" s="3">
-        <v>83100</v>
+        <v>159700</v>
       </c>
       <c r="J20" s="3">
+        <v>88700</v>
+      </c>
+      <c r="K20" s="3">
         <v>154000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>176800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>90000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>25800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>225500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>113300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>149200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>118600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>876100</v>
+        <v>800800</v>
       </c>
       <c r="E21" s="3">
-        <v>1662500</v>
+        <v>935700</v>
       </c>
       <c r="F21" s="3">
-        <v>1723400</v>
+        <v>1775500</v>
       </c>
       <c r="G21" s="3">
-        <v>1942700</v>
+        <v>1840600</v>
       </c>
       <c r="H21" s="3">
-        <v>1523000</v>
+        <v>2074800</v>
       </c>
       <c r="I21" s="3">
-        <v>1968200</v>
+        <v>1626500</v>
       </c>
       <c r="J21" s="3">
+        <v>2102000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1385600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1233100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1452700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1227500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1405900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-194100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1677400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1205500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>83100</v>
+        <v>74500</v>
       </c>
       <c r="E22" s="3">
-        <v>80900</v>
+        <v>88700</v>
       </c>
       <c r="F22" s="3">
         <v>86400</v>
       </c>
       <c r="G22" s="3">
-        <v>85300</v>
+        <v>92300</v>
       </c>
       <c r="H22" s="3">
-        <v>83100</v>
+        <v>91100</v>
       </c>
       <c r="I22" s="3">
+        <v>88700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>82800</v>
+      </c>
+      <c r="K22" s="3">
         <v>77500</v>
       </c>
-      <c r="J22" s="3">
-        <v>77500</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>94400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>70300</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>80800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>69600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>68400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>74000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5500</v>
+        <v>82800</v>
       </c>
       <c r="E23" s="3">
-        <v>861700</v>
+        <v>5900</v>
       </c>
       <c r="F23" s="3">
-        <v>969200</v>
+        <v>920300</v>
       </c>
       <c r="G23" s="3">
-        <v>1176300</v>
+        <v>1035000</v>
       </c>
       <c r="H23" s="3">
-        <v>817400</v>
+        <v>1256200</v>
       </c>
       <c r="I23" s="3">
-        <v>1339100</v>
+        <v>873000</v>
       </c>
       <c r="J23" s="3">
+        <v>1430100</v>
+      </c>
+      <c r="K23" s="3">
         <v>803000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>609400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>888300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>630600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>776400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-848200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1108500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-267600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>80900</v>
+        <v>15400</v>
       </c>
       <c r="E24" s="3">
-        <v>354400</v>
+        <v>86400</v>
       </c>
       <c r="F24" s="3">
-        <v>376600</v>
+        <v>378500</v>
       </c>
       <c r="G24" s="3">
-        <v>447500</v>
+        <v>402200</v>
       </c>
       <c r="H24" s="3">
-        <v>268000</v>
+        <v>477900</v>
       </c>
       <c r="I24" s="3">
-        <v>460800</v>
+        <v>286300</v>
       </c>
       <c r="J24" s="3">
+        <v>492100</v>
+      </c>
+      <c r="K24" s="3">
         <v>366600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>306300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>305200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>159300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>166100</v>
-      </c>
-      <c r="O24" s="3">
-        <v>193000</v>
       </c>
       <c r="P24" s="3">
         <v>193000</v>
       </c>
       <c r="Q24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="R24" s="3">
         <v>120900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-75300</v>
+        <v>67400</v>
       </c>
       <c r="E26" s="3">
-        <v>507300</v>
+        <v>-80400</v>
       </c>
       <c r="F26" s="3">
-        <v>592600</v>
+        <v>541800</v>
       </c>
       <c r="G26" s="3">
-        <v>728800</v>
+        <v>632900</v>
       </c>
       <c r="H26" s="3">
-        <v>549400</v>
+        <v>778300</v>
       </c>
       <c r="I26" s="3">
-        <v>878300</v>
+        <v>586700</v>
       </c>
       <c r="J26" s="3">
+        <v>938000</v>
+      </c>
+      <c r="K26" s="3">
         <v>436400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>303000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>583000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>471200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>610400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>915500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-388500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-176100</v>
+        <v>28400</v>
       </c>
       <c r="E27" s="3">
-        <v>393200</v>
+        <v>-188100</v>
       </c>
       <c r="F27" s="3">
-        <v>470700</v>
+        <v>419900</v>
       </c>
       <c r="G27" s="3">
-        <v>601400</v>
+        <v>502700</v>
       </c>
       <c r="H27" s="3">
-        <v>392100</v>
+        <v>642300</v>
       </c>
       <c r="I27" s="3">
-        <v>673400</v>
+        <v>418700</v>
       </c>
       <c r="J27" s="3">
+        <v>719200</v>
+      </c>
+      <c r="K27" s="3">
         <v>244800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>222900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>445800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>348900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>491400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>798900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-442500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>52100</v>
+        <v>-56800</v>
       </c>
       <c r="E32" s="3">
-        <v>-125200</v>
+        <v>55600</v>
       </c>
       <c r="F32" s="3">
-        <v>-130700</v>
+        <v>-133700</v>
       </c>
       <c r="G32" s="3">
-        <v>-213800</v>
+        <v>-139600</v>
       </c>
       <c r="H32" s="3">
-        <v>-149500</v>
+        <v>-228300</v>
       </c>
       <c r="I32" s="3">
-        <v>-83100</v>
+        <v>-159700</v>
       </c>
       <c r="J32" s="3">
+        <v>-88700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-154000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-176800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-90000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-25800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-225500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-113300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-149200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-118600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-176100</v>
+        <v>28400</v>
       </c>
       <c r="E33" s="3">
-        <v>393200</v>
+        <v>-188100</v>
       </c>
       <c r="F33" s="3">
-        <v>470700</v>
+        <v>419900</v>
       </c>
       <c r="G33" s="3">
-        <v>601400</v>
+        <v>502700</v>
       </c>
       <c r="H33" s="3">
-        <v>392100</v>
+        <v>642300</v>
       </c>
       <c r="I33" s="3">
-        <v>673400</v>
+        <v>418700</v>
       </c>
       <c r="J33" s="3">
+        <v>719200</v>
+      </c>
+      <c r="K33" s="3">
         <v>244800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>222900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>445800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>348900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>491400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>798900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-442500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-176100</v>
+        <v>28400</v>
       </c>
       <c r="E35" s="3">
-        <v>393200</v>
+        <v>-188100</v>
       </c>
       <c r="F35" s="3">
-        <v>470700</v>
+        <v>419900</v>
       </c>
       <c r="G35" s="3">
-        <v>601400</v>
+        <v>502700</v>
       </c>
       <c r="H35" s="3">
-        <v>392100</v>
+        <v>642300</v>
       </c>
       <c r="I35" s="3">
-        <v>673400</v>
+        <v>418700</v>
       </c>
       <c r="J35" s="3">
+        <v>719200</v>
+      </c>
+      <c r="K35" s="3">
         <v>244800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>222900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>445800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>348900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>491400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>798900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-442500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,458 +2226,486 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3066900</v>
+        <v>6896300</v>
       </c>
       <c r="E41" s="3">
-        <v>3246400</v>
+        <v>3275500</v>
       </c>
       <c r="F41" s="3">
-        <v>3496700</v>
+        <v>3467100</v>
       </c>
       <c r="G41" s="3">
-        <v>4088200</v>
+        <v>3734400</v>
       </c>
       <c r="H41" s="3">
-        <v>4058200</v>
+        <v>4366100</v>
       </c>
       <c r="I41" s="3">
-        <v>4459200</v>
+        <v>4334100</v>
       </c>
       <c r="J41" s="3">
+        <v>4762400</v>
+      </c>
+      <c r="K41" s="3">
         <v>3780200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3213800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4718100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4456500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>5209400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4715700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3504000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2428600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7094200</v>
+        <v>5954700</v>
       </c>
       <c r="E42" s="3">
-        <v>3456800</v>
+        <v>7576500</v>
       </c>
       <c r="F42" s="3">
-        <v>2474400</v>
+        <v>3691800</v>
       </c>
       <c r="G42" s="3">
-        <v>3234200</v>
+        <v>2642600</v>
       </c>
       <c r="H42" s="3">
-        <v>2757900</v>
+        <v>3454100</v>
       </c>
       <c r="I42" s="3">
-        <v>3020400</v>
+        <v>2945400</v>
       </c>
       <c r="J42" s="3">
+        <v>3225800</v>
+      </c>
+      <c r="K42" s="3">
         <v>4229900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2617600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1327500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1279100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1220700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>905400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>821300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1461400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2906300</v>
+        <v>1999100</v>
       </c>
       <c r="E43" s="3">
-        <v>3381500</v>
+        <v>3103900</v>
       </c>
       <c r="F43" s="3">
-        <v>3442400</v>
+        <v>3611400</v>
       </c>
       <c r="G43" s="3">
-        <v>3376000</v>
+        <v>3676500</v>
       </c>
       <c r="H43" s="3">
-        <v>4035000</v>
+        <v>3605500</v>
       </c>
       <c r="I43" s="3">
-        <v>3798000</v>
+        <v>4309300</v>
       </c>
       <c r="J43" s="3">
+        <v>4056200</v>
+      </c>
+      <c r="K43" s="3">
         <v>3196500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2945900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3542100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2825200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2287700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2318000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2921700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2924000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1596100</v>
+        <v>1667900</v>
       </c>
       <c r="E44" s="3">
-        <v>2043500</v>
+        <v>1704600</v>
       </c>
       <c r="F44" s="3">
-        <v>2143200</v>
+        <v>2182500</v>
       </c>
       <c r="G44" s="3">
-        <v>1797600</v>
+        <v>2288900</v>
       </c>
       <c r="H44" s="3">
-        <v>1921700</v>
+        <v>1919800</v>
       </c>
       <c r="I44" s="3">
-        <v>1740000</v>
+        <v>2052300</v>
       </c>
       <c r="J44" s="3">
+        <v>1858300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1845300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1639300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1486700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1686400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1729000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1495600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1647100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1952000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>376600</v>
+        <v>318200</v>
       </c>
       <c r="E45" s="3">
-        <v>330100</v>
+        <v>402200</v>
       </c>
       <c r="F45" s="3">
-        <v>259200</v>
+        <v>352500</v>
       </c>
       <c r="G45" s="3">
-        <v>276900</v>
+        <v>276800</v>
       </c>
       <c r="H45" s="3">
-        <v>305700</v>
+        <v>295700</v>
       </c>
       <c r="I45" s="3">
-        <v>292400</v>
+        <v>326500</v>
       </c>
       <c r="J45" s="3">
+        <v>312300</v>
+      </c>
+      <c r="K45" s="3">
         <v>418700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>424900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>362300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>297300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>269300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>286100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>280500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>232400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>15040100</v>
+        <v>16836200</v>
       </c>
       <c r="E46" s="3">
-        <v>12458300</v>
+        <v>16062600</v>
       </c>
       <c r="F46" s="3">
-        <v>11815900</v>
+        <v>13305300</v>
       </c>
       <c r="G46" s="3">
-        <v>12772800</v>
+        <v>12619200</v>
       </c>
       <c r="H46" s="3">
-        <v>13078500</v>
+        <v>13641200</v>
       </c>
       <c r="I46" s="3">
-        <v>13310000</v>
+        <v>13967700</v>
       </c>
       <c r="J46" s="3">
+        <v>14214900</v>
+      </c>
+      <c r="K46" s="3">
         <v>13470600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10841700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11436800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10544500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10716100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9720900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9174500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8998400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8778800</v>
+        <v>9195900</v>
       </c>
       <c r="E47" s="3">
-        <v>8379000</v>
+        <v>9375700</v>
       </c>
       <c r="F47" s="3">
-        <v>8834200</v>
+        <v>8948600</v>
       </c>
       <c r="G47" s="3">
-        <v>6182600</v>
+        <v>9434800</v>
       </c>
       <c r="H47" s="3">
-        <v>6068500</v>
+        <v>6602900</v>
       </c>
       <c r="I47" s="3">
-        <v>6280100</v>
+        <v>6481100</v>
       </c>
       <c r="J47" s="3">
+        <v>6707000</v>
+      </c>
+      <c r="K47" s="3">
         <v>5998800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5680000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5236400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5466300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>4431900</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4404900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4145800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4468700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>16982800</v>
+        <v>17852300</v>
       </c>
       <c r="E48" s="3">
-        <v>18252100</v>
+        <v>18137400</v>
       </c>
       <c r="F48" s="3">
-        <v>18407200</v>
+        <v>19493000</v>
       </c>
       <c r="G48" s="3">
-        <v>18236600</v>
+        <v>19658600</v>
       </c>
       <c r="H48" s="3">
-        <v>18163500</v>
+        <v>19476400</v>
       </c>
       <c r="I48" s="3">
-        <v>16741400</v>
+        <v>19398400</v>
       </c>
       <c r="J48" s="3">
+        <v>17879500</v>
+      </c>
+      <c r="K48" s="3">
         <v>15679200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15670700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>14865800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15319700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15457700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15748300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16063500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17152900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4279800</v>
+        <v>4567200</v>
       </c>
       <c r="E49" s="3">
-        <v>4610900</v>
+        <v>4570700</v>
       </c>
       <c r="F49" s="3">
-        <v>4705100</v>
+        <v>4924400</v>
       </c>
       <c r="G49" s="3">
-        <v>4560000</v>
+        <v>5025000</v>
       </c>
       <c r="H49" s="3">
-        <v>4674100</v>
+        <v>4870000</v>
       </c>
       <c r="I49" s="3">
-        <v>3673900</v>
+        <v>4991800</v>
       </c>
       <c r="J49" s="3">
+        <v>3923700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3202100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3188600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2882300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2971000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1852400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1867000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1934300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2010700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1823100</v>
+        <v>2262900</v>
       </c>
       <c r="E52" s="3">
-        <v>1019000</v>
+        <v>1947100</v>
       </c>
       <c r="F52" s="3">
-        <v>883900</v>
+        <v>1088300</v>
       </c>
       <c r="G52" s="3">
-        <v>852900</v>
+        <v>944000</v>
       </c>
       <c r="H52" s="3">
-        <v>887200</v>
+        <v>910800</v>
       </c>
       <c r="I52" s="3">
-        <v>932600</v>
+        <v>947500</v>
       </c>
       <c r="J52" s="3">
+        <v>996000</v>
+      </c>
+      <c r="K52" s="3">
         <v>1256000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1408700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1115600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1126500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>935700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1169100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>3635200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>5062600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>46904600</v>
+        <v>50714500</v>
       </c>
       <c r="E54" s="3">
-        <v>44719400</v>
+        <v>50093400</v>
       </c>
       <c r="F54" s="3">
-        <v>44646200</v>
+        <v>47759600</v>
       </c>
       <c r="G54" s="3">
-        <v>42604900</v>
+        <v>47681500</v>
       </c>
       <c r="H54" s="3">
-        <v>42871900</v>
+        <v>45501400</v>
       </c>
       <c r="I54" s="3">
-        <v>40938000</v>
+        <v>45786500</v>
       </c>
       <c r="J54" s="3">
+        <v>43721200</v>
+      </c>
+      <c r="K54" s="3">
         <v>39606700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>36789600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35536800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35428000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33393800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>32910200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34953400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>37693400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,308 +3010,327 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3826800</v>
+        <v>2827100</v>
       </c>
       <c r="E57" s="3">
-        <v>4602100</v>
+        <v>4086900</v>
       </c>
       <c r="F57" s="3">
-        <v>4330700</v>
+        <v>4914900</v>
       </c>
       <c r="G57" s="3">
-        <v>3929800</v>
+        <v>4625100</v>
       </c>
       <c r="H57" s="3">
-        <v>4812500</v>
+        <v>4196900</v>
       </c>
       <c r="I57" s="3">
-        <v>4874500</v>
+        <v>5139700</v>
       </c>
       <c r="J57" s="3">
+        <v>5205900</v>
+      </c>
+      <c r="K57" s="3">
         <v>4101400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3877000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3910000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3659900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3268400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3028300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3460200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4379500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>622500</v>
+        <v>993600</v>
       </c>
       <c r="E58" s="3">
-        <v>894900</v>
+        <v>664800</v>
       </c>
       <c r="F58" s="3">
-        <v>1599400</v>
+        <v>955800</v>
       </c>
       <c r="G58" s="3">
-        <v>1567300</v>
+        <v>1708100</v>
       </c>
       <c r="H58" s="3">
-        <v>1791000</v>
+        <v>1673800</v>
       </c>
       <c r="I58" s="3">
-        <v>933700</v>
+        <v>1912700</v>
       </c>
       <c r="J58" s="3">
+        <v>997200</v>
+      </c>
+      <c r="K58" s="3">
         <v>965800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1001400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1902800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1012000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>274900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>218800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>190700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>305200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>8464300</v>
+        <v>7402600</v>
       </c>
       <c r="E59" s="3">
-        <v>4908900</v>
+        <v>9039700</v>
       </c>
       <c r="F59" s="3">
-        <v>4413800</v>
+        <v>5242600</v>
       </c>
       <c r="G59" s="3">
-        <v>5195800</v>
+        <v>4713900</v>
       </c>
       <c r="H59" s="3">
-        <v>4832500</v>
+        <v>5549000</v>
       </c>
       <c r="I59" s="3">
-        <v>4913300</v>
+        <v>5161000</v>
       </c>
       <c r="J59" s="3">
+        <v>5247300</v>
+      </c>
+      <c r="K59" s="3">
         <v>6182600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4643400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3090900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2986700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2753400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2555900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2606400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3211500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12913500</v>
+        <v>11223400</v>
       </c>
       <c r="E60" s="3">
-        <v>10405900</v>
+        <v>13791400</v>
       </c>
       <c r="F60" s="3">
-        <v>10343900</v>
+        <v>11113300</v>
       </c>
       <c r="G60" s="3">
-        <v>10692800</v>
+        <v>11047100</v>
       </c>
       <c r="H60" s="3">
-        <v>11436000</v>
+        <v>11419700</v>
       </c>
       <c r="I60" s="3">
-        <v>10721600</v>
+        <v>12213400</v>
       </c>
       <c r="J60" s="3">
+        <v>11450500</v>
+      </c>
+      <c r="K60" s="3">
         <v>11249900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>9521900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8903700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>7658700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6296600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5802900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6257300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7896200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>7002200</v>
+        <v>10795100</v>
       </c>
       <c r="E61" s="3">
-        <v>7549400</v>
+        <v>7478300</v>
       </c>
       <c r="F61" s="3">
-        <v>7330100</v>
+        <v>8062600</v>
       </c>
       <c r="G61" s="3">
-        <v>6167100</v>
+        <v>7828400</v>
       </c>
       <c r="H61" s="3">
-        <v>5797200</v>
+        <v>6586400</v>
       </c>
       <c r="I61" s="3">
-        <v>5437200</v>
+        <v>6191300</v>
       </c>
       <c r="J61" s="3">
+        <v>5806900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5052900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5035400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5017900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5375500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5134200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5244200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5276700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5869100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8339100</v>
+        <v>9233700</v>
       </c>
       <c r="E62" s="3">
-        <v>8086600</v>
+        <v>8906100</v>
       </c>
       <c r="F62" s="3">
-        <v>8510800</v>
+        <v>8636400</v>
       </c>
       <c r="G62" s="3">
-        <v>8014600</v>
+        <v>9089400</v>
       </c>
       <c r="H62" s="3">
-        <v>7717800</v>
+        <v>8559500</v>
       </c>
       <c r="I62" s="3">
-        <v>7786400</v>
+        <v>8242400</v>
       </c>
       <c r="J62" s="3">
+        <v>8315800</v>
+      </c>
+      <c r="K62" s="3">
         <v>6928000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6508900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6244300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6311200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>5978000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6342600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7216600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7582800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>32604400</v>
+        <v>35642000</v>
       </c>
       <c r="E66" s="3">
-        <v>30307300</v>
+        <v>34821000</v>
       </c>
       <c r="F66" s="3">
-        <v>30405800</v>
+        <v>32367700</v>
       </c>
       <c r="G66" s="3">
-        <v>29004700</v>
+        <v>32473000</v>
       </c>
       <c r="H66" s="3">
-        <v>29168600</v>
+        <v>30976600</v>
       </c>
       <c r="I66" s="3">
-        <v>27750900</v>
+        <v>31151700</v>
       </c>
       <c r="J66" s="3">
+        <v>29637600</v>
+      </c>
+      <c r="K66" s="3">
         <v>26852700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>24489800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23702500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>22843700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20852200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20777000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22206400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>24881300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>11741700</v>
+        <v>12338800</v>
       </c>
       <c r="E72" s="3">
-        <v>11808100</v>
+        <v>12539900</v>
       </c>
       <c r="F72" s="3">
-        <v>11681900</v>
+        <v>12610900</v>
       </c>
       <c r="G72" s="3">
-        <v>11041700</v>
+        <v>12476000</v>
       </c>
       <c r="H72" s="3">
-        <v>11146900</v>
+        <v>11792300</v>
       </c>
       <c r="I72" s="3">
-        <v>10586400</v>
+        <v>11904700</v>
       </c>
       <c r="J72" s="3">
+        <v>11306200</v>
+      </c>
+      <c r="K72" s="3">
         <v>10196600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9765600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9846900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9714200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9680500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9272100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9885900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9820100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14300200</v>
+        <v>15072500</v>
       </c>
       <c r="E76" s="3">
-        <v>14412100</v>
+        <v>15272400</v>
       </c>
       <c r="F76" s="3">
-        <v>14240400</v>
+        <v>15391900</v>
       </c>
       <c r="G76" s="3">
-        <v>13600200</v>
+        <v>15208500</v>
       </c>
       <c r="H76" s="3">
-        <v>13703200</v>
+        <v>14524800</v>
       </c>
       <c r="I76" s="3">
-        <v>13187100</v>
+        <v>14634800</v>
       </c>
       <c r="J76" s="3">
+        <v>14083600</v>
+      </c>
+      <c r="K76" s="3">
         <v>12754000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12299800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>11834200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12584200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12541600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12133200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12746900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12812100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-176100</v>
+        <v>28400</v>
       </c>
       <c r="E81" s="3">
-        <v>393200</v>
+        <v>-188100</v>
       </c>
       <c r="F81" s="3">
-        <v>470700</v>
+        <v>419900</v>
       </c>
       <c r="G81" s="3">
-        <v>601400</v>
+        <v>502700</v>
       </c>
       <c r="H81" s="3">
-        <v>392100</v>
+        <v>642300</v>
       </c>
       <c r="I81" s="3">
-        <v>673400</v>
+        <v>418700</v>
       </c>
       <c r="J81" s="3">
+        <v>719200</v>
+      </c>
+      <c r="K81" s="3">
         <v>244800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>222900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>445800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>348900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>491400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>798900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-442500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>787500</v>
+        <v>643500</v>
       </c>
       <c r="E83" s="3">
-        <v>719900</v>
+        <v>841000</v>
       </c>
       <c r="F83" s="3">
-        <v>667900</v>
+        <v>768900</v>
       </c>
       <c r="G83" s="3">
-        <v>681200</v>
+        <v>713300</v>
       </c>
       <c r="H83" s="3">
-        <v>622500</v>
+        <v>727500</v>
       </c>
       <c r="I83" s="3">
-        <v>551600</v>
+        <v>664800</v>
       </c>
       <c r="J83" s="3">
+        <v>589100</v>
+      </c>
+      <c r="K83" s="3">
         <v>505100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>529200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>494100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>596900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>548700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>584600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>500400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>1533000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1243800</v>
+        <v>642300</v>
       </c>
       <c r="E89" s="3">
-        <v>1086600</v>
+        <v>1328400</v>
       </c>
       <c r="F89" s="3">
-        <v>1190700</v>
+        <v>1160400</v>
       </c>
       <c r="G89" s="3">
-        <v>1256000</v>
+        <v>1271600</v>
       </c>
       <c r="H89" s="3">
-        <v>959200</v>
+        <v>1341400</v>
       </c>
       <c r="I89" s="3">
-        <v>1235000</v>
+        <v>1024400</v>
       </c>
       <c r="J89" s="3">
+        <v>1318900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1075500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1353800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1181400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>832500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>888600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1110800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1036700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>718400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-646800</v>
+        <v>-501500</v>
       </c>
       <c r="E91" s="3">
-        <v>-670100</v>
+        <v>-690800</v>
       </c>
       <c r="F91" s="3">
-        <v>-601400</v>
+        <v>-715700</v>
       </c>
       <c r="G91" s="3">
-        <v>-544900</v>
+        <v>-642300</v>
       </c>
       <c r="H91" s="3">
-        <v>-573700</v>
+        <v>-582000</v>
       </c>
       <c r="I91" s="3">
-        <v>-629100</v>
+        <v>-612700</v>
       </c>
       <c r="J91" s="3">
+        <v>-671900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-547200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-473200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-571100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-356800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-373600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-478000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-710000</v>
+        <v>-512200</v>
       </c>
       <c r="E94" s="3">
-        <v>-706600</v>
+        <v>-758200</v>
       </c>
       <c r="F94" s="3">
-        <v>-2874200</v>
+        <v>-754700</v>
       </c>
       <c r="G94" s="3">
-        <v>-459700</v>
+        <v>-3069600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1096500</v>
+        <v>-490900</v>
       </c>
       <c r="I94" s="3">
-        <v>-829600</v>
+        <v>-1171100</v>
       </c>
       <c r="J94" s="3">
+        <v>-886000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-495100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-590700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-352300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>379200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>445400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-206600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,58 +4848,62 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-260200</v>
       </c>
       <c r="E96" s="3">
-        <v>109700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>117100</v>
       </c>
       <c r="G96" s="3">
-        <v>-855100</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-913200</v>
       </c>
       <c r="I96" s="3">
-        <v>79700</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>85200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-760900</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>59500</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-653000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-99800</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-671200</v>
+        <v>3483600</v>
       </c>
       <c r="E100" s="3">
-        <v>-608100</v>
+        <v>-716800</v>
       </c>
       <c r="F100" s="3">
-        <v>1097600</v>
+        <v>-649400</v>
       </c>
       <c r="G100" s="3">
-        <v>-770900</v>
+        <v>1172300</v>
       </c>
       <c r="H100" s="3">
-        <v>-254700</v>
+        <v>-823300</v>
       </c>
       <c r="I100" s="3">
-        <v>270300</v>
+        <v>-272100</v>
       </c>
       <c r="J100" s="3">
+        <v>288600</v>
+      </c>
+      <c r="K100" s="3">
         <v>-39900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-232800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>886400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-31400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-682200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-142500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>191300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-42100</v>
+        <v>1200</v>
       </c>
       <c r="E101" s="3">
-        <v>-14400</v>
+        <v>-45000</v>
       </c>
       <c r="F101" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="H101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K101" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="L101" s="3">
         <v>-5500</v>
       </c>
-      <c r="G101" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="I101" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-7700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7900</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-11200</v>
       </c>
       <c r="O101" s="3">
         <v>-11200</v>
       </c>
       <c r="P101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-16800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-39900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-179400</v>
+        <v>3614900</v>
       </c>
       <c r="E102" s="3">
-        <v>-242600</v>
+        <v>-191600</v>
       </c>
       <c r="F102" s="3">
-        <v>-591500</v>
+        <v>-259100</v>
       </c>
       <c r="G102" s="3">
-        <v>31000</v>
+        <v>-631700</v>
       </c>
       <c r="H102" s="3">
-        <v>-402100</v>
+        <v>33100</v>
       </c>
       <c r="I102" s="3">
-        <v>677900</v>
+        <v>-429400</v>
       </c>
       <c r="J102" s="3">
+        <v>723900</v>
+      </c>
+      <c r="K102" s="3">
         <v>527200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>350300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-742800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>493700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>796600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1322800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>663200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3711900</v>
+        <v>4421200</v>
       </c>
       <c r="E8" s="3">
-        <v>5630600</v>
+        <v>3753700</v>
       </c>
       <c r="F8" s="3">
-        <v>7184900</v>
+        <v>5693900</v>
       </c>
       <c r="G8" s="3">
-        <v>7037100</v>
+        <v>7265700</v>
       </c>
       <c r="H8" s="3">
-        <v>7138800</v>
+        <v>7116200</v>
       </c>
       <c r="I8" s="3">
-        <v>6391200</v>
+        <v>7219100</v>
       </c>
       <c r="J8" s="3">
+        <v>6463100</v>
+      </c>
+      <c r="K8" s="3">
         <v>7854500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6210300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6265200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5464700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5504500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5212800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5780500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6191100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6346800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2397700</v>
+        <v>2893600</v>
       </c>
       <c r="E9" s="3">
-        <v>4020700</v>
+        <v>2424700</v>
       </c>
       <c r="F9" s="3">
-        <v>4749300</v>
+        <v>4065900</v>
       </c>
       <c r="G9" s="3">
-        <v>4534100</v>
+        <v>4802700</v>
       </c>
       <c r="H9" s="3">
-        <v>4562400</v>
+        <v>4585000</v>
       </c>
       <c r="I9" s="3">
-        <v>4254900</v>
+        <v>4613700</v>
       </c>
       <c r="J9" s="3">
+        <v>4302700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5203600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4239900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4662100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3530100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3775500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3518600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4149100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4238900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6463000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1314200</v>
+        <v>1527500</v>
       </c>
       <c r="E10" s="3">
-        <v>1609900</v>
+        <v>1329000</v>
       </c>
       <c r="F10" s="3">
-        <v>2435600</v>
+        <v>1628000</v>
       </c>
       <c r="G10" s="3">
-        <v>2503000</v>
+        <v>2463000</v>
       </c>
       <c r="H10" s="3">
-        <v>2576400</v>
+        <v>2531200</v>
       </c>
       <c r="I10" s="3">
-        <v>2136300</v>
+        <v>2605300</v>
       </c>
       <c r="J10" s="3">
+        <v>2160300</v>
+      </c>
+      <c r="K10" s="3">
         <v>2650900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1970400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1603100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1934700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1729000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1694200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1631400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1952300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-116200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>98200</v>
+        <v>777500</v>
       </c>
       <c r="E12" s="3">
-        <v>140800</v>
+        <v>99300</v>
       </c>
       <c r="F12" s="3">
-        <v>86400</v>
+        <v>142300</v>
       </c>
       <c r="G12" s="3">
-        <v>45000</v>
+        <v>87300</v>
       </c>
       <c r="H12" s="3">
-        <v>84000</v>
+        <v>45500</v>
       </c>
       <c r="I12" s="3">
-        <v>54400</v>
+        <v>84900</v>
       </c>
       <c r="J12" s="3">
+        <v>55000</v>
+      </c>
+      <c r="K12" s="3">
         <v>71000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>27700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>58200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>40600</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>107700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>39300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>65100</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>35900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>83300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1051,91 +1071,97 @@
       <c r="I14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
         <v>-158500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>165000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-68100</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-3400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-2200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1362100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-153700</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>582000</v>
+        <v>1136400</v>
       </c>
       <c r="E15" s="3">
-        <v>748800</v>
+        <v>588500</v>
       </c>
       <c r="F15" s="3">
-        <v>738100</v>
+        <v>757200</v>
       </c>
       <c r="G15" s="3">
-        <v>694400</v>
+        <v>746400</v>
       </c>
       <c r="H15" s="3">
-        <v>681400</v>
+        <v>702200</v>
       </c>
       <c r="I15" s="3">
-        <v>649400</v>
+        <v>689000</v>
       </c>
       <c r="J15" s="3">
+        <v>656700</v>
+      </c>
+      <c r="K15" s="3">
         <v>553600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>495100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>516100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>486400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>511600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>538600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>518400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>509400</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3611400</v>
+        <v>5198700</v>
       </c>
       <c r="E17" s="3">
-        <v>5480400</v>
+        <v>3652000</v>
       </c>
       <c r="F17" s="3">
-        <v>6312000</v>
+        <v>5542000</v>
       </c>
       <c r="G17" s="3">
-        <v>6049400</v>
+        <v>6382900</v>
       </c>
       <c r="H17" s="3">
-        <v>6019800</v>
+        <v>6117400</v>
       </c>
       <c r="I17" s="3">
-        <v>5589200</v>
+        <v>6087500</v>
       </c>
       <c r="J17" s="3">
+        <v>5652000</v>
+      </c>
+      <c r="K17" s="3">
         <v>6430200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5483700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5738100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4596200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4899700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4581100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6672500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5163400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6659000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>100500</v>
+        <v>-777500</v>
       </c>
       <c r="E18" s="3">
-        <v>150200</v>
+        <v>101700</v>
       </c>
       <c r="F18" s="3">
-        <v>873000</v>
+        <v>151900</v>
       </c>
       <c r="G18" s="3">
-        <v>987700</v>
+        <v>882800</v>
       </c>
       <c r="H18" s="3">
-        <v>1119000</v>
+        <v>998800</v>
       </c>
       <c r="I18" s="3">
-        <v>802000</v>
+        <v>1131600</v>
       </c>
       <c r="J18" s="3">
+        <v>811000</v>
+      </c>
+      <c r="K18" s="3">
         <v>1424200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>726600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>527000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>868500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>604800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>631700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-892000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1027700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-312200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>56800</v>
+        <v>65800</v>
       </c>
       <c r="E20" s="3">
-        <v>-55600</v>
+        <v>57400</v>
       </c>
       <c r="F20" s="3">
-        <v>133700</v>
+        <v>-56200</v>
       </c>
       <c r="G20" s="3">
-        <v>139600</v>
+        <v>135200</v>
       </c>
       <c r="H20" s="3">
-        <v>228300</v>
+        <v>141200</v>
       </c>
       <c r="I20" s="3">
-        <v>159700</v>
+        <v>230900</v>
       </c>
       <c r="J20" s="3">
+        <v>161500</v>
+      </c>
+      <c r="K20" s="3">
         <v>88700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>154000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>176800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>90000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>25800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>225500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>113300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>149200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>118600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>800800</v>
+        <v>941400</v>
       </c>
       <c r="E21" s="3">
-        <v>935700</v>
+        <v>809800</v>
       </c>
       <c r="F21" s="3">
-        <v>1775500</v>
+        <v>946200</v>
       </c>
       <c r="G21" s="3">
-        <v>1840600</v>
+        <v>1795500</v>
       </c>
       <c r="H21" s="3">
-        <v>2074800</v>
+        <v>1861300</v>
       </c>
       <c r="I21" s="3">
-        <v>1626500</v>
+        <v>2098100</v>
       </c>
       <c r="J21" s="3">
+        <v>1644800</v>
+      </c>
+      <c r="K21" s="3">
         <v>2102000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1385600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1233100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1452700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1227500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1405900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-194100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1677400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1205500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>74500</v>
+        <v>84900</v>
       </c>
       <c r="E22" s="3">
-        <v>88700</v>
+        <v>75400</v>
       </c>
       <c r="F22" s="3">
-        <v>86400</v>
+        <v>89700</v>
       </c>
       <c r="G22" s="3">
-        <v>92300</v>
+        <v>87300</v>
       </c>
       <c r="H22" s="3">
-        <v>91100</v>
+        <v>93300</v>
       </c>
       <c r="I22" s="3">
-        <v>88700</v>
+        <v>92100</v>
       </c>
       <c r="J22" s="3">
+        <v>89700</v>
+      </c>
+      <c r="K22" s="3">
         <v>82800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>77500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>94400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70300</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>80800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>69600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>68400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>74000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>82800</v>
+        <v>-796700</v>
       </c>
       <c r="E23" s="3">
-        <v>5900</v>
+        <v>83700</v>
       </c>
       <c r="F23" s="3">
-        <v>920300</v>
+        <v>6000</v>
       </c>
       <c r="G23" s="3">
-        <v>1035000</v>
+        <v>930600</v>
       </c>
       <c r="H23" s="3">
-        <v>1256200</v>
+        <v>1046700</v>
       </c>
       <c r="I23" s="3">
-        <v>873000</v>
+        <v>1270400</v>
       </c>
       <c r="J23" s="3">
+        <v>882800</v>
+      </c>
+      <c r="K23" s="3">
         <v>1430100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>803000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>609400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>888300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>630600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>776400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-848200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1108500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-267600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>15400</v>
+        <v>-250000</v>
       </c>
       <c r="E24" s="3">
-        <v>86400</v>
+        <v>15600</v>
       </c>
       <c r="F24" s="3">
-        <v>378500</v>
+        <v>87300</v>
       </c>
       <c r="G24" s="3">
-        <v>402200</v>
+        <v>382800</v>
       </c>
       <c r="H24" s="3">
-        <v>477900</v>
+        <v>406700</v>
       </c>
       <c r="I24" s="3">
-        <v>286300</v>
+        <v>483300</v>
       </c>
       <c r="J24" s="3">
+        <v>289500</v>
+      </c>
+      <c r="K24" s="3">
         <v>492100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>366600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>306300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>305200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>159300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>166100</v>
-      </c>
-      <c r="P24" s="3">
-        <v>193000</v>
       </c>
       <c r="Q24" s="3">
         <v>193000</v>
       </c>
       <c r="R24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="S24" s="3">
         <v>120900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>67400</v>
+        <v>-546700</v>
       </c>
       <c r="E26" s="3">
-        <v>-80400</v>
+        <v>68200</v>
       </c>
       <c r="F26" s="3">
-        <v>541800</v>
+        <v>-81300</v>
       </c>
       <c r="G26" s="3">
-        <v>632900</v>
+        <v>547900</v>
       </c>
       <c r="H26" s="3">
-        <v>778300</v>
+        <v>640000</v>
       </c>
       <c r="I26" s="3">
-        <v>586700</v>
+        <v>787100</v>
       </c>
       <c r="J26" s="3">
+        <v>593300</v>
+      </c>
+      <c r="K26" s="3">
         <v>938000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>436400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>303000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>583000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>471200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>610400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>915500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-388500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>28400</v>
+        <v>-582500</v>
       </c>
       <c r="E27" s="3">
-        <v>-188100</v>
+        <v>28700</v>
       </c>
       <c r="F27" s="3">
-        <v>419900</v>
+        <v>-190200</v>
       </c>
       <c r="G27" s="3">
-        <v>502700</v>
+        <v>424700</v>
       </c>
       <c r="H27" s="3">
-        <v>642300</v>
+        <v>508400</v>
       </c>
       <c r="I27" s="3">
-        <v>418700</v>
+        <v>649500</v>
       </c>
       <c r="J27" s="3">
+        <v>423500</v>
+      </c>
+      <c r="K27" s="3">
         <v>719200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>244800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>222900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>445800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>348900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>491400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>798900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-442500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-56800</v>
+        <v>-65800</v>
       </c>
       <c r="E32" s="3">
-        <v>55600</v>
+        <v>-57400</v>
       </c>
       <c r="F32" s="3">
-        <v>-133700</v>
+        <v>56200</v>
       </c>
       <c r="G32" s="3">
-        <v>-139600</v>
+        <v>-135200</v>
       </c>
       <c r="H32" s="3">
-        <v>-228300</v>
+        <v>-141200</v>
       </c>
       <c r="I32" s="3">
-        <v>-159700</v>
+        <v>-230900</v>
       </c>
       <c r="J32" s="3">
+        <v>-161500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-88700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-154000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-176800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-90000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-25800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-225500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-113300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-149200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-118600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>28400</v>
+        <v>-582500</v>
       </c>
       <c r="E33" s="3">
-        <v>-188100</v>
+        <v>28700</v>
       </c>
       <c r="F33" s="3">
-        <v>419900</v>
+        <v>-190200</v>
       </c>
       <c r="G33" s="3">
-        <v>502700</v>
+        <v>424700</v>
       </c>
       <c r="H33" s="3">
-        <v>642300</v>
+        <v>508400</v>
       </c>
       <c r="I33" s="3">
-        <v>418700</v>
+        <v>649500</v>
       </c>
       <c r="J33" s="3">
+        <v>423500</v>
+      </c>
+      <c r="K33" s="3">
         <v>719200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>244800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>222900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>445800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>348900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>491400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>798900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-442500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>28400</v>
+        <v>-582500</v>
       </c>
       <c r="E35" s="3">
-        <v>-188100</v>
+        <v>28700</v>
       </c>
       <c r="F35" s="3">
-        <v>419900</v>
+        <v>-190200</v>
       </c>
       <c r="G35" s="3">
-        <v>502700</v>
+        <v>424700</v>
       </c>
       <c r="H35" s="3">
-        <v>642300</v>
+        <v>508400</v>
       </c>
       <c r="I35" s="3">
-        <v>418700</v>
+        <v>649500</v>
       </c>
       <c r="J35" s="3">
+        <v>423500</v>
+      </c>
+      <c r="K35" s="3">
         <v>719200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>244800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>222900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>445800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>348900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>491400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>798900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-442500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,485 +2313,513 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6896300</v>
+        <v>8769300</v>
       </c>
       <c r="E41" s="3">
-        <v>3275500</v>
+        <v>6973800</v>
       </c>
       <c r="F41" s="3">
-        <v>3467100</v>
+        <v>3312300</v>
       </c>
       <c r="G41" s="3">
-        <v>3734400</v>
+        <v>3506100</v>
       </c>
       <c r="H41" s="3">
-        <v>4366100</v>
+        <v>3776400</v>
       </c>
       <c r="I41" s="3">
-        <v>4334100</v>
+        <v>4415200</v>
       </c>
       <c r="J41" s="3">
+        <v>4382900</v>
+      </c>
+      <c r="K41" s="3">
         <v>4762400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3780200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3213800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4718100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4456500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>5209400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4715700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3504000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2428600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>5954700</v>
+        <v>3793200</v>
       </c>
       <c r="E42" s="3">
-        <v>7576500</v>
+        <v>6021700</v>
       </c>
       <c r="F42" s="3">
-        <v>3691800</v>
+        <v>7661700</v>
       </c>
       <c r="G42" s="3">
-        <v>2642600</v>
+        <v>3733300</v>
       </c>
       <c r="H42" s="3">
-        <v>3454100</v>
+        <v>2672300</v>
       </c>
       <c r="I42" s="3">
-        <v>2945400</v>
+        <v>3492900</v>
       </c>
       <c r="J42" s="3">
+        <v>2978500</v>
+      </c>
+      <c r="K42" s="3">
         <v>3225800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>4229900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2617600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1327500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1279100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1220700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>905400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>821300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1461400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1999100</v>
+        <v>2238100</v>
       </c>
       <c r="E43" s="3">
-        <v>3103900</v>
+        <v>2021600</v>
       </c>
       <c r="F43" s="3">
-        <v>3611400</v>
+        <v>3138800</v>
       </c>
       <c r="G43" s="3">
-        <v>3676500</v>
+        <v>3652000</v>
       </c>
       <c r="H43" s="3">
-        <v>3605500</v>
+        <v>3717800</v>
       </c>
       <c r="I43" s="3">
-        <v>4309300</v>
+        <v>3646000</v>
       </c>
       <c r="J43" s="3">
+        <v>4357800</v>
+      </c>
+      <c r="K43" s="3">
         <v>4056200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3196500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2945900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3542100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2825200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2287700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2318000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2921700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2924000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1667900</v>
+        <v>1776400</v>
       </c>
       <c r="E44" s="3">
-        <v>1704600</v>
+        <v>1686600</v>
       </c>
       <c r="F44" s="3">
-        <v>2182500</v>
+        <v>1723700</v>
       </c>
       <c r="G44" s="3">
-        <v>2288900</v>
+        <v>2207000</v>
       </c>
       <c r="H44" s="3">
-        <v>1919800</v>
+        <v>2314600</v>
       </c>
       <c r="I44" s="3">
-        <v>2052300</v>
+        <v>1941400</v>
       </c>
       <c r="J44" s="3">
+        <v>2075400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1858300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1845300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1639300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1486700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1686400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1729000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1495600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1647100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1952000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>318200</v>
+        <v>314600</v>
       </c>
       <c r="E45" s="3">
-        <v>402200</v>
+        <v>321800</v>
       </c>
       <c r="F45" s="3">
-        <v>352500</v>
+        <v>406700</v>
       </c>
       <c r="G45" s="3">
-        <v>276800</v>
+        <v>356500</v>
       </c>
       <c r="H45" s="3">
-        <v>295700</v>
+        <v>279900</v>
       </c>
       <c r="I45" s="3">
-        <v>326500</v>
+        <v>299100</v>
       </c>
       <c r="J45" s="3">
+        <v>330200</v>
+      </c>
+      <c r="K45" s="3">
         <v>312300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>418700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>424900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>362300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>297300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>269300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>286100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>280500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>232400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16836200</v>
+        <v>16891500</v>
       </c>
       <c r="E46" s="3">
-        <v>16062600</v>
+        <v>17025500</v>
       </c>
       <c r="F46" s="3">
-        <v>13305300</v>
+        <v>16243200</v>
       </c>
       <c r="G46" s="3">
-        <v>12619200</v>
+        <v>13454900</v>
       </c>
       <c r="H46" s="3">
-        <v>13641200</v>
+        <v>12761100</v>
       </c>
       <c r="I46" s="3">
-        <v>13967700</v>
+        <v>13794600</v>
       </c>
       <c r="J46" s="3">
+        <v>14124700</v>
+      </c>
+      <c r="K46" s="3">
         <v>14214900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13470600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10841700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11436800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10544500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10716100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9720900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9174500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8998400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9195900</v>
+        <v>8952400</v>
       </c>
       <c r="E47" s="3">
-        <v>9375700</v>
+        <v>9299300</v>
       </c>
       <c r="F47" s="3">
-        <v>8948600</v>
+        <v>9481100</v>
       </c>
       <c r="G47" s="3">
-        <v>9434800</v>
+        <v>9049300</v>
       </c>
       <c r="H47" s="3">
-        <v>6602900</v>
+        <v>9540900</v>
       </c>
       <c r="I47" s="3">
-        <v>6481100</v>
+        <v>6677200</v>
       </c>
       <c r="J47" s="3">
+        <v>6554000</v>
+      </c>
+      <c r="K47" s="3">
         <v>6707000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>5998800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5680000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5236400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5466300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>4431900</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4404900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4145800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4468700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17852300</v>
+        <v>17196600</v>
       </c>
       <c r="E48" s="3">
-        <v>18137400</v>
+        <v>18053100</v>
       </c>
       <c r="F48" s="3">
-        <v>19493000</v>
+        <v>18341300</v>
       </c>
       <c r="G48" s="3">
-        <v>19658600</v>
+        <v>19712200</v>
       </c>
       <c r="H48" s="3">
-        <v>19476400</v>
+        <v>19879600</v>
       </c>
       <c r="I48" s="3">
-        <v>19398400</v>
+        <v>19695400</v>
       </c>
       <c r="J48" s="3">
+        <v>19616500</v>
+      </c>
+      <c r="K48" s="3">
         <v>17879500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>15679200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15670700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>14865800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15319700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15457700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15748300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16063500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17152900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4567200</v>
+        <v>3677100</v>
       </c>
       <c r="E49" s="3">
-        <v>4570700</v>
+        <v>4618500</v>
       </c>
       <c r="F49" s="3">
-        <v>4924400</v>
+        <v>4622100</v>
       </c>
       <c r="G49" s="3">
-        <v>5025000</v>
+        <v>4979800</v>
       </c>
       <c r="H49" s="3">
-        <v>4870000</v>
+        <v>5081500</v>
       </c>
       <c r="I49" s="3">
-        <v>4991800</v>
+        <v>4924800</v>
       </c>
       <c r="J49" s="3">
+        <v>5048000</v>
+      </c>
+      <c r="K49" s="3">
         <v>3923700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3202100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3188600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>2882300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2971000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>1852400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1867000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1934300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2010700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2262900</v>
+        <v>2419900</v>
       </c>
       <c r="E52" s="3">
-        <v>1947100</v>
+        <v>2288300</v>
       </c>
       <c r="F52" s="3">
-        <v>1088300</v>
+        <v>1968900</v>
       </c>
       <c r="G52" s="3">
-        <v>944000</v>
+        <v>1100500</v>
       </c>
       <c r="H52" s="3">
-        <v>910800</v>
+        <v>954600</v>
       </c>
       <c r="I52" s="3">
-        <v>947500</v>
+        <v>921100</v>
       </c>
       <c r="J52" s="3">
+        <v>958200</v>
+      </c>
+      <c r="K52" s="3">
         <v>996000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1256000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1408700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1115600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1126500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>935700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1169100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>3635200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>5062600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>50714500</v>
+        <v>49137500</v>
       </c>
       <c r="E54" s="3">
-        <v>50093400</v>
+        <v>51284700</v>
       </c>
       <c r="F54" s="3">
-        <v>47759600</v>
+        <v>50656700</v>
       </c>
       <c r="G54" s="3">
-        <v>47681500</v>
+        <v>48296600</v>
       </c>
       <c r="H54" s="3">
-        <v>45501400</v>
+        <v>48217600</v>
       </c>
       <c r="I54" s="3">
-        <v>45786500</v>
+        <v>46013000</v>
       </c>
       <c r="J54" s="3">
+        <v>46301300</v>
+      </c>
+      <c r="K54" s="3">
         <v>43721200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>39606700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>36789600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>35536800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35428000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33393800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>32910200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34953400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>37693400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3141,345 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2827100</v>
+        <v>3074200</v>
       </c>
       <c r="E57" s="3">
-        <v>4086900</v>
+        <v>2858900</v>
       </c>
       <c r="F57" s="3">
-        <v>4914900</v>
+        <v>4132900</v>
       </c>
       <c r="G57" s="3">
-        <v>4625100</v>
+        <v>4970200</v>
       </c>
       <c r="H57" s="3">
-        <v>4196900</v>
+        <v>4677100</v>
       </c>
       <c r="I57" s="3">
-        <v>5139700</v>
+        <v>4244100</v>
       </c>
       <c r="J57" s="3">
+        <v>5197500</v>
+      </c>
+      <c r="K57" s="3">
         <v>5205900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4101400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3877000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3910000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3659900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3268400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3028300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3460200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4379500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>993600</v>
+        <v>985700</v>
       </c>
       <c r="E58" s="3">
-        <v>664800</v>
+        <v>1004800</v>
       </c>
       <c r="F58" s="3">
-        <v>955800</v>
+        <v>672300</v>
       </c>
       <c r="G58" s="3">
-        <v>1708100</v>
+        <v>966500</v>
       </c>
       <c r="H58" s="3">
-        <v>1673800</v>
+        <v>1727300</v>
       </c>
       <c r="I58" s="3">
-        <v>1912700</v>
+        <v>1692600</v>
       </c>
       <c r="J58" s="3">
+        <v>1934300</v>
+      </c>
+      <c r="K58" s="3">
         <v>997200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>965800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1001400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1902800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1012000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>274900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>218800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>190700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>305200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>7402600</v>
+        <v>6270500</v>
       </c>
       <c r="E59" s="3">
-        <v>9039700</v>
+        <v>7485800</v>
       </c>
       <c r="F59" s="3">
-        <v>5242600</v>
+        <v>9141400</v>
       </c>
       <c r="G59" s="3">
-        <v>4713900</v>
+        <v>5301600</v>
       </c>
       <c r="H59" s="3">
-        <v>5549000</v>
+        <v>4766900</v>
       </c>
       <c r="I59" s="3">
-        <v>5161000</v>
+        <v>5611400</v>
       </c>
       <c r="J59" s="3">
+        <v>5219000</v>
+      </c>
+      <c r="K59" s="3">
         <v>5247300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6182600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4643400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3090900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2986700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2753400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2555900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2606400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>3211500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>11223400</v>
+        <v>10330400</v>
       </c>
       <c r="E60" s="3">
-        <v>13791400</v>
+        <v>11349500</v>
       </c>
       <c r="F60" s="3">
-        <v>11113300</v>
+        <v>13946500</v>
       </c>
       <c r="G60" s="3">
-        <v>11047100</v>
+        <v>11238300</v>
       </c>
       <c r="H60" s="3">
-        <v>11419700</v>
+        <v>11171300</v>
       </c>
       <c r="I60" s="3">
-        <v>12213400</v>
+        <v>11548100</v>
       </c>
       <c r="J60" s="3">
+        <v>12350800</v>
+      </c>
+      <c r="K60" s="3">
         <v>11450500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11249900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>9521900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>8903700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7658700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6296600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5802900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6257300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7896200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10795100</v>
+        <v>10865100</v>
       </c>
       <c r="E61" s="3">
-        <v>7478300</v>
+        <v>10916500</v>
       </c>
       <c r="F61" s="3">
-        <v>8062600</v>
+        <v>7562400</v>
       </c>
       <c r="G61" s="3">
-        <v>7828400</v>
+        <v>8153300</v>
       </c>
       <c r="H61" s="3">
-        <v>6586400</v>
+        <v>7916500</v>
       </c>
       <c r="I61" s="3">
-        <v>6191300</v>
+        <v>6660400</v>
       </c>
       <c r="J61" s="3">
+        <v>6260900</v>
+      </c>
+      <c r="K61" s="3">
         <v>5806900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5052900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5035400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5017900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5375500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5134200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5244200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5276700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5869100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9233700</v>
+        <v>8800400</v>
       </c>
       <c r="E62" s="3">
-        <v>8906100</v>
+        <v>9337500</v>
       </c>
       <c r="F62" s="3">
-        <v>8636400</v>
+        <v>9006200</v>
       </c>
       <c r="G62" s="3">
-        <v>9089400</v>
+        <v>8733500</v>
       </c>
       <c r="H62" s="3">
-        <v>8559500</v>
+        <v>9191600</v>
       </c>
       <c r="I62" s="3">
-        <v>8242400</v>
+        <v>8655700</v>
       </c>
       <c r="J62" s="3">
+        <v>8335100</v>
+      </c>
+      <c r="K62" s="3">
         <v>8315800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>6928000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6508900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6244300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6311200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>5978000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6342600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7216600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7582800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>35642000</v>
+        <v>34393100</v>
       </c>
       <c r="E66" s="3">
-        <v>34821000</v>
+        <v>36042700</v>
       </c>
       <c r="F66" s="3">
-        <v>32367700</v>
+        <v>35212500</v>
       </c>
       <c r="G66" s="3">
-        <v>32473000</v>
+        <v>32731600</v>
       </c>
       <c r="H66" s="3">
-        <v>30976600</v>
+        <v>32838100</v>
       </c>
       <c r="I66" s="3">
-        <v>31151700</v>
+        <v>31324900</v>
       </c>
       <c r="J66" s="3">
+        <v>31501900</v>
+      </c>
+      <c r="K66" s="3">
         <v>29637600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>26852700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>24489800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23702500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>22843700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20852200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20777000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22206400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>24881300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12338800</v>
+        <v>10495500</v>
       </c>
       <c r="E72" s="3">
-        <v>12539900</v>
+        <v>12477600</v>
       </c>
       <c r="F72" s="3">
-        <v>12610900</v>
+        <v>12680900</v>
       </c>
       <c r="G72" s="3">
-        <v>12476000</v>
+        <v>12752700</v>
       </c>
       <c r="H72" s="3">
-        <v>11792300</v>
+        <v>12616300</v>
       </c>
       <c r="I72" s="3">
-        <v>11904700</v>
+        <v>11924900</v>
       </c>
       <c r="J72" s="3">
+        <v>12038600</v>
+      </c>
+      <c r="K72" s="3">
         <v>11306200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>10196600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>9765600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9846900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9714200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9680500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9272100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9885900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9820100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>15072500</v>
+        <v>14744400</v>
       </c>
       <c r="E76" s="3">
-        <v>15272400</v>
+        <v>15242000</v>
       </c>
       <c r="F76" s="3">
-        <v>15391900</v>
+        <v>15444100</v>
       </c>
       <c r="G76" s="3">
-        <v>15208500</v>
+        <v>15565000</v>
       </c>
       <c r="H76" s="3">
-        <v>14524800</v>
+        <v>15379500</v>
       </c>
       <c r="I76" s="3">
-        <v>14634800</v>
+        <v>14688100</v>
       </c>
       <c r="J76" s="3">
+        <v>14799400</v>
+      </c>
+      <c r="K76" s="3">
         <v>14083600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12754000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12299800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>11834200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12584200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12541600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12133200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12746900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12812100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>28400</v>
+        <v>-582500</v>
       </c>
       <c r="E81" s="3">
-        <v>-188100</v>
+        <v>28700</v>
       </c>
       <c r="F81" s="3">
-        <v>419900</v>
+        <v>-190200</v>
       </c>
       <c r="G81" s="3">
-        <v>502700</v>
+        <v>424700</v>
       </c>
       <c r="H81" s="3">
-        <v>642300</v>
+        <v>508400</v>
       </c>
       <c r="I81" s="3">
-        <v>418700</v>
+        <v>649500</v>
       </c>
       <c r="J81" s="3">
+        <v>423500</v>
+      </c>
+      <c r="K81" s="3">
         <v>719200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>244800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>222900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>445800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>348900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>491400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>798900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-442500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>643500</v>
+        <v>1653100</v>
       </c>
       <c r="E83" s="3">
-        <v>841000</v>
+        <v>650700</v>
       </c>
       <c r="F83" s="3">
-        <v>768900</v>
+        <v>850500</v>
       </c>
       <c r="G83" s="3">
-        <v>713300</v>
+        <v>777500</v>
       </c>
       <c r="H83" s="3">
-        <v>727500</v>
+        <v>721300</v>
       </c>
       <c r="I83" s="3">
-        <v>664800</v>
+        <v>735700</v>
       </c>
       <c r="J83" s="3">
+        <v>672300</v>
+      </c>
+      <c r="K83" s="3">
         <v>589100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>505100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>529200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>494100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>596900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>548700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>584600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>500400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>1533000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>642300</v>
+        <v>947400</v>
       </c>
       <c r="E89" s="3">
-        <v>1328400</v>
+        <v>649500</v>
       </c>
       <c r="F89" s="3">
-        <v>1160400</v>
+        <v>1343300</v>
       </c>
       <c r="G89" s="3">
-        <v>1271600</v>
+        <v>1173500</v>
       </c>
       <c r="H89" s="3">
-        <v>1341400</v>
+        <v>1285900</v>
       </c>
       <c r="I89" s="3">
-        <v>1024400</v>
+        <v>1356500</v>
       </c>
       <c r="J89" s="3">
+        <v>1035900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1318900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1075500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1353800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1181400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>832500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>888600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1110800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1036700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>718400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-501500</v>
+        <v>-464100</v>
       </c>
       <c r="E91" s="3">
-        <v>-690800</v>
+        <v>-507200</v>
       </c>
       <c r="F91" s="3">
-        <v>-715700</v>
+        <v>-698600</v>
       </c>
       <c r="G91" s="3">
-        <v>-642300</v>
+        <v>-723700</v>
       </c>
       <c r="H91" s="3">
-        <v>-582000</v>
+        <v>-649500</v>
       </c>
       <c r="I91" s="3">
-        <v>-612700</v>
+        <v>-588500</v>
       </c>
       <c r="J91" s="3">
+        <v>-619600</v>
+      </c>
+      <c r="K91" s="3">
         <v>-671900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-547200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-473200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-571100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-356800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-373600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-478000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-512200</v>
+        <v>-507200</v>
       </c>
       <c r="E94" s="3">
-        <v>-758200</v>
+        <v>-518000</v>
       </c>
       <c r="F94" s="3">
-        <v>-754700</v>
+        <v>-766800</v>
       </c>
       <c r="G94" s="3">
-        <v>-3069600</v>
+        <v>-763200</v>
       </c>
       <c r="H94" s="3">
-        <v>-490900</v>
+        <v>-3104100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1171100</v>
+        <v>-496400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1184200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-886000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-495100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-590700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-352300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>379200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>445400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-206600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,61 +5082,65 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-260200</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-263200</v>
       </c>
       <c r="F96" s="3">
-        <v>117100</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>118400</v>
       </c>
       <c r="H96" s="3">
-        <v>-913200</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-923500</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>85200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-760900</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>59500</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-653000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-99800</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5304,175 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3483600</v>
+        <v>1385200</v>
       </c>
       <c r="E100" s="3">
-        <v>-716800</v>
+        <v>3522800</v>
       </c>
       <c r="F100" s="3">
-        <v>-649400</v>
+        <v>-724900</v>
       </c>
       <c r="G100" s="3">
-        <v>1172300</v>
+        <v>-656700</v>
       </c>
       <c r="H100" s="3">
-        <v>-823300</v>
+        <v>1185400</v>
       </c>
       <c r="I100" s="3">
-        <v>-272100</v>
+        <v>-832600</v>
       </c>
       <c r="J100" s="3">
+        <v>-275100</v>
+      </c>
+      <c r="K100" s="3">
         <v>288600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-39900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-232800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>886400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-31400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-682200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-142500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>191300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E101" s="3">
         <v>1200</v>
       </c>
-      <c r="E101" s="3">
-        <v>-45000</v>
-      </c>
       <c r="F101" s="3">
-        <v>-15400</v>
+        <v>-45500</v>
       </c>
       <c r="G101" s="3">
-        <v>-5900</v>
+        <v>-15600</v>
       </c>
       <c r="H101" s="3">
-        <v>5900</v>
+        <v>-6000</v>
       </c>
       <c r="I101" s="3">
-        <v>-10600</v>
+        <v>6000</v>
       </c>
       <c r="J101" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="K101" s="3">
         <v>2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-5500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-7700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7900</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-11200</v>
       </c>
       <c r="P101" s="3">
         <v>-11200</v>
       </c>
       <c r="Q101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="R101" s="3">
         <v>-16800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-39900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>3614900</v>
+        <v>1796700</v>
       </c>
       <c r="E102" s="3">
-        <v>-191600</v>
+        <v>3655600</v>
       </c>
       <c r="F102" s="3">
-        <v>-259100</v>
+        <v>-193800</v>
       </c>
       <c r="G102" s="3">
-        <v>-631700</v>
+        <v>-262000</v>
       </c>
       <c r="H102" s="3">
-        <v>33100</v>
+        <v>-638800</v>
       </c>
       <c r="I102" s="3">
-        <v>-429400</v>
+        <v>33500</v>
       </c>
       <c r="J102" s="3">
+        <v>-434200</v>
+      </c>
+      <c r="K102" s="3">
         <v>723900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>527200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>350300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-742800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>493700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>796600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1322800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>663200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4421200</v>
+        <v>5830200</v>
       </c>
       <c r="E8" s="3">
-        <v>3753700</v>
+        <v>4348000</v>
       </c>
       <c r="F8" s="3">
-        <v>5693900</v>
+        <v>3691500</v>
       </c>
       <c r="G8" s="3">
-        <v>7265700</v>
+        <v>5599700</v>
       </c>
       <c r="H8" s="3">
-        <v>7116200</v>
+        <v>7145500</v>
       </c>
       <c r="I8" s="3">
-        <v>7219100</v>
+        <v>6998400</v>
       </c>
       <c r="J8" s="3">
+        <v>7099600</v>
+      </c>
+      <c r="K8" s="3">
         <v>6463100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7854500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6210300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6265200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5464700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5504500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5212800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5780500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6191100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6346800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2893600</v>
+        <v>4286800</v>
       </c>
       <c r="E9" s="3">
-        <v>2424700</v>
+        <v>2845700</v>
       </c>
       <c r="F9" s="3">
-        <v>4065900</v>
+        <v>2384600</v>
       </c>
       <c r="G9" s="3">
-        <v>4802700</v>
+        <v>3998600</v>
       </c>
       <c r="H9" s="3">
-        <v>4585000</v>
+        <v>4723200</v>
       </c>
       <c r="I9" s="3">
-        <v>4613700</v>
+        <v>4509100</v>
       </c>
       <c r="J9" s="3">
+        <v>4537400</v>
+      </c>
+      <c r="K9" s="3">
         <v>4302700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5203600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4239900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4662100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3530100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3775500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3518600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4149100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4238900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>6463000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1527500</v>
+        <v>1543400</v>
       </c>
       <c r="E10" s="3">
-        <v>1329000</v>
+        <v>1502300</v>
       </c>
       <c r="F10" s="3">
-        <v>1628000</v>
+        <v>1307000</v>
       </c>
       <c r="G10" s="3">
-        <v>2463000</v>
+        <v>1601100</v>
       </c>
       <c r="H10" s="3">
-        <v>2531200</v>
+        <v>2422200</v>
       </c>
       <c r="I10" s="3">
-        <v>2605300</v>
+        <v>2489300</v>
       </c>
       <c r="J10" s="3">
+        <v>2562200</v>
+      </c>
+      <c r="K10" s="3">
         <v>2160300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2650900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1970400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1603100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1934700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1729000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1694200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1631400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1952300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-116200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,64 +948,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>777500</v>
+        <v>51800</v>
       </c>
       <c r="E12" s="3">
-        <v>99300</v>
+        <v>764700</v>
       </c>
       <c r="F12" s="3">
-        <v>142300</v>
+        <v>97600</v>
       </c>
       <c r="G12" s="3">
-        <v>87300</v>
+        <v>140000</v>
       </c>
       <c r="H12" s="3">
-        <v>45500</v>
+        <v>85900</v>
       </c>
       <c r="I12" s="3">
-        <v>84900</v>
+        <v>44700</v>
       </c>
       <c r="J12" s="3">
+        <v>83500</v>
+      </c>
+      <c r="K12" s="3">
         <v>55000</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>71000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>27700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>58200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>40600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>107700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>39300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>65100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>35900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>83300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1074,94 +1093,100 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
         <v>-158500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>165000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-68100</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-3400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1362100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-153700</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1136400</v>
+        <v>403500</v>
       </c>
       <c r="E15" s="3">
-        <v>588500</v>
+        <v>1117600</v>
       </c>
       <c r="F15" s="3">
-        <v>757200</v>
+        <v>578800</v>
       </c>
       <c r="G15" s="3">
-        <v>746400</v>
+        <v>744700</v>
       </c>
       <c r="H15" s="3">
-        <v>702200</v>
+        <v>734100</v>
       </c>
       <c r="I15" s="3">
-        <v>689000</v>
+        <v>690500</v>
       </c>
       <c r="J15" s="3">
+        <v>677600</v>
+      </c>
+      <c r="K15" s="3">
         <v>656700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>553600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>495100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>516100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>486400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>511600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>538600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>518400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>509400</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5198700</v>
+        <v>4122100</v>
       </c>
       <c r="E17" s="3">
-        <v>3652000</v>
+        <v>5112600</v>
       </c>
       <c r="F17" s="3">
-        <v>5542000</v>
+        <v>3591500</v>
       </c>
       <c r="G17" s="3">
-        <v>6382900</v>
+        <v>5450300</v>
       </c>
       <c r="H17" s="3">
-        <v>6117400</v>
+        <v>6277300</v>
       </c>
       <c r="I17" s="3">
-        <v>6087500</v>
+        <v>6016100</v>
       </c>
       <c r="J17" s="3">
+        <v>5986700</v>
+      </c>
+      <c r="K17" s="3">
         <v>5652000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6430200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5483700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5738100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4596200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4899700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4581100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6672500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5163400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6659000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-777500</v>
+        <v>1708100</v>
       </c>
       <c r="E18" s="3">
-        <v>101700</v>
+        <v>-764700</v>
       </c>
       <c r="F18" s="3">
-        <v>151900</v>
+        <v>100000</v>
       </c>
       <c r="G18" s="3">
-        <v>882800</v>
+        <v>149400</v>
       </c>
       <c r="H18" s="3">
-        <v>998800</v>
+        <v>868200</v>
       </c>
       <c r="I18" s="3">
-        <v>1131600</v>
+        <v>982300</v>
       </c>
       <c r="J18" s="3">
+        <v>1112900</v>
+      </c>
+      <c r="K18" s="3">
         <v>811000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1424200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>726600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>527000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>868500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>604800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>631700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-892000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1027700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-312200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>65800</v>
+        <v>100000</v>
       </c>
       <c r="E20" s="3">
-        <v>57400</v>
+        <v>64700</v>
       </c>
       <c r="F20" s="3">
-        <v>-56200</v>
+        <v>56500</v>
       </c>
       <c r="G20" s="3">
-        <v>135200</v>
+        <v>-55300</v>
       </c>
       <c r="H20" s="3">
-        <v>141200</v>
+        <v>132900</v>
       </c>
       <c r="I20" s="3">
-        <v>230900</v>
+        <v>138800</v>
       </c>
       <c r="J20" s="3">
+        <v>227000</v>
+      </c>
+      <c r="K20" s="3">
         <v>161500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>88700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>154000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>176800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>90000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>25800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>225500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>113300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>149200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>118600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>941400</v>
+        <v>2466900</v>
       </c>
       <c r="E21" s="3">
-        <v>809800</v>
+        <v>925800</v>
       </c>
       <c r="F21" s="3">
-        <v>946200</v>
+        <v>796400</v>
       </c>
       <c r="G21" s="3">
-        <v>1795500</v>
+        <v>930500</v>
       </c>
       <c r="H21" s="3">
-        <v>1861300</v>
+        <v>1765800</v>
       </c>
       <c r="I21" s="3">
-        <v>2098100</v>
+        <v>1830500</v>
       </c>
       <c r="J21" s="3">
+        <v>2063400</v>
+      </c>
+      <c r="K21" s="3">
         <v>1644800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2102000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1385600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1233100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1452700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1227500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1405900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-194100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1677400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1205500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>84900</v>
+        <v>83500</v>
       </c>
       <c r="E22" s="3">
-        <v>75400</v>
+        <v>83500</v>
       </c>
       <c r="F22" s="3">
+        <v>74100</v>
+      </c>
+      <c r="G22" s="3">
+        <v>88200</v>
+      </c>
+      <c r="H22" s="3">
+        <v>85900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>91800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>90600</v>
+      </c>
+      <c r="K22" s="3">
         <v>89700</v>
       </c>
-      <c r="G22" s="3">
-        <v>87300</v>
-      </c>
-      <c r="H22" s="3">
-        <v>93300</v>
-      </c>
-      <c r="I22" s="3">
-        <v>92100</v>
-      </c>
-      <c r="J22" s="3">
-        <v>89700</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>82800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>77500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>94400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>70300</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>80800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>69600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>68400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>74000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-796700</v>
+        <v>1724600</v>
       </c>
       <c r="E23" s="3">
-        <v>83700</v>
+        <v>-783500</v>
       </c>
       <c r="F23" s="3">
-        <v>6000</v>
+        <v>82300</v>
       </c>
       <c r="G23" s="3">
-        <v>930600</v>
+        <v>5900</v>
       </c>
       <c r="H23" s="3">
-        <v>1046700</v>
+        <v>915200</v>
       </c>
       <c r="I23" s="3">
-        <v>1270400</v>
+        <v>1029400</v>
       </c>
       <c r="J23" s="3">
+        <v>1249300</v>
+      </c>
+      <c r="K23" s="3">
         <v>882800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1430100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>803000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>609400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>888300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>630600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>776400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-848200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1108500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-267600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-250000</v>
+        <v>-564700</v>
       </c>
       <c r="E24" s="3">
-        <v>15600</v>
+        <v>-245900</v>
       </c>
       <c r="F24" s="3">
-        <v>87300</v>
+        <v>15300</v>
       </c>
       <c r="G24" s="3">
-        <v>382800</v>
+        <v>85900</v>
       </c>
       <c r="H24" s="3">
-        <v>406700</v>
+        <v>376400</v>
       </c>
       <c r="I24" s="3">
-        <v>483300</v>
+        <v>400000</v>
       </c>
       <c r="J24" s="3">
+        <v>475300</v>
+      </c>
+      <c r="K24" s="3">
         <v>289500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>492100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>366600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>306300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>305200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>159300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>166100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>193000</v>
       </c>
       <c r="R24" s="3">
         <v>193000</v>
       </c>
       <c r="S24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="T24" s="3">
         <v>120900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-546700</v>
+        <v>2289300</v>
       </c>
       <c r="E26" s="3">
-        <v>68200</v>
+        <v>-537600</v>
       </c>
       <c r="F26" s="3">
-        <v>-81300</v>
+        <v>67100</v>
       </c>
       <c r="G26" s="3">
-        <v>547900</v>
+        <v>-80000</v>
       </c>
       <c r="H26" s="3">
-        <v>640000</v>
+        <v>538800</v>
       </c>
       <c r="I26" s="3">
-        <v>787100</v>
+        <v>629400</v>
       </c>
       <c r="J26" s="3">
+        <v>774100</v>
+      </c>
+      <c r="K26" s="3">
         <v>593300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>938000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>436400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>303000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>583000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>471200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>610400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>915500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-388500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-582500</v>
+        <v>2211600</v>
       </c>
       <c r="E27" s="3">
-        <v>28700</v>
+        <v>-572900</v>
       </c>
       <c r="F27" s="3">
-        <v>-190200</v>
+        <v>28200</v>
       </c>
       <c r="G27" s="3">
-        <v>424700</v>
+        <v>-187000</v>
       </c>
       <c r="H27" s="3">
-        <v>508400</v>
+        <v>417600</v>
       </c>
       <c r="I27" s="3">
-        <v>649500</v>
+        <v>500000</v>
       </c>
       <c r="J27" s="3">
+        <v>638800</v>
+      </c>
+      <c r="K27" s="3">
         <v>423500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>719200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>244800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>222900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>445800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>348900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>491400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>798900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-442500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-65800</v>
+        <v>-100000</v>
       </c>
       <c r="E32" s="3">
-        <v>-57400</v>
+        <v>-64700</v>
       </c>
       <c r="F32" s="3">
-        <v>56200</v>
+        <v>-56500</v>
       </c>
       <c r="G32" s="3">
-        <v>-135200</v>
+        <v>55300</v>
       </c>
       <c r="H32" s="3">
-        <v>-141200</v>
+        <v>-132900</v>
       </c>
       <c r="I32" s="3">
-        <v>-230900</v>
+        <v>-138800</v>
       </c>
       <c r="J32" s="3">
+        <v>-227000</v>
+      </c>
+      <c r="K32" s="3">
         <v>-161500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-88700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-154000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-176800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-90000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-25800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-225500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-113300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-149200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-118600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-582500</v>
+        <v>2211600</v>
       </c>
       <c r="E33" s="3">
-        <v>28700</v>
+        <v>-572900</v>
       </c>
       <c r="F33" s="3">
-        <v>-190200</v>
+        <v>28200</v>
       </c>
       <c r="G33" s="3">
-        <v>424700</v>
+        <v>-187000</v>
       </c>
       <c r="H33" s="3">
-        <v>508400</v>
+        <v>417600</v>
       </c>
       <c r="I33" s="3">
-        <v>649500</v>
+        <v>500000</v>
       </c>
       <c r="J33" s="3">
+        <v>638800</v>
+      </c>
+      <c r="K33" s="3">
         <v>423500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>719200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>244800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>222900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>445800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>348900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>491400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>798900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-442500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-582500</v>
+        <v>2211600</v>
       </c>
       <c r="E35" s="3">
-        <v>28700</v>
+        <v>-572900</v>
       </c>
       <c r="F35" s="3">
-        <v>-190200</v>
+        <v>28200</v>
       </c>
       <c r="G35" s="3">
-        <v>424700</v>
+        <v>-187000</v>
       </c>
       <c r="H35" s="3">
-        <v>508400</v>
+        <v>417600</v>
       </c>
       <c r="I35" s="3">
-        <v>649500</v>
+        <v>500000</v>
       </c>
       <c r="J35" s="3">
+        <v>638800</v>
+      </c>
+      <c r="K35" s="3">
         <v>423500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>719200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>244800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>222900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>445800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>348900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>491400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>798900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-442500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,512 +2399,540 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8769300</v>
+        <v>3357400</v>
       </c>
       <c r="E41" s="3">
-        <v>6973800</v>
+        <v>8624200</v>
       </c>
       <c r="F41" s="3">
-        <v>3312300</v>
+        <v>6858400</v>
       </c>
       <c r="G41" s="3">
-        <v>3506100</v>
+        <v>3257500</v>
       </c>
       <c r="H41" s="3">
-        <v>3776400</v>
+        <v>3448000</v>
       </c>
       <c r="I41" s="3">
-        <v>4415200</v>
+        <v>3713900</v>
       </c>
       <c r="J41" s="3">
+        <v>4342100</v>
+      </c>
+      <c r="K41" s="3">
         <v>4382900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4762400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3780200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3213800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4718100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4456500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>5209400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4715700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3504000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2428600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3793200</v>
+        <v>3550400</v>
       </c>
       <c r="E42" s="3">
-        <v>6021700</v>
+        <v>3730400</v>
       </c>
       <c r="F42" s="3">
-        <v>7661700</v>
+        <v>5922000</v>
       </c>
       <c r="G42" s="3">
-        <v>3733300</v>
+        <v>7534800</v>
       </c>
       <c r="H42" s="3">
-        <v>2672300</v>
+        <v>3671500</v>
       </c>
       <c r="I42" s="3">
-        <v>3492900</v>
+        <v>2628100</v>
       </c>
       <c r="J42" s="3">
+        <v>3435100</v>
+      </c>
+      <c r="K42" s="3">
         <v>2978500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3225800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>4229900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2617600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1327500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1279100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1220700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>905400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>821300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1461400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2238100</v>
+        <v>3943300</v>
       </c>
       <c r="E43" s="3">
-        <v>2021600</v>
+        <v>2201000</v>
       </c>
       <c r="F43" s="3">
-        <v>3138800</v>
+        <v>1988100</v>
       </c>
       <c r="G43" s="3">
-        <v>3652000</v>
+        <v>3086900</v>
       </c>
       <c r="H43" s="3">
-        <v>3717800</v>
+        <v>3591500</v>
       </c>
       <c r="I43" s="3">
-        <v>3646000</v>
+        <v>3656300</v>
       </c>
       <c r="J43" s="3">
+        <v>3585700</v>
+      </c>
+      <c r="K43" s="3">
         <v>4357800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4056200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3196500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2945900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3542100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2825200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2287700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2318000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2921700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2924000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1776400</v>
+        <v>2766900</v>
       </c>
       <c r="E44" s="3">
-        <v>1686600</v>
+        <v>1747000</v>
       </c>
       <c r="F44" s="3">
-        <v>1723700</v>
+        <v>1658700</v>
       </c>
       <c r="G44" s="3">
-        <v>2207000</v>
+        <v>1695200</v>
       </c>
       <c r="H44" s="3">
-        <v>2314600</v>
+        <v>2170500</v>
       </c>
       <c r="I44" s="3">
-        <v>1941400</v>
+        <v>2276300</v>
       </c>
       <c r="J44" s="3">
+        <v>1909300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2075400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1858300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1845300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1639300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1486700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1686400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1729000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1495600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1647100</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1952000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>314600</v>
+        <v>630600</v>
       </c>
       <c r="E45" s="3">
-        <v>321800</v>
+        <v>309400</v>
       </c>
       <c r="F45" s="3">
-        <v>406700</v>
+        <v>316500</v>
       </c>
       <c r="G45" s="3">
-        <v>356500</v>
+        <v>400000</v>
       </c>
       <c r="H45" s="3">
-        <v>279900</v>
+        <v>350600</v>
       </c>
       <c r="I45" s="3">
-        <v>299100</v>
+        <v>275300</v>
       </c>
       <c r="J45" s="3">
+        <v>294100</v>
+      </c>
+      <c r="K45" s="3">
         <v>330200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>312300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>418700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>424900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>362300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>297300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>269300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>286100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>280500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>232400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>16891500</v>
+        <v>14248600</v>
       </c>
       <c r="E46" s="3">
-        <v>17025500</v>
+        <v>16611900</v>
       </c>
       <c r="F46" s="3">
-        <v>16243200</v>
+        <v>16743700</v>
       </c>
       <c r="G46" s="3">
-        <v>13454900</v>
+        <v>15974300</v>
       </c>
       <c r="H46" s="3">
-        <v>12761100</v>
+        <v>13232100</v>
       </c>
       <c r="I46" s="3">
-        <v>13794600</v>
+        <v>12549800</v>
       </c>
       <c r="J46" s="3">
+        <v>13566200</v>
+      </c>
+      <c r="K46" s="3">
         <v>14124700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14214900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13470600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10841700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>11436800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10544500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10716100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9720900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9174500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8998400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>8952400</v>
+        <v>13843900</v>
       </c>
       <c r="E47" s="3">
-        <v>9299300</v>
+        <v>8804200</v>
       </c>
       <c r="F47" s="3">
-        <v>9481100</v>
+        <v>9145300</v>
       </c>
       <c r="G47" s="3">
-        <v>9049300</v>
+        <v>9324100</v>
       </c>
       <c r="H47" s="3">
-        <v>9540900</v>
+        <v>8899500</v>
       </c>
       <c r="I47" s="3">
-        <v>6677200</v>
+        <v>9383000</v>
       </c>
       <c r="J47" s="3">
+        <v>6566700</v>
+      </c>
+      <c r="K47" s="3">
         <v>6554000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6707000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>5998800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5680000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5236400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5466300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>4431900</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4404900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4145800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4468700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>17196600</v>
+        <v>22590400</v>
       </c>
       <c r="E48" s="3">
-        <v>18053100</v>
+        <v>16911900</v>
       </c>
       <c r="F48" s="3">
-        <v>18341300</v>
+        <v>17754200</v>
       </c>
       <c r="G48" s="3">
-        <v>19712200</v>
+        <v>18037700</v>
       </c>
       <c r="H48" s="3">
-        <v>19879600</v>
+        <v>19385900</v>
       </c>
       <c r="I48" s="3">
-        <v>19695400</v>
+        <v>19550600</v>
       </c>
       <c r="J48" s="3">
+        <v>19369400</v>
+      </c>
+      <c r="K48" s="3">
         <v>19616500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>17879500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>15679200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15670700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14865800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15319700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15457700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15748300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>16063500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>17152900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3677100</v>
+        <v>4050300</v>
       </c>
       <c r="E49" s="3">
-        <v>4618500</v>
+        <v>3616300</v>
       </c>
       <c r="F49" s="3">
-        <v>4622100</v>
+        <v>4542100</v>
       </c>
       <c r="G49" s="3">
-        <v>4979800</v>
+        <v>4545600</v>
       </c>
       <c r="H49" s="3">
-        <v>5081500</v>
+        <v>4897400</v>
       </c>
       <c r="I49" s="3">
-        <v>4924800</v>
+        <v>4997300</v>
       </c>
       <c r="J49" s="3">
+        <v>4843200</v>
+      </c>
+      <c r="K49" s="3">
         <v>5048000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3923700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3202100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3188600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>2882300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2971000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>1852400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1867000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1934300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>2010700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2419900</v>
+        <v>3229200</v>
       </c>
       <c r="E52" s="3">
-        <v>2288300</v>
+        <v>2379900</v>
       </c>
       <c r="F52" s="3">
-        <v>1968900</v>
+        <v>2250500</v>
       </c>
       <c r="G52" s="3">
-        <v>1100500</v>
+        <v>1936400</v>
       </c>
       <c r="H52" s="3">
-        <v>954600</v>
+        <v>1082300</v>
       </c>
       <c r="I52" s="3">
-        <v>921100</v>
+        <v>938800</v>
       </c>
       <c r="J52" s="3">
+        <v>905800</v>
+      </c>
+      <c r="K52" s="3">
         <v>958200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>996000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1256000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1408700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1115600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1126500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>935700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1169100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>3635200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>5062600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>49137500</v>
+        <v>57962400</v>
       </c>
       <c r="E54" s="3">
-        <v>51284700</v>
+        <v>48324200</v>
       </c>
       <c r="F54" s="3">
-        <v>50656700</v>
+        <v>50435800</v>
       </c>
       <c r="G54" s="3">
-        <v>48296600</v>
+        <v>49818200</v>
       </c>
       <c r="H54" s="3">
-        <v>48217600</v>
+        <v>47497200</v>
       </c>
       <c r="I54" s="3">
-        <v>46013000</v>
+        <v>47419500</v>
       </c>
       <c r="J54" s="3">
+        <v>45251400</v>
+      </c>
+      <c r="K54" s="3">
         <v>46301300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>43721200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>39606700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36789600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35536800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35428000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>33393800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>32910200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34953400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>37693400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,344 +3271,363 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>3074200</v>
+        <v>5063200</v>
       </c>
       <c r="E57" s="3">
-        <v>2858900</v>
+        <v>3023300</v>
       </c>
       <c r="F57" s="3">
-        <v>4132900</v>
+        <v>2811600</v>
       </c>
       <c r="G57" s="3">
-        <v>4970200</v>
+        <v>4064500</v>
       </c>
       <c r="H57" s="3">
-        <v>4677100</v>
+        <v>4887900</v>
       </c>
       <c r="I57" s="3">
-        <v>4244100</v>
+        <v>4599700</v>
       </c>
       <c r="J57" s="3">
+        <v>4173900</v>
+      </c>
+      <c r="K57" s="3">
         <v>5197500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5205900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4101400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3877000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3910000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3659900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3268400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3028300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3460200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4379500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>985700</v>
+        <v>1992800</v>
       </c>
       <c r="E58" s="3">
-        <v>1004800</v>
+        <v>969400</v>
       </c>
       <c r="F58" s="3">
-        <v>672300</v>
+        <v>988200</v>
       </c>
       <c r="G58" s="3">
-        <v>966500</v>
+        <v>661100</v>
       </c>
       <c r="H58" s="3">
-        <v>1727300</v>
+        <v>950500</v>
       </c>
       <c r="I58" s="3">
-        <v>1692600</v>
+        <v>1698700</v>
       </c>
       <c r="J58" s="3">
+        <v>1664600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1934300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>997200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>965800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1001400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1902800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1012000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>274900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>218800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>190700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>305200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6270500</v>
+        <v>5432600</v>
       </c>
       <c r="E59" s="3">
-        <v>7485800</v>
+        <v>6166700</v>
       </c>
       <c r="F59" s="3">
-        <v>9141400</v>
+        <v>7361900</v>
       </c>
       <c r="G59" s="3">
-        <v>5301600</v>
+        <v>8990000</v>
       </c>
       <c r="H59" s="3">
-        <v>4766900</v>
+        <v>5213800</v>
       </c>
       <c r="I59" s="3">
-        <v>5611400</v>
+        <v>4688000</v>
       </c>
       <c r="J59" s="3">
+        <v>5518500</v>
+      </c>
+      <c r="K59" s="3">
         <v>5219000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5247300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6182600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4643400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3090900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2986700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2753400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2555900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2606400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3211500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10330400</v>
+        <v>12488700</v>
       </c>
       <c r="E60" s="3">
-        <v>11349500</v>
+        <v>10159400</v>
       </c>
       <c r="F60" s="3">
-        <v>13946500</v>
+        <v>11161700</v>
       </c>
       <c r="G60" s="3">
-        <v>11238300</v>
+        <v>13715600</v>
       </c>
       <c r="H60" s="3">
-        <v>11171300</v>
+        <v>11052300</v>
       </c>
       <c r="I60" s="3">
-        <v>11548100</v>
+        <v>10986400</v>
       </c>
       <c r="J60" s="3">
+        <v>11357000</v>
+      </c>
+      <c r="K60" s="3">
         <v>12350800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11450500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11249900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>9521900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8903700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7658700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6296600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5802900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6257300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>7896200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10865100</v>
+        <v>12048700</v>
       </c>
       <c r="E61" s="3">
-        <v>10916500</v>
+        <v>10685200</v>
       </c>
       <c r="F61" s="3">
-        <v>7562400</v>
+        <v>10735800</v>
       </c>
       <c r="G61" s="3">
-        <v>8153300</v>
+        <v>7437200</v>
       </c>
       <c r="H61" s="3">
-        <v>7916500</v>
+        <v>8018300</v>
       </c>
       <c r="I61" s="3">
-        <v>6660400</v>
+        <v>7785400</v>
       </c>
       <c r="J61" s="3">
+        <v>6550200</v>
+      </c>
+      <c r="K61" s="3">
         <v>6260900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>5806900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5052900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5035400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5017900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5375500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5134200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5244200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5276700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5869100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8800400</v>
+        <v>10015900</v>
       </c>
       <c r="E62" s="3">
-        <v>9337500</v>
+        <v>8654800</v>
       </c>
       <c r="F62" s="3">
-        <v>9006200</v>
+        <v>9183000</v>
       </c>
       <c r="G62" s="3">
-        <v>8733500</v>
+        <v>8857100</v>
       </c>
       <c r="H62" s="3">
-        <v>9191600</v>
+        <v>8588900</v>
       </c>
       <c r="I62" s="3">
-        <v>8655700</v>
+        <v>9039500</v>
       </c>
       <c r="J62" s="3">
+        <v>8512400</v>
+      </c>
+      <c r="K62" s="3">
         <v>8335100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8315800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>6928000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6508900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6244300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6311200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>5978000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6342600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7216600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7582800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34393100</v>
+        <v>41798700</v>
       </c>
       <c r="E66" s="3">
-        <v>36042700</v>
+        <v>33823900</v>
       </c>
       <c r="F66" s="3">
-        <v>35212500</v>
+        <v>35446100</v>
       </c>
       <c r="G66" s="3">
-        <v>32731600</v>
+        <v>34629700</v>
       </c>
       <c r="H66" s="3">
-        <v>32838100</v>
+        <v>32189800</v>
       </c>
       <c r="I66" s="3">
-        <v>31324900</v>
+        <v>32294500</v>
       </c>
       <c r="J66" s="3">
+        <v>30806400</v>
+      </c>
+      <c r="K66" s="3">
         <v>31501900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29637600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>26852700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24489800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23702500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>22843700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>20852200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20777000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22206400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24881300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>10495500</v>
+        <v>12025200</v>
       </c>
       <c r="E72" s="3">
-        <v>12477600</v>
+        <v>10321700</v>
       </c>
       <c r="F72" s="3">
-        <v>12680900</v>
+        <v>12271000</v>
       </c>
       <c r="G72" s="3">
-        <v>12752700</v>
+        <v>12471000</v>
       </c>
       <c r="H72" s="3">
-        <v>12616300</v>
+        <v>12541600</v>
       </c>
       <c r="I72" s="3">
-        <v>11924900</v>
+        <v>12407500</v>
       </c>
       <c r="J72" s="3">
+        <v>11727500</v>
+      </c>
+      <c r="K72" s="3">
         <v>12038600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11306200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>10196600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>9765600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9846900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9714200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9680500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9272100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9885900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9820100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14744400</v>
+        <v>16163700</v>
       </c>
       <c r="E76" s="3">
-        <v>15242000</v>
+        <v>14500300</v>
       </c>
       <c r="F76" s="3">
-        <v>15444100</v>
+        <v>14989700</v>
       </c>
       <c r="G76" s="3">
-        <v>15565000</v>
+        <v>15188500</v>
       </c>
       <c r="H76" s="3">
-        <v>15379500</v>
+        <v>15307300</v>
       </c>
       <c r="I76" s="3">
-        <v>14688100</v>
+        <v>15125000</v>
       </c>
       <c r="J76" s="3">
+        <v>14445000</v>
+      </c>
+      <c r="K76" s="3">
         <v>14799400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14083600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12754000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12299800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>11834200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12584200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12541600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12133200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12746900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12812100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-582500</v>
+        <v>2211600</v>
       </c>
       <c r="E81" s="3">
-        <v>28700</v>
+        <v>-572900</v>
       </c>
       <c r="F81" s="3">
-        <v>-190200</v>
+        <v>28200</v>
       </c>
       <c r="G81" s="3">
-        <v>424700</v>
+        <v>-187000</v>
       </c>
       <c r="H81" s="3">
-        <v>508400</v>
+        <v>417600</v>
       </c>
       <c r="I81" s="3">
-        <v>649500</v>
+        <v>500000</v>
       </c>
       <c r="J81" s="3">
+        <v>638800</v>
+      </c>
+      <c r="K81" s="3">
         <v>423500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>719200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>244800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>222900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>445800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>348900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>491400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>798900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-442500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>1653100</v>
+        <v>658800</v>
       </c>
       <c r="E83" s="3">
-        <v>650700</v>
+        <v>1625800</v>
       </c>
       <c r="F83" s="3">
-        <v>850500</v>
+        <v>640000</v>
       </c>
       <c r="G83" s="3">
-        <v>777500</v>
+        <v>836400</v>
       </c>
       <c r="H83" s="3">
-        <v>721300</v>
+        <v>764700</v>
       </c>
       <c r="I83" s="3">
-        <v>735700</v>
+        <v>709400</v>
       </c>
       <c r="J83" s="3">
+        <v>723500</v>
+      </c>
+      <c r="K83" s="3">
         <v>672300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>589100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>505100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>529200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>494100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>596900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>548700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>584600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>500400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>1533000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>947400</v>
+        <v>798800</v>
       </c>
       <c r="E89" s="3">
-        <v>649500</v>
+        <v>931700</v>
       </c>
       <c r="F89" s="3">
-        <v>1343300</v>
+        <v>638800</v>
       </c>
       <c r="G89" s="3">
-        <v>1173500</v>
+        <v>1321100</v>
       </c>
       <c r="H89" s="3">
-        <v>1285900</v>
+        <v>1154000</v>
       </c>
       <c r="I89" s="3">
-        <v>1356500</v>
+        <v>1264600</v>
       </c>
       <c r="J89" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1035900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1318900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1075500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1353800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1181400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>832500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>888600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1110800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1036700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>718400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-464100</v>
+        <v>-663500</v>
       </c>
       <c r="E91" s="3">
-        <v>-507200</v>
+        <v>-456400</v>
       </c>
       <c r="F91" s="3">
-        <v>-698600</v>
+        <v>-498800</v>
       </c>
       <c r="G91" s="3">
-        <v>-723700</v>
+        <v>-687000</v>
       </c>
       <c r="H91" s="3">
-        <v>-649500</v>
+        <v>-711700</v>
       </c>
       <c r="I91" s="3">
-        <v>-588500</v>
+        <v>-638800</v>
       </c>
       <c r="J91" s="3">
+        <v>-578800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-619600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-671900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-547200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-473200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-571100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-356800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-373600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-478000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-507200</v>
+        <v>-5235000</v>
       </c>
       <c r="E94" s="3">
-        <v>-518000</v>
+        <v>-498800</v>
       </c>
       <c r="F94" s="3">
-        <v>-766800</v>
+        <v>-509400</v>
       </c>
       <c r="G94" s="3">
-        <v>-763200</v>
+        <v>-754100</v>
       </c>
       <c r="H94" s="3">
-        <v>-3104100</v>
+        <v>-750500</v>
       </c>
       <c r="I94" s="3">
-        <v>-496400</v>
+        <v>-3052800</v>
       </c>
       <c r="J94" s="3">
+        <v>-488200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1184200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-886000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-495100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-590700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-352300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>379200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>445400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-206600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5315,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-532900</v>
       </c>
       <c r="E96" s="3">
-        <v>-263200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-258800</v>
       </c>
       <c r="G96" s="3">
-        <v>118400</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>116500</v>
       </c>
       <c r="I96" s="3">
-        <v>-923500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-908200</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>85200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-760900</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>59500</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-653000</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-99800</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1385200</v>
+        <v>-810500</v>
       </c>
       <c r="E100" s="3">
-        <v>3522800</v>
+        <v>1362300</v>
       </c>
       <c r="F100" s="3">
-        <v>-724900</v>
+        <v>3464500</v>
       </c>
       <c r="G100" s="3">
-        <v>-656700</v>
+        <v>-712900</v>
       </c>
       <c r="H100" s="3">
-        <v>1185400</v>
+        <v>-645800</v>
       </c>
       <c r="I100" s="3">
-        <v>-832600</v>
+        <v>1165800</v>
       </c>
       <c r="J100" s="3">
+        <v>-818800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-275100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>288600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-39900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-232800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>886400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-31400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-682200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-142500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>191300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-28700</v>
+        <v>-5900</v>
       </c>
       <c r="E101" s="3">
+        <v>-28200</v>
+      </c>
+      <c r="F101" s="3">
         <v>1200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-45500</v>
-      </c>
       <c r="G101" s="3">
-        <v>-15600</v>
+        <v>-44700</v>
       </c>
       <c r="H101" s="3">
-        <v>-6000</v>
+        <v>-15300</v>
       </c>
       <c r="I101" s="3">
-        <v>6000</v>
+        <v>-5900</v>
       </c>
       <c r="J101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-7700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7900</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-11200</v>
       </c>
       <c r="Q101" s="3">
         <v>-11200</v>
       </c>
       <c r="R101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="S101" s="3">
         <v>-16800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-39900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1796700</v>
+        <v>-5252600</v>
       </c>
       <c r="E102" s="3">
-        <v>3655600</v>
+        <v>1767000</v>
       </c>
       <c r="F102" s="3">
-        <v>-193800</v>
+        <v>3595100</v>
       </c>
       <c r="G102" s="3">
-        <v>-262000</v>
+        <v>-190600</v>
       </c>
       <c r="H102" s="3">
-        <v>-638800</v>
+        <v>-257600</v>
       </c>
       <c r="I102" s="3">
-        <v>33500</v>
+        <v>-628200</v>
       </c>
       <c r="J102" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-434200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>723900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>527200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>350300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-742800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>493700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>796600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1322800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>663200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5830200</v>
+        <v>7875500</v>
       </c>
       <c r="E8" s="3">
-        <v>4348000</v>
+        <v>6071100</v>
       </c>
       <c r="F8" s="3">
-        <v>3691500</v>
+        <v>4527600</v>
       </c>
       <c r="G8" s="3">
-        <v>5599700</v>
+        <v>3844000</v>
       </c>
       <c r="H8" s="3">
-        <v>7145500</v>
+        <v>5831000</v>
       </c>
       <c r="I8" s="3">
-        <v>6998400</v>
+        <v>7440600</v>
       </c>
       <c r="J8" s="3">
+        <v>7287500</v>
+      </c>
+      <c r="K8" s="3">
         <v>7099600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6463100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7854500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6210300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6265200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5464700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5504500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5212800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5780500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6191100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6346800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>4286800</v>
+        <v>5091100</v>
       </c>
       <c r="E9" s="3">
-        <v>2845700</v>
+        <v>4463900</v>
       </c>
       <c r="F9" s="3">
-        <v>2384600</v>
+        <v>2963300</v>
       </c>
       <c r="G9" s="3">
-        <v>3998600</v>
+        <v>2483100</v>
       </c>
       <c r="H9" s="3">
-        <v>4723200</v>
+        <v>4163700</v>
       </c>
       <c r="I9" s="3">
-        <v>4509100</v>
+        <v>4918300</v>
       </c>
       <c r="J9" s="3">
+        <v>4695400</v>
+      </c>
+      <c r="K9" s="3">
         <v>4537400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4302700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5203600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4239900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4662100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>3530100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3775500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3518600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4149100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4238900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>6463000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1543400</v>
+        <v>2784400</v>
       </c>
       <c r="E10" s="3">
-        <v>1502300</v>
+        <v>1607200</v>
       </c>
       <c r="F10" s="3">
-        <v>1307000</v>
+        <v>1564300</v>
       </c>
       <c r="G10" s="3">
-        <v>1601100</v>
+        <v>1361000</v>
       </c>
       <c r="H10" s="3">
-        <v>2422200</v>
+        <v>1667200</v>
       </c>
       <c r="I10" s="3">
-        <v>2489300</v>
+        <v>2522300</v>
       </c>
       <c r="J10" s="3">
+        <v>2592100</v>
+      </c>
+      <c r="K10" s="3">
         <v>2562200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2160300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2650900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1970400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1603100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1934700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1729000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1694200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1631400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1952300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-116200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,67 +962,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>51800</v>
+        <v>46500</v>
       </c>
       <c r="E12" s="3">
-        <v>764700</v>
+        <v>53900</v>
       </c>
       <c r="F12" s="3">
-        <v>97600</v>
+        <v>796200</v>
       </c>
       <c r="G12" s="3">
-        <v>140000</v>
+        <v>101700</v>
       </c>
       <c r="H12" s="3">
-        <v>85900</v>
+        <v>145800</v>
       </c>
       <c r="I12" s="3">
-        <v>44700</v>
+        <v>89400</v>
       </c>
       <c r="J12" s="3">
+        <v>46500</v>
+      </c>
+      <c r="K12" s="3">
         <v>83500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>55000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>71000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>27700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>58200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>40600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>107700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>39300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>65100</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>35900</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>83300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1096,97 +1116,103 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="3">
         <v>-158500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>165000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-68100</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-2200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1362100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-153700</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>403500</v>
+        <v>752100</v>
       </c>
       <c r="E15" s="3">
-        <v>1117600</v>
+        <v>420200</v>
       </c>
       <c r="F15" s="3">
-        <v>578800</v>
+        <v>1163700</v>
       </c>
       <c r="G15" s="3">
-        <v>744700</v>
+        <v>602700</v>
       </c>
       <c r="H15" s="3">
-        <v>734100</v>
+        <v>775400</v>
       </c>
       <c r="I15" s="3">
-        <v>690500</v>
+        <v>764400</v>
       </c>
       <c r="J15" s="3">
+        <v>719100</v>
+      </c>
+      <c r="K15" s="3">
         <v>677600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>656700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>553600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>495100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>516100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>486400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>511600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>538600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>518400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>509400</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4122100</v>
+        <v>6665200</v>
       </c>
       <c r="E17" s="3">
-        <v>5112600</v>
+        <v>4292400</v>
       </c>
       <c r="F17" s="3">
-        <v>3591500</v>
+        <v>5323800</v>
       </c>
       <c r="G17" s="3">
-        <v>5450300</v>
+        <v>3739900</v>
       </c>
       <c r="H17" s="3">
-        <v>6277300</v>
+        <v>5675400</v>
       </c>
       <c r="I17" s="3">
-        <v>6016100</v>
+        <v>6536500</v>
       </c>
       <c r="J17" s="3">
+        <v>6264600</v>
+      </c>
+      <c r="K17" s="3">
         <v>5986700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5652000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6430200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5483700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5738100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4596200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4899700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4581100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6672500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5163400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6659000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1708100</v>
+        <v>1210300</v>
       </c>
       <c r="E18" s="3">
-        <v>-764700</v>
+        <v>1778700</v>
       </c>
       <c r="F18" s="3">
-        <v>100000</v>
+        <v>-796200</v>
       </c>
       <c r="G18" s="3">
-        <v>149400</v>
+        <v>104100</v>
       </c>
       <c r="H18" s="3">
-        <v>868200</v>
+        <v>155600</v>
       </c>
       <c r="I18" s="3">
-        <v>982300</v>
+        <v>904000</v>
       </c>
       <c r="J18" s="3">
+        <v>1022900</v>
+      </c>
+      <c r="K18" s="3">
         <v>1112900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>811000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1424200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>726600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>527000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>868500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>604800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>631700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-892000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1027700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-312200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>100000</v>
+        <v>246200</v>
       </c>
       <c r="E20" s="3">
-        <v>64700</v>
+        <v>104100</v>
       </c>
       <c r="F20" s="3">
-        <v>56500</v>
+        <v>67400</v>
       </c>
       <c r="G20" s="3">
-        <v>-55300</v>
+        <v>58800</v>
       </c>
       <c r="H20" s="3">
-        <v>132900</v>
+        <v>-57600</v>
       </c>
       <c r="I20" s="3">
-        <v>138800</v>
+        <v>138400</v>
       </c>
       <c r="J20" s="3">
+        <v>144500</v>
+      </c>
+      <c r="K20" s="3">
         <v>227000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>161500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>88700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>154000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>176800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>90000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>25800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>225500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>113300</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>149200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>118600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2466900</v>
+        <v>2230700</v>
       </c>
       <c r="E21" s="3">
-        <v>925800</v>
+        <v>2568800</v>
       </c>
       <c r="F21" s="3">
-        <v>796400</v>
+        <v>964100</v>
       </c>
       <c r="G21" s="3">
-        <v>930500</v>
+        <v>829300</v>
       </c>
       <c r="H21" s="3">
-        <v>1765800</v>
+        <v>969000</v>
       </c>
       <c r="I21" s="3">
-        <v>1830500</v>
+        <v>1838700</v>
       </c>
       <c r="J21" s="3">
+        <v>1906100</v>
+      </c>
+      <c r="K21" s="3">
         <v>2063400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1644800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2102000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1385600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1233100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1452700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1227500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1405900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-194100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1677400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1205500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>83500</v>
+        <v>94300</v>
       </c>
       <c r="E22" s="3">
-        <v>83500</v>
+        <v>87000</v>
       </c>
       <c r="F22" s="3">
-        <v>74100</v>
+        <v>87000</v>
       </c>
       <c r="G22" s="3">
-        <v>88200</v>
+        <v>77200</v>
       </c>
       <c r="H22" s="3">
-        <v>85900</v>
+        <v>91900</v>
       </c>
       <c r="I22" s="3">
-        <v>91800</v>
+        <v>89400</v>
       </c>
       <c r="J22" s="3">
+        <v>95500</v>
+      </c>
+      <c r="K22" s="3">
         <v>90600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>89700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>82800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>77500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>94400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>70300</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>80800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>69600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>68400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>74000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1724600</v>
+        <v>1362200</v>
       </c>
       <c r="E23" s="3">
-        <v>-783500</v>
+        <v>1795800</v>
       </c>
       <c r="F23" s="3">
-        <v>82300</v>
+        <v>-815800</v>
       </c>
       <c r="G23" s="3">
-        <v>5900</v>
+        <v>85700</v>
       </c>
       <c r="H23" s="3">
-        <v>915200</v>
+        <v>6100</v>
       </c>
       <c r="I23" s="3">
-        <v>1029400</v>
+        <v>953000</v>
       </c>
       <c r="J23" s="3">
+        <v>1071900</v>
+      </c>
+      <c r="K23" s="3">
         <v>1249300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>882800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1430100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>803000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>609400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>888300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>630600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>776400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-848200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1108500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-267600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-564700</v>
+        <v>339300</v>
       </c>
       <c r="E24" s="3">
-        <v>-245900</v>
+        <v>-588000</v>
       </c>
       <c r="F24" s="3">
-        <v>15300</v>
+        <v>-256000</v>
       </c>
       <c r="G24" s="3">
-        <v>85900</v>
+        <v>15900</v>
       </c>
       <c r="H24" s="3">
-        <v>376400</v>
+        <v>89400</v>
       </c>
       <c r="I24" s="3">
-        <v>400000</v>
+        <v>392000</v>
       </c>
       <c r="J24" s="3">
+        <v>416500</v>
+      </c>
+      <c r="K24" s="3">
         <v>475300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>289500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>492100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>366600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>306300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>305200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>159300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>166100</v>
-      </c>
-      <c r="R24" s="3">
-        <v>193000</v>
       </c>
       <c r="S24" s="3">
         <v>193000</v>
       </c>
       <c r="T24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="U24" s="3">
         <v>120900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2289300</v>
+        <v>1022900</v>
       </c>
       <c r="E26" s="3">
-        <v>-537600</v>
+        <v>2383800</v>
       </c>
       <c r="F26" s="3">
-        <v>67100</v>
+        <v>-559800</v>
       </c>
       <c r="G26" s="3">
-        <v>-80000</v>
+        <v>69800</v>
       </c>
       <c r="H26" s="3">
-        <v>538800</v>
+        <v>-83300</v>
       </c>
       <c r="I26" s="3">
-        <v>629400</v>
+        <v>561000</v>
       </c>
       <c r="J26" s="3">
+        <v>655400</v>
+      </c>
+      <c r="K26" s="3">
         <v>774100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>593300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>938000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>436400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>303000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>583000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>471200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>610400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>915500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-388500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2211600</v>
+        <v>801100</v>
       </c>
       <c r="E27" s="3">
-        <v>-572900</v>
+        <v>2303000</v>
       </c>
       <c r="F27" s="3">
-        <v>28200</v>
+        <v>-596600</v>
       </c>
       <c r="G27" s="3">
-        <v>-187000</v>
+        <v>29400</v>
       </c>
       <c r="H27" s="3">
-        <v>417600</v>
+        <v>-194800</v>
       </c>
       <c r="I27" s="3">
-        <v>500000</v>
+        <v>434900</v>
       </c>
       <c r="J27" s="3">
+        <v>520600</v>
+      </c>
+      <c r="K27" s="3">
         <v>638800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>423500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>719200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>244800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>222900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>445800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>348900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>491400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>798900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-442500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-100000</v>
+        <v>-246200</v>
       </c>
       <c r="E32" s="3">
-        <v>-64700</v>
+        <v>-104100</v>
       </c>
       <c r="F32" s="3">
-        <v>-56500</v>
+        <v>-67400</v>
       </c>
       <c r="G32" s="3">
-        <v>55300</v>
+        <v>-58800</v>
       </c>
       <c r="H32" s="3">
-        <v>-132900</v>
+        <v>57600</v>
       </c>
       <c r="I32" s="3">
-        <v>-138800</v>
+        <v>-138400</v>
       </c>
       <c r="J32" s="3">
+        <v>-144500</v>
+      </c>
+      <c r="K32" s="3">
         <v>-227000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-161500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-88700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-154000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-176800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-90000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-25800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-225500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-113300</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-149200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-118600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2211600</v>
+        <v>801100</v>
       </c>
       <c r="E33" s="3">
-        <v>-572900</v>
+        <v>2303000</v>
       </c>
       <c r="F33" s="3">
-        <v>28200</v>
+        <v>-596600</v>
       </c>
       <c r="G33" s="3">
-        <v>-187000</v>
+        <v>29400</v>
       </c>
       <c r="H33" s="3">
-        <v>417600</v>
+        <v>-194800</v>
       </c>
       <c r="I33" s="3">
-        <v>500000</v>
+        <v>434900</v>
       </c>
       <c r="J33" s="3">
+        <v>520600</v>
+      </c>
+      <c r="K33" s="3">
         <v>638800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>423500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>719200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>244800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>222900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>445800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>348900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>491400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>798900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-442500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2211600</v>
+        <v>801100</v>
       </c>
       <c r="E35" s="3">
-        <v>-572900</v>
+        <v>2303000</v>
       </c>
       <c r="F35" s="3">
-        <v>28200</v>
+        <v>-596600</v>
       </c>
       <c r="G35" s="3">
-        <v>-187000</v>
+        <v>29400</v>
       </c>
       <c r="H35" s="3">
-        <v>417600</v>
+        <v>-194800</v>
       </c>
       <c r="I35" s="3">
-        <v>500000</v>
+        <v>434900</v>
       </c>
       <c r="J35" s="3">
+        <v>520600</v>
+      </c>
+      <c r="K35" s="3">
         <v>638800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>423500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>719200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>244800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>222900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>445800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>348900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>491400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>798900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-442500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,539 +2486,567 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3357400</v>
+        <v>4198000</v>
       </c>
       <c r="E41" s="3">
-        <v>8624200</v>
+        <v>3496100</v>
       </c>
       <c r="F41" s="3">
-        <v>6858400</v>
+        <v>8980400</v>
       </c>
       <c r="G41" s="3">
-        <v>3257500</v>
+        <v>7141700</v>
       </c>
       <c r="H41" s="3">
-        <v>3448000</v>
+        <v>3392000</v>
       </c>
       <c r="I41" s="3">
-        <v>3713900</v>
+        <v>3590400</v>
       </c>
       <c r="J41" s="3">
+        <v>3867300</v>
+      </c>
+      <c r="K41" s="3">
         <v>4342100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4382900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4762400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3780200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3213800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4718100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4456500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>5209400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4715700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3504000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2428600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3550400</v>
+        <v>4375700</v>
       </c>
       <c r="E42" s="3">
-        <v>3730400</v>
+        <v>3697000</v>
       </c>
       <c r="F42" s="3">
-        <v>5922000</v>
+        <v>3884400</v>
       </c>
       <c r="G42" s="3">
-        <v>7534800</v>
+        <v>6166600</v>
       </c>
       <c r="H42" s="3">
-        <v>3671500</v>
+        <v>7846100</v>
       </c>
       <c r="I42" s="3">
-        <v>2628100</v>
+        <v>3823200</v>
       </c>
       <c r="J42" s="3">
+        <v>2736600</v>
+      </c>
+      <c r="K42" s="3">
         <v>3435100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2978500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3225800</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>4229900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2617600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1327500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1279100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1220700</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>905400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>821300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1461400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3943300</v>
+        <v>5035900</v>
       </c>
       <c r="E43" s="3">
-        <v>2201000</v>
+        <v>4106200</v>
       </c>
       <c r="F43" s="3">
-        <v>1988100</v>
+        <v>2292000</v>
       </c>
       <c r="G43" s="3">
-        <v>3086900</v>
+        <v>2070200</v>
       </c>
       <c r="H43" s="3">
-        <v>3591500</v>
+        <v>3214400</v>
       </c>
       <c r="I43" s="3">
-        <v>3656300</v>
+        <v>3739900</v>
       </c>
       <c r="J43" s="3">
+        <v>3807300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3585700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4357800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4056200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3196500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2945900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3542100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2825200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2287700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2318000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2921700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2924000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2766900</v>
+        <v>2903200</v>
       </c>
       <c r="E44" s="3">
-        <v>1747000</v>
+        <v>2881200</v>
       </c>
       <c r="F44" s="3">
-        <v>1658700</v>
+        <v>1819100</v>
       </c>
       <c r="G44" s="3">
-        <v>1695200</v>
+        <v>1727200</v>
       </c>
       <c r="H44" s="3">
-        <v>2170500</v>
+        <v>1765200</v>
       </c>
       <c r="I44" s="3">
-        <v>2276300</v>
+        <v>2260100</v>
       </c>
       <c r="J44" s="3">
+        <v>2370400</v>
+      </c>
+      <c r="K44" s="3">
         <v>1909300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2075400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1858300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1845300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1639300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1486700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1686400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1729000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1495600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1647100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1952000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>630600</v>
+        <v>623500</v>
       </c>
       <c r="E45" s="3">
-        <v>309400</v>
+        <v>656600</v>
       </c>
       <c r="F45" s="3">
-        <v>316500</v>
+        <v>322200</v>
       </c>
       <c r="G45" s="3">
-        <v>400000</v>
+        <v>329500</v>
       </c>
       <c r="H45" s="3">
-        <v>350600</v>
+        <v>416500</v>
       </c>
       <c r="I45" s="3">
-        <v>275300</v>
+        <v>365000</v>
       </c>
       <c r="J45" s="3">
+        <v>286600</v>
+      </c>
+      <c r="K45" s="3">
         <v>294100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>330200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>312300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>418700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>424900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>362300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>297300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>269300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>286100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>280500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>232400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>14248600</v>
+        <v>17136400</v>
       </c>
       <c r="E46" s="3">
-        <v>16611900</v>
+        <v>14837100</v>
       </c>
       <c r="F46" s="3">
-        <v>16743700</v>
+        <v>17298100</v>
       </c>
       <c r="G46" s="3">
-        <v>15974300</v>
+        <v>17435300</v>
       </c>
       <c r="H46" s="3">
-        <v>13232100</v>
+        <v>16634100</v>
       </c>
       <c r="I46" s="3">
-        <v>12549800</v>
+        <v>13778700</v>
       </c>
       <c r="J46" s="3">
+        <v>13068200</v>
+      </c>
+      <c r="K46" s="3">
         <v>13566200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14124700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14214900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13470600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10841700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>11436800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10544500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10716100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9720900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9174500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8998400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>13843900</v>
+        <v>15082100</v>
       </c>
       <c r="E47" s="3">
-        <v>8804200</v>
+        <v>14415700</v>
       </c>
       <c r="F47" s="3">
-        <v>9145300</v>
+        <v>9167800</v>
       </c>
       <c r="G47" s="3">
-        <v>9324100</v>
+        <v>9523100</v>
       </c>
       <c r="H47" s="3">
-        <v>8899500</v>
+        <v>9709300</v>
       </c>
       <c r="I47" s="3">
-        <v>9383000</v>
+        <v>9267000</v>
       </c>
       <c r="J47" s="3">
+        <v>9770500</v>
+      </c>
+      <c r="K47" s="3">
         <v>6566700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6554000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6707000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>5998800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5680000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5236400</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5466300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>4431900</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4404900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4145800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4468700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22590400</v>
+        <v>22267900</v>
       </c>
       <c r="E48" s="3">
-        <v>16911900</v>
+        <v>23523500</v>
       </c>
       <c r="F48" s="3">
-        <v>17754200</v>
+        <v>17610500</v>
       </c>
       <c r="G48" s="3">
-        <v>18037700</v>
+        <v>18487500</v>
       </c>
       <c r="H48" s="3">
-        <v>19385900</v>
+        <v>18782800</v>
       </c>
       <c r="I48" s="3">
-        <v>19550600</v>
+        <v>20186600</v>
       </c>
       <c r="J48" s="3">
+        <v>20358100</v>
+      </c>
+      <c r="K48" s="3">
         <v>19369400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19616500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>17879500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>15679200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15670700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14865800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15319700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15457700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15748300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>16063500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>17152900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4050300</v>
+        <v>4278900</v>
       </c>
       <c r="E49" s="3">
-        <v>3616300</v>
+        <v>4217600</v>
       </c>
       <c r="F49" s="3">
-        <v>4542100</v>
+        <v>3765600</v>
       </c>
       <c r="G49" s="3">
-        <v>4545600</v>
+        <v>4729700</v>
       </c>
       <c r="H49" s="3">
-        <v>4897400</v>
+        <v>4733400</v>
       </c>
       <c r="I49" s="3">
-        <v>4997300</v>
+        <v>5099600</v>
       </c>
       <c r="J49" s="3">
+        <v>5203800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4843200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5048000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3923700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3202100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3188600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>2882300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2971000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>1852400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1867000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1934300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2010700</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3229200</v>
+        <v>4828900</v>
       </c>
       <c r="E52" s="3">
-        <v>2379900</v>
+        <v>3362600</v>
       </c>
       <c r="F52" s="3">
-        <v>2250500</v>
+        <v>2478200</v>
       </c>
       <c r="G52" s="3">
-        <v>1936400</v>
+        <v>2343400</v>
       </c>
       <c r="H52" s="3">
-        <v>1082300</v>
+        <v>2016300</v>
       </c>
       <c r="I52" s="3">
-        <v>938800</v>
+        <v>1127000</v>
       </c>
       <c r="J52" s="3">
+        <v>977500</v>
+      </c>
+      <c r="K52" s="3">
         <v>905800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>958200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>996000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1256000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1408700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1115600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1126500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>935700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1169100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>3635200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>5062600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>57962400</v>
+        <v>63594100</v>
       </c>
       <c r="E54" s="3">
-        <v>48324200</v>
+        <v>60356500</v>
       </c>
       <c r="F54" s="3">
-        <v>50435800</v>
+        <v>50320100</v>
       </c>
       <c r="G54" s="3">
-        <v>49818200</v>
+        <v>52519000</v>
       </c>
       <c r="H54" s="3">
-        <v>47497200</v>
+        <v>51875900</v>
       </c>
       <c r="I54" s="3">
-        <v>47419500</v>
+        <v>49459000</v>
       </c>
       <c r="J54" s="3">
+        <v>49378100</v>
+      </c>
+      <c r="K54" s="3">
         <v>45251400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46301300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>43721200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>39606700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>36789600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>35536800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35428000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33393800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>32910200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34953400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>37693400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,362 +3402,381 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5063200</v>
+        <v>5532100</v>
       </c>
       <c r="E57" s="3">
-        <v>3023300</v>
+        <v>5272400</v>
       </c>
       <c r="F57" s="3">
-        <v>2811600</v>
+        <v>3148200</v>
       </c>
       <c r="G57" s="3">
-        <v>4064500</v>
+        <v>2927700</v>
       </c>
       <c r="H57" s="3">
-        <v>4887900</v>
+        <v>4232300</v>
       </c>
       <c r="I57" s="3">
-        <v>4599700</v>
+        <v>5089800</v>
       </c>
       <c r="J57" s="3">
+        <v>4789700</v>
+      </c>
+      <c r="K57" s="3">
         <v>4173900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5197500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5205900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4101400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>3877000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3910000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3659900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3268400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3028300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3460200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4379500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1992800</v>
+        <v>2241700</v>
       </c>
       <c r="E58" s="3">
-        <v>969400</v>
+        <v>2075100</v>
       </c>
       <c r="F58" s="3">
-        <v>988200</v>
+        <v>1009400</v>
       </c>
       <c r="G58" s="3">
-        <v>661100</v>
+        <v>1029000</v>
       </c>
       <c r="H58" s="3">
-        <v>950500</v>
+        <v>688400</v>
       </c>
       <c r="I58" s="3">
-        <v>1698700</v>
+        <v>989800</v>
       </c>
       <c r="J58" s="3">
+        <v>1768900</v>
+      </c>
+      <c r="K58" s="3">
         <v>1664600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1934300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>997200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>965800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1001400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1902800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1012000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>274900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>218800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>190700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>305200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5432600</v>
+        <v>6488800</v>
       </c>
       <c r="E59" s="3">
-        <v>6166700</v>
+        <v>5657000</v>
       </c>
       <c r="F59" s="3">
-        <v>7361900</v>
+        <v>6421400</v>
       </c>
       <c r="G59" s="3">
-        <v>8990000</v>
+        <v>7666000</v>
       </c>
       <c r="H59" s="3">
-        <v>5213800</v>
+        <v>9361400</v>
       </c>
       <c r="I59" s="3">
-        <v>4688000</v>
+        <v>5429200</v>
       </c>
       <c r="J59" s="3">
+        <v>4881600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5518500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5219000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5247300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>6182600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4643400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3090900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2986700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2753400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2555900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2606400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3211500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12488700</v>
+        <v>14262600</v>
       </c>
       <c r="E60" s="3">
-        <v>10159400</v>
+        <v>13004500</v>
       </c>
       <c r="F60" s="3">
-        <v>11161700</v>
+        <v>10579000</v>
       </c>
       <c r="G60" s="3">
-        <v>13715600</v>
+        <v>11622700</v>
       </c>
       <c r="H60" s="3">
-        <v>11052300</v>
+        <v>14282200</v>
       </c>
       <c r="I60" s="3">
-        <v>10986400</v>
+        <v>11508800</v>
       </c>
       <c r="J60" s="3">
+        <v>11440200</v>
+      </c>
+      <c r="K60" s="3">
         <v>11357000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>12350800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11450500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11249900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>9521900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8903700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>7658700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6296600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5802900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6257300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>7896200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12048700</v>
+        <v>12671300</v>
       </c>
       <c r="E61" s="3">
-        <v>10685200</v>
+        <v>12546300</v>
       </c>
       <c r="F61" s="3">
-        <v>10735800</v>
+        <v>11126600</v>
       </c>
       <c r="G61" s="3">
-        <v>7437200</v>
+        <v>11179300</v>
       </c>
       <c r="H61" s="3">
-        <v>8018300</v>
+        <v>7744400</v>
       </c>
       <c r="I61" s="3">
-        <v>7785400</v>
+        <v>8349500</v>
       </c>
       <c r="J61" s="3">
+        <v>8107000</v>
+      </c>
+      <c r="K61" s="3">
         <v>6550200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6260900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>5806900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5052900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5035400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5017900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5375500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5134200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5244200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5276700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5869100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10015900</v>
+        <v>10631700</v>
       </c>
       <c r="E62" s="3">
-        <v>8654800</v>
+        <v>10429600</v>
       </c>
       <c r="F62" s="3">
-        <v>9183000</v>
+        <v>9012300</v>
       </c>
       <c r="G62" s="3">
-        <v>8857100</v>
+        <v>9562300</v>
       </c>
       <c r="H62" s="3">
-        <v>8588900</v>
+        <v>9222900</v>
       </c>
       <c r="I62" s="3">
-        <v>9039500</v>
+        <v>8943700</v>
       </c>
       <c r="J62" s="3">
+        <v>9412800</v>
+      </c>
+      <c r="K62" s="3">
         <v>8512400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8335100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8315800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>6928000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6508900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6244300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6311200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>5978000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6342600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7216600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7582800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41798700</v>
+        <v>45309900</v>
       </c>
       <c r="E66" s="3">
-        <v>33823900</v>
+        <v>43525100</v>
       </c>
       <c r="F66" s="3">
-        <v>35446100</v>
+        <v>35220900</v>
       </c>
       <c r="G66" s="3">
-        <v>34629700</v>
+        <v>36910200</v>
       </c>
       <c r="H66" s="3">
-        <v>32189800</v>
+        <v>36060000</v>
       </c>
       <c r="I66" s="3">
-        <v>32294500</v>
+        <v>33519400</v>
       </c>
       <c r="J66" s="3">
+        <v>33628400</v>
+      </c>
+      <c r="K66" s="3">
         <v>30806400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>31501900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>29637600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>26852700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>24489800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23702500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>22843700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20852200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20777000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>22206400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24881300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>12025200</v>
+        <v>13931800</v>
       </c>
       <c r="E72" s="3">
-        <v>10321700</v>
+        <v>12521800</v>
       </c>
       <c r="F72" s="3">
-        <v>12271000</v>
+        <v>10748100</v>
       </c>
       <c r="G72" s="3">
-        <v>12471000</v>
+        <v>12777900</v>
       </c>
       <c r="H72" s="3">
-        <v>12541600</v>
+        <v>12986100</v>
       </c>
       <c r="I72" s="3">
-        <v>12407500</v>
+        <v>13059600</v>
       </c>
       <c r="J72" s="3">
+        <v>12920000</v>
+      </c>
+      <c r="K72" s="3">
         <v>11727500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12038600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11306200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10196600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9765600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9846900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9714200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9680500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9272100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9885900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9820100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16163700</v>
+        <v>18284200</v>
       </c>
       <c r="E76" s="3">
-        <v>14500300</v>
+        <v>16831400</v>
       </c>
       <c r="F76" s="3">
-        <v>14989700</v>
+        <v>15099200</v>
       </c>
       <c r="G76" s="3">
-        <v>15188500</v>
+        <v>15608800</v>
       </c>
       <c r="H76" s="3">
-        <v>15307300</v>
+        <v>15815800</v>
       </c>
       <c r="I76" s="3">
-        <v>15125000</v>
+        <v>15939600</v>
       </c>
       <c r="J76" s="3">
+        <v>15749700</v>
+      </c>
+      <c r="K76" s="3">
         <v>14445000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14799400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14083600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12754000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12299800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>11834200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12584200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12541600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12133200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12746900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12812100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2211600</v>
+        <v>801100</v>
       </c>
       <c r="E81" s="3">
-        <v>-572900</v>
+        <v>2303000</v>
       </c>
       <c r="F81" s="3">
-        <v>28200</v>
+        <v>-596600</v>
       </c>
       <c r="G81" s="3">
-        <v>-187000</v>
+        <v>29400</v>
       </c>
       <c r="H81" s="3">
-        <v>417600</v>
+        <v>-194800</v>
       </c>
       <c r="I81" s="3">
-        <v>500000</v>
+        <v>434900</v>
       </c>
       <c r="J81" s="3">
+        <v>520600</v>
+      </c>
+      <c r="K81" s="3">
         <v>638800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>423500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>719200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>244800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>222900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>445800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>348900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>491400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>798900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-442500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>658800</v>
+        <v>774200</v>
       </c>
       <c r="E83" s="3">
-        <v>1625800</v>
+        <v>686000</v>
       </c>
       <c r="F83" s="3">
-        <v>640000</v>
+        <v>1692900</v>
       </c>
       <c r="G83" s="3">
-        <v>836400</v>
+        <v>666400</v>
       </c>
       <c r="H83" s="3">
-        <v>764700</v>
+        <v>871000</v>
       </c>
       <c r="I83" s="3">
-        <v>709400</v>
+        <v>796200</v>
       </c>
       <c r="J83" s="3">
+        <v>738700</v>
+      </c>
+      <c r="K83" s="3">
         <v>723500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>672300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>589100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>505100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>529200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>494100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>596900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>548700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>584600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>500400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>1533000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>798800</v>
+        <v>1303400</v>
       </c>
       <c r="E89" s="3">
-        <v>931700</v>
+        <v>831800</v>
       </c>
       <c r="F89" s="3">
-        <v>638800</v>
+        <v>970200</v>
       </c>
       <c r="G89" s="3">
-        <v>1321100</v>
+        <v>665200</v>
       </c>
       <c r="H89" s="3">
-        <v>1154000</v>
+        <v>1375700</v>
       </c>
       <c r="I89" s="3">
-        <v>1264600</v>
+        <v>1201700</v>
       </c>
       <c r="J89" s="3">
+        <v>1316900</v>
+      </c>
+      <c r="K89" s="3">
         <v>1334000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1035900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1318900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1075500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1353800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1181400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>832500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>888600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1110800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1036700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>718400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-663500</v>
+        <v>-660300</v>
       </c>
       <c r="E91" s="3">
-        <v>-456400</v>
+        <v>-690900</v>
       </c>
       <c r="F91" s="3">
-        <v>-498800</v>
+        <v>-475300</v>
       </c>
       <c r="G91" s="3">
-        <v>-687000</v>
+        <v>-519400</v>
       </c>
       <c r="H91" s="3">
-        <v>-711700</v>
+        <v>-715400</v>
       </c>
       <c r="I91" s="3">
-        <v>-638800</v>
+        <v>-741100</v>
       </c>
       <c r="J91" s="3">
+        <v>-665200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-578800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-619600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-671900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-547200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-473200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-571100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-356800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-373600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-478000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-5235000</v>
+        <v>-797500</v>
       </c>
       <c r="E94" s="3">
-        <v>-498800</v>
+        <v>-5451200</v>
       </c>
       <c r="F94" s="3">
-        <v>-509400</v>
+        <v>-519400</v>
       </c>
       <c r="G94" s="3">
-        <v>-754100</v>
+        <v>-530400</v>
       </c>
       <c r="H94" s="3">
-        <v>-750500</v>
+        <v>-785200</v>
       </c>
       <c r="I94" s="3">
-        <v>-3052800</v>
+        <v>-781500</v>
       </c>
       <c r="J94" s="3">
+        <v>-3178800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-488200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1184200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-886000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-495100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-590700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-352300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>379200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>445400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-206600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,67 +5549,71 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-532900</v>
+        <v>-46500</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-554900</v>
       </c>
       <c r="F96" s="3">
-        <v>-258800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-269500</v>
       </c>
       <c r="H96" s="3">
-        <v>116500</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>121300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-908200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>85200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-760900</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>59500</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-653000</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-99800</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-810500</v>
+        <v>235200</v>
       </c>
       <c r="E100" s="3">
-        <v>1362300</v>
+        <v>-844000</v>
       </c>
       <c r="F100" s="3">
-        <v>3464500</v>
+        <v>1418500</v>
       </c>
       <c r="G100" s="3">
-        <v>-712900</v>
+        <v>3607600</v>
       </c>
       <c r="H100" s="3">
-        <v>-645800</v>
+        <v>-742300</v>
       </c>
       <c r="I100" s="3">
-        <v>1165800</v>
+        <v>-672500</v>
       </c>
       <c r="J100" s="3">
+        <v>1214000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-818800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-275100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>288600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-39900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-232800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>886400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-31400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-682200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-142500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>191300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5900</v>
+        <v>-11000</v>
       </c>
       <c r="E101" s="3">
-        <v>-28200</v>
+        <v>-6100</v>
       </c>
       <c r="F101" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="G101" s="3">
         <v>1200</v>
       </c>
-      <c r="G101" s="3">
-        <v>-44700</v>
-      </c>
       <c r="H101" s="3">
-        <v>-15300</v>
+        <v>-46500</v>
       </c>
       <c r="I101" s="3">
-        <v>-5900</v>
+        <v>-15900</v>
       </c>
       <c r="J101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="K101" s="3">
         <v>5900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-13300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-7700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7900</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-11200</v>
       </c>
       <c r="R101" s="3">
         <v>-11200</v>
       </c>
       <c r="S101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="T101" s="3">
         <v>-16800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-39900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-5252600</v>
+        <v>730100</v>
       </c>
       <c r="E102" s="3">
-        <v>1767000</v>
+        <v>-5469600</v>
       </c>
       <c r="F102" s="3">
-        <v>3595100</v>
+        <v>1839900</v>
       </c>
       <c r="G102" s="3">
-        <v>-190600</v>
+        <v>3743600</v>
       </c>
       <c r="H102" s="3">
-        <v>-257600</v>
+        <v>-198400</v>
       </c>
       <c r="I102" s="3">
-        <v>-628200</v>
+        <v>-268300</v>
       </c>
       <c r="J102" s="3">
+        <v>-654100</v>
+      </c>
+      <c r="K102" s="3">
         <v>32900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-434200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>723900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>527200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>350300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-742800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>493700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>796600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>1322800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>663200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7875500</v>
+        <v>8482400</v>
       </c>
       <c r="E8" s="3">
-        <v>6071100</v>
+        <v>7505300</v>
       </c>
       <c r="F8" s="3">
-        <v>4527600</v>
+        <v>5785700</v>
       </c>
       <c r="G8" s="3">
-        <v>3844000</v>
+        <v>4314700</v>
       </c>
       <c r="H8" s="3">
-        <v>5831000</v>
+        <v>3663300</v>
       </c>
       <c r="I8" s="3">
-        <v>7440600</v>
+        <v>5556900</v>
       </c>
       <c r="J8" s="3">
+        <v>7090800</v>
+      </c>
+      <c r="K8" s="3">
         <v>7287500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7099600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6463100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7854500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>6210300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6265200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5464700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5504500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5212800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5780500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6191100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6346800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5091100</v>
+        <v>5617600</v>
       </c>
       <c r="E9" s="3">
-        <v>4463900</v>
+        <v>4851800</v>
       </c>
       <c r="F9" s="3">
-        <v>2963300</v>
+        <v>4254000</v>
       </c>
       <c r="G9" s="3">
-        <v>2483100</v>
+        <v>2824000</v>
       </c>
       <c r="H9" s="3">
-        <v>4163700</v>
+        <v>2366300</v>
       </c>
       <c r="I9" s="3">
-        <v>4918300</v>
+        <v>3968000</v>
       </c>
       <c r="J9" s="3">
+        <v>4687200</v>
+      </c>
+      <c r="K9" s="3">
         <v>4695400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4537400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4302700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5203600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4239900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4662100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3530100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3775500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3518600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4149100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4238900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>6463000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2784400</v>
+        <v>2864800</v>
       </c>
       <c r="E10" s="3">
-        <v>1607200</v>
+        <v>2653500</v>
       </c>
       <c r="F10" s="3">
-        <v>1564300</v>
+        <v>1531600</v>
       </c>
       <c r="G10" s="3">
-        <v>1361000</v>
+        <v>1490800</v>
       </c>
       <c r="H10" s="3">
-        <v>1667200</v>
+        <v>1297000</v>
       </c>
       <c r="I10" s="3">
-        <v>2522300</v>
+        <v>1588800</v>
       </c>
       <c r="J10" s="3">
+        <v>2403700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2592100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2562200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2160300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2650900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1970400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1603100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1934700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1729000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1694200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1631400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1952300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>-116200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,70 +976,74 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>51400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>758800</v>
+      </c>
+      <c r="H12" s="3">
+        <v>96900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>138900</v>
+      </c>
+      <c r="J12" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K12" s="3">
         <v>46500</v>
       </c>
-      <c r="E12" s="3">
-        <v>53900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>796200</v>
-      </c>
-      <c r="G12" s="3">
-        <v>101700</v>
-      </c>
-      <c r="H12" s="3">
-        <v>145800</v>
-      </c>
-      <c r="I12" s="3">
-        <v>89400</v>
-      </c>
-      <c r="J12" s="3">
-        <v>46500</v>
-      </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>83500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>55000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>71000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>27700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>58200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>40600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>107700</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>39300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>65100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>35900</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>83300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1119,100 +1139,106 @@
       <c r="L14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="3">
         <v>-158500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>165000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-68100</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-3400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-2200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1362100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-153700</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>752100</v>
+        <v>722600</v>
       </c>
       <c r="E15" s="3">
-        <v>420200</v>
+        <v>716800</v>
       </c>
       <c r="F15" s="3">
-        <v>1163700</v>
+        <v>400400</v>
       </c>
       <c r="G15" s="3">
-        <v>602700</v>
+        <v>1109000</v>
       </c>
       <c r="H15" s="3">
-        <v>775400</v>
+        <v>574400</v>
       </c>
       <c r="I15" s="3">
-        <v>764400</v>
+        <v>739000</v>
       </c>
       <c r="J15" s="3">
+        <v>728500</v>
+      </c>
+      <c r="K15" s="3">
         <v>719100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>677600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>656700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>553600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>495100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>516100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>486400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>511600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>538600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>518400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>509400</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6665200</v>
+        <v>7226300</v>
       </c>
       <c r="E17" s="3">
-        <v>4292400</v>
+        <v>6351900</v>
       </c>
       <c r="F17" s="3">
-        <v>5323800</v>
+        <v>4090600</v>
       </c>
       <c r="G17" s="3">
-        <v>3739900</v>
+        <v>5073600</v>
       </c>
       <c r="H17" s="3">
-        <v>5675400</v>
+        <v>3564100</v>
       </c>
       <c r="I17" s="3">
-        <v>6536500</v>
+        <v>5408600</v>
       </c>
       <c r="J17" s="3">
+        <v>6229300</v>
+      </c>
+      <c r="K17" s="3">
         <v>6264600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5986700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5652000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6430200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5483700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5738100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4596200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4899700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4581100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6672500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5163400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6659000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1210300</v>
+        <v>1256100</v>
       </c>
       <c r="E18" s="3">
-        <v>1778700</v>
+        <v>1153400</v>
       </c>
       <c r="F18" s="3">
-        <v>-796200</v>
+        <v>1695100</v>
       </c>
       <c r="G18" s="3">
-        <v>104100</v>
+        <v>-758800</v>
       </c>
       <c r="H18" s="3">
-        <v>155600</v>
+        <v>99200</v>
       </c>
       <c r="I18" s="3">
-        <v>904000</v>
+        <v>148300</v>
       </c>
       <c r="J18" s="3">
+        <v>861500</v>
+      </c>
+      <c r="K18" s="3">
         <v>1022900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1112900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>811000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1424200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>726600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>527000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>868500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>604800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>631700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-892000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1027700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-312200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>246200</v>
+        <v>241700</v>
       </c>
       <c r="E20" s="3">
-        <v>104100</v>
+        <v>234600</v>
       </c>
       <c r="F20" s="3">
-        <v>67400</v>
+        <v>99200</v>
       </c>
       <c r="G20" s="3">
-        <v>58800</v>
+        <v>64200</v>
       </c>
       <c r="H20" s="3">
-        <v>-57600</v>
+        <v>56000</v>
       </c>
       <c r="I20" s="3">
-        <v>138400</v>
+        <v>-54900</v>
       </c>
       <c r="J20" s="3">
+        <v>131900</v>
+      </c>
+      <c r="K20" s="3">
         <v>144500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>227000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>161500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>88700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>154000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>176800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>90000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>25800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>225500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>113300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>149200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>118600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2230700</v>
+        <v>2257800</v>
       </c>
       <c r="E21" s="3">
-        <v>2568800</v>
+        <v>2125900</v>
       </c>
       <c r="F21" s="3">
-        <v>964100</v>
+        <v>2448100</v>
       </c>
       <c r="G21" s="3">
-        <v>829300</v>
+        <v>918800</v>
       </c>
       <c r="H21" s="3">
-        <v>969000</v>
+        <v>790300</v>
       </c>
       <c r="I21" s="3">
-        <v>1838700</v>
+        <v>923400</v>
       </c>
       <c r="J21" s="3">
+        <v>1752300</v>
+      </c>
+      <c r="K21" s="3">
         <v>1906100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2063400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1644800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2102000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1385600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1233100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1452700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1227500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1405900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-194100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1677400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1205500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>94300</v>
+        <v>88700</v>
       </c>
       <c r="E22" s="3">
-        <v>87000</v>
+        <v>89900</v>
       </c>
       <c r="F22" s="3">
-        <v>87000</v>
+        <v>82900</v>
       </c>
       <c r="G22" s="3">
-        <v>77200</v>
+        <v>82900</v>
       </c>
       <c r="H22" s="3">
-        <v>91900</v>
+        <v>73500</v>
       </c>
       <c r="I22" s="3">
-        <v>89400</v>
+        <v>87600</v>
       </c>
       <c r="J22" s="3">
+        <v>85200</v>
+      </c>
+      <c r="K22" s="3">
         <v>95500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>90600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>89700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>82800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>77500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>94400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>70300</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>80800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>69600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>68400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>74000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1362200</v>
+        <v>1409100</v>
       </c>
       <c r="E23" s="3">
-        <v>1795800</v>
+        <v>1298200</v>
       </c>
       <c r="F23" s="3">
-        <v>-815800</v>
+        <v>1711400</v>
       </c>
       <c r="G23" s="3">
-        <v>85700</v>
+        <v>-777500</v>
       </c>
       <c r="H23" s="3">
-        <v>6100</v>
+        <v>81700</v>
       </c>
       <c r="I23" s="3">
-        <v>953000</v>
+        <v>5800</v>
       </c>
       <c r="J23" s="3">
+        <v>908200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1071900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1249300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>882800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1430100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>803000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>609400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>888300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>630600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>776400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-848200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1108500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-267600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>339300</v>
+        <v>465800</v>
       </c>
       <c r="E24" s="3">
-        <v>-588000</v>
+        <v>323400</v>
       </c>
       <c r="F24" s="3">
-        <v>-256000</v>
+        <v>-560400</v>
       </c>
       <c r="G24" s="3">
-        <v>15900</v>
+        <v>-244000</v>
       </c>
       <c r="H24" s="3">
-        <v>89400</v>
+        <v>15200</v>
       </c>
       <c r="I24" s="3">
-        <v>392000</v>
+        <v>85200</v>
       </c>
       <c r="J24" s="3">
+        <v>373600</v>
+      </c>
+      <c r="K24" s="3">
         <v>416500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>475300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>289500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>492100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>366600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>306300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>305200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>159300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>166100</v>
-      </c>
-      <c r="S24" s="3">
-        <v>193000</v>
       </c>
       <c r="T24" s="3">
         <v>193000</v>
       </c>
       <c r="U24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="V24" s="3">
         <v>120900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1022900</v>
+        <v>943300</v>
       </c>
       <c r="E26" s="3">
-        <v>2383800</v>
+        <v>974800</v>
       </c>
       <c r="F26" s="3">
-        <v>-559800</v>
+        <v>2271800</v>
       </c>
       <c r="G26" s="3">
-        <v>69800</v>
+        <v>-533500</v>
       </c>
       <c r="H26" s="3">
-        <v>-83300</v>
+        <v>66500</v>
       </c>
       <c r="I26" s="3">
-        <v>561000</v>
+        <v>-79400</v>
       </c>
       <c r="J26" s="3">
+        <v>534700</v>
+      </c>
+      <c r="K26" s="3">
         <v>655400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>774100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>593300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>938000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>436400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>303000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>583000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>471200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>610400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>915500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-388500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>801100</v>
+        <v>726100</v>
       </c>
       <c r="E27" s="3">
-        <v>2303000</v>
+        <v>763500</v>
       </c>
       <c r="F27" s="3">
-        <v>-596600</v>
+        <v>2194700</v>
       </c>
       <c r="G27" s="3">
-        <v>29400</v>
+        <v>-568500</v>
       </c>
       <c r="H27" s="3">
-        <v>-194800</v>
+        <v>28000</v>
       </c>
       <c r="I27" s="3">
-        <v>434900</v>
+        <v>-185600</v>
       </c>
       <c r="J27" s="3">
+        <v>414400</v>
+      </c>
+      <c r="K27" s="3">
         <v>520600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>638800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>423500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>719200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>244800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>222900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>445800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>348900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>491400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>798900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-442500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-246200</v>
+        <v>-241700</v>
       </c>
       <c r="E32" s="3">
-        <v>-104100</v>
+        <v>-234600</v>
       </c>
       <c r="F32" s="3">
-        <v>-67400</v>
+        <v>-99200</v>
       </c>
       <c r="G32" s="3">
-        <v>-58800</v>
+        <v>-64200</v>
       </c>
       <c r="H32" s="3">
-        <v>57600</v>
+        <v>-56000</v>
       </c>
       <c r="I32" s="3">
-        <v>-138400</v>
+        <v>54900</v>
       </c>
       <c r="J32" s="3">
+        <v>-131900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-144500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-227000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-161500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-88700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-154000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-176800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-90000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-25800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-225500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-113300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-149200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-118600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>801100</v>
+        <v>726100</v>
       </c>
       <c r="E33" s="3">
-        <v>2303000</v>
+        <v>763500</v>
       </c>
       <c r="F33" s="3">
-        <v>-596600</v>
+        <v>2194700</v>
       </c>
       <c r="G33" s="3">
-        <v>29400</v>
+        <v>-568500</v>
       </c>
       <c r="H33" s="3">
-        <v>-194800</v>
+        <v>28000</v>
       </c>
       <c r="I33" s="3">
-        <v>434900</v>
+        <v>-185600</v>
       </c>
       <c r="J33" s="3">
+        <v>414400</v>
+      </c>
+      <c r="K33" s="3">
         <v>520600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>638800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>423500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>719200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>244800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>222900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>445800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>348900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>491400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>798900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-442500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>801100</v>
+        <v>726100</v>
       </c>
       <c r="E35" s="3">
-        <v>2303000</v>
+        <v>763500</v>
       </c>
       <c r="F35" s="3">
-        <v>-596600</v>
+        <v>2194700</v>
       </c>
       <c r="G35" s="3">
-        <v>29400</v>
+        <v>-568500</v>
       </c>
       <c r="H35" s="3">
-        <v>-194800</v>
+        <v>28000</v>
       </c>
       <c r="I35" s="3">
-        <v>434900</v>
+        <v>-185600</v>
       </c>
       <c r="J35" s="3">
+        <v>414400</v>
+      </c>
+      <c r="K35" s="3">
         <v>520600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>638800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>423500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>719200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>244800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>222900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>445800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>348900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>491400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>798900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-442500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,566 +2573,594 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4198000</v>
+        <v>3609600</v>
       </c>
       <c r="E41" s="3">
-        <v>3496100</v>
+        <v>4000700</v>
       </c>
       <c r="F41" s="3">
-        <v>8980400</v>
+        <v>3331800</v>
       </c>
       <c r="G41" s="3">
-        <v>7141700</v>
+        <v>8558300</v>
       </c>
       <c r="H41" s="3">
-        <v>3392000</v>
+        <v>6806000</v>
       </c>
       <c r="I41" s="3">
-        <v>3590400</v>
+        <v>3232600</v>
       </c>
       <c r="J41" s="3">
+        <v>3421700</v>
+      </c>
+      <c r="K41" s="3">
         <v>3867300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4342100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4382900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4762400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3780200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3213800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4718100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4456500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>5209400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4715700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3504000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2428600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4375700</v>
+        <v>10517200</v>
       </c>
       <c r="E42" s="3">
-        <v>3697000</v>
+        <v>4170000</v>
       </c>
       <c r="F42" s="3">
-        <v>3884400</v>
+        <v>3523200</v>
       </c>
       <c r="G42" s="3">
-        <v>6166600</v>
+        <v>3701900</v>
       </c>
       <c r="H42" s="3">
-        <v>7846100</v>
+        <v>5876700</v>
       </c>
       <c r="I42" s="3">
-        <v>3823200</v>
+        <v>7477300</v>
       </c>
       <c r="J42" s="3">
+        <v>3643500</v>
+      </c>
+      <c r="K42" s="3">
         <v>2736600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3435100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>2978500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3225800</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>4229900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2617600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1327500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1279100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1220700</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>905400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>821300</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1461400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5035900</v>
+        <v>4587900</v>
       </c>
       <c r="E43" s="3">
-        <v>4106200</v>
+        <v>4799200</v>
       </c>
       <c r="F43" s="3">
-        <v>2292000</v>
+        <v>3913200</v>
       </c>
       <c r="G43" s="3">
-        <v>2070200</v>
+        <v>2184200</v>
       </c>
       <c r="H43" s="3">
-        <v>3214400</v>
+        <v>1972900</v>
       </c>
       <c r="I43" s="3">
-        <v>3739900</v>
+        <v>3063300</v>
       </c>
       <c r="J43" s="3">
+        <v>3564100</v>
+      </c>
+      <c r="K43" s="3">
         <v>3807300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3585700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4357800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4056200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3196500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2945900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3542100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2825200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2287700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2318000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2921700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2924000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2903200</v>
+        <v>2986200</v>
       </c>
       <c r="E44" s="3">
-        <v>2881200</v>
+        <v>2766800</v>
       </c>
       <c r="F44" s="3">
-        <v>1819100</v>
+        <v>2745700</v>
       </c>
       <c r="G44" s="3">
-        <v>1727200</v>
+        <v>1733600</v>
       </c>
       <c r="H44" s="3">
-        <v>1765200</v>
+        <v>1646000</v>
       </c>
       <c r="I44" s="3">
-        <v>2260100</v>
+        <v>1682200</v>
       </c>
       <c r="J44" s="3">
+        <v>2153900</v>
+      </c>
+      <c r="K44" s="3">
         <v>2370400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1909300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2075400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1858300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1845300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1639300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1486700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1686400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1729000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1495600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1647100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1952000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>623500</v>
+        <v>476300</v>
       </c>
       <c r="E45" s="3">
-        <v>656600</v>
+        <v>594200</v>
       </c>
       <c r="F45" s="3">
-        <v>322200</v>
+        <v>625700</v>
       </c>
       <c r="G45" s="3">
-        <v>329500</v>
+        <v>307000</v>
       </c>
       <c r="H45" s="3">
-        <v>416500</v>
+        <v>314000</v>
       </c>
       <c r="I45" s="3">
-        <v>365000</v>
+        <v>396900</v>
       </c>
       <c r="J45" s="3">
+        <v>347900</v>
+      </c>
+      <c r="K45" s="3">
         <v>286600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>294100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>330200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>312300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>418700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>424900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>362300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>297300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>269300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>286100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>280500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>232400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17136400</v>
+        <v>22177300</v>
       </c>
       <c r="E46" s="3">
-        <v>14837100</v>
+        <v>16330900</v>
       </c>
       <c r="F46" s="3">
-        <v>17298100</v>
+        <v>14139700</v>
       </c>
       <c r="G46" s="3">
-        <v>17435300</v>
+        <v>16485000</v>
       </c>
       <c r="H46" s="3">
-        <v>16634100</v>
+        <v>16615700</v>
       </c>
       <c r="I46" s="3">
-        <v>13778700</v>
+        <v>15852300</v>
       </c>
       <c r="J46" s="3">
+        <v>13131000</v>
+      </c>
+      <c r="K46" s="3">
         <v>13068200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13566200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14124700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14214900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13470600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>10841700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>11436800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>10544500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10716100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9720900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9174500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8998400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15082100</v>
+        <v>15154100</v>
       </c>
       <c r="E47" s="3">
-        <v>14415700</v>
+        <v>14373200</v>
       </c>
       <c r="F47" s="3">
-        <v>9167800</v>
+        <v>13738100</v>
       </c>
       <c r="G47" s="3">
-        <v>9523100</v>
+        <v>8736900</v>
       </c>
       <c r="H47" s="3">
-        <v>9709300</v>
+        <v>9075400</v>
       </c>
       <c r="I47" s="3">
-        <v>9267000</v>
+        <v>9252900</v>
       </c>
       <c r="J47" s="3">
+        <v>8831500</v>
+      </c>
+      <c r="K47" s="3">
         <v>9770500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>6566700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6554000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6707000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>5998800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5680000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5236400</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5466300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>4431900</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4404900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4145800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4468700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22267900</v>
+        <v>21280700</v>
       </c>
       <c r="E48" s="3">
-        <v>23523500</v>
+        <v>21221200</v>
       </c>
       <c r="F48" s="3">
-        <v>17610500</v>
+        <v>22417800</v>
       </c>
       <c r="G48" s="3">
-        <v>18487500</v>
+        <v>16782700</v>
       </c>
       <c r="H48" s="3">
-        <v>18782800</v>
+        <v>17618600</v>
       </c>
       <c r="I48" s="3">
-        <v>20186600</v>
+        <v>17899900</v>
       </c>
       <c r="J48" s="3">
+        <v>19237700</v>
+      </c>
+      <c r="K48" s="3">
         <v>20358100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19369400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19616500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>17879500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>15679200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15670700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>14865800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>15319700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15457700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15748300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>16063500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17152900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4278900</v>
+        <v>3907300</v>
       </c>
       <c r="E49" s="3">
-        <v>4217600</v>
+        <v>4077800</v>
       </c>
       <c r="F49" s="3">
-        <v>3765600</v>
+        <v>4019400</v>
       </c>
       <c r="G49" s="3">
-        <v>4729700</v>
+        <v>3588600</v>
       </c>
       <c r="H49" s="3">
-        <v>4733400</v>
+        <v>4507400</v>
       </c>
       <c r="I49" s="3">
-        <v>5099600</v>
+        <v>4510900</v>
       </c>
       <c r="J49" s="3">
+        <v>4859900</v>
+      </c>
+      <c r="K49" s="3">
         <v>5203800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4843200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>5048000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3923700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3202100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3188600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>2882300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2971000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>1852400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1867000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1934300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2010700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>4828900</v>
+        <v>3589800</v>
       </c>
       <c r="E52" s="3">
-        <v>3362600</v>
+        <v>4601900</v>
       </c>
       <c r="F52" s="3">
-        <v>2478200</v>
+        <v>3204500</v>
       </c>
       <c r="G52" s="3">
-        <v>2343400</v>
+        <v>2361700</v>
       </c>
       <c r="H52" s="3">
-        <v>2016300</v>
+        <v>2233300</v>
       </c>
       <c r="I52" s="3">
-        <v>1127000</v>
+        <v>1921600</v>
       </c>
       <c r="J52" s="3">
+        <v>1074000</v>
+      </c>
+      <c r="K52" s="3">
         <v>977500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>905800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>958200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>996000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1256000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1408700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1115600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1126500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>935700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1169100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>3635200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>5062600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>63594100</v>
+        <v>66109300</v>
       </c>
       <c r="E54" s="3">
-        <v>60356500</v>
+        <v>60604900</v>
       </c>
       <c r="F54" s="3">
-        <v>50320100</v>
+        <v>57519500</v>
       </c>
       <c r="G54" s="3">
-        <v>52519000</v>
+        <v>47954900</v>
       </c>
       <c r="H54" s="3">
-        <v>51875900</v>
+        <v>50050400</v>
       </c>
       <c r="I54" s="3">
-        <v>49459000</v>
+        <v>49437500</v>
       </c>
       <c r="J54" s="3">
+        <v>47134200</v>
+      </c>
+      <c r="K54" s="3">
         <v>49378100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>45251400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46301300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>43721200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>39606700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>36789600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>35536800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35428000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33393800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>32910200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34953400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>37693400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,380 +3533,399 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5532100</v>
+        <v>4882100</v>
       </c>
       <c r="E57" s="3">
-        <v>5272400</v>
+        <v>5272000</v>
       </c>
       <c r="F57" s="3">
-        <v>3148200</v>
+        <v>5024500</v>
       </c>
       <c r="G57" s="3">
-        <v>2927700</v>
+        <v>3000200</v>
       </c>
       <c r="H57" s="3">
-        <v>4232300</v>
+        <v>2790100</v>
       </c>
       <c r="I57" s="3">
-        <v>5089800</v>
+        <v>4033400</v>
       </c>
       <c r="J57" s="3">
+        <v>4850600</v>
+      </c>
+      <c r="K57" s="3">
         <v>4789700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4173900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5197500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5205900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4101400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>3877000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3910000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3659900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3268400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3028300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3460200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4379500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2241700</v>
+        <v>1153400</v>
       </c>
       <c r="E58" s="3">
-        <v>2075100</v>
+        <v>2136400</v>
       </c>
       <c r="F58" s="3">
-        <v>1009400</v>
+        <v>1977600</v>
       </c>
       <c r="G58" s="3">
-        <v>1029000</v>
+        <v>961900</v>
       </c>
       <c r="H58" s="3">
-        <v>688400</v>
+        <v>980600</v>
       </c>
       <c r="I58" s="3">
-        <v>989800</v>
+        <v>656100</v>
       </c>
       <c r="J58" s="3">
+        <v>943300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1768900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1664600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1934300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>997200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>965800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1001400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1902800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1012000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>274900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>218800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>190700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>305200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6488800</v>
+        <v>12944200</v>
       </c>
       <c r="E59" s="3">
-        <v>5657000</v>
+        <v>6183800</v>
       </c>
       <c r="F59" s="3">
-        <v>6421400</v>
+        <v>5391100</v>
       </c>
       <c r="G59" s="3">
-        <v>7666000</v>
+        <v>6119600</v>
       </c>
       <c r="H59" s="3">
-        <v>9361400</v>
+        <v>7305700</v>
       </c>
       <c r="I59" s="3">
-        <v>5429200</v>
+        <v>8921300</v>
       </c>
       <c r="J59" s="3">
+        <v>5174000</v>
+      </c>
+      <c r="K59" s="3">
         <v>4881600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5518500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5219000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5247300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6182600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4643400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3090900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2986700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2753400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2555900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2606400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3211500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14262600</v>
+        <v>18979800</v>
       </c>
       <c r="E60" s="3">
-        <v>13004500</v>
+        <v>13592200</v>
       </c>
       <c r="F60" s="3">
-        <v>10579000</v>
+        <v>12393200</v>
       </c>
       <c r="G60" s="3">
-        <v>11622700</v>
+        <v>10081800</v>
       </c>
       <c r="H60" s="3">
-        <v>14282200</v>
+        <v>11076400</v>
       </c>
       <c r="I60" s="3">
-        <v>11508800</v>
+        <v>13610800</v>
       </c>
       <c r="J60" s="3">
+        <v>10967800</v>
+      </c>
+      <c r="K60" s="3">
         <v>11440200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11357000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12350800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>11450500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11249900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>9521900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>8903700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>7658700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6296600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5802900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>6257300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7896200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12671300</v>
+        <v>12024300</v>
       </c>
       <c r="E61" s="3">
-        <v>12546300</v>
+        <v>12075700</v>
       </c>
       <c r="F61" s="3">
-        <v>11126600</v>
+        <v>11956600</v>
       </c>
       <c r="G61" s="3">
-        <v>11179300</v>
+        <v>10603600</v>
       </c>
       <c r="H61" s="3">
-        <v>7744400</v>
+        <v>10653800</v>
       </c>
       <c r="I61" s="3">
-        <v>8349500</v>
+        <v>7380400</v>
       </c>
       <c r="J61" s="3">
+        <v>7957100</v>
+      </c>
+      <c r="K61" s="3">
         <v>8107000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>6550200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6260900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>5806900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5052900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5035400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5017900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5375500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5134200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5244200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5276700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5869100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10631700</v>
+        <v>10646800</v>
       </c>
       <c r="E62" s="3">
-        <v>10429600</v>
+        <v>10132000</v>
       </c>
       <c r="F62" s="3">
-        <v>9012300</v>
+        <v>9939300</v>
       </c>
       <c r="G62" s="3">
-        <v>9562300</v>
+        <v>8588600</v>
       </c>
       <c r="H62" s="3">
-        <v>9222900</v>
+        <v>9112800</v>
       </c>
       <c r="I62" s="3">
-        <v>8943700</v>
+        <v>8789400</v>
       </c>
       <c r="J62" s="3">
+        <v>8523300</v>
+      </c>
+      <c r="K62" s="3">
         <v>9412800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8512400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8335100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8315800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>6928000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6508900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6244300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6311200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>5978000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6342600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7216600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7582800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45309900</v>
+        <v>48765100</v>
       </c>
       <c r="E66" s="3">
-        <v>43525100</v>
+        <v>43180200</v>
       </c>
       <c r="F66" s="3">
-        <v>35220900</v>
+        <v>41479200</v>
       </c>
       <c r="G66" s="3">
-        <v>36910200</v>
+        <v>33565400</v>
       </c>
       <c r="H66" s="3">
-        <v>36060000</v>
+        <v>35175200</v>
       </c>
       <c r="I66" s="3">
-        <v>33519400</v>
+        <v>34365000</v>
       </c>
       <c r="J66" s="3">
+        <v>31943800</v>
+      </c>
+      <c r="K66" s="3">
         <v>33628400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>30806400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>31501900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>29637600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>26852700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>24489800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>23702500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>22843700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20852200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20777000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>22206400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>24881300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13931800</v>
+        <v>13197600</v>
       </c>
       <c r="E72" s="3">
-        <v>12521800</v>
+        <v>13277000</v>
       </c>
       <c r="F72" s="3">
-        <v>10748100</v>
+        <v>11933300</v>
       </c>
       <c r="G72" s="3">
-        <v>12777900</v>
+        <v>10242900</v>
       </c>
       <c r="H72" s="3">
-        <v>12986100</v>
+        <v>12177300</v>
       </c>
       <c r="I72" s="3">
-        <v>13059600</v>
+        <v>12375700</v>
       </c>
       <c r="J72" s="3">
+        <v>12445800</v>
+      </c>
+      <c r="K72" s="3">
         <v>12920000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11727500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12038600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11306200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10196600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9765600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9846900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9714200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9680500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9272100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9885900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9820100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18284200</v>
+        <v>17344200</v>
       </c>
       <c r="E76" s="3">
-        <v>16831400</v>
+        <v>17424800</v>
       </c>
       <c r="F76" s="3">
-        <v>15099200</v>
+        <v>16040200</v>
       </c>
       <c r="G76" s="3">
-        <v>15608800</v>
+        <v>14389500</v>
       </c>
       <c r="H76" s="3">
-        <v>15815800</v>
+        <v>14875100</v>
       </c>
       <c r="I76" s="3">
-        <v>15939600</v>
+        <v>15072400</v>
       </c>
       <c r="J76" s="3">
+        <v>15190300</v>
+      </c>
+      <c r="K76" s="3">
         <v>15749700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14445000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14799400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14083600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12754000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12299800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>11834200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12584200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12541600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12133200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12746900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12812100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>801100</v>
+        <v>726100</v>
       </c>
       <c r="E81" s="3">
-        <v>2303000</v>
+        <v>763500</v>
       </c>
       <c r="F81" s="3">
-        <v>-596600</v>
+        <v>2194700</v>
       </c>
       <c r="G81" s="3">
-        <v>29400</v>
+        <v>-568500</v>
       </c>
       <c r="H81" s="3">
-        <v>-194800</v>
+        <v>28000</v>
       </c>
       <c r="I81" s="3">
-        <v>434900</v>
+        <v>-185600</v>
       </c>
       <c r="J81" s="3">
+        <v>414400</v>
+      </c>
+      <c r="K81" s="3">
         <v>520600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>638800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>423500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>719200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>244800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>222900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>445800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>348900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>491400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>798900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-442500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>774200</v>
+        <v>760000</v>
       </c>
       <c r="E83" s="3">
-        <v>686000</v>
+        <v>737800</v>
       </c>
       <c r="F83" s="3">
-        <v>1692900</v>
+        <v>653700</v>
       </c>
       <c r="G83" s="3">
-        <v>666400</v>
+        <v>1613400</v>
       </c>
       <c r="H83" s="3">
-        <v>871000</v>
+        <v>635100</v>
       </c>
       <c r="I83" s="3">
-        <v>796200</v>
+        <v>830000</v>
       </c>
       <c r="J83" s="3">
+        <v>758800</v>
+      </c>
+      <c r="K83" s="3">
         <v>738700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>723500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>672300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>589100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>505100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>529200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>494100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>596900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>548700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>584600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>500400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>1533000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1303400</v>
+        <v>1823500</v>
       </c>
       <c r="E89" s="3">
-        <v>831800</v>
+        <v>1242100</v>
       </c>
       <c r="F89" s="3">
-        <v>970200</v>
+        <v>792700</v>
       </c>
       <c r="G89" s="3">
-        <v>665200</v>
+        <v>924600</v>
       </c>
       <c r="H89" s="3">
-        <v>1375700</v>
+        <v>633900</v>
       </c>
       <c r="I89" s="3">
-        <v>1201700</v>
+        <v>1311000</v>
       </c>
       <c r="J89" s="3">
+        <v>1145200</v>
+      </c>
+      <c r="K89" s="3">
         <v>1316900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1334000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1035900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1318900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1075500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1353800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1181400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>832500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>888600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1110800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1036700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>718400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-660300</v>
+        <v>-725000</v>
       </c>
       <c r="E91" s="3">
-        <v>-690900</v>
+        <v>-629200</v>
       </c>
       <c r="F91" s="3">
-        <v>-475300</v>
+        <v>-658400</v>
       </c>
       <c r="G91" s="3">
-        <v>-519400</v>
+        <v>-453000</v>
       </c>
       <c r="H91" s="3">
-        <v>-715400</v>
+        <v>-495000</v>
       </c>
       <c r="I91" s="3">
-        <v>-741100</v>
+        <v>-681800</v>
       </c>
       <c r="J91" s="3">
+        <v>-706300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-665200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-578800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-619600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-671900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-547200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-473200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-571100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-356800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-373600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-478000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-797500</v>
+        <v>-130700</v>
       </c>
       <c r="E94" s="3">
-        <v>-5451200</v>
+        <v>-760000</v>
       </c>
       <c r="F94" s="3">
-        <v>-519400</v>
+        <v>-5195000</v>
       </c>
       <c r="G94" s="3">
-        <v>-530400</v>
+        <v>-495000</v>
       </c>
       <c r="H94" s="3">
-        <v>-785200</v>
+        <v>-505500</v>
       </c>
       <c r="I94" s="3">
-        <v>-781500</v>
+        <v>-748300</v>
       </c>
       <c r="J94" s="3">
+        <v>-744800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3178800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-488200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1184200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-886000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-495100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-590700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-352300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>379200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>445400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-206600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,70 +5783,74 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-46500</v>
+        <v>-987600</v>
       </c>
       <c r="E96" s="3">
-        <v>-554900</v>
+        <v>-44400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-528800</v>
       </c>
       <c r="G96" s="3">
-        <v>-269500</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-256800</v>
       </c>
       <c r="I96" s="3">
-        <v>121300</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>115600</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-908200</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>85200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-760900</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>59500</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-653000</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-99800</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>235200</v>
+        <v>-2083800</v>
       </c>
       <c r="E100" s="3">
-        <v>-844000</v>
+        <v>224100</v>
       </c>
       <c r="F100" s="3">
-        <v>1418500</v>
+        <v>-804300</v>
       </c>
       <c r="G100" s="3">
-        <v>3607600</v>
+        <v>1351900</v>
       </c>
       <c r="H100" s="3">
-        <v>-742300</v>
+        <v>3438000</v>
       </c>
       <c r="I100" s="3">
-        <v>-672500</v>
+        <v>-707500</v>
       </c>
       <c r="J100" s="3">
+        <v>-640900</v>
+      </c>
+      <c r="K100" s="3">
         <v>1214000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-818800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-275100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>288600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-39900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-232800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>886400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-31400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-682200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-142500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>191300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-11000</v>
+        <v>-2300</v>
       </c>
       <c r="E101" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="G101" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-44400</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-6100</v>
       </c>
-      <c r="F101" s="3">
-        <v>-29400</v>
-      </c>
-      <c r="G101" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-46500</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-15900</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-10800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-13300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-5500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7900</v>
-      </c>
-      <c r="R101" s="3">
-        <v>-11200</v>
       </c>
       <c r="S101" s="3">
         <v>-11200</v>
       </c>
       <c r="T101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="U101" s="3">
         <v>-16800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-39900</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>730100</v>
+        <v>-393400</v>
       </c>
       <c r="E102" s="3">
-        <v>-5469600</v>
+        <v>695800</v>
       </c>
       <c r="F102" s="3">
-        <v>1839900</v>
+        <v>-5212500</v>
       </c>
       <c r="G102" s="3">
-        <v>3743600</v>
+        <v>1753400</v>
       </c>
       <c r="H102" s="3">
-        <v>-198400</v>
+        <v>3567600</v>
       </c>
       <c r="I102" s="3">
-        <v>-268300</v>
+        <v>-189100</v>
       </c>
       <c r="J102" s="3">
+        <v>-255700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-654100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>32900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-434200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>723900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>527200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>350300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-742800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>493700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>796600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1322800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>663200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,308 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8482400</v>
+        <v>9609800</v>
       </c>
       <c r="E8" s="3">
-        <v>7505300</v>
+        <v>8204000</v>
       </c>
       <c r="F8" s="3">
-        <v>5785700</v>
+        <v>7259000</v>
       </c>
       <c r="G8" s="3">
-        <v>4314700</v>
+        <v>5595800</v>
       </c>
       <c r="H8" s="3">
-        <v>3663300</v>
+        <v>4173200</v>
       </c>
       <c r="I8" s="3">
-        <v>5556900</v>
+        <v>3543100</v>
       </c>
       <c r="J8" s="3">
+        <v>5374500</v>
+      </c>
+      <c r="K8" s="3">
         <v>7090800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7287500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7099600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6463100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7854500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>6210300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6265200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5464700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5504500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5212800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5780500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6191100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6346800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5617600</v>
+        <v>6897700</v>
       </c>
       <c r="E9" s="3">
-        <v>4851800</v>
+        <v>5433200</v>
       </c>
       <c r="F9" s="3">
-        <v>4254000</v>
+        <v>4692500</v>
       </c>
       <c r="G9" s="3">
-        <v>2824000</v>
+        <v>4114400</v>
       </c>
       <c r="H9" s="3">
-        <v>2366300</v>
+        <v>2731300</v>
       </c>
       <c r="I9" s="3">
-        <v>3968000</v>
+        <v>2288700</v>
       </c>
       <c r="J9" s="3">
+        <v>3837800</v>
+      </c>
+      <c r="K9" s="3">
         <v>4687200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>4695400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4537400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4302700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5203600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4239900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4662100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3530100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>3775500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>3518600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4149100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4238900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>6463000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2864800</v>
+        <v>2712100</v>
       </c>
       <c r="E10" s="3">
-        <v>2653500</v>
+        <v>2770800</v>
       </c>
       <c r="F10" s="3">
-        <v>1531600</v>
+        <v>2566400</v>
       </c>
       <c r="G10" s="3">
-        <v>1490800</v>
+        <v>1481400</v>
       </c>
       <c r="H10" s="3">
-        <v>1297000</v>
+        <v>1441900</v>
       </c>
       <c r="I10" s="3">
-        <v>1588800</v>
+        <v>1254400</v>
       </c>
       <c r="J10" s="3">
+        <v>1536700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2403700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2592100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2562200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2160300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2650900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1970400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1603100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1934700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1729000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1694200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1631400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1952300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>-116200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,73 +990,77 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>52500</v>
+        <v>50800</v>
       </c>
       <c r="E12" s="3">
-        <v>44400</v>
+        <v>50800</v>
       </c>
       <c r="F12" s="3">
-        <v>51400</v>
+        <v>42900</v>
       </c>
       <c r="G12" s="3">
-        <v>758800</v>
+        <v>49700</v>
       </c>
       <c r="H12" s="3">
-        <v>96900</v>
+        <v>733900</v>
       </c>
       <c r="I12" s="3">
-        <v>138900</v>
+        <v>93700</v>
       </c>
       <c r="J12" s="3">
+        <v>134400</v>
+      </c>
+      <c r="K12" s="3">
         <v>85200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>46500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>83500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>55000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>71000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>27700</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>58200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>40600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>107700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>39300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>65100</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>35900</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>83300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1142,103 +1162,109 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="3">
         <v>-158500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>165000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-68100</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-3400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-2200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1362100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-153700</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>722600</v>
+        <v>756500</v>
       </c>
       <c r="E15" s="3">
-        <v>716800</v>
+        <v>698900</v>
       </c>
       <c r="F15" s="3">
-        <v>400400</v>
+        <v>693300</v>
       </c>
       <c r="G15" s="3">
-        <v>1109000</v>
+        <v>387300</v>
       </c>
       <c r="H15" s="3">
-        <v>574400</v>
+        <v>1072600</v>
       </c>
       <c r="I15" s="3">
-        <v>739000</v>
+        <v>555500</v>
       </c>
       <c r="J15" s="3">
+        <v>714700</v>
+      </c>
+      <c r="K15" s="3">
         <v>728500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>719100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>677600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>656700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>553600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>495100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>516100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>486400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>511600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>538600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>518400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>509400</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1285,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7226300</v>
+        <v>8581200</v>
       </c>
       <c r="E17" s="3">
-        <v>6351900</v>
+        <v>6989100</v>
       </c>
       <c r="F17" s="3">
-        <v>4090600</v>
+        <v>6143400</v>
       </c>
       <c r="G17" s="3">
-        <v>5073600</v>
+        <v>3956400</v>
       </c>
       <c r="H17" s="3">
-        <v>3564100</v>
+        <v>4907100</v>
       </c>
       <c r="I17" s="3">
-        <v>5408600</v>
+        <v>3447100</v>
       </c>
       <c r="J17" s="3">
+        <v>5231100</v>
+      </c>
+      <c r="K17" s="3">
         <v>6229300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6264600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5986700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5652000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6430200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5483700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5738100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4596200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4899700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4581100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>6672500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5163400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6659000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1256100</v>
+        <v>1028600</v>
       </c>
       <c r="E18" s="3">
-        <v>1153400</v>
+        <v>1214900</v>
       </c>
       <c r="F18" s="3">
-        <v>1695100</v>
+        <v>1115600</v>
       </c>
       <c r="G18" s="3">
-        <v>-758800</v>
+        <v>1639500</v>
       </c>
       <c r="H18" s="3">
-        <v>99200</v>
+        <v>-733900</v>
       </c>
       <c r="I18" s="3">
-        <v>148300</v>
+        <v>96000</v>
       </c>
       <c r="J18" s="3">
+        <v>143400</v>
+      </c>
+      <c r="K18" s="3">
         <v>861500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1022900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1112900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>811000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1424200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>726600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>527000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>868500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>604800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>631700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-892000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1027700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-312200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,333 +1447,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>241700</v>
+        <v>229200</v>
       </c>
       <c r="E20" s="3">
-        <v>234600</v>
+        <v>233700</v>
       </c>
       <c r="F20" s="3">
-        <v>99200</v>
+        <v>226900</v>
       </c>
       <c r="G20" s="3">
-        <v>64200</v>
+        <v>96000</v>
       </c>
       <c r="H20" s="3">
-        <v>56000</v>
+        <v>62100</v>
       </c>
       <c r="I20" s="3">
-        <v>-54900</v>
+        <v>54200</v>
       </c>
       <c r="J20" s="3">
+        <v>-53100</v>
+      </c>
+      <c r="K20" s="3">
         <v>131900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>144500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>227000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>161500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>88700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>154000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>176800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>90000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>25800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>225500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>113300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>149200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>118600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2257800</v>
+        <v>2041400</v>
       </c>
       <c r="E21" s="3">
-        <v>2125900</v>
+        <v>2183700</v>
       </c>
       <c r="F21" s="3">
-        <v>2448100</v>
+        <v>2056100</v>
       </c>
       <c r="G21" s="3">
-        <v>918800</v>
+        <v>2367700</v>
       </c>
       <c r="H21" s="3">
-        <v>790300</v>
+        <v>888600</v>
       </c>
       <c r="I21" s="3">
-        <v>923400</v>
+        <v>764400</v>
       </c>
       <c r="J21" s="3">
+        <v>893100</v>
+      </c>
+      <c r="K21" s="3">
         <v>1752300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1906100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2063400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1644800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2102000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1385600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1233100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1452700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1227500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1405900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-194100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1677400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1205500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>88700</v>
+        <v>110700</v>
       </c>
       <c r="E22" s="3">
-        <v>89900</v>
+        <v>85800</v>
       </c>
       <c r="F22" s="3">
-        <v>82900</v>
+        <v>86900</v>
       </c>
       <c r="G22" s="3">
-        <v>82900</v>
+        <v>80200</v>
       </c>
       <c r="H22" s="3">
-        <v>73500</v>
+        <v>80200</v>
       </c>
       <c r="I22" s="3">
-        <v>87600</v>
+        <v>71100</v>
       </c>
       <c r="J22" s="3">
+        <v>84700</v>
+      </c>
+      <c r="K22" s="3">
         <v>85200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>95500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>90600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>89700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>82800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>77500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>94400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>70300</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>80800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>69600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>68400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>74000</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1409100</v>
+        <v>1147200</v>
       </c>
       <c r="E23" s="3">
-        <v>1298200</v>
+        <v>1362800</v>
       </c>
       <c r="F23" s="3">
-        <v>1711400</v>
+        <v>1255600</v>
       </c>
       <c r="G23" s="3">
-        <v>-777500</v>
+        <v>1655300</v>
       </c>
       <c r="H23" s="3">
-        <v>81700</v>
+        <v>-752000</v>
       </c>
       <c r="I23" s="3">
-        <v>5800</v>
+        <v>79000</v>
       </c>
       <c r="J23" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K23" s="3">
         <v>908200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1071900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1249300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>882800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1430100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>803000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>609400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>888300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>630600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>776400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-848200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1108500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-267600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>465800</v>
+        <v>600700</v>
       </c>
       <c r="E24" s="3">
-        <v>323400</v>
+        <v>450500</v>
       </c>
       <c r="F24" s="3">
-        <v>-560400</v>
+        <v>312800</v>
       </c>
       <c r="G24" s="3">
-        <v>-244000</v>
+        <v>-542000</v>
       </c>
       <c r="H24" s="3">
-        <v>15200</v>
+        <v>-236000</v>
       </c>
       <c r="I24" s="3">
-        <v>85200</v>
+        <v>14700</v>
       </c>
       <c r="J24" s="3">
+        <v>82400</v>
+      </c>
+      <c r="K24" s="3">
         <v>373600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>416500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>475300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>289500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>492100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>366600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>306300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>305200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>159300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>166100</v>
-      </c>
-      <c r="T24" s="3">
-        <v>193000</v>
       </c>
       <c r="U24" s="3">
         <v>193000</v>
       </c>
       <c r="V24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="W24" s="3">
         <v>120900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>943300</v>
+        <v>546500</v>
       </c>
       <c r="E26" s="3">
-        <v>974800</v>
+        <v>912300</v>
       </c>
       <c r="F26" s="3">
-        <v>2271800</v>
+        <v>942800</v>
       </c>
       <c r="G26" s="3">
-        <v>-533500</v>
+        <v>2197200</v>
       </c>
       <c r="H26" s="3">
-        <v>66500</v>
+        <v>-516000</v>
       </c>
       <c r="I26" s="3">
-        <v>-79400</v>
+        <v>64400</v>
       </c>
       <c r="J26" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="K26" s="3">
         <v>534700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>655400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>774100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>593300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>938000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>436400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>303000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>583000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>471200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>610400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>915500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-388500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>726100</v>
+        <v>315000</v>
       </c>
       <c r="E27" s="3">
-        <v>763500</v>
+        <v>702300</v>
       </c>
       <c r="F27" s="3">
-        <v>2194700</v>
+        <v>738400</v>
       </c>
       <c r="G27" s="3">
-        <v>-568500</v>
+        <v>2122700</v>
       </c>
       <c r="H27" s="3">
-        <v>28000</v>
+        <v>-549900</v>
       </c>
       <c r="I27" s="3">
-        <v>-185600</v>
+        <v>27100</v>
       </c>
       <c r="J27" s="3">
+        <v>-179500</v>
+      </c>
+      <c r="K27" s="3">
         <v>414400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>520600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>638800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>423500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>719200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>244800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>222900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>445800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>348900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>491400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>798900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-442500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2261,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-241700</v>
+        <v>-229200</v>
       </c>
       <c r="E32" s="3">
-        <v>-234600</v>
+        <v>-233700</v>
       </c>
       <c r="F32" s="3">
-        <v>-99200</v>
+        <v>-226900</v>
       </c>
       <c r="G32" s="3">
-        <v>-64200</v>
+        <v>-96000</v>
       </c>
       <c r="H32" s="3">
-        <v>-56000</v>
+        <v>-62100</v>
       </c>
       <c r="I32" s="3">
-        <v>54900</v>
+        <v>-54200</v>
       </c>
       <c r="J32" s="3">
+        <v>53100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-131900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-144500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-227000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-161500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-88700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-154000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-176800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-90000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-25800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-225500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-113300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-149200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-118600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>726100</v>
+        <v>315000</v>
       </c>
       <c r="E33" s="3">
-        <v>763500</v>
+        <v>702300</v>
       </c>
       <c r="F33" s="3">
-        <v>2194700</v>
+        <v>738400</v>
       </c>
       <c r="G33" s="3">
-        <v>-568500</v>
+        <v>2122700</v>
       </c>
       <c r="H33" s="3">
-        <v>28000</v>
+        <v>-549900</v>
       </c>
       <c r="I33" s="3">
-        <v>-185600</v>
+        <v>27100</v>
       </c>
       <c r="J33" s="3">
+        <v>-179500</v>
+      </c>
+      <c r="K33" s="3">
         <v>414400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>520600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>638800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>423500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>719200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>244800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>222900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>445800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>348900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>491400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>798900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-442500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>726100</v>
+        <v>315000</v>
       </c>
       <c r="E35" s="3">
-        <v>763500</v>
+        <v>702300</v>
       </c>
       <c r="F35" s="3">
-        <v>2194700</v>
+        <v>738400</v>
       </c>
       <c r="G35" s="3">
-        <v>-568500</v>
+        <v>2122700</v>
       </c>
       <c r="H35" s="3">
-        <v>28000</v>
+        <v>-549900</v>
       </c>
       <c r="I35" s="3">
-        <v>-185600</v>
+        <v>27100</v>
       </c>
       <c r="J35" s="3">
+        <v>-179500</v>
+      </c>
+      <c r="K35" s="3">
         <v>414400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>520600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>638800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>423500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>719200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>244800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>222900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>445800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>348900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>491400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>798900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-442500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,593 +2660,621 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3609600</v>
+        <v>4585300</v>
       </c>
       <c r="E41" s="3">
-        <v>4000700</v>
+        <v>3491200</v>
       </c>
       <c r="F41" s="3">
-        <v>3331800</v>
+        <v>3869400</v>
       </c>
       <c r="G41" s="3">
-        <v>8558300</v>
+        <v>3222500</v>
       </c>
       <c r="H41" s="3">
-        <v>6806000</v>
+        <v>8277400</v>
       </c>
       <c r="I41" s="3">
-        <v>3232600</v>
+        <v>6582700</v>
       </c>
       <c r="J41" s="3">
+        <v>3126500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3421700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3867300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4342100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4382900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4762400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3780200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3213800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4718100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4456500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>5209400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4715700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>3504000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>2428600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10517200</v>
+        <v>7015100</v>
       </c>
       <c r="E42" s="3">
-        <v>4170000</v>
+        <v>10172100</v>
       </c>
       <c r="F42" s="3">
-        <v>3523200</v>
+        <v>4033100</v>
       </c>
       <c r="G42" s="3">
-        <v>3701900</v>
+        <v>3407600</v>
       </c>
       <c r="H42" s="3">
-        <v>5876700</v>
+        <v>3580400</v>
       </c>
       <c r="I42" s="3">
-        <v>7477300</v>
+        <v>5683900</v>
       </c>
       <c r="J42" s="3">
+        <v>7231900</v>
+      </c>
+      <c r="K42" s="3">
         <v>3643500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>2736600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3435100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>2978500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3225800</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>4229900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2617600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1327500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1279100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1220700</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>905400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>821300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1461400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4587900</v>
+        <v>3977800</v>
       </c>
       <c r="E43" s="3">
-        <v>4799200</v>
+        <v>4437400</v>
       </c>
       <c r="F43" s="3">
-        <v>3913200</v>
+        <v>4641700</v>
       </c>
       <c r="G43" s="3">
-        <v>2184200</v>
+        <v>3784700</v>
       </c>
       <c r="H43" s="3">
-        <v>1972900</v>
+        <v>2112500</v>
       </c>
       <c r="I43" s="3">
-        <v>3063300</v>
+        <v>1908200</v>
       </c>
       <c r="J43" s="3">
+        <v>2962800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3564100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3807300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3585700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4357800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>4056200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3196500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2945900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3542100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2825200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2287700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2318000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2921700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2924000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2986200</v>
+        <v>3403100</v>
       </c>
       <c r="E44" s="3">
-        <v>2766800</v>
+        <v>2888200</v>
       </c>
       <c r="F44" s="3">
-        <v>2745700</v>
+        <v>2676000</v>
       </c>
       <c r="G44" s="3">
-        <v>1733600</v>
+        <v>2655600</v>
       </c>
       <c r="H44" s="3">
-        <v>1646000</v>
+        <v>1676700</v>
       </c>
       <c r="I44" s="3">
-        <v>1682200</v>
+        <v>1592000</v>
       </c>
       <c r="J44" s="3">
+        <v>1627000</v>
+      </c>
+      <c r="K44" s="3">
         <v>2153900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2370400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1909300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2075400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1858300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1845300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1639300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1486700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1686400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1729000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1495600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1647100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1952000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>476300</v>
+        <v>551000</v>
       </c>
       <c r="E45" s="3">
-        <v>594200</v>
+        <v>460700</v>
       </c>
       <c r="F45" s="3">
-        <v>625700</v>
+        <v>574700</v>
       </c>
       <c r="G45" s="3">
-        <v>307000</v>
+        <v>605200</v>
       </c>
       <c r="H45" s="3">
-        <v>314000</v>
+        <v>297000</v>
       </c>
       <c r="I45" s="3">
-        <v>396900</v>
+        <v>303700</v>
       </c>
       <c r="J45" s="3">
+        <v>383900</v>
+      </c>
+      <c r="K45" s="3">
         <v>347900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>286600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>294100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>330200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>312300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>418700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>424900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>362300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>297300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>269300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>286100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>280500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>232400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22177300</v>
+        <v>19532300</v>
       </c>
       <c r="E46" s="3">
-        <v>16330900</v>
+        <v>21449500</v>
       </c>
       <c r="F46" s="3">
-        <v>14139700</v>
+        <v>15795000</v>
       </c>
       <c r="G46" s="3">
-        <v>16485000</v>
+        <v>13675700</v>
       </c>
       <c r="H46" s="3">
-        <v>16615700</v>
+        <v>15944000</v>
       </c>
       <c r="I46" s="3">
-        <v>15852300</v>
+        <v>16070500</v>
       </c>
       <c r="J46" s="3">
+        <v>15332000</v>
+      </c>
+      <c r="K46" s="3">
         <v>13131000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>13068200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>13566200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14124700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14214900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13470600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>10841700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>11436800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>10544500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10716100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9720900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>9174500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8998400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>15154100</v>
+        <v>14645600</v>
       </c>
       <c r="E47" s="3">
-        <v>14373200</v>
+        <v>14656800</v>
       </c>
       <c r="F47" s="3">
-        <v>13738100</v>
+        <v>13901500</v>
       </c>
       <c r="G47" s="3">
-        <v>8736900</v>
+        <v>13287200</v>
       </c>
       <c r="H47" s="3">
-        <v>9075400</v>
+        <v>8450200</v>
       </c>
       <c r="I47" s="3">
-        <v>9252900</v>
+        <v>8777600</v>
       </c>
       <c r="J47" s="3">
+        <v>8949200</v>
+      </c>
+      <c r="K47" s="3">
         <v>8831500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>9770500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>6566700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>6554000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>6707000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>5998800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>5680000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>5236400</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5466300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>4431900</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>4404900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>4145800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4468700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>21280700</v>
+        <v>20684000</v>
       </c>
       <c r="E48" s="3">
-        <v>21221200</v>
+        <v>20582400</v>
       </c>
       <c r="F48" s="3">
-        <v>22417800</v>
+        <v>20524800</v>
       </c>
       <c r="G48" s="3">
-        <v>16782700</v>
+        <v>21682100</v>
       </c>
       <c r="H48" s="3">
-        <v>17618600</v>
+        <v>16231900</v>
       </c>
       <c r="I48" s="3">
-        <v>17899900</v>
+        <v>17040400</v>
       </c>
       <c r="J48" s="3">
+        <v>17312500</v>
+      </c>
+      <c r="K48" s="3">
         <v>19237700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>20358100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19369400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19616500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>17879500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>15679200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>15670700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>14865800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15319700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15457700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15748300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>16063500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17152900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3907300</v>
+        <v>3787000</v>
       </c>
       <c r="E49" s="3">
-        <v>4077800</v>
+        <v>3779100</v>
       </c>
       <c r="F49" s="3">
-        <v>4019400</v>
+        <v>3943900</v>
       </c>
       <c r="G49" s="3">
-        <v>3588600</v>
+        <v>3887500</v>
       </c>
       <c r="H49" s="3">
-        <v>4507400</v>
+        <v>3470900</v>
       </c>
       <c r="I49" s="3">
-        <v>4510900</v>
+        <v>4359500</v>
       </c>
       <c r="J49" s="3">
+        <v>4362800</v>
+      </c>
+      <c r="K49" s="3">
         <v>4859900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>5203800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4843200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>5048000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3923700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3202100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3188600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>2882300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>2971000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>1852400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>1867000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>1934300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2010700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3406,79 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3589800</v>
+        <v>3444900</v>
       </c>
       <c r="E52" s="3">
-        <v>4601900</v>
+        <v>3472000</v>
       </c>
       <c r="F52" s="3">
-        <v>3204500</v>
+        <v>4450900</v>
       </c>
       <c r="G52" s="3">
-        <v>2361700</v>
+        <v>3099400</v>
       </c>
       <c r="H52" s="3">
-        <v>2233300</v>
+        <v>2284200</v>
       </c>
       <c r="I52" s="3">
-        <v>1921600</v>
+        <v>2160000</v>
       </c>
       <c r="J52" s="3">
+        <v>1858500</v>
+      </c>
+      <c r="K52" s="3">
         <v>1074000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>977500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>905800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>958200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>996000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>1256000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1408700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1115600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1126500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>935700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1169100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>3635200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>5062600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3542,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>66109300</v>
+        <v>62093700</v>
       </c>
       <c r="E54" s="3">
-        <v>60604900</v>
+        <v>63939800</v>
       </c>
       <c r="F54" s="3">
-        <v>57519500</v>
+        <v>58616100</v>
       </c>
       <c r="G54" s="3">
-        <v>47954900</v>
+        <v>55631900</v>
       </c>
       <c r="H54" s="3">
-        <v>50050400</v>
+        <v>46381200</v>
       </c>
       <c r="I54" s="3">
-        <v>49437500</v>
+        <v>48407900</v>
       </c>
       <c r="J54" s="3">
+        <v>47815100</v>
+      </c>
+      <c r="K54" s="3">
         <v>47134200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>49378100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>45251400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46301300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>43721200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>39606700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36789600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35536800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35428000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>33393800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>32910200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34953400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>37693400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3664,417 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4882100</v>
+        <v>4229600</v>
       </c>
       <c r="E57" s="3">
-        <v>5272000</v>
+        <v>4721900</v>
       </c>
       <c r="F57" s="3">
-        <v>5024500</v>
+        <v>5099000</v>
       </c>
       <c r="G57" s="3">
-        <v>3000200</v>
+        <v>4859600</v>
       </c>
       <c r="H57" s="3">
-        <v>2790100</v>
+        <v>2901800</v>
       </c>
       <c r="I57" s="3">
-        <v>4033400</v>
+        <v>2698500</v>
       </c>
       <c r="J57" s="3">
+        <v>3901000</v>
+      </c>
+      <c r="K57" s="3">
         <v>4850600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4789700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4173900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5197500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>5205900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4101400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3877000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3910000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>3659900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3268400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3028300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3460200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4379500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1153400</v>
+        <v>1942100</v>
       </c>
       <c r="E58" s="3">
-        <v>2136400</v>
+        <v>1115600</v>
       </c>
       <c r="F58" s="3">
-        <v>1977600</v>
+        <v>2066300</v>
       </c>
       <c r="G58" s="3">
-        <v>961900</v>
+        <v>1912700</v>
       </c>
       <c r="H58" s="3">
-        <v>980600</v>
+        <v>930400</v>
       </c>
       <c r="I58" s="3">
-        <v>656100</v>
+        <v>948400</v>
       </c>
       <c r="J58" s="3">
+        <v>634600</v>
+      </c>
+      <c r="K58" s="3">
         <v>943300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1768900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1664600</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1934300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>997200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>965800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1001400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1902800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1012000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>274900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>218800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>190700</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>305200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>12944200</v>
+        <v>10507400</v>
       </c>
       <c r="E59" s="3">
-        <v>6183800</v>
+        <v>12519500</v>
       </c>
       <c r="F59" s="3">
-        <v>5391100</v>
+        <v>5980800</v>
       </c>
       <c r="G59" s="3">
-        <v>6119600</v>
+        <v>5214200</v>
       </c>
       <c r="H59" s="3">
-        <v>7305700</v>
+        <v>5918700</v>
       </c>
       <c r="I59" s="3">
-        <v>8921300</v>
+        <v>7065900</v>
       </c>
       <c r="J59" s="3">
+        <v>8628600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5174000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4881600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5518500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5219000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5247300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6182600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4643400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>3090900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2986700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2753400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2555900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2606400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3211500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18979800</v>
+        <v>16679100</v>
       </c>
       <c r="E60" s="3">
-        <v>13592200</v>
+        <v>18356900</v>
       </c>
       <c r="F60" s="3">
-        <v>12393200</v>
+        <v>13146100</v>
       </c>
       <c r="G60" s="3">
-        <v>10081800</v>
+        <v>11986500</v>
       </c>
       <c r="H60" s="3">
-        <v>11076400</v>
+        <v>9750900</v>
       </c>
       <c r="I60" s="3">
-        <v>13610800</v>
+        <v>10712900</v>
       </c>
       <c r="J60" s="3">
+        <v>13164200</v>
+      </c>
+      <c r="K60" s="3">
         <v>10967800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>11440200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>11357000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12350800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11450500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11249900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>9521900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>8903700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7658700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6296600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5802900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6257300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7896200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12024300</v>
+        <v>10811100</v>
       </c>
       <c r="E61" s="3">
-        <v>12075700</v>
+        <v>11629700</v>
       </c>
       <c r="F61" s="3">
-        <v>11956600</v>
+        <v>11679400</v>
       </c>
       <c r="G61" s="3">
-        <v>10603600</v>
+        <v>11564200</v>
       </c>
       <c r="H61" s="3">
-        <v>10653800</v>
+        <v>10255600</v>
       </c>
       <c r="I61" s="3">
-        <v>7380400</v>
+        <v>10304200</v>
       </c>
       <c r="J61" s="3">
+        <v>7138200</v>
+      </c>
+      <c r="K61" s="3">
         <v>7957100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>8107000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6550200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6260900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>5806900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>5052900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>5035400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5017900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5375500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5134200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5244200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5276700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5869100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10646800</v>
+        <v>9928200</v>
       </c>
       <c r="E62" s="3">
-        <v>10132000</v>
+        <v>10297400</v>
       </c>
       <c r="F62" s="3">
-        <v>9939300</v>
+        <v>9799500</v>
       </c>
       <c r="G62" s="3">
-        <v>8588600</v>
+        <v>9613200</v>
       </c>
       <c r="H62" s="3">
-        <v>9112800</v>
+        <v>8306800</v>
       </c>
       <c r="I62" s="3">
-        <v>8789400</v>
+        <v>8813800</v>
       </c>
       <c r="J62" s="3">
+        <v>8501000</v>
+      </c>
+      <c r="K62" s="3">
         <v>8523300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9412800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8512400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8335100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8315800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>6928000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>6508900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>6244300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6311200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>5978000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6342600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7216600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7582800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>48765100</v>
+        <v>44570100</v>
       </c>
       <c r="E66" s="3">
-        <v>43180200</v>
+        <v>47164800</v>
       </c>
       <c r="F66" s="3">
-        <v>41479200</v>
+        <v>41763200</v>
       </c>
       <c r="G66" s="3">
-        <v>33565400</v>
+        <v>40118100</v>
       </c>
       <c r="H66" s="3">
-        <v>35175200</v>
+        <v>32463900</v>
       </c>
       <c r="I66" s="3">
-        <v>34365000</v>
+        <v>34020900</v>
       </c>
       <c r="J66" s="3">
+        <v>33237300</v>
+      </c>
+      <c r="K66" s="3">
         <v>31943800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33628400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>30806400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31501900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29637600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>26852700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>24489800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>23702500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>22843700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20852200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>20777000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22206400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>24881300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13197600</v>
+        <v>13513100</v>
       </c>
       <c r="E72" s="3">
-        <v>13277000</v>
+        <v>12764500</v>
       </c>
       <c r="F72" s="3">
-        <v>11933300</v>
+        <v>12841300</v>
       </c>
       <c r="G72" s="3">
-        <v>10242900</v>
+        <v>11541700</v>
       </c>
       <c r="H72" s="3">
-        <v>12177300</v>
+        <v>9906700</v>
       </c>
       <c r="I72" s="3">
-        <v>12375700</v>
+        <v>11777600</v>
       </c>
       <c r="J72" s="3">
+        <v>11969600</v>
+      </c>
+      <c r="K72" s="3">
         <v>12445800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12920000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11727500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12038600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>11306200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>10196600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>9765600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>9846900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>9714200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9680500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9272100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9885900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9820100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +4912,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17344200</v>
+        <v>17523600</v>
       </c>
       <c r="E76" s="3">
-        <v>17424800</v>
+        <v>16775000</v>
       </c>
       <c r="F76" s="3">
-        <v>16040200</v>
+        <v>16852900</v>
       </c>
       <c r="G76" s="3">
-        <v>14389500</v>
+        <v>15513800</v>
       </c>
       <c r="H76" s="3">
-        <v>14875100</v>
+        <v>13917300</v>
       </c>
       <c r="I76" s="3">
-        <v>15072400</v>
+        <v>14387000</v>
       </c>
       <c r="J76" s="3">
+        <v>14577800</v>
+      </c>
+      <c r="K76" s="3">
         <v>15190300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15749700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14445000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14799400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14083600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12754000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12299800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>11834200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12584200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12541600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12133200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12746900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12812100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>726100</v>
+        <v>315000</v>
       </c>
       <c r="E81" s="3">
-        <v>763500</v>
+        <v>702300</v>
       </c>
       <c r="F81" s="3">
-        <v>2194700</v>
+        <v>738400</v>
       </c>
       <c r="G81" s="3">
-        <v>-568500</v>
+        <v>2122700</v>
       </c>
       <c r="H81" s="3">
-        <v>28000</v>
+        <v>-549900</v>
       </c>
       <c r="I81" s="3">
-        <v>-185600</v>
+        <v>27100</v>
       </c>
       <c r="J81" s="3">
+        <v>-179500</v>
+      </c>
+      <c r="K81" s="3">
         <v>414400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>520600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>638800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>423500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>719200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>244800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>222900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>445800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>348900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>491400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>798900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-442500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5217,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>760000</v>
+        <v>783600</v>
       </c>
       <c r="E83" s="3">
-        <v>737800</v>
+        <v>735000</v>
       </c>
       <c r="F83" s="3">
-        <v>653700</v>
+        <v>713600</v>
       </c>
       <c r="G83" s="3">
-        <v>1613400</v>
+        <v>632300</v>
       </c>
       <c r="H83" s="3">
-        <v>635100</v>
+        <v>1560400</v>
       </c>
       <c r="I83" s="3">
-        <v>830000</v>
+        <v>614200</v>
       </c>
       <c r="J83" s="3">
+        <v>802800</v>
+      </c>
+      <c r="K83" s="3">
         <v>758800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>738700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>723500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>672300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>589100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>505100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>529200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>494100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>596900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>548700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>584600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>500400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>1533000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1823500</v>
+        <v>1815600</v>
       </c>
       <c r="E89" s="3">
-        <v>1242100</v>
+        <v>1763700</v>
       </c>
       <c r="F89" s="3">
-        <v>792700</v>
+        <v>1201400</v>
       </c>
       <c r="G89" s="3">
-        <v>924600</v>
+        <v>766700</v>
       </c>
       <c r="H89" s="3">
-        <v>633900</v>
+        <v>894200</v>
       </c>
       <c r="I89" s="3">
-        <v>1311000</v>
+        <v>613100</v>
       </c>
       <c r="J89" s="3">
+        <v>1268000</v>
+      </c>
+      <c r="K89" s="3">
         <v>1145200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1316900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1334000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1035900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1318900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1075500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1353800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1181400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>832500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>888600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1110800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1036700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>718400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5719,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-725000</v>
+        <v>-653700</v>
       </c>
       <c r="E91" s="3">
-        <v>-629200</v>
+        <v>-701200</v>
       </c>
       <c r="F91" s="3">
-        <v>-658400</v>
+        <v>-608600</v>
       </c>
       <c r="G91" s="3">
-        <v>-453000</v>
+        <v>-636800</v>
       </c>
       <c r="H91" s="3">
-        <v>-495000</v>
+        <v>-438100</v>
       </c>
       <c r="I91" s="3">
-        <v>-681800</v>
+        <v>-478700</v>
       </c>
       <c r="J91" s="3">
+        <v>-659400</v>
+      </c>
+      <c r="K91" s="3">
         <v>-706300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-665200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-578800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-619600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-671900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-547200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-473200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-571100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-356800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-373600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-478000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +5921,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-130700</v>
+        <v>-672900</v>
       </c>
       <c r="E94" s="3">
-        <v>-760000</v>
+        <v>-126500</v>
       </c>
       <c r="F94" s="3">
-        <v>-5195000</v>
+        <v>-735000</v>
       </c>
       <c r="G94" s="3">
-        <v>-495000</v>
+        <v>-5024500</v>
       </c>
       <c r="H94" s="3">
-        <v>-505500</v>
+        <v>-478700</v>
       </c>
       <c r="I94" s="3">
-        <v>-748300</v>
+        <v>-488900</v>
       </c>
       <c r="J94" s="3">
+        <v>-723800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-744800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3178800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-488200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1184200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-886000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-495100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-590700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-352300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>379200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>445400</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-206600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,73 +6017,77 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-987600</v>
+        <v>-37300</v>
       </c>
       <c r="E96" s="3">
-        <v>-44400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-528800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-511500</v>
       </c>
       <c r="H96" s="3">
-        <v>-256800</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-248400</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>115600</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-908200</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>85200</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-760900</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>59500</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-653000</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-99800</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,199 +6287,211 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2083800</v>
+        <v>-70000</v>
       </c>
       <c r="E100" s="3">
-        <v>224100</v>
+        <v>-2015400</v>
       </c>
       <c r="F100" s="3">
-        <v>-804300</v>
+        <v>216800</v>
       </c>
       <c r="G100" s="3">
-        <v>1351900</v>
+        <v>-777900</v>
       </c>
       <c r="H100" s="3">
-        <v>3438000</v>
+        <v>1307500</v>
       </c>
       <c r="I100" s="3">
-        <v>-707500</v>
+        <v>3325200</v>
       </c>
       <c r="J100" s="3">
+        <v>-684200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-640900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1214000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-818800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-275100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>288600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-39900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-232800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>886400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-31400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-682200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-142500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>191300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2300</v>
       </c>
-      <c r="E101" s="3">
-        <v>-10500</v>
-      </c>
       <c r="F101" s="3">
-        <v>-5800</v>
+        <v>-10200</v>
       </c>
       <c r="G101" s="3">
-        <v>-28000</v>
+        <v>-5600</v>
       </c>
       <c r="H101" s="3">
-        <v>1200</v>
+        <v>-27100</v>
       </c>
       <c r="I101" s="3">
-        <v>-44400</v>
+        <v>1100</v>
       </c>
       <c r="J101" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="K101" s="3">
         <v>-15200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>5900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-10800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>2400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-13300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-7700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-7900</v>
-      </c>
-      <c r="S101" s="3">
-        <v>-11200</v>
       </c>
       <c r="T101" s="3">
         <v>-11200</v>
       </c>
       <c r="U101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="V101" s="3">
         <v>-16800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-39900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-393400</v>
+        <v>1068100</v>
       </c>
       <c r="E102" s="3">
-        <v>695800</v>
+        <v>-380500</v>
       </c>
       <c r="F102" s="3">
-        <v>-5212500</v>
+        <v>672900</v>
       </c>
       <c r="G102" s="3">
-        <v>1753400</v>
+        <v>-5041400</v>
       </c>
       <c r="H102" s="3">
-        <v>3567600</v>
+        <v>1695900</v>
       </c>
       <c r="I102" s="3">
-        <v>-189100</v>
+        <v>3450500</v>
       </c>
       <c r="J102" s="3">
+        <v>-182900</v>
+      </c>
+      <c r="K102" s="3">
         <v>-255700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-654100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>32900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-434200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>723900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>527200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>350300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-742800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>493700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>796600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1322800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>663200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -767,25 +767,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9609800</v>
+        <v>9284700</v>
       </c>
       <c r="E8" s="3">
-        <v>8204000</v>
+        <v>7926600</v>
       </c>
       <c r="F8" s="3">
-        <v>7259000</v>
+        <v>7013500</v>
       </c>
       <c r="G8" s="3">
-        <v>5595800</v>
+        <v>5406500</v>
       </c>
       <c r="H8" s="3">
-        <v>4173200</v>
+        <v>4032000</v>
       </c>
       <c r="I8" s="3">
-        <v>3543100</v>
+        <v>3423300</v>
       </c>
       <c r="J8" s="3">
-        <v>5374500</v>
+        <v>5192700</v>
       </c>
       <c r="K8" s="3">
         <v>7090800</v>
@@ -835,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6897700</v>
+        <v>6664400</v>
       </c>
       <c r="E9" s="3">
-        <v>5433200</v>
+        <v>5249500</v>
       </c>
       <c r="F9" s="3">
-        <v>4692500</v>
+        <v>4533800</v>
       </c>
       <c r="G9" s="3">
-        <v>4114400</v>
+        <v>3975300</v>
       </c>
       <c r="H9" s="3">
-        <v>2731300</v>
+        <v>2638900</v>
       </c>
       <c r="I9" s="3">
-        <v>2288700</v>
+        <v>2211300</v>
       </c>
       <c r="J9" s="3">
-        <v>3837800</v>
+        <v>3708000</v>
       </c>
       <c r="K9" s="3">
         <v>4687200</v>
@@ -903,25 +903,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2712100</v>
+        <v>2620400</v>
       </c>
       <c r="E10" s="3">
-        <v>2770800</v>
+        <v>2677100</v>
       </c>
       <c r="F10" s="3">
-        <v>2566400</v>
+        <v>2479600</v>
       </c>
       <c r="G10" s="3">
-        <v>1481400</v>
+        <v>1431300</v>
       </c>
       <c r="H10" s="3">
-        <v>1441900</v>
+        <v>1393100</v>
       </c>
       <c r="I10" s="3">
-        <v>1254400</v>
+        <v>1212000</v>
       </c>
       <c r="J10" s="3">
-        <v>1536700</v>
+        <v>1484700</v>
       </c>
       <c r="K10" s="3">
         <v>2403700</v>
@@ -997,25 +997,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>50800</v>
+        <v>49100</v>
       </c>
       <c r="E12" s="3">
-        <v>50800</v>
+        <v>49100</v>
       </c>
       <c r="F12" s="3">
-        <v>42900</v>
+        <v>41500</v>
       </c>
       <c r="G12" s="3">
-        <v>49700</v>
+        <v>48000</v>
       </c>
       <c r="H12" s="3">
-        <v>733900</v>
+        <v>709100</v>
       </c>
       <c r="I12" s="3">
-        <v>93700</v>
+        <v>90500</v>
       </c>
       <c r="J12" s="3">
-        <v>134400</v>
+        <v>129800</v>
       </c>
       <c r="K12" s="3">
         <v>85200</v>
@@ -1201,25 +1201,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>756500</v>
+        <v>730900</v>
       </c>
       <c r="E15" s="3">
-        <v>698900</v>
+        <v>675300</v>
       </c>
       <c r="F15" s="3">
-        <v>693300</v>
+        <v>669800</v>
       </c>
       <c r="G15" s="3">
-        <v>387300</v>
+        <v>374200</v>
       </c>
       <c r="H15" s="3">
-        <v>1072600</v>
+        <v>1036400</v>
       </c>
       <c r="I15" s="3">
-        <v>555500</v>
+        <v>536700</v>
       </c>
       <c r="J15" s="3">
-        <v>714700</v>
+        <v>690500</v>
       </c>
       <c r="K15" s="3">
         <v>728500</v>
@@ -1292,25 +1292,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8581200</v>
+        <v>8290900</v>
       </c>
       <c r="E17" s="3">
-        <v>6989100</v>
+        <v>6752700</v>
       </c>
       <c r="F17" s="3">
-        <v>6143400</v>
+        <v>5935600</v>
       </c>
       <c r="G17" s="3">
-        <v>3956400</v>
+        <v>3822500</v>
       </c>
       <c r="H17" s="3">
-        <v>4907100</v>
+        <v>4741100</v>
       </c>
       <c r="I17" s="3">
-        <v>3447100</v>
+        <v>3330500</v>
       </c>
       <c r="J17" s="3">
-        <v>5231100</v>
+        <v>5054200</v>
       </c>
       <c r="K17" s="3">
         <v>6229300</v>
@@ -1360,25 +1360,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1028600</v>
+        <v>993800</v>
       </c>
       <c r="E18" s="3">
-        <v>1214900</v>
+        <v>1173800</v>
       </c>
       <c r="F18" s="3">
-        <v>1115600</v>
+        <v>1077800</v>
       </c>
       <c r="G18" s="3">
-        <v>1639500</v>
+        <v>1584000</v>
       </c>
       <c r="H18" s="3">
-        <v>-733900</v>
+        <v>-709100</v>
       </c>
       <c r="I18" s="3">
-        <v>96000</v>
+        <v>92700</v>
       </c>
       <c r="J18" s="3">
-        <v>143400</v>
+        <v>138500</v>
       </c>
       <c r="K18" s="3">
         <v>861500</v>
@@ -1454,25 +1454,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>229200</v>
+        <v>221500</v>
       </c>
       <c r="E20" s="3">
-        <v>233700</v>
+        <v>225800</v>
       </c>
       <c r="F20" s="3">
-        <v>226900</v>
+        <v>219300</v>
       </c>
       <c r="G20" s="3">
-        <v>96000</v>
+        <v>92700</v>
       </c>
       <c r="H20" s="3">
-        <v>62100</v>
+        <v>60000</v>
       </c>
       <c r="I20" s="3">
-        <v>54200</v>
+        <v>52400</v>
       </c>
       <c r="J20" s="3">
-        <v>-53100</v>
+        <v>-51300</v>
       </c>
       <c r="K20" s="3">
         <v>131900</v>
@@ -1522,25 +1522,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2041400</v>
+        <v>1972400</v>
       </c>
       <c r="E21" s="3">
-        <v>2183700</v>
+        <v>2109800</v>
       </c>
       <c r="F21" s="3">
-        <v>2056100</v>
+        <v>1986500</v>
       </c>
       <c r="G21" s="3">
-        <v>2367700</v>
+        <v>2287600</v>
       </c>
       <c r="H21" s="3">
-        <v>888600</v>
+        <v>858500</v>
       </c>
       <c r="I21" s="3">
-        <v>764400</v>
+        <v>738500</v>
       </c>
       <c r="J21" s="3">
-        <v>893100</v>
+        <v>862900</v>
       </c>
       <c r="K21" s="3">
         <v>1752300</v>
@@ -1590,25 +1590,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>110700</v>
+        <v>106900</v>
       </c>
       <c r="E22" s="3">
-        <v>85800</v>
+        <v>82900</v>
       </c>
       <c r="F22" s="3">
-        <v>86900</v>
+        <v>84000</v>
       </c>
       <c r="G22" s="3">
-        <v>80200</v>
+        <v>77500</v>
       </c>
       <c r="H22" s="3">
-        <v>80200</v>
+        <v>77500</v>
       </c>
       <c r="I22" s="3">
-        <v>71100</v>
+        <v>68700</v>
       </c>
       <c r="J22" s="3">
-        <v>84700</v>
+        <v>81800</v>
       </c>
       <c r="K22" s="3">
         <v>85200</v>
@@ -1658,25 +1658,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1147200</v>
+        <v>1108400</v>
       </c>
       <c r="E23" s="3">
-        <v>1362800</v>
+        <v>1316700</v>
       </c>
       <c r="F23" s="3">
-        <v>1255600</v>
+        <v>1213100</v>
       </c>
       <c r="G23" s="3">
-        <v>1655300</v>
+        <v>1599300</v>
       </c>
       <c r="H23" s="3">
-        <v>-752000</v>
+        <v>-726500</v>
       </c>
       <c r="I23" s="3">
-        <v>79000</v>
+        <v>76400</v>
       </c>
       <c r="J23" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="K23" s="3">
         <v>908200</v>
@@ -1726,25 +1726,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>600700</v>
+        <v>580400</v>
       </c>
       <c r="E24" s="3">
-        <v>450500</v>
+        <v>435300</v>
       </c>
       <c r="F24" s="3">
-        <v>312800</v>
+        <v>302200</v>
       </c>
       <c r="G24" s="3">
-        <v>-542000</v>
+        <v>-523600</v>
       </c>
       <c r="H24" s="3">
-        <v>-236000</v>
+        <v>-228000</v>
       </c>
       <c r="I24" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="J24" s="3">
-        <v>82400</v>
+        <v>79600</v>
       </c>
       <c r="K24" s="3">
         <v>373600</v>
@@ -1862,25 +1862,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>546500</v>
+        <v>528000</v>
       </c>
       <c r="E26" s="3">
-        <v>912300</v>
+        <v>881500</v>
       </c>
       <c r="F26" s="3">
-        <v>942800</v>
+        <v>910900</v>
       </c>
       <c r="G26" s="3">
-        <v>2197200</v>
+        <v>2122900</v>
       </c>
       <c r="H26" s="3">
-        <v>-516000</v>
+        <v>-498500</v>
       </c>
       <c r="I26" s="3">
-        <v>64400</v>
+        <v>62200</v>
       </c>
       <c r="J26" s="3">
-        <v>-76800</v>
+        <v>-74200</v>
       </c>
       <c r="K26" s="3">
         <v>534700</v>
@@ -1930,25 +1930,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>315000</v>
+        <v>304400</v>
       </c>
       <c r="E27" s="3">
-        <v>702300</v>
+        <v>678500</v>
       </c>
       <c r="F27" s="3">
-        <v>738400</v>
+        <v>713500</v>
       </c>
       <c r="G27" s="3">
-        <v>2122700</v>
+        <v>2050900</v>
       </c>
       <c r="H27" s="3">
-        <v>-549900</v>
+        <v>-531300</v>
       </c>
       <c r="I27" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="J27" s="3">
-        <v>-179500</v>
+        <v>-173500</v>
       </c>
       <c r="K27" s="3">
         <v>414400</v>
@@ -2270,25 +2270,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-229200</v>
+        <v>-221500</v>
       </c>
       <c r="E32" s="3">
-        <v>-233700</v>
+        <v>-225800</v>
       </c>
       <c r="F32" s="3">
-        <v>-226900</v>
+        <v>-219300</v>
       </c>
       <c r="G32" s="3">
-        <v>-96000</v>
+        <v>-92700</v>
       </c>
       <c r="H32" s="3">
-        <v>-62100</v>
+        <v>-60000</v>
       </c>
       <c r="I32" s="3">
-        <v>-54200</v>
+        <v>-52400</v>
       </c>
       <c r="J32" s="3">
-        <v>53100</v>
+        <v>51300</v>
       </c>
       <c r="K32" s="3">
         <v>-131900</v>
@@ -2338,25 +2338,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>315000</v>
+        <v>304400</v>
       </c>
       <c r="E33" s="3">
-        <v>702300</v>
+        <v>678500</v>
       </c>
       <c r="F33" s="3">
-        <v>738400</v>
+        <v>713500</v>
       </c>
       <c r="G33" s="3">
-        <v>2122700</v>
+        <v>2050900</v>
       </c>
       <c r="H33" s="3">
-        <v>-549900</v>
+        <v>-531300</v>
       </c>
       <c r="I33" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="J33" s="3">
-        <v>-179500</v>
+        <v>-173500</v>
       </c>
       <c r="K33" s="3">
         <v>414400</v>
@@ -2474,25 +2474,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>315000</v>
+        <v>304400</v>
       </c>
       <c r="E35" s="3">
-        <v>702300</v>
+        <v>678500</v>
       </c>
       <c r="F35" s="3">
-        <v>738400</v>
+        <v>713500</v>
       </c>
       <c r="G35" s="3">
-        <v>2122700</v>
+        <v>2050900</v>
       </c>
       <c r="H35" s="3">
-        <v>-549900</v>
+        <v>-531300</v>
       </c>
       <c r="I35" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="J35" s="3">
-        <v>-179500</v>
+        <v>-173500</v>
       </c>
       <c r="K35" s="3">
         <v>414400</v>
@@ -2667,25 +2667,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4585300</v>
+        <v>4430200</v>
       </c>
       <c r="E41" s="3">
-        <v>3491200</v>
+        <v>3373100</v>
       </c>
       <c r="F41" s="3">
-        <v>3869400</v>
+        <v>3738500</v>
       </c>
       <c r="G41" s="3">
-        <v>3222500</v>
+        <v>3113500</v>
       </c>
       <c r="H41" s="3">
-        <v>8277400</v>
+        <v>7997500</v>
       </c>
       <c r="I41" s="3">
-        <v>6582700</v>
+        <v>6360000</v>
       </c>
       <c r="J41" s="3">
-        <v>3126500</v>
+        <v>3020700</v>
       </c>
       <c r="K41" s="3">
         <v>3421700</v>
@@ -2735,25 +2735,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7015100</v>
+        <v>6777800</v>
       </c>
       <c r="E42" s="3">
-        <v>10172100</v>
+        <v>9828000</v>
       </c>
       <c r="F42" s="3">
-        <v>4033100</v>
+        <v>3896700</v>
       </c>
       <c r="G42" s="3">
-        <v>3407600</v>
+        <v>3292400</v>
       </c>
       <c r="H42" s="3">
-        <v>3580400</v>
+        <v>3459300</v>
       </c>
       <c r="I42" s="3">
-        <v>5683900</v>
+        <v>5491600</v>
       </c>
       <c r="J42" s="3">
-        <v>7231900</v>
+        <v>6987300</v>
       </c>
       <c r="K42" s="3">
         <v>3643500</v>
@@ -2803,25 +2803,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3977800</v>
+        <v>3843300</v>
       </c>
       <c r="E43" s="3">
-        <v>4437400</v>
+        <v>4287300</v>
       </c>
       <c r="F43" s="3">
-        <v>4641700</v>
+        <v>4484700</v>
       </c>
       <c r="G43" s="3">
-        <v>3784700</v>
+        <v>3656700</v>
       </c>
       <c r="H43" s="3">
-        <v>2112500</v>
+        <v>2041100</v>
       </c>
       <c r="I43" s="3">
-        <v>1908200</v>
+        <v>1843600</v>
       </c>
       <c r="J43" s="3">
-        <v>2962800</v>
+        <v>2862500</v>
       </c>
       <c r="K43" s="3">
         <v>3564100</v>
@@ -2871,25 +2871,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3403100</v>
+        <v>3288000</v>
       </c>
       <c r="E44" s="3">
-        <v>2888200</v>
+        <v>2790500</v>
       </c>
       <c r="F44" s="3">
-        <v>2676000</v>
+        <v>2585500</v>
       </c>
       <c r="G44" s="3">
-        <v>2655600</v>
+        <v>2565800</v>
       </c>
       <c r="H44" s="3">
-        <v>1676700</v>
+        <v>1620000</v>
       </c>
       <c r="I44" s="3">
-        <v>1592000</v>
+        <v>1538200</v>
       </c>
       <c r="J44" s="3">
-        <v>1627000</v>
+        <v>1572000</v>
       </c>
       <c r="K44" s="3">
         <v>2153900</v>
@@ -2939,25 +2939,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>551000</v>
+        <v>532400</v>
       </c>
       <c r="E45" s="3">
-        <v>460700</v>
+        <v>445100</v>
       </c>
       <c r="F45" s="3">
-        <v>574700</v>
+        <v>555300</v>
       </c>
       <c r="G45" s="3">
-        <v>605200</v>
+        <v>584700</v>
       </c>
       <c r="H45" s="3">
-        <v>297000</v>
+        <v>286900</v>
       </c>
       <c r="I45" s="3">
-        <v>303700</v>
+        <v>293500</v>
       </c>
       <c r="J45" s="3">
-        <v>383900</v>
+        <v>370900</v>
       </c>
       <c r="K45" s="3">
         <v>347900</v>
@@ -3007,25 +3007,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19532300</v>
+        <v>18871700</v>
       </c>
       <c r="E46" s="3">
-        <v>21449500</v>
+        <v>20724000</v>
       </c>
       <c r="F46" s="3">
-        <v>15795000</v>
+        <v>15260700</v>
       </c>
       <c r="G46" s="3">
-        <v>13675700</v>
+        <v>13213100</v>
       </c>
       <c r="H46" s="3">
-        <v>15944000</v>
+        <v>15404700</v>
       </c>
       <c r="I46" s="3">
-        <v>16070500</v>
+        <v>15526900</v>
       </c>
       <c r="J46" s="3">
-        <v>15332000</v>
+        <v>14813500</v>
       </c>
       <c r="K46" s="3">
         <v>13131000</v>
@@ -3075,25 +3075,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14645600</v>
+        <v>14150200</v>
       </c>
       <c r="E47" s="3">
-        <v>14656800</v>
+        <v>14161100</v>
       </c>
       <c r="F47" s="3">
-        <v>13901500</v>
+        <v>13431300</v>
       </c>
       <c r="G47" s="3">
-        <v>13287200</v>
+        <v>12837800</v>
       </c>
       <c r="H47" s="3">
-        <v>8450200</v>
+        <v>8164400</v>
       </c>
       <c r="I47" s="3">
-        <v>8777600</v>
+        <v>8480700</v>
       </c>
       <c r="J47" s="3">
-        <v>8949200</v>
+        <v>8646600</v>
       </c>
       <c r="K47" s="3">
         <v>8831500</v>
@@ -3143,25 +3143,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20684000</v>
+        <v>19984400</v>
       </c>
       <c r="E48" s="3">
-        <v>20582400</v>
+        <v>19886200</v>
       </c>
       <c r="F48" s="3">
-        <v>20524800</v>
+        <v>19830600</v>
       </c>
       <c r="G48" s="3">
-        <v>21682100</v>
+        <v>20948700</v>
       </c>
       <c r="H48" s="3">
-        <v>16231900</v>
+        <v>15682900</v>
       </c>
       <c r="I48" s="3">
-        <v>17040400</v>
+        <v>16464000</v>
       </c>
       <c r="J48" s="3">
-        <v>17312500</v>
+        <v>16726900</v>
       </c>
       <c r="K48" s="3">
         <v>19237700</v>
@@ -3211,25 +3211,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3787000</v>
+        <v>3658900</v>
       </c>
       <c r="E49" s="3">
-        <v>3779100</v>
+        <v>3651300</v>
       </c>
       <c r="F49" s="3">
-        <v>3943900</v>
+        <v>3810500</v>
       </c>
       <c r="G49" s="3">
-        <v>3887500</v>
+        <v>3756000</v>
       </c>
       <c r="H49" s="3">
-        <v>3470900</v>
+        <v>3353500</v>
       </c>
       <c r="I49" s="3">
-        <v>4359500</v>
+        <v>4212000</v>
       </c>
       <c r="J49" s="3">
-        <v>4362800</v>
+        <v>4215300</v>
       </c>
       <c r="K49" s="3">
         <v>4859900</v>
@@ -3415,25 +3415,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3444900</v>
+        <v>3328400</v>
       </c>
       <c r="E52" s="3">
-        <v>3472000</v>
+        <v>3354500</v>
       </c>
       <c r="F52" s="3">
-        <v>4450900</v>
+        <v>4300400</v>
       </c>
       <c r="G52" s="3">
-        <v>3099400</v>
+        <v>2994500</v>
       </c>
       <c r="H52" s="3">
-        <v>2284200</v>
+        <v>2206900</v>
       </c>
       <c r="I52" s="3">
-        <v>2160000</v>
+        <v>2086900</v>
       </c>
       <c r="J52" s="3">
-        <v>1858500</v>
+        <v>1795600</v>
       </c>
       <c r="K52" s="3">
         <v>1074000</v>
@@ -3551,25 +3551,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>62093700</v>
+        <v>59993500</v>
       </c>
       <c r="E54" s="3">
-        <v>63939800</v>
+        <v>61777100</v>
       </c>
       <c r="F54" s="3">
-        <v>58616100</v>
+        <v>56633500</v>
       </c>
       <c r="G54" s="3">
-        <v>55631900</v>
+        <v>53750200</v>
       </c>
       <c r="H54" s="3">
-        <v>46381200</v>
+        <v>44812400</v>
       </c>
       <c r="I54" s="3">
-        <v>48407900</v>
+        <v>46770600</v>
       </c>
       <c r="J54" s="3">
-        <v>47815100</v>
+        <v>46197900</v>
       </c>
       <c r="K54" s="3">
         <v>47134200</v>
@@ -3671,25 +3671,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4229600</v>
+        <v>4086500</v>
       </c>
       <c r="E57" s="3">
-        <v>4721900</v>
+        <v>4562200</v>
       </c>
       <c r="F57" s="3">
-        <v>5099000</v>
+        <v>4926500</v>
       </c>
       <c r="G57" s="3">
-        <v>4859600</v>
+        <v>4695300</v>
       </c>
       <c r="H57" s="3">
-        <v>2901800</v>
+        <v>2803600</v>
       </c>
       <c r="I57" s="3">
-        <v>2698500</v>
+        <v>2607300</v>
       </c>
       <c r="J57" s="3">
-        <v>3901000</v>
+        <v>3769100</v>
       </c>
       <c r="K57" s="3">
         <v>4850600</v>
@@ -3739,25 +3739,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1942100</v>
+        <v>1876400</v>
       </c>
       <c r="E58" s="3">
-        <v>1115600</v>
+        <v>1077800</v>
       </c>
       <c r="F58" s="3">
-        <v>2066300</v>
+        <v>1996400</v>
       </c>
       <c r="G58" s="3">
-        <v>1912700</v>
+        <v>1848000</v>
       </c>
       <c r="H58" s="3">
-        <v>930400</v>
+        <v>898900</v>
       </c>
       <c r="I58" s="3">
-        <v>948400</v>
+        <v>916400</v>
       </c>
       <c r="J58" s="3">
-        <v>634600</v>
+        <v>613100</v>
       </c>
       <c r="K58" s="3">
         <v>943300</v>
@@ -3807,25 +3807,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10507400</v>
+        <v>10152000</v>
       </c>
       <c r="E59" s="3">
-        <v>12519500</v>
+        <v>12096000</v>
       </c>
       <c r="F59" s="3">
-        <v>5980800</v>
+        <v>5778600</v>
       </c>
       <c r="G59" s="3">
-        <v>5214200</v>
+        <v>5037800</v>
       </c>
       <c r="H59" s="3">
-        <v>5918700</v>
+        <v>5718600</v>
       </c>
       <c r="I59" s="3">
-        <v>7065900</v>
+        <v>6826900</v>
       </c>
       <c r="J59" s="3">
-        <v>8628600</v>
+        <v>8336700</v>
       </c>
       <c r="K59" s="3">
         <v>5174000</v>
@@ -3875,25 +3875,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16679100</v>
+        <v>16114900</v>
       </c>
       <c r="E60" s="3">
-        <v>18356900</v>
+        <v>17736000</v>
       </c>
       <c r="F60" s="3">
-        <v>13146100</v>
+        <v>12701500</v>
       </c>
       <c r="G60" s="3">
-        <v>11986500</v>
+        <v>11581100</v>
       </c>
       <c r="H60" s="3">
-        <v>9750900</v>
+        <v>9421100</v>
       </c>
       <c r="I60" s="3">
-        <v>10712900</v>
+        <v>10350600</v>
       </c>
       <c r="J60" s="3">
-        <v>13164200</v>
+        <v>12718900</v>
       </c>
       <c r="K60" s="3">
         <v>10967800</v>
@@ -3943,25 +3943,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10811100</v>
+        <v>10445500</v>
       </c>
       <c r="E61" s="3">
-        <v>11629700</v>
+        <v>11236400</v>
       </c>
       <c r="F61" s="3">
-        <v>11679400</v>
+        <v>11284400</v>
       </c>
       <c r="G61" s="3">
-        <v>11564200</v>
+        <v>11173100</v>
       </c>
       <c r="H61" s="3">
-        <v>10255600</v>
+        <v>9908700</v>
       </c>
       <c r="I61" s="3">
-        <v>10304200</v>
+        <v>9955600</v>
       </c>
       <c r="J61" s="3">
-        <v>7138200</v>
+        <v>6896700</v>
       </c>
       <c r="K61" s="3">
         <v>7957100</v>
@@ -4011,25 +4011,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9928200</v>
+        <v>9592400</v>
       </c>
       <c r="E62" s="3">
-        <v>10297400</v>
+        <v>9949100</v>
       </c>
       <c r="F62" s="3">
-        <v>9799500</v>
+        <v>9468000</v>
       </c>
       <c r="G62" s="3">
-        <v>9613200</v>
+        <v>9288000</v>
       </c>
       <c r="H62" s="3">
-        <v>8306800</v>
+        <v>8025800</v>
       </c>
       <c r="I62" s="3">
-        <v>8813800</v>
+        <v>8515600</v>
       </c>
       <c r="J62" s="3">
-        <v>8501000</v>
+        <v>8213500</v>
       </c>
       <c r="K62" s="3">
         <v>8523300</v>
@@ -4283,25 +4283,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44570100</v>
+        <v>43062600</v>
       </c>
       <c r="E66" s="3">
-        <v>47164800</v>
+        <v>45569500</v>
       </c>
       <c r="F66" s="3">
-        <v>41763200</v>
+        <v>40350600</v>
       </c>
       <c r="G66" s="3">
-        <v>40118100</v>
+        <v>38761100</v>
       </c>
       <c r="H66" s="3">
-        <v>32463900</v>
+        <v>31365800</v>
       </c>
       <c r="I66" s="3">
-        <v>34020900</v>
+        <v>32870200</v>
       </c>
       <c r="J66" s="3">
-        <v>33237300</v>
+        <v>32113100</v>
       </c>
       <c r="K66" s="3">
         <v>31943800</v>
@@ -4649,25 +4649,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13513100</v>
+        <v>13056000</v>
       </c>
       <c r="E72" s="3">
-        <v>12764500</v>
+        <v>12332700</v>
       </c>
       <c r="F72" s="3">
-        <v>12841300</v>
+        <v>12406900</v>
       </c>
       <c r="G72" s="3">
-        <v>11541700</v>
+        <v>11151300</v>
       </c>
       <c r="H72" s="3">
-        <v>9906700</v>
+        <v>9571600</v>
       </c>
       <c r="I72" s="3">
-        <v>11777600</v>
+        <v>11379300</v>
       </c>
       <c r="J72" s="3">
-        <v>11969600</v>
+        <v>11564700</v>
       </c>
       <c r="K72" s="3">
         <v>12445800</v>
@@ -4921,25 +4921,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17523600</v>
+        <v>16930900</v>
       </c>
       <c r="E76" s="3">
-        <v>16775000</v>
+        <v>16207600</v>
       </c>
       <c r="F76" s="3">
-        <v>16852900</v>
+        <v>16282900</v>
       </c>
       <c r="G76" s="3">
-        <v>15513800</v>
+        <v>14989100</v>
       </c>
       <c r="H76" s="3">
-        <v>13917300</v>
+        <v>13446600</v>
       </c>
       <c r="I76" s="3">
-        <v>14387000</v>
+        <v>13900400</v>
       </c>
       <c r="J76" s="3">
-        <v>14577800</v>
+        <v>14084700</v>
       </c>
       <c r="K76" s="3">
         <v>15190300</v>
@@ -5130,25 +5130,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>315000</v>
+        <v>304400</v>
       </c>
       <c r="E81" s="3">
-        <v>702300</v>
+        <v>678500</v>
       </c>
       <c r="F81" s="3">
-        <v>738400</v>
+        <v>713500</v>
       </c>
       <c r="G81" s="3">
-        <v>2122700</v>
+        <v>2050900</v>
       </c>
       <c r="H81" s="3">
-        <v>-549900</v>
+        <v>-531300</v>
       </c>
       <c r="I81" s="3">
-        <v>27100</v>
+        <v>26200</v>
       </c>
       <c r="J81" s="3">
-        <v>-179500</v>
+        <v>-173500</v>
       </c>
       <c r="K81" s="3">
         <v>414400</v>
@@ -5224,25 +5224,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>783600</v>
+        <v>757100</v>
       </c>
       <c r="E83" s="3">
-        <v>735000</v>
+        <v>710200</v>
       </c>
       <c r="F83" s="3">
-        <v>713600</v>
+        <v>689500</v>
       </c>
       <c r="G83" s="3">
-        <v>632300</v>
+        <v>610900</v>
       </c>
       <c r="H83" s="3">
-        <v>1560400</v>
+        <v>1507600</v>
       </c>
       <c r="I83" s="3">
-        <v>614200</v>
+        <v>593500</v>
       </c>
       <c r="J83" s="3">
-        <v>802800</v>
+        <v>775600</v>
       </c>
       <c r="K83" s="3">
         <v>758800</v>
@@ -5632,25 +5632,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1815600</v>
+        <v>1754200</v>
       </c>
       <c r="E89" s="3">
-        <v>1763700</v>
+        <v>1704000</v>
       </c>
       <c r="F89" s="3">
-        <v>1201400</v>
+        <v>1160700</v>
       </c>
       <c r="G89" s="3">
-        <v>766700</v>
+        <v>740700</v>
       </c>
       <c r="H89" s="3">
-        <v>894200</v>
+        <v>864000</v>
       </c>
       <c r="I89" s="3">
-        <v>613100</v>
+        <v>592400</v>
       </c>
       <c r="J89" s="3">
-        <v>1268000</v>
+        <v>1225100</v>
       </c>
       <c r="K89" s="3">
         <v>1145200</v>
@@ -5726,25 +5726,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-653700</v>
+        <v>-631600</v>
       </c>
       <c r="E91" s="3">
-        <v>-701200</v>
+        <v>-677500</v>
       </c>
       <c r="F91" s="3">
-        <v>-608600</v>
+        <v>-588000</v>
       </c>
       <c r="G91" s="3">
-        <v>-636800</v>
+        <v>-615300</v>
       </c>
       <c r="H91" s="3">
-        <v>-438100</v>
+        <v>-423300</v>
       </c>
       <c r="I91" s="3">
-        <v>-478700</v>
+        <v>-462500</v>
       </c>
       <c r="J91" s="3">
-        <v>-659400</v>
+        <v>-637100</v>
       </c>
       <c r="K91" s="3">
         <v>-706300</v>
@@ -5930,25 +5930,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-672900</v>
+        <v>-650200</v>
       </c>
       <c r="E94" s="3">
-        <v>-126500</v>
+        <v>-122200</v>
       </c>
       <c r="F94" s="3">
-        <v>-735000</v>
+        <v>-710200</v>
       </c>
       <c r="G94" s="3">
-        <v>-5024500</v>
+        <v>-4854500</v>
       </c>
       <c r="H94" s="3">
-        <v>-478700</v>
+        <v>-462500</v>
       </c>
       <c r="I94" s="3">
-        <v>-488900</v>
+        <v>-472400</v>
       </c>
       <c r="J94" s="3">
-        <v>-723800</v>
+        <v>-699300</v>
       </c>
       <c r="K94" s="3">
         <v>-744800</v>
@@ -6024,7 +6024,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-37300</v>
+        <v>-36000</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6033,13 +6033,13 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-511500</v>
+        <v>-494200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-248400</v>
+        <v>-240000</v>
       </c>
       <c r="J96" s="3">
         <v>0</v>
@@ -6296,25 +6296,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-70000</v>
+        <v>-67600</v>
       </c>
       <c r="E100" s="3">
-        <v>-2015400</v>
+        <v>-1947300</v>
       </c>
       <c r="F100" s="3">
-        <v>216800</v>
+        <v>209500</v>
       </c>
       <c r="G100" s="3">
-        <v>-777900</v>
+        <v>-751600</v>
       </c>
       <c r="H100" s="3">
-        <v>1307500</v>
+        <v>1263300</v>
       </c>
       <c r="I100" s="3">
-        <v>3325200</v>
+        <v>3212700</v>
       </c>
       <c r="J100" s="3">
-        <v>-684200</v>
+        <v>-661100</v>
       </c>
       <c r="K100" s="3">
         <v>-640900</v>
@@ -6364,25 +6364,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4500</v>
+        <v>-4400</v>
       </c>
       <c r="E101" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="F101" s="3">
-        <v>-10200</v>
+        <v>-9800</v>
       </c>
       <c r="G101" s="3">
-        <v>-5600</v>
+        <v>-5500</v>
       </c>
       <c r="H101" s="3">
-        <v>-27100</v>
+        <v>-26200</v>
       </c>
       <c r="I101" s="3">
         <v>1100</v>
       </c>
       <c r="J101" s="3">
-        <v>-42900</v>
+        <v>-41500</v>
       </c>
       <c r="K101" s="3">
         <v>-15200</v>
@@ -6432,25 +6432,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1068100</v>
+        <v>1032000</v>
       </c>
       <c r="E102" s="3">
-        <v>-380500</v>
+        <v>-367600</v>
       </c>
       <c r="F102" s="3">
-        <v>672900</v>
+        <v>650200</v>
       </c>
       <c r="G102" s="3">
-        <v>-5041400</v>
+        <v>-4870900</v>
       </c>
       <c r="H102" s="3">
-        <v>1695900</v>
+        <v>1638500</v>
       </c>
       <c r="I102" s="3">
-        <v>3450500</v>
+        <v>3333800</v>
       </c>
       <c r="J102" s="3">
-        <v>-182900</v>
+        <v>-176700</v>
       </c>
       <c r="K102" s="3">
         <v>-255700</v>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,308 +665,333 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9284700</v>
+        <v>16427900</v>
       </c>
       <c r="E8" s="3">
-        <v>7926600</v>
+        <v>13854900</v>
       </c>
       <c r="F8" s="3">
-        <v>7013500</v>
+        <v>8833600</v>
       </c>
       <c r="G8" s="3">
-        <v>5406500</v>
+        <v>7541400</v>
       </c>
       <c r="H8" s="3">
-        <v>4032000</v>
+        <v>6672700</v>
       </c>
       <c r="I8" s="3">
+        <v>5143800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3836100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3423300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>5192700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>7090800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>7287500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>7099600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>6463100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7854500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>6210300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>6265200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5464700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>5504500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>5212800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5780500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>6191100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>6346800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6664400</v>
+        <v>10478600</v>
       </c>
       <c r="E9" s="3">
-        <v>5249500</v>
+        <v>9160500</v>
       </c>
       <c r="F9" s="3">
-        <v>4533800</v>
+        <v>6340500</v>
       </c>
       <c r="G9" s="3">
-        <v>3975300</v>
+        <v>4994400</v>
       </c>
       <c r="H9" s="3">
-        <v>2638900</v>
+        <v>4313500</v>
       </c>
       <c r="I9" s="3">
+        <v>3782100</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2510700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2211300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>3708000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>4687200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4695400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>4537400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>4302700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>5203600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4239900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4662100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>3530100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>3775500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>3518600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4149100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>4238900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>6463000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2620400</v>
+        <v>5949200</v>
       </c>
       <c r="E10" s="3">
-        <v>2677100</v>
+        <v>4694400</v>
       </c>
       <c r="F10" s="3">
-        <v>2479600</v>
+        <v>2493000</v>
       </c>
       <c r="G10" s="3">
-        <v>1431300</v>
+        <v>2547000</v>
       </c>
       <c r="H10" s="3">
-        <v>1393100</v>
+        <v>2359100</v>
       </c>
       <c r="I10" s="3">
+        <v>1361700</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1325400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1212000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1484700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2403700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2592100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2562200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2160300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2650900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>1970400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>1603100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>1934700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>1729000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1694200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1631400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1952300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-116200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,76 +1016,84 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>49100</v>
+        <v>10400</v>
       </c>
       <c r="E12" s="3">
-        <v>49100</v>
+        <v>157800</v>
       </c>
       <c r="F12" s="3">
-        <v>41500</v>
+        <v>46700</v>
       </c>
       <c r="G12" s="3">
-        <v>48000</v>
+        <v>46700</v>
       </c>
       <c r="H12" s="3">
-        <v>709100</v>
+        <v>39400</v>
       </c>
       <c r="I12" s="3">
+        <v>45700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>674600</v>
+      </c>
+      <c r="K12" s="3">
         <v>90500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>129800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>85200</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>46500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>83500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>55000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>71000</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>27700</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>58200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>40600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>107700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>39300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>65100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>35900</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>83300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,31 +1160,37 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1165,106 +1204,118 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-158500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>165000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-68100</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-3400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-2200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>1362100</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-153700</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>730900</v>
+        <v>625900</v>
       </c>
       <c r="E15" s="3">
-        <v>675300</v>
+        <v>1917000</v>
       </c>
       <c r="F15" s="3">
-        <v>669800</v>
+        <v>695400</v>
       </c>
       <c r="G15" s="3">
-        <v>374200</v>
+        <v>642500</v>
       </c>
       <c r="H15" s="3">
-        <v>1036400</v>
+        <v>637300</v>
       </c>
       <c r="I15" s="3">
+        <v>356000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>986000</v>
+      </c>
+      <c r="K15" s="3">
         <v>536700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>690500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>728500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>719100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>677600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>656700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>553600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>495100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>516100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>486400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>511600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>538600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>518400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>509400</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="Y15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="3" t="s">
+      <c r="Z15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1337,158 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8290900</v>
+        <v>13366100</v>
       </c>
       <c r="E17" s="3">
-        <v>6752700</v>
+        <v>12309500</v>
       </c>
       <c r="F17" s="3">
-        <v>5935600</v>
+        <v>7888000</v>
       </c>
       <c r="G17" s="3">
-        <v>3822500</v>
+        <v>6424600</v>
       </c>
       <c r="H17" s="3">
-        <v>4741100</v>
+        <v>5647200</v>
       </c>
       <c r="I17" s="3">
+        <v>3636800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>4510700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3330500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5054200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6229300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>6264600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5986700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5652000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6430200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>5483700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5738100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4596200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4899700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4581100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>6672500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>5163400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>6659000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>993800</v>
+        <v>3061800</v>
       </c>
       <c r="E18" s="3">
-        <v>1173800</v>
+        <v>1545400</v>
       </c>
       <c r="F18" s="3">
-        <v>1077800</v>
+        <v>945500</v>
       </c>
       <c r="G18" s="3">
-        <v>1584000</v>
+        <v>1116800</v>
       </c>
       <c r="H18" s="3">
-        <v>-709100</v>
+        <v>1025400</v>
       </c>
       <c r="I18" s="3">
+        <v>1507000</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-674600</v>
+      </c>
+      <c r="K18" s="3">
         <v>92700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>138500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>861500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1022900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>1112900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>811000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>1424200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>726600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>527000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>868500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>604800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>631700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-892000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>1027700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-312200</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,348 +1513,380 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>221500</v>
+        <v>-761800</v>
       </c>
       <c r="E20" s="3">
-        <v>225800</v>
+        <v>133900</v>
       </c>
       <c r="F20" s="3">
-        <v>219300</v>
+        <v>210700</v>
       </c>
       <c r="G20" s="3">
-        <v>92700</v>
+        <v>214800</v>
       </c>
       <c r="H20" s="3">
-        <v>60000</v>
+        <v>208600</v>
       </c>
       <c r="I20" s="3">
+        <v>88200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>57100</v>
+      </c>
+      <c r="K20" s="3">
         <v>52400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-51300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>131900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>144500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>227000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>161500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>88700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>154000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>176800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>90000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>25800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>225500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>113300</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>149200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>118600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1972400</v>
+        <v>2927900</v>
       </c>
       <c r="E21" s="3">
-        <v>2109800</v>
+        <v>3711500</v>
       </c>
       <c r="F21" s="3">
-        <v>1986500</v>
+        <v>1876500</v>
       </c>
       <c r="G21" s="3">
-        <v>2287600</v>
+        <v>2007300</v>
       </c>
       <c r="H21" s="3">
-        <v>858500</v>
+        <v>1890000</v>
       </c>
       <c r="I21" s="3">
+        <v>2176500</v>
+      </c>
+      <c r="J21" s="3">
+        <v>816800</v>
+      </c>
+      <c r="K21" s="3">
         <v>738500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>862900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1752300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1906100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>2063400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1644800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>2102000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1385600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1233100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1452700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>1227500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1405900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-194100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1677400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1205500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>106900</v>
+        <v>98600</v>
       </c>
       <c r="E22" s="3">
-        <v>82900</v>
+        <v>86100</v>
       </c>
       <c r="F22" s="3">
-        <v>84000</v>
+        <v>101700</v>
       </c>
       <c r="G22" s="3">
+        <v>78900</v>
+      </c>
+      <c r="H22" s="3">
+        <v>79900</v>
+      </c>
+      <c r="I22" s="3">
+        <v>73700</v>
+      </c>
+      <c r="J22" s="3">
+        <v>73700</v>
+      </c>
+      <c r="K22" s="3">
+        <v>68700</v>
+      </c>
+      <c r="L22" s="3">
+        <v>81800</v>
+      </c>
+      <c r="M22" s="3">
+        <v>85200</v>
+      </c>
+      <c r="N22" s="3">
+        <v>95500</v>
+      </c>
+      <c r="O22" s="3">
+        <v>90600</v>
+      </c>
+      <c r="P22" s="3">
+        <v>89700</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>82800</v>
+      </c>
+      <c r="R22" s="3">
         <v>77500</v>
       </c>
-      <c r="H22" s="3">
-        <v>77500</v>
-      </c>
-      <c r="I22" s="3">
-        <v>68700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>81800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>85200</v>
-      </c>
-      <c r="L22" s="3">
-        <v>95500</v>
-      </c>
-      <c r="M22" s="3">
-        <v>90600</v>
-      </c>
-      <c r="N22" s="3">
-        <v>89700</v>
-      </c>
-      <c r="O22" s="3">
-        <v>82800</v>
-      </c>
-      <c r="P22" s="3">
-        <v>77500</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>94400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>70300</v>
       </c>
-      <c r="S22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>80800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>69600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>68400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>74000</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1108400</v>
+        <v>2201400</v>
       </c>
       <c r="E23" s="3">
-        <v>1316700</v>
+        <v>1593200</v>
       </c>
       <c r="F23" s="3">
-        <v>1213100</v>
+        <v>1054500</v>
       </c>
       <c r="G23" s="3">
-        <v>1599300</v>
+        <v>1252700</v>
       </c>
       <c r="H23" s="3">
-        <v>-726500</v>
+        <v>1154100</v>
       </c>
       <c r="I23" s="3">
+        <v>1521600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-691200</v>
+      </c>
+      <c r="K23" s="3">
         <v>76400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>5500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>908200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1071900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>1249300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>882800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>1430100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>803000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>609400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>888300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>630600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>776400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-848200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>1108500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-267600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>580400</v>
+        <v>1312900</v>
       </c>
       <c r="E24" s="3">
-        <v>435300</v>
+        <v>890500</v>
       </c>
       <c r="F24" s="3">
-        <v>302200</v>
+        <v>552200</v>
       </c>
       <c r="G24" s="3">
-        <v>-523600</v>
+        <v>414100</v>
       </c>
       <c r="H24" s="3">
-        <v>-228000</v>
+        <v>287500</v>
       </c>
       <c r="I24" s="3">
+        <v>-498200</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-216900</v>
+      </c>
+      <c r="K24" s="3">
         <v>14200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>79600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>373600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>416500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>475300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>289500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>492100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>366600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>306300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>305200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>159300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>166100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>193000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>193000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>120900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1953,162 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>528000</v>
+        <v>888400</v>
       </c>
       <c r="E26" s="3">
-        <v>881500</v>
+        <v>702700</v>
       </c>
       <c r="F26" s="3">
-        <v>910900</v>
+        <v>502300</v>
       </c>
       <c r="G26" s="3">
-        <v>2122900</v>
+        <v>838600</v>
       </c>
       <c r="H26" s="3">
-        <v>-498500</v>
+        <v>866600</v>
       </c>
       <c r="I26" s="3">
+        <v>2019800</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-474300</v>
+      </c>
+      <c r="K26" s="3">
         <v>62200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-74200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>534700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>655400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>774100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>593300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>938000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>436400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>303000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>583000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>471200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>610400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>915500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-388500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>304400</v>
+        <v>566700</v>
       </c>
       <c r="E27" s="3">
-        <v>678500</v>
+        <v>558400</v>
       </c>
       <c r="F27" s="3">
-        <v>713500</v>
+        <v>289600</v>
       </c>
       <c r="G27" s="3">
-        <v>2050900</v>
+        <v>645600</v>
       </c>
       <c r="H27" s="3">
-        <v>-531300</v>
+        <v>678800</v>
       </c>
       <c r="I27" s="3">
+        <v>1951300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-505500</v>
+      </c>
+      <c r="K27" s="3">
         <v>26200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-173500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>414400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>520600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>638800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>423500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>719200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>244800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>222900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>445800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>348900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>491400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>798900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-442500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2175,14 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2249,14 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2323,14 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2397,162 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-221500</v>
+        <v>761800</v>
       </c>
       <c r="E32" s="3">
-        <v>-225800</v>
+        <v>-133900</v>
       </c>
       <c r="F32" s="3">
-        <v>-219300</v>
+        <v>-210700</v>
       </c>
       <c r="G32" s="3">
-        <v>-92700</v>
+        <v>-214800</v>
       </c>
       <c r="H32" s="3">
-        <v>-60000</v>
+        <v>-208600</v>
       </c>
       <c r="I32" s="3">
+        <v>-88200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-52400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>51300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-131900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-144500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-227000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-161500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-88700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-154000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-176800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-90000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-25800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-225500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-113300</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-149200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-118600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>304400</v>
+        <v>566700</v>
       </c>
       <c r="E33" s="3">
-        <v>678500</v>
+        <v>558400</v>
       </c>
       <c r="F33" s="3">
-        <v>713500</v>
+        <v>289600</v>
       </c>
       <c r="G33" s="3">
-        <v>2050900</v>
+        <v>645600</v>
       </c>
       <c r="H33" s="3">
-        <v>-531300</v>
+        <v>678800</v>
       </c>
       <c r="I33" s="3">
+        <v>1951300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-505500</v>
+      </c>
+      <c r="K33" s="3">
         <v>26200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-173500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>414400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>520600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>638800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>423500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>719200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>244800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>222900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>445800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>348900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>491400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>798900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-442500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2619,167 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>304400</v>
+        <v>566700</v>
       </c>
       <c r="E35" s="3">
-        <v>678500</v>
+        <v>558400</v>
       </c>
       <c r="F35" s="3">
-        <v>713500</v>
+        <v>289600</v>
       </c>
       <c r="G35" s="3">
-        <v>2050900</v>
+        <v>645600</v>
       </c>
       <c r="H35" s="3">
-        <v>-531300</v>
+        <v>678800</v>
       </c>
       <c r="I35" s="3">
+        <v>1951300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-505500</v>
+      </c>
+      <c r="K35" s="3">
         <v>26200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-173500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>414400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>520600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>638800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>423500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>719200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>244800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>222900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>445800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>348900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>491400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>798900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-442500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2804,10 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,620 +2832,676 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>4430200</v>
+        <v>6248200</v>
       </c>
       <c r="E41" s="3">
-        <v>3373100</v>
+        <v>5241400</v>
       </c>
       <c r="F41" s="3">
-        <v>3738500</v>
+        <v>4214900</v>
       </c>
       <c r="G41" s="3">
-        <v>3113500</v>
+        <v>3209200</v>
       </c>
       <c r="H41" s="3">
-        <v>7997500</v>
+        <v>3556900</v>
       </c>
       <c r="I41" s="3">
+        <v>2962200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>7608800</v>
+      </c>
+      <c r="K41" s="3">
         <v>6360000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3020700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3421700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>3867300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>4342100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>4382900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>4762400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3780200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>3213800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4718100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4456500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>5209400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>4715700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>3504000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2428600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>6777800</v>
+        <v>7635800</v>
       </c>
       <c r="E42" s="3">
-        <v>9828000</v>
+        <v>5343100</v>
       </c>
       <c r="F42" s="3">
-        <v>3896700</v>
+        <v>6448500</v>
       </c>
       <c r="G42" s="3">
-        <v>3292400</v>
+        <v>9350400</v>
       </c>
       <c r="H42" s="3">
-        <v>3459300</v>
+        <v>3707400</v>
       </c>
       <c r="I42" s="3">
+        <v>3132400</v>
+      </c>
+      <c r="J42" s="3">
+        <v>3291200</v>
+      </c>
+      <c r="K42" s="3">
         <v>5491600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>6987300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3643500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>2736600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>3435100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>2978500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3225800</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>4229900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>2617600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>1327500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>1279100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>1220700</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>905400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>821300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1461400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3843300</v>
+        <v>5590100</v>
       </c>
       <c r="E43" s="3">
-        <v>4287300</v>
+        <v>4800300</v>
       </c>
       <c r="F43" s="3">
-        <v>4484700</v>
+        <v>3656500</v>
       </c>
       <c r="G43" s="3">
-        <v>3656700</v>
+        <v>4078900</v>
       </c>
       <c r="H43" s="3">
-        <v>2041100</v>
+        <v>4266800</v>
       </c>
       <c r="I43" s="3">
+        <v>3479000</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1941900</v>
+      </c>
+      <c r="K43" s="3">
         <v>1843600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2862500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3564100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>3807300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3585700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>4357800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>4056200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3196500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2945900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>3542100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2825200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2287700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2318000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2921700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2924000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3288000</v>
+        <v>4060300</v>
       </c>
       <c r="E44" s="3">
-        <v>2790500</v>
+        <v>3269400</v>
       </c>
       <c r="F44" s="3">
-        <v>2585500</v>
+        <v>3128200</v>
       </c>
       <c r="G44" s="3">
-        <v>2565800</v>
+        <v>2654900</v>
       </c>
       <c r="H44" s="3">
-        <v>1620000</v>
+        <v>2459800</v>
       </c>
       <c r="I44" s="3">
+        <v>2441100</v>
+      </c>
+      <c r="J44" s="3">
+        <v>1541300</v>
+      </c>
+      <c r="K44" s="3">
         <v>1538200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>1572000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2153900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>2370400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1909300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>2075400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1858300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1845300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1639300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>1486700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1686400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1729000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1495600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1647100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1952000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>532400</v>
+        <v>732800</v>
       </c>
       <c r="E45" s="3">
-        <v>445100</v>
+        <v>645600</v>
       </c>
       <c r="F45" s="3">
-        <v>555300</v>
+        <v>506500</v>
       </c>
       <c r="G45" s="3">
-        <v>584700</v>
+        <v>423500</v>
       </c>
       <c r="H45" s="3">
-        <v>286900</v>
+        <v>528300</v>
       </c>
       <c r="I45" s="3">
+        <v>556300</v>
+      </c>
+      <c r="J45" s="3">
+        <v>273000</v>
+      </c>
+      <c r="K45" s="3">
         <v>293500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>370900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>347900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>286600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>294100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>330200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>312300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>418700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>424900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>362300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>297300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>269300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>286100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>280500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>232400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>18871700</v>
+        <v>24267100</v>
       </c>
       <c r="E46" s="3">
-        <v>20724000</v>
+        <v>19299800</v>
       </c>
       <c r="F46" s="3">
-        <v>15260700</v>
+        <v>17954600</v>
       </c>
       <c r="G46" s="3">
-        <v>13213100</v>
+        <v>19717000</v>
       </c>
       <c r="H46" s="3">
-        <v>15404700</v>
+        <v>14519200</v>
       </c>
       <c r="I46" s="3">
+        <v>12571000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>14656200</v>
+      </c>
+      <c r="K46" s="3">
         <v>15526900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>14813500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>13131000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>13068200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>13566200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>14124700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>14214900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>13470600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>10841700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>11436800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>10544500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>10716100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>9720900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>9174500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>8998400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>14150200</v>
+        <v>11262300</v>
       </c>
       <c r="E47" s="3">
-        <v>14161100</v>
+        <v>11019400</v>
       </c>
       <c r="F47" s="3">
-        <v>13431300</v>
+        <v>13462600</v>
       </c>
       <c r="G47" s="3">
-        <v>12837800</v>
+        <v>13473000</v>
       </c>
       <c r="H47" s="3">
-        <v>8164400</v>
+        <v>12778600</v>
       </c>
       <c r="I47" s="3">
+        <v>12214000</v>
+      </c>
+      <c r="J47" s="3">
+        <v>7767600</v>
+      </c>
+      <c r="K47" s="3">
         <v>8480700</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>8646600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>8831500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>9770500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>6566700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>6554000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>6707000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>5998800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>5680000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>5236400</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>5466300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>4431900</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>4404900</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>4145800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>4468700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19984400</v>
+        <v>19504200</v>
       </c>
       <c r="E48" s="3">
-        <v>19886200</v>
+        <v>19272800</v>
       </c>
       <c r="F48" s="3">
-        <v>19830600</v>
+        <v>19013300</v>
       </c>
       <c r="G48" s="3">
-        <v>20948700</v>
+        <v>18919900</v>
       </c>
       <c r="H48" s="3">
-        <v>15682900</v>
+        <v>18866900</v>
       </c>
       <c r="I48" s="3">
+        <v>19930800</v>
+      </c>
+      <c r="J48" s="3">
+        <v>14920900</v>
+      </c>
+      <c r="K48" s="3">
         <v>16464000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>16726900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>19237700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>20358100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>19369400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>19616500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>17879500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>15679200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>15670700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>14865800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>15319700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>15457700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>15748300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>16063500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>17152900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>3658900</v>
+        <v>2669500</v>
       </c>
       <c r="E49" s="3">
-        <v>3651300</v>
+        <v>3280800</v>
       </c>
       <c r="F49" s="3">
-        <v>3810500</v>
+        <v>3481100</v>
       </c>
       <c r="G49" s="3">
-        <v>3756000</v>
+        <v>3473900</v>
       </c>
       <c r="H49" s="3">
-        <v>3353500</v>
+        <v>3625400</v>
       </c>
       <c r="I49" s="3">
+        <v>3573500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3190500</v>
+      </c>
+      <c r="K49" s="3">
         <v>4212000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>4215300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>4859900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>5203800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4843200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>5048000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3923700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3202100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>3188600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>2882300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>2971000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>1852400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>1867000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>1934300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2010700</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3568,14 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,76 +3642,88 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3328400</v>
+        <v>3066000</v>
       </c>
       <c r="E52" s="3">
-        <v>3354500</v>
+        <v>2964200</v>
       </c>
       <c r="F52" s="3">
-        <v>4300400</v>
+        <v>3166600</v>
       </c>
       <c r="G52" s="3">
-        <v>2994500</v>
+        <v>3191500</v>
       </c>
       <c r="H52" s="3">
-        <v>2206900</v>
+        <v>4091400</v>
       </c>
       <c r="I52" s="3">
+        <v>2849000</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2099700</v>
+      </c>
+      <c r="K52" s="3">
         <v>2086900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1795600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1074000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>977500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>905800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>958200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>996000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>1256000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>1408700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1115600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1126500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>935700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1169100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>3635200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>5062600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3790,88 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59993500</v>
+        <v>60769000</v>
       </c>
       <c r="E54" s="3">
-        <v>61777100</v>
+        <v>55836900</v>
       </c>
       <c r="F54" s="3">
-        <v>56633500</v>
+        <v>57078300</v>
       </c>
       <c r="G54" s="3">
-        <v>53750200</v>
+        <v>58775200</v>
       </c>
       <c r="H54" s="3">
-        <v>44812400</v>
+        <v>53881500</v>
       </c>
       <c r="I54" s="3">
+        <v>51138400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>42634900</v>
+      </c>
+      <c r="K54" s="3">
         <v>46770600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>46197900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>47134200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>49378100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>45251400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>46301300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>43721200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>39606700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>36789600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>35536800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>35428000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>33393800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>32910200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>34953400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>37693400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3896,10 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,416 +3924,454 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4086500</v>
+        <v>5792500</v>
       </c>
       <c r="E57" s="3">
-        <v>4562200</v>
+        <v>5044200</v>
       </c>
       <c r="F57" s="3">
-        <v>4926500</v>
+        <v>3888000</v>
       </c>
       <c r="G57" s="3">
-        <v>4695300</v>
+        <v>4340500</v>
       </c>
       <c r="H57" s="3">
-        <v>2803600</v>
+        <v>4687200</v>
       </c>
       <c r="I57" s="3">
+        <v>4467100</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2667400</v>
+      </c>
+      <c r="K57" s="3">
         <v>2607300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>3769100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4850600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4789700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4173900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5197500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5205900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4101400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>3877000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>3910000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>3659900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>3268400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3028300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3460200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>4379500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1876400</v>
+        <v>1136500</v>
       </c>
       <c r="E58" s="3">
-        <v>1077800</v>
+        <v>1324400</v>
       </c>
       <c r="F58" s="3">
-        <v>1996400</v>
+        <v>1785200</v>
       </c>
       <c r="G58" s="3">
-        <v>1848000</v>
+        <v>1025400</v>
       </c>
       <c r="H58" s="3">
-        <v>898900</v>
+        <v>1899400</v>
       </c>
       <c r="I58" s="3">
+        <v>1758200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>855200</v>
+      </c>
+      <c r="K58" s="3">
         <v>916400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>613100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>943300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1768900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1664600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1934300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>997200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>965800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1001400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1902800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1012000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>274900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>218800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>190700</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>305200</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10152000</v>
+        <v>10634300</v>
       </c>
       <c r="E59" s="3">
-        <v>12096000</v>
+        <v>7826800</v>
       </c>
       <c r="F59" s="3">
-        <v>5778600</v>
+        <v>9658700</v>
       </c>
       <c r="G59" s="3">
-        <v>5037800</v>
+        <v>11508200</v>
       </c>
       <c r="H59" s="3">
-        <v>5718600</v>
+        <v>5497800</v>
       </c>
       <c r="I59" s="3">
+        <v>4793000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>5440700</v>
+      </c>
+      <c r="K59" s="3">
         <v>6826900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8336700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5174000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>4881600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>5518500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5219000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5247300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6182600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4643400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>3090900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>2986700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>2753400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>2555900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2606400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>3211500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>16114900</v>
+        <v>17563300</v>
       </c>
       <c r="E60" s="3">
-        <v>17736000</v>
+        <v>14195400</v>
       </c>
       <c r="F60" s="3">
-        <v>12701500</v>
+        <v>15331900</v>
       </c>
       <c r="G60" s="3">
-        <v>11581100</v>
+        <v>16874200</v>
       </c>
       <c r="H60" s="3">
-        <v>9421100</v>
+        <v>12084300</v>
       </c>
       <c r="I60" s="3">
+        <v>11018300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>8963300</v>
+      </c>
+      <c r="K60" s="3">
         <v>10350600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12718900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10967800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>11440200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>11357000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12350800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>11450500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11249900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>9521900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>8903700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7658700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>6296600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>5802900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>6257300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7896200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10445500</v>
+        <v>10354100</v>
       </c>
       <c r="E61" s="3">
-        <v>11236400</v>
+        <v>9940000</v>
       </c>
       <c r="F61" s="3">
-        <v>11284400</v>
+        <v>9937900</v>
       </c>
       <c r="G61" s="3">
-        <v>11173100</v>
+        <v>10690400</v>
       </c>
       <c r="H61" s="3">
-        <v>9908700</v>
+        <v>10736000</v>
       </c>
       <c r="I61" s="3">
+        <v>10630200</v>
+      </c>
+      <c r="J61" s="3">
+        <v>9427200</v>
+      </c>
+      <c r="K61" s="3">
         <v>9955600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>6896700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>7957100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>8107000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6550200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6260900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>5806900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>5052900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>5035400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>5017900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5375500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5134200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5244200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5276700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5869100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9592400</v>
+        <v>8659200</v>
       </c>
       <c r="E62" s="3">
-        <v>9949100</v>
+        <v>8872000</v>
       </c>
       <c r="F62" s="3">
-        <v>9468000</v>
+        <v>9126300</v>
       </c>
       <c r="G62" s="3">
-        <v>9288000</v>
+        <v>9465600</v>
       </c>
       <c r="H62" s="3">
-        <v>8025800</v>
+        <v>9007900</v>
       </c>
       <c r="I62" s="3">
+        <v>8836700</v>
+      </c>
+      <c r="J62" s="3">
+        <v>7635800</v>
+      </c>
+      <c r="K62" s="3">
         <v>8515600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>8213500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>8523300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>9412800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>8512400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>8335100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8315800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>6928000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>6508900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>6244300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>6311200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>5978000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>6342600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>7216600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>7582800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4438,14 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4512,14 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4586,88 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43062600</v>
+        <v>43503600</v>
       </c>
       <c r="E66" s="3">
-        <v>45569500</v>
+        <v>39744300</v>
       </c>
       <c r="F66" s="3">
-        <v>40350600</v>
+        <v>40970100</v>
       </c>
       <c r="G66" s="3">
-        <v>38761100</v>
+        <v>43355200</v>
       </c>
       <c r="H66" s="3">
-        <v>31365800</v>
+        <v>38389800</v>
       </c>
       <c r="I66" s="3">
+        <v>36877600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>29841700</v>
+      </c>
+      <c r="K66" s="3">
         <v>32870200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>32113100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>31943800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>33628400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>30806400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>31501900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>29637600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>26852700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>24489800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>23702500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>22843700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>20852200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>20777000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>22206400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>24881300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4692,10 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4762,14 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4836,14 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4910,14 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4984,88 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>13056000</v>
+        <v>14349000</v>
       </c>
       <c r="E72" s="3">
-        <v>12332700</v>
+        <v>13089000</v>
       </c>
       <c r="F72" s="3">
-        <v>12406900</v>
+        <v>12421600</v>
       </c>
       <c r="G72" s="3">
-        <v>11151300</v>
+        <v>11733500</v>
       </c>
       <c r="H72" s="3">
-        <v>9571600</v>
+        <v>11804000</v>
       </c>
       <c r="I72" s="3">
+        <v>10609400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>9106500</v>
+      </c>
+      <c r="K72" s="3">
         <v>11379300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>11564700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>12445800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>12920000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11727500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>12038600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>11306200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>10196600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>9765600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>9846900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>9714200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>9680500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>9272100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>9885900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>9820100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +5132,14 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5206,14 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5280,88 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16930900</v>
+        <v>17265500</v>
       </c>
       <c r="E76" s="3">
-        <v>16207600</v>
+        <v>16092600</v>
       </c>
       <c r="F76" s="3">
-        <v>16282900</v>
+        <v>16108200</v>
       </c>
       <c r="G76" s="3">
-        <v>14989100</v>
+        <v>15420100</v>
       </c>
       <c r="H76" s="3">
-        <v>13446600</v>
+        <v>15491700</v>
       </c>
       <c r="I76" s="3">
+        <v>14260700</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12793200</v>
+      </c>
+      <c r="K76" s="3">
         <v>13900400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14084700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>15190300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>15749700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>14445000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14799400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>14083600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>12754000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>12299800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>11834200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>12584200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12541600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>12133200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>12746900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>12812100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5428,167 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>304400</v>
+        <v>566700</v>
       </c>
       <c r="E81" s="3">
-        <v>678500</v>
+        <v>558400</v>
       </c>
       <c r="F81" s="3">
-        <v>713500</v>
+        <v>289600</v>
       </c>
       <c r="G81" s="3">
-        <v>2050900</v>
+        <v>645600</v>
       </c>
       <c r="H81" s="3">
-        <v>-531300</v>
+        <v>678800</v>
       </c>
       <c r="I81" s="3">
+        <v>1951300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-505500</v>
+      </c>
+      <c r="K81" s="3">
         <v>26200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-173500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>414400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>520600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>638800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>423500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>719200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>244800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>222900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>445800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>348900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>491400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>798900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-442500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,76 +5613,84 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>757100</v>
+        <v>627900</v>
       </c>
       <c r="E83" s="3">
-        <v>710200</v>
+        <v>2032200</v>
       </c>
       <c r="F83" s="3">
-        <v>689500</v>
+        <v>720300</v>
       </c>
       <c r="G83" s="3">
-        <v>610900</v>
+        <v>675700</v>
       </c>
       <c r="H83" s="3">
-        <v>1507600</v>
+        <v>656000</v>
       </c>
       <c r="I83" s="3">
+        <v>581200</v>
+      </c>
+      <c r="J83" s="3">
+        <v>1434400</v>
+      </c>
+      <c r="K83" s="3">
         <v>593500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>775600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>758800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>738700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>723500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>672300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>589100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>505100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>529200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>494100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>596900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>548700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>584600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>500400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>1533000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5757,14 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5831,14 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5905,14 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5979,14 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +6053,88 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1754200</v>
+        <v>2776400</v>
       </c>
       <c r="E89" s="3">
-        <v>1704000</v>
+        <v>2888500</v>
       </c>
       <c r="F89" s="3">
-        <v>1160700</v>
+        <v>1668900</v>
       </c>
       <c r="G89" s="3">
-        <v>740700</v>
+        <v>1621200</v>
       </c>
       <c r="H89" s="3">
-        <v>864000</v>
+        <v>1104300</v>
       </c>
       <c r="I89" s="3">
+        <v>704700</v>
+      </c>
+      <c r="J89" s="3">
+        <v>822000</v>
+      </c>
+      <c r="K89" s="3">
         <v>592400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1225100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>1145200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>1316900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>1334000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1035900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1318900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1075500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1353800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1181400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>832500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>888600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1110800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1036700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>718400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +6159,84 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-631600</v>
+        <v>-671500</v>
       </c>
       <c r="E91" s="3">
-        <v>-677500</v>
+        <v>-786700</v>
       </c>
       <c r="F91" s="3">
-        <v>-588000</v>
+        <v>-600900</v>
       </c>
       <c r="G91" s="3">
-        <v>-615300</v>
+        <v>-644500</v>
       </c>
       <c r="H91" s="3">
-        <v>-423300</v>
+        <v>-559400</v>
       </c>
       <c r="I91" s="3">
+        <v>-585400</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-402700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-462500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-637100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-706300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-665200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-578800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-619600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-671900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-547200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-473200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-571100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-356800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-373600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-478000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6303,14 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6377,88 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-650200</v>
+        <v>-1200900</v>
       </c>
       <c r="E94" s="3">
-        <v>-122200</v>
+        <v>-478500</v>
       </c>
       <c r="F94" s="3">
-        <v>-710200</v>
+        <v>-618600</v>
       </c>
       <c r="G94" s="3">
-        <v>-4854500</v>
+        <v>-116200</v>
       </c>
       <c r="H94" s="3">
-        <v>-462500</v>
+        <v>-675700</v>
       </c>
       <c r="I94" s="3">
+        <v>-4618700</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-440100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-472400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-699300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-744800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-3178800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-488200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1184200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-886000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-495100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-590700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-352300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>379200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>445400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-206600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,76 +6483,84 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-36000</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-87200</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-34300</v>
       </c>
       <c r="G96" s="3">
-        <v>-494200</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
+        <v>-470200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-240000</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>115600</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-908200</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>85200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-760900</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>59500</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-653000</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-99800</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6627,14 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6701,14 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,208 +6775,232 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-67600</v>
+        <v>-503400</v>
       </c>
       <c r="E100" s="3">
-        <v>-1947300</v>
+        <v>-1372100</v>
       </c>
       <c r="F100" s="3">
-        <v>209500</v>
+        <v>-64300</v>
       </c>
       <c r="G100" s="3">
-        <v>-751600</v>
+        <v>-1852700</v>
       </c>
       <c r="H100" s="3">
-        <v>1263300</v>
+        <v>199300</v>
       </c>
       <c r="I100" s="3">
+        <v>-715100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>1201900</v>
+      </c>
+      <c r="K100" s="3">
         <v>3212700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-661100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-640900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1214000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-818800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-275100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>288600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-39900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-232800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>886400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-31400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-682200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-142500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>191300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4400</v>
+        <v>-65400</v>
       </c>
       <c r="E101" s="3">
-        <v>-2200</v>
+        <v>-10400</v>
       </c>
       <c r="F101" s="3">
-        <v>-9800</v>
+        <v>-4200</v>
       </c>
       <c r="G101" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H101" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="K101" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-41500</v>
+      </c>
+      <c r="M101" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="N101" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="O101" s="3">
+        <v>5900</v>
+      </c>
+      <c r="P101" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>2400</v>
+      </c>
+      <c r="R101" s="3">
+        <v>-13300</v>
+      </c>
+      <c r="S101" s="3">
         <v>-5500</v>
       </c>
-      <c r="H101" s="3">
-        <v>-26200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-41500</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-15200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-6100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>5900</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-10800</v>
-      </c>
-      <c r="O101" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-13300</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-5500</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-7700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-7900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-11200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-11200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-16800</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-39900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1032000</v>
+        <v>1006800</v>
       </c>
       <c r="E102" s="3">
-        <v>-367600</v>
+        <v>1027500</v>
       </c>
       <c r="F102" s="3">
-        <v>650200</v>
+        <v>981900</v>
       </c>
       <c r="G102" s="3">
-        <v>-4870900</v>
+        <v>-349800</v>
       </c>
       <c r="H102" s="3">
-        <v>1638500</v>
+        <v>618600</v>
       </c>
       <c r="I102" s="3">
+        <v>-4634200</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1558900</v>
+      </c>
+      <c r="K102" s="3">
         <v>3333800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-176700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-255700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-654100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>32900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-434200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>723900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>527200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>350300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-742800</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>493700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>796600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1322800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>663200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
   <si>
     <t>OMVKY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>16427900</v>
+        <v>14754500</v>
       </c>
       <c r="E8" s="3">
-        <v>13854900</v>
+        <v>15786800</v>
       </c>
       <c r="F8" s="3">
-        <v>8833600</v>
+        <v>13314300</v>
       </c>
       <c r="G8" s="3">
-        <v>7541400</v>
+        <v>8488900</v>
       </c>
       <c r="H8" s="3">
-        <v>6672700</v>
+        <v>7247100</v>
       </c>
       <c r="I8" s="3">
-        <v>5143800</v>
+        <v>6412300</v>
       </c>
       <c r="J8" s="3">
+        <v>4943100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3836100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3423300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5192700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7090800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7287500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7099600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>6463100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7854500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>6210300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6265200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5464700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5504500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5212800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5780500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6191100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6346800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10478600</v>
+        <v>10659200</v>
       </c>
       <c r="E9" s="3">
-        <v>9160500</v>
+        <v>10069800</v>
       </c>
       <c r="F9" s="3">
-        <v>6340500</v>
+        <v>8803100</v>
       </c>
       <c r="G9" s="3">
-        <v>4994400</v>
+        <v>6093100</v>
       </c>
       <c r="H9" s="3">
-        <v>4313500</v>
+        <v>4799500</v>
       </c>
       <c r="I9" s="3">
-        <v>3782100</v>
+        <v>4145200</v>
       </c>
       <c r="J9" s="3">
+        <v>3634500</v>
+      </c>
+      <c r="K9" s="3">
         <v>2510700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2211300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>3708000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4687200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4695400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4537400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4302700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5203600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4239900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4662100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>3530100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3775500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3518600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4149100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4238900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>6463000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5949200</v>
+        <v>4095300</v>
       </c>
       <c r="E10" s="3">
-        <v>4694400</v>
+        <v>5717100</v>
       </c>
       <c r="F10" s="3">
-        <v>2493000</v>
+        <v>4511200</v>
       </c>
       <c r="G10" s="3">
-        <v>2547000</v>
+        <v>2395800</v>
       </c>
       <c r="H10" s="3">
-        <v>2359100</v>
+        <v>2447600</v>
       </c>
       <c r="I10" s="3">
-        <v>1361700</v>
+        <v>2267100</v>
       </c>
       <c r="J10" s="3">
+        <v>1308600</v>
+      </c>
+      <c r="K10" s="3">
         <v>1325400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1212000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1484700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2403700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2592100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2562200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2160300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2650900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>1970400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1603100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1934700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1729000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1694200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1631400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1952300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>-116200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,82 +1031,86 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>10400</v>
+        <v>77800</v>
       </c>
       <c r="E12" s="3">
-        <v>157800</v>
+        <v>10000</v>
       </c>
       <c r="F12" s="3">
-        <v>46700</v>
+        <v>151600</v>
       </c>
       <c r="G12" s="3">
-        <v>46700</v>
+        <v>44900</v>
       </c>
       <c r="H12" s="3">
-        <v>39400</v>
+        <v>44900</v>
       </c>
       <c r="I12" s="3">
-        <v>45700</v>
+        <v>37900</v>
       </c>
       <c r="J12" s="3">
+        <v>43900</v>
+      </c>
+      <c r="K12" s="3">
         <v>674600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>90500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>129800</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>85200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>46500</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>83500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>55000</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>71000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>27700</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>58200</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>40600</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>107700</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>39300</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>65100</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>35900</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>83300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1166,34 +1183,37 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-688200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
+        <v>1010400</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>10</v>
@@ -1210,112 +1230,118 @@
       <c r="P14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
         <v>-158500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>165000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-68100</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-3400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-2200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>1362100</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-153700</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>625900</v>
+        <v>698200</v>
       </c>
       <c r="E15" s="3">
-        <v>1917000</v>
+        <v>592500</v>
       </c>
       <c r="F15" s="3">
-        <v>695400</v>
+        <v>1842200</v>
       </c>
       <c r="G15" s="3">
-        <v>642500</v>
+        <v>668300</v>
       </c>
       <c r="H15" s="3">
-        <v>637300</v>
+        <v>617400</v>
       </c>
       <c r="I15" s="3">
-        <v>356000</v>
+        <v>612400</v>
       </c>
       <c r="J15" s="3">
+        <v>342100</v>
+      </c>
+      <c r="K15" s="3">
         <v>986000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>536700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>690500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>728500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>719100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>677600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>656700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>553600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>495100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>516100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>486400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>511600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>538600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>518400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>509400</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>13366100</v>
+        <v>11440200</v>
       </c>
       <c r="E17" s="3">
-        <v>12309500</v>
+        <v>13845900</v>
       </c>
       <c r="F17" s="3">
-        <v>7888000</v>
+        <v>11829200</v>
       </c>
       <c r="G17" s="3">
-        <v>6424600</v>
+        <v>7580200</v>
       </c>
       <c r="H17" s="3">
-        <v>5647200</v>
+        <v>6173900</v>
       </c>
       <c r="I17" s="3">
-        <v>3636800</v>
+        <v>5426900</v>
       </c>
       <c r="J17" s="3">
+        <v>3494900</v>
+      </c>
+      <c r="K17" s="3">
         <v>4510700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3330500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5054200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6229300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6264600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5986700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5652000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6430200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5483700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5738100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4596200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4899700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4581100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>6672500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5163400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>6659000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3061800</v>
+        <v>3314400</v>
       </c>
       <c r="E18" s="3">
-        <v>1545400</v>
+        <v>1940900</v>
       </c>
       <c r="F18" s="3">
-        <v>945500</v>
+        <v>1485100</v>
       </c>
       <c r="G18" s="3">
-        <v>1116800</v>
+        <v>908600</v>
       </c>
       <c r="H18" s="3">
-        <v>1025400</v>
+        <v>1073200</v>
       </c>
       <c r="I18" s="3">
-        <v>1507000</v>
+        <v>985400</v>
       </c>
       <c r="J18" s="3">
+        <v>1448200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-674600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>92700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>138500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>861500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1022900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1112900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>811000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1424200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>726600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>527000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>868500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>604800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>631700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-892000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>1027700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-312200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,378 +1548,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-761800</v>
+        <v>448800</v>
       </c>
       <c r="E20" s="3">
-        <v>133900</v>
+        <v>269300</v>
       </c>
       <c r="F20" s="3">
-        <v>210700</v>
+        <v>128700</v>
       </c>
       <c r="G20" s="3">
-        <v>214800</v>
+        <v>202500</v>
       </c>
       <c r="H20" s="3">
-        <v>208600</v>
+        <v>206500</v>
       </c>
       <c r="I20" s="3">
-        <v>88200</v>
+        <v>200500</v>
       </c>
       <c r="J20" s="3">
+        <v>84800</v>
+      </c>
+      <c r="K20" s="3">
         <v>57100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>52400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-51300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>131900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>144500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>227000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>161500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>88700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>154000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>176800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>90000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>25800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>225500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>113300</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>149200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>118600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2927900</v>
+        <v>4247900</v>
       </c>
       <c r="E21" s="3">
-        <v>3711500</v>
+        <v>2813700</v>
       </c>
       <c r="F21" s="3">
-        <v>1876500</v>
+        <v>3566700</v>
       </c>
       <c r="G21" s="3">
-        <v>2007300</v>
+        <v>1803300</v>
       </c>
       <c r="H21" s="3">
-        <v>1890000</v>
+        <v>1929000</v>
       </c>
       <c r="I21" s="3">
-        <v>2176500</v>
+        <v>1816300</v>
       </c>
       <c r="J21" s="3">
+        <v>2091500</v>
+      </c>
+      <c r="K21" s="3">
         <v>816800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>738500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>862900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1752300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1906100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>2063400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1644800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>2102000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1385600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1233100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1452700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1227500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1405900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-194100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1677400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1205500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>98600</v>
+        <v>110700</v>
       </c>
       <c r="E22" s="3">
-        <v>86100</v>
+        <v>94800</v>
       </c>
       <c r="F22" s="3">
-        <v>101700</v>
+        <v>82800</v>
       </c>
       <c r="G22" s="3">
-        <v>78900</v>
+        <v>97700</v>
       </c>
       <c r="H22" s="3">
-        <v>79900</v>
+        <v>75800</v>
       </c>
       <c r="I22" s="3">
+        <v>76800</v>
+      </c>
+      <c r="J22" s="3">
+        <v>70800</v>
+      </c>
+      <c r="K22" s="3">
         <v>73700</v>
       </c>
-      <c r="J22" s="3">
-        <v>73700</v>
-      </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>68700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>81800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>85200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>95500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>90600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>89700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>82800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>77500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>94400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>70300</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>80800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>69600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>68400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>74000</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2201400</v>
+        <v>3652500</v>
       </c>
       <c r="E23" s="3">
-        <v>1593200</v>
+        <v>2115500</v>
       </c>
       <c r="F23" s="3">
-        <v>1054500</v>
+        <v>1531000</v>
       </c>
       <c r="G23" s="3">
-        <v>1252700</v>
+        <v>1013400</v>
       </c>
       <c r="H23" s="3">
-        <v>1154100</v>
+        <v>1203900</v>
       </c>
       <c r="I23" s="3">
-        <v>1521600</v>
+        <v>1109100</v>
       </c>
       <c r="J23" s="3">
+        <v>1462200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-691200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>76400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>5500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>908200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1071900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1249300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>882800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1430100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>803000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>609400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>888300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>630600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>776400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-848200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1108500</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-267600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1312900</v>
+        <v>1147000</v>
       </c>
       <c r="E24" s="3">
-        <v>890500</v>
+        <v>1261700</v>
       </c>
       <c r="F24" s="3">
-        <v>552200</v>
+        <v>855800</v>
       </c>
       <c r="G24" s="3">
-        <v>414100</v>
+        <v>530600</v>
       </c>
       <c r="H24" s="3">
-        <v>287500</v>
+        <v>398000</v>
       </c>
       <c r="I24" s="3">
-        <v>-498200</v>
+        <v>276300</v>
       </c>
       <c r="J24" s="3">
+        <v>-478800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-216900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>14200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>79600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>373600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>416500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>475300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>289500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>492100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>366600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>306300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>305200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>159300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>166100</v>
-      </c>
-      <c r="W24" s="3">
-        <v>193000</v>
       </c>
       <c r="X24" s="3">
         <v>193000</v>
       </c>
       <c r="Y24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="Z24" s="3">
         <v>120900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>888400</v>
+        <v>2505500</v>
       </c>
       <c r="E26" s="3">
-        <v>702700</v>
+        <v>853800</v>
       </c>
       <c r="F26" s="3">
-        <v>502300</v>
+        <v>675200</v>
       </c>
       <c r="G26" s="3">
-        <v>838600</v>
+        <v>482700</v>
       </c>
       <c r="H26" s="3">
-        <v>866600</v>
+        <v>805900</v>
       </c>
       <c r="I26" s="3">
-        <v>2019800</v>
+        <v>832800</v>
       </c>
       <c r="J26" s="3">
+        <v>1940900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-474300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>62200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-74200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>534700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>655400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>774100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>593300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>938000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>436400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>303000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>583000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>471200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>610400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>915500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-388500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>566700</v>
+        <v>1941900</v>
       </c>
       <c r="E27" s="3">
-        <v>558400</v>
+        <v>544600</v>
       </c>
       <c r="F27" s="3">
-        <v>289600</v>
+        <v>536600</v>
       </c>
       <c r="G27" s="3">
-        <v>645600</v>
+        <v>278300</v>
       </c>
       <c r="H27" s="3">
-        <v>678800</v>
+        <v>620400</v>
       </c>
       <c r="I27" s="3">
-        <v>1951300</v>
+        <v>652300</v>
       </c>
       <c r="J27" s="3">
+        <v>1875100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-505500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>26200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-173500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>414400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>520600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>638800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>423500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>719200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>244800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>222900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>445800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>348900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>491400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>798900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-442500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>761800</v>
+        <v>-448800</v>
       </c>
       <c r="E32" s="3">
-        <v>-133900</v>
+        <v>-269300</v>
       </c>
       <c r="F32" s="3">
-        <v>-210700</v>
+        <v>-128700</v>
       </c>
       <c r="G32" s="3">
-        <v>-214800</v>
+        <v>-202500</v>
       </c>
       <c r="H32" s="3">
-        <v>-208600</v>
+        <v>-206500</v>
       </c>
       <c r="I32" s="3">
-        <v>-88200</v>
+        <v>-200500</v>
       </c>
       <c r="J32" s="3">
+        <v>-84800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-57100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-52400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>51300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-131900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-144500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-227000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-161500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-88700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-154000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-176800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-90000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-25800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-225500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-113300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-149200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-118600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>566700</v>
+        <v>1941900</v>
       </c>
       <c r="E33" s="3">
-        <v>558400</v>
+        <v>544600</v>
       </c>
       <c r="F33" s="3">
-        <v>289600</v>
+        <v>536600</v>
       </c>
       <c r="G33" s="3">
-        <v>645600</v>
+        <v>278300</v>
       </c>
       <c r="H33" s="3">
-        <v>678800</v>
+        <v>620400</v>
       </c>
       <c r="I33" s="3">
-        <v>1951300</v>
+        <v>652300</v>
       </c>
       <c r="J33" s="3">
+        <v>1875100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-505500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>26200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-173500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>414400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>520600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>638800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>423500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>719200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>244800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>222900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>445800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>348900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>491400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>798900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-442500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>566700</v>
+        <v>1941900</v>
       </c>
       <c r="E35" s="3">
-        <v>558400</v>
+        <v>544600</v>
       </c>
       <c r="F35" s="3">
-        <v>289600</v>
+        <v>536600</v>
       </c>
       <c r="G35" s="3">
-        <v>645600</v>
+        <v>278300</v>
       </c>
       <c r="H35" s="3">
-        <v>678800</v>
+        <v>620400</v>
       </c>
       <c r="I35" s="3">
-        <v>1951300</v>
+        <v>652300</v>
       </c>
       <c r="J35" s="3">
+        <v>1875100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-505500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>26200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-173500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>414400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>520600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>638800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>423500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>719200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>244800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>222900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>445800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>348900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>491400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>798900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-442500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,674 +2920,702 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6248200</v>
+        <v>6525000</v>
       </c>
       <c r="E41" s="3">
-        <v>5241400</v>
+        <v>6004300</v>
       </c>
       <c r="F41" s="3">
-        <v>4214900</v>
+        <v>5036900</v>
       </c>
       <c r="G41" s="3">
-        <v>3209200</v>
+        <v>4050400</v>
       </c>
       <c r="H41" s="3">
-        <v>3556900</v>
+        <v>3084000</v>
       </c>
       <c r="I41" s="3">
-        <v>2962200</v>
+        <v>3418100</v>
       </c>
       <c r="J41" s="3">
+        <v>2846600</v>
+      </c>
+      <c r="K41" s="3">
         <v>7608800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>6360000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3020700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3421700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3867300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4342100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4382900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4762400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3780200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3213800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4718100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4456500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>5209400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>4715700</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3504000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2428600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7635800</v>
+        <v>7699900</v>
       </c>
       <c r="E42" s="3">
-        <v>5343100</v>
+        <v>7337900</v>
       </c>
       <c r="F42" s="3">
-        <v>6448500</v>
+        <v>5134600</v>
       </c>
       <c r="G42" s="3">
-        <v>9350400</v>
+        <v>6196800</v>
       </c>
       <c r="H42" s="3">
-        <v>3707400</v>
+        <v>8985600</v>
       </c>
       <c r="I42" s="3">
-        <v>3132400</v>
+        <v>3562700</v>
       </c>
       <c r="J42" s="3">
+        <v>3010200</v>
+      </c>
+      <c r="K42" s="3">
         <v>3291200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>5491600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>6987300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3643500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>2736600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3435100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>2978500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3225800</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>4229900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2617600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1327500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1279100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1220700</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>905400</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>821300</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1461400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5590100</v>
+        <v>5281200</v>
       </c>
       <c r="E43" s="3">
-        <v>4800300</v>
+        <v>5372000</v>
       </c>
       <c r="F43" s="3">
-        <v>3656500</v>
+        <v>4613000</v>
       </c>
       <c r="G43" s="3">
-        <v>4078900</v>
+        <v>3513800</v>
       </c>
       <c r="H43" s="3">
-        <v>4266800</v>
+        <v>3919800</v>
       </c>
       <c r="I43" s="3">
-        <v>3479000</v>
+        <v>4100300</v>
       </c>
       <c r="J43" s="3">
+        <v>3343300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1941900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1843600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2862500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3564100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3807300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3585700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>4357800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4056200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3196500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2945900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3542100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2825200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2287700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2318000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2921700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2924000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4060300</v>
+        <v>5123600</v>
       </c>
       <c r="E44" s="3">
-        <v>3269400</v>
+        <v>3901800</v>
       </c>
       <c r="F44" s="3">
-        <v>3128200</v>
+        <v>3141800</v>
       </c>
       <c r="G44" s="3">
-        <v>2654900</v>
+        <v>3006200</v>
       </c>
       <c r="H44" s="3">
-        <v>2459800</v>
+        <v>2551300</v>
       </c>
       <c r="I44" s="3">
-        <v>2441100</v>
+        <v>2363800</v>
       </c>
       <c r="J44" s="3">
+        <v>2345900</v>
+      </c>
+      <c r="K44" s="3">
         <v>1541300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1538200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1572000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2153900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2370400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1909300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2075400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1858300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1845300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1639300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1486700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1686400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1729000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1495600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1647100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1952000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>732800</v>
+        <v>738100</v>
       </c>
       <c r="E45" s="3">
-        <v>645600</v>
+        <v>704200</v>
       </c>
       <c r="F45" s="3">
-        <v>506500</v>
+        <v>620400</v>
       </c>
       <c r="G45" s="3">
-        <v>423500</v>
+        <v>486700</v>
       </c>
       <c r="H45" s="3">
-        <v>528300</v>
+        <v>406900</v>
       </c>
       <c r="I45" s="3">
-        <v>556300</v>
+        <v>507700</v>
       </c>
       <c r="J45" s="3">
+        <v>534600</v>
+      </c>
+      <c r="K45" s="3">
         <v>273000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>293500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>370900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>347900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>286600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>294100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>330200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>312300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>418700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>424900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>362300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>297300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>269300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>286100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>280500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>232400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>24267100</v>
+        <v>25367900</v>
       </c>
       <c r="E46" s="3">
-        <v>19299800</v>
+        <v>23320200</v>
       </c>
       <c r="F46" s="3">
-        <v>17954600</v>
+        <v>18546700</v>
       </c>
       <c r="G46" s="3">
-        <v>19717000</v>
+        <v>17254000</v>
       </c>
       <c r="H46" s="3">
-        <v>14519200</v>
+        <v>18947600</v>
       </c>
       <c r="I46" s="3">
-        <v>12571000</v>
+        <v>13952600</v>
       </c>
       <c r="J46" s="3">
+        <v>12080500</v>
+      </c>
+      <c r="K46" s="3">
         <v>14656200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15526900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14813500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>13131000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13068200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13566200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14124700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14214900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13470600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>10841700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>11436800</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>10544500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10716100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9720900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9174500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8998400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11262300</v>
+        <v>10611300</v>
       </c>
       <c r="E47" s="3">
-        <v>11019400</v>
+        <v>10822800</v>
       </c>
       <c r="F47" s="3">
-        <v>13462600</v>
+        <v>10589400</v>
       </c>
       <c r="G47" s="3">
-        <v>13473000</v>
+        <v>12937300</v>
       </c>
       <c r="H47" s="3">
-        <v>12778600</v>
+        <v>12947200</v>
       </c>
       <c r="I47" s="3">
-        <v>12214000</v>
+        <v>12280000</v>
       </c>
       <c r="J47" s="3">
+        <v>11737400</v>
+      </c>
+      <c r="K47" s="3">
         <v>7767600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>8480700</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8646600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8831500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>9770500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>6566700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6554000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6707000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>5998800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5680000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5236400</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5466300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>4431900</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4404900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4145800</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4468700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19504200</v>
+        <v>19018400</v>
       </c>
       <c r="E48" s="3">
-        <v>19272800</v>
+        <v>18743100</v>
       </c>
       <c r="F48" s="3">
-        <v>19013300</v>
+        <v>18520700</v>
       </c>
       <c r="G48" s="3">
-        <v>18919900</v>
+        <v>18271400</v>
       </c>
       <c r="H48" s="3">
-        <v>18866900</v>
+        <v>18181600</v>
       </c>
       <c r="I48" s="3">
-        <v>19930800</v>
+        <v>18130700</v>
       </c>
       <c r="J48" s="3">
+        <v>19153100</v>
+      </c>
+      <c r="K48" s="3">
         <v>14920900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>16464000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16726900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19237700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>20358100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>19369400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19616500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>17879500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>15679200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15670700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>14865800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>15319700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15457700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15748300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>16063500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>17152900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2669500</v>
+        <v>2585300</v>
       </c>
       <c r="E49" s="3">
-        <v>3280800</v>
+        <v>2565300</v>
       </c>
       <c r="F49" s="3">
-        <v>3481100</v>
+        <v>3152800</v>
       </c>
       <c r="G49" s="3">
-        <v>3473900</v>
+        <v>3345300</v>
       </c>
       <c r="H49" s="3">
-        <v>3625400</v>
+        <v>3338300</v>
       </c>
       <c r="I49" s="3">
-        <v>3573500</v>
+        <v>3483900</v>
       </c>
       <c r="J49" s="3">
+        <v>3434000</v>
+      </c>
+      <c r="K49" s="3">
         <v>3190500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4212000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4215300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4859900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>5203800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4843200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>5048000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3923700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3202100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3188600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>2882300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2971000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>1852400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1867000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1934300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2010700</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3066000</v>
+        <v>2886500</v>
       </c>
       <c r="E52" s="3">
-        <v>2964200</v>
+        <v>2946300</v>
       </c>
       <c r="F52" s="3">
-        <v>3166600</v>
+        <v>2848600</v>
       </c>
       <c r="G52" s="3">
-        <v>3191500</v>
+        <v>3043100</v>
       </c>
       <c r="H52" s="3">
-        <v>4091400</v>
+        <v>3067000</v>
       </c>
       <c r="I52" s="3">
-        <v>2849000</v>
+        <v>3931800</v>
       </c>
       <c r="J52" s="3">
+        <v>2737900</v>
+      </c>
+      <c r="K52" s="3">
         <v>2099700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2086900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1795600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1074000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>977500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>905800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>958200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>996000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1256000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1408700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1115600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1126500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>935700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1169100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>3635200</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>5062600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60769000</v>
+        <v>60469400</v>
       </c>
       <c r="E54" s="3">
-        <v>55836900</v>
+        <v>58397800</v>
       </c>
       <c r="F54" s="3">
-        <v>57078300</v>
+        <v>53658100</v>
       </c>
       <c r="G54" s="3">
-        <v>58775200</v>
+        <v>54851000</v>
       </c>
       <c r="H54" s="3">
-        <v>53881500</v>
+        <v>56481800</v>
       </c>
       <c r="I54" s="3">
-        <v>51138400</v>
+        <v>51779000</v>
       </c>
       <c r="J54" s="3">
+        <v>49142900</v>
+      </c>
+      <c r="K54" s="3">
         <v>42634900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>46770600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46197900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>47134200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49378100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>45251400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46301300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>43721200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>39606700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>36789600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35536800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>35428000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>33393800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>32910200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34953400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>37693400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,452 +4056,471 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5792500</v>
+        <v>5491700</v>
       </c>
       <c r="E57" s="3">
-        <v>5044200</v>
+        <v>5566500</v>
       </c>
       <c r="F57" s="3">
-        <v>3888000</v>
+        <v>4847400</v>
       </c>
       <c r="G57" s="3">
-        <v>4340500</v>
+        <v>3736300</v>
       </c>
       <c r="H57" s="3">
-        <v>4687200</v>
+        <v>4171100</v>
       </c>
       <c r="I57" s="3">
-        <v>4467100</v>
+        <v>4504300</v>
       </c>
       <c r="J57" s="3">
+        <v>4292800</v>
+      </c>
+      <c r="K57" s="3">
         <v>2667400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2607300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>3769100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4850600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4789700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4173900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5197500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5205900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4101400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>3877000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3910000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3659900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3268400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3028300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3460200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4379500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1136500</v>
+        <v>1882100</v>
       </c>
       <c r="E58" s="3">
-        <v>1324400</v>
+        <v>1092200</v>
       </c>
       <c r="F58" s="3">
-        <v>1785200</v>
+        <v>1272700</v>
       </c>
       <c r="G58" s="3">
-        <v>1025400</v>
+        <v>1715500</v>
       </c>
       <c r="H58" s="3">
-        <v>1899400</v>
+        <v>985400</v>
       </c>
       <c r="I58" s="3">
-        <v>1758200</v>
+        <v>1825200</v>
       </c>
       <c r="J58" s="3">
+        <v>1689600</v>
+      </c>
+      <c r="K58" s="3">
         <v>855200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>916400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>613100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>943300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1768900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1664600</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1934300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>997200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>965800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1001400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1902800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1012000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>274900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>218800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>190700</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>305200</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10634300</v>
+        <v>10007900</v>
       </c>
       <c r="E59" s="3">
-        <v>7826800</v>
+        <v>10219400</v>
       </c>
       <c r="F59" s="3">
-        <v>9658700</v>
+        <v>7521400</v>
       </c>
       <c r="G59" s="3">
-        <v>11508200</v>
+        <v>9281800</v>
       </c>
       <c r="H59" s="3">
-        <v>5497800</v>
+        <v>11059200</v>
       </c>
       <c r="I59" s="3">
-        <v>4793000</v>
+        <v>5283200</v>
       </c>
       <c r="J59" s="3">
+        <v>4606000</v>
+      </c>
+      <c r="K59" s="3">
         <v>5440700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6826900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8336700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5174000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4881600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5518500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5219000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5247300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6182600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4643400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>3090900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2986700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2753400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2555900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2606400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3211500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17563300</v>
+        <v>17381700</v>
       </c>
       <c r="E60" s="3">
-        <v>14195400</v>
+        <v>16878000</v>
       </c>
       <c r="F60" s="3">
-        <v>15331900</v>
+        <v>13641400</v>
       </c>
       <c r="G60" s="3">
-        <v>16874200</v>
+        <v>14733600</v>
       </c>
       <c r="H60" s="3">
-        <v>12084300</v>
+        <v>16215700</v>
       </c>
       <c r="I60" s="3">
-        <v>11018300</v>
+        <v>11612700</v>
       </c>
       <c r="J60" s="3">
+        <v>10588400</v>
+      </c>
+      <c r="K60" s="3">
         <v>8963300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>10350600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12718900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10967800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>11440200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11357000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12350800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>11450500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11249900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>9521900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>8903700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7658700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6296600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5802900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6257300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7896200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>10354100</v>
+        <v>9243900</v>
       </c>
       <c r="E61" s="3">
-        <v>9940000</v>
+        <v>9950100</v>
       </c>
       <c r="F61" s="3">
-        <v>9937900</v>
+        <v>9552100</v>
       </c>
       <c r="G61" s="3">
-        <v>10690400</v>
+        <v>9550100</v>
       </c>
       <c r="H61" s="3">
-        <v>10736000</v>
+        <v>10273200</v>
       </c>
       <c r="I61" s="3">
-        <v>10630200</v>
+        <v>10317100</v>
       </c>
       <c r="J61" s="3">
+        <v>10215400</v>
+      </c>
+      <c r="K61" s="3">
         <v>9427200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9955600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>6896700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7957100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>8107000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>6550200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6260900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>5806900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5052900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5035400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5017900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5375500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5134200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5244200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5276700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5869100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8659200</v>
+        <v>8109900</v>
       </c>
       <c r="E62" s="3">
-        <v>8872000</v>
+        <v>8321300</v>
       </c>
       <c r="F62" s="3">
-        <v>9126300</v>
+        <v>8525800</v>
       </c>
       <c r="G62" s="3">
-        <v>9465600</v>
+        <v>8770100</v>
       </c>
       <c r="H62" s="3">
-        <v>9007900</v>
+        <v>9096300</v>
       </c>
       <c r="I62" s="3">
-        <v>8836700</v>
+        <v>8656400</v>
       </c>
       <c r="J62" s="3">
+        <v>8491900</v>
+      </c>
+      <c r="K62" s="3">
         <v>7635800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8515600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8213500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8523300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>9412800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8512400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8335100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8315800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>6928000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6508900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6244300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6311200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>5978000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6342600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>7216600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7582800</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>43503600</v>
+        <v>41878800</v>
       </c>
       <c r="E66" s="3">
-        <v>39744300</v>
+        <v>41806000</v>
       </c>
       <c r="F66" s="3">
-        <v>40970100</v>
+        <v>38193400</v>
       </c>
       <c r="G66" s="3">
-        <v>43355200</v>
+        <v>39371400</v>
       </c>
       <c r="H66" s="3">
-        <v>38389800</v>
+        <v>41663400</v>
       </c>
       <c r="I66" s="3">
-        <v>36877600</v>
+        <v>36891800</v>
       </c>
       <c r="J66" s="3">
+        <v>35438600</v>
+      </c>
+      <c r="K66" s="3">
         <v>29841700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>32870200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32113100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>31943800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>33628400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>30806400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>31501900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>29637600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>26852700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>24489800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>23702500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>22843700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>20852200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20777000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>22206400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>24881300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14349000</v>
+        <v>15788800</v>
       </c>
       <c r="E72" s="3">
-        <v>13089000</v>
+        <v>13789100</v>
       </c>
       <c r="F72" s="3">
-        <v>12421600</v>
+        <v>12578200</v>
       </c>
       <c r="G72" s="3">
-        <v>11733500</v>
+        <v>11936900</v>
       </c>
       <c r="H72" s="3">
-        <v>11804000</v>
+        <v>11275600</v>
       </c>
       <c r="I72" s="3">
-        <v>10609400</v>
+        <v>11343400</v>
       </c>
       <c r="J72" s="3">
+        <v>10195400</v>
+      </c>
+      <c r="K72" s="3">
         <v>9106500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11379300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11564700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12445800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12920000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11727500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>12038600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11306200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>10196600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>9765600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9846900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9714200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9680500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9272100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9885900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9820100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>17265500</v>
+        <v>18590500</v>
       </c>
       <c r="E76" s="3">
-        <v>16092600</v>
+        <v>16591700</v>
       </c>
       <c r="F76" s="3">
-        <v>16108200</v>
+        <v>15464700</v>
       </c>
       <c r="G76" s="3">
-        <v>15420100</v>
+        <v>15479600</v>
       </c>
       <c r="H76" s="3">
-        <v>15491700</v>
+        <v>14818400</v>
       </c>
       <c r="I76" s="3">
-        <v>14260700</v>
+        <v>14887200</v>
       </c>
       <c r="J76" s="3">
+        <v>13704300</v>
+      </c>
+      <c r="K76" s="3">
         <v>12793200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13900400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14084700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15190300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15749700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14445000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14799400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14083600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12754000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12299800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>11834200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>12584200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12541600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12133200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12746900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12812100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>566700</v>
+        <v>1941900</v>
       </c>
       <c r="E81" s="3">
-        <v>558400</v>
+        <v>544600</v>
       </c>
       <c r="F81" s="3">
-        <v>289600</v>
+        <v>536600</v>
       </c>
       <c r="G81" s="3">
-        <v>645600</v>
+        <v>278300</v>
       </c>
       <c r="H81" s="3">
-        <v>678800</v>
+        <v>620400</v>
       </c>
       <c r="I81" s="3">
-        <v>1951300</v>
+        <v>652300</v>
       </c>
       <c r="J81" s="3">
+        <v>1875100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-505500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>26200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-173500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>414400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>520600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>638800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>423500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>719200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>244800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>222900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>445800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>348900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>491400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>798900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-442500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>627900</v>
+        <v>484700</v>
       </c>
       <c r="E83" s="3">
-        <v>2032200</v>
+        <v>603400</v>
       </c>
       <c r="F83" s="3">
-        <v>720300</v>
+        <v>1952900</v>
       </c>
       <c r="G83" s="3">
-        <v>675700</v>
+        <v>692200</v>
       </c>
       <c r="H83" s="3">
-        <v>656000</v>
+        <v>649300</v>
       </c>
       <c r="I83" s="3">
-        <v>581200</v>
+        <v>630400</v>
       </c>
       <c r="J83" s="3">
+        <v>558500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1434400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>593500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>775600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>758800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>738700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>723500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>672300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>589100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>505100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>529200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>494100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>596900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>548700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>584600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>500400</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>1533000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2776400</v>
+        <v>461800</v>
       </c>
       <c r="E89" s="3">
-        <v>2888500</v>
+        <v>2668000</v>
       </c>
       <c r="F89" s="3">
-        <v>1668900</v>
+        <v>2775800</v>
       </c>
       <c r="G89" s="3">
-        <v>1621200</v>
+        <v>1603800</v>
       </c>
       <c r="H89" s="3">
-        <v>1104300</v>
+        <v>1557900</v>
       </c>
       <c r="I89" s="3">
-        <v>704700</v>
+        <v>1061200</v>
       </c>
       <c r="J89" s="3">
+        <v>677200</v>
+      </c>
+      <c r="K89" s="3">
         <v>822000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>592400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1225100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1145200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1316900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1334000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1035900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1318900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1075500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1353800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1181400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>832500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>888600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1110800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1036700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>718400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-671500</v>
+        <v>-649300</v>
       </c>
       <c r="E91" s="3">
-        <v>-786700</v>
+        <v>-645300</v>
       </c>
       <c r="F91" s="3">
-        <v>-600900</v>
+        <v>-756000</v>
       </c>
       <c r="G91" s="3">
-        <v>-644500</v>
+        <v>-577500</v>
       </c>
       <c r="H91" s="3">
-        <v>-559400</v>
+        <v>-619400</v>
       </c>
       <c r="I91" s="3">
-        <v>-585400</v>
+        <v>-537600</v>
       </c>
       <c r="J91" s="3">
+        <v>-562500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-402700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-462500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-637100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-706300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-665200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-578800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-619600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-671900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-547200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-473200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-571100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-356800</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-373600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-478000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1200900</v>
+        <v>1022300</v>
       </c>
       <c r="E94" s="3">
-        <v>-478500</v>
+        <v>-1154000</v>
       </c>
       <c r="F94" s="3">
-        <v>-618600</v>
+        <v>-459800</v>
       </c>
       <c r="G94" s="3">
-        <v>-116200</v>
+        <v>-594500</v>
       </c>
       <c r="H94" s="3">
-        <v>-675700</v>
+        <v>-111700</v>
       </c>
       <c r="I94" s="3">
-        <v>-4618700</v>
+        <v>-649300</v>
       </c>
       <c r="J94" s="3">
+        <v>-4438400</v>
+      </c>
+      <c r="K94" s="3">
         <v>-440100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-472400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-699300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-744800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-3178800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-488200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1184200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-886000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-495100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-590700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-352300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>379200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>445400</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-206600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6494,73 +6728,76 @@
         <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-87200</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-34300</v>
+        <v>-83800</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-32900</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-470200</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-451800</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-240000</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>115600</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-908200</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>85200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-760900</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>59500</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-653000</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-99800</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-503400</v>
+        <v>-952500</v>
       </c>
       <c r="E100" s="3">
-        <v>-1372100</v>
+        <v>-483700</v>
       </c>
       <c r="F100" s="3">
-        <v>-64300</v>
+        <v>-1318600</v>
       </c>
       <c r="G100" s="3">
-        <v>-1852700</v>
+        <v>-61800</v>
       </c>
       <c r="H100" s="3">
-        <v>199300</v>
+        <v>-1780400</v>
       </c>
       <c r="I100" s="3">
-        <v>-715100</v>
+        <v>191500</v>
       </c>
       <c r="J100" s="3">
+        <v>-687200</v>
+      </c>
+      <c r="K100" s="3">
         <v>1201900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3212700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-661100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-640900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1214000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-818800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-275100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>288600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-39900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-232800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>886400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-31400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-682200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-142500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>191300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-65400</v>
+        <v>3000</v>
       </c>
       <c r="E101" s="3">
-        <v>-10400</v>
+        <v>-62800</v>
       </c>
       <c r="F101" s="3">
-        <v>-4200</v>
+        <v>-10000</v>
       </c>
       <c r="G101" s="3">
-        <v>-2100</v>
+        <v>-4000</v>
       </c>
       <c r="H101" s="3">
-        <v>-9300</v>
+        <v>-2000</v>
       </c>
       <c r="I101" s="3">
-        <v>-5200</v>
+        <v>-9000</v>
       </c>
       <c r="J101" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K101" s="3">
         <v>-24900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-41500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-15200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-6100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>5900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-10800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-13300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-5500</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-7700</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7900</v>
-      </c>
-      <c r="V101" s="3">
-        <v>-11200</v>
       </c>
       <c r="W101" s="3">
         <v>-11200</v>
       </c>
       <c r="X101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="Y101" s="3">
         <v>-16800</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-39900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1006800</v>
+        <v>534600</v>
       </c>
       <c r="E102" s="3">
-        <v>1027500</v>
+        <v>967500</v>
       </c>
       <c r="F102" s="3">
-        <v>981900</v>
+        <v>987400</v>
       </c>
       <c r="G102" s="3">
-        <v>-349800</v>
+        <v>943500</v>
       </c>
       <c r="H102" s="3">
-        <v>618600</v>
+        <v>-336100</v>
       </c>
       <c r="I102" s="3">
-        <v>-4634200</v>
+        <v>594500</v>
       </c>
       <c r="J102" s="3">
+        <v>-4453400</v>
+      </c>
+      <c r="K102" s="3">
         <v>1558900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>3333800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-176700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-255700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-654100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>32900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-434200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>723900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>527200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>350300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-742800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>493700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>796600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>1322800</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>663200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,359 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14754500</v>
+        <v>17527100</v>
       </c>
       <c r="E8" s="3">
-        <v>15786800</v>
+        <v>15100700</v>
       </c>
       <c r="F8" s="3">
-        <v>13314300</v>
+        <v>16157200</v>
       </c>
       <c r="G8" s="3">
-        <v>8488900</v>
+        <v>13626700</v>
       </c>
       <c r="H8" s="3">
-        <v>7247100</v>
+        <v>8688000</v>
       </c>
       <c r="I8" s="3">
-        <v>6412300</v>
+        <v>7417100</v>
       </c>
       <c r="J8" s="3">
+        <v>6562700</v>
+      </c>
+      <c r="K8" s="3">
         <v>4943100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3836100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3423300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5192700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7090800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>7287500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>7099600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>6463100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7854500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>6210300</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6265200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5464700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5504500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5212800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5780500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>6191100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>6346800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10659200</v>
+        <v>12124000</v>
       </c>
       <c r="E9" s="3">
-        <v>10069800</v>
+        <v>10909300</v>
       </c>
       <c r="F9" s="3">
-        <v>8803100</v>
+        <v>10306000</v>
       </c>
       <c r="G9" s="3">
-        <v>6093100</v>
+        <v>9009600</v>
       </c>
       <c r="H9" s="3">
-        <v>4799500</v>
+        <v>6236100</v>
       </c>
       <c r="I9" s="3">
-        <v>4145200</v>
+        <v>4912100</v>
       </c>
       <c r="J9" s="3">
+        <v>4242400</v>
+      </c>
+      <c r="K9" s="3">
         <v>3634500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2510700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2211300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3708000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4687200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4695400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>4537400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4302700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>5203600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4239900</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4662100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>3530100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>3775500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>3518600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4149100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>4238900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>6463000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>4095300</v>
+        <v>5403100</v>
       </c>
       <c r="E10" s="3">
-        <v>5717100</v>
+        <v>4191400</v>
       </c>
       <c r="F10" s="3">
-        <v>4511200</v>
+        <v>5851200</v>
       </c>
       <c r="G10" s="3">
-        <v>2395800</v>
+        <v>4617100</v>
       </c>
       <c r="H10" s="3">
-        <v>2447600</v>
+        <v>2452000</v>
       </c>
       <c r="I10" s="3">
-        <v>2267100</v>
+        <v>2505000</v>
       </c>
       <c r="J10" s="3">
+        <v>2320300</v>
+      </c>
+      <c r="K10" s="3">
         <v>1308600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1325400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1212000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1484700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2403700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2592100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>2562200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2160300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2650900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>1970400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>1603100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>1934700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1729000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1694200</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1631400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1952300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>-116200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,85 +1045,89 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>77800</v>
+        <v>57200</v>
       </c>
       <c r="E12" s="3">
-        <v>10000</v>
+        <v>79600</v>
       </c>
       <c r="F12" s="3">
-        <v>151600</v>
+        <v>10200</v>
       </c>
       <c r="G12" s="3">
-        <v>44900</v>
+        <v>155200</v>
       </c>
       <c r="H12" s="3">
-        <v>44900</v>
+        <v>45900</v>
       </c>
       <c r="I12" s="3">
-        <v>37900</v>
+        <v>45900</v>
       </c>
       <c r="J12" s="3">
+        <v>38800</v>
+      </c>
+      <c r="K12" s="3">
         <v>43900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>674600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>90500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>129800</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>85200</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>46500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>83500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>55000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>71000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>27700</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>58200</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>40600</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>107700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>39300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>65100</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>35900</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>83300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,19 +1203,22 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>-688200</v>
+        <v>6100</v>
       </c>
       <c r="E14" s="3">
-        <v>1010400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>10</v>
+        <v>-161300</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1034100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1212,11 +1232,11 @@
       <c r="J14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
@@ -1233,115 +1253,121 @@
       <c r="Q14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="3">
         <v>-158500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>165000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-68100</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-3400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-2200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>1362100</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-153700</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>698200</v>
+        <v>643100</v>
       </c>
       <c r="E15" s="3">
-        <v>592500</v>
+        <v>171500</v>
       </c>
       <c r="F15" s="3">
-        <v>1842200</v>
+        <v>606400</v>
       </c>
       <c r="G15" s="3">
-        <v>668300</v>
+        <v>1885400</v>
       </c>
       <c r="H15" s="3">
-        <v>617400</v>
+        <v>683900</v>
       </c>
       <c r="I15" s="3">
-        <v>612400</v>
+        <v>631900</v>
       </c>
       <c r="J15" s="3">
+        <v>626800</v>
+      </c>
+      <c r="K15" s="3">
         <v>342100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>986000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>536700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>690500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>728500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>719100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>677600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>656700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>553600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>495100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>516100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>486400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>511600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>538600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>518400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>509400</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1392,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>11440200</v>
+        <v>14097200</v>
       </c>
       <c r="E17" s="3">
-        <v>13845900</v>
+        <v>11708600</v>
       </c>
       <c r="F17" s="3">
-        <v>11829200</v>
+        <v>14170700</v>
       </c>
       <c r="G17" s="3">
-        <v>7580200</v>
+        <v>12106700</v>
       </c>
       <c r="H17" s="3">
-        <v>6173900</v>
+        <v>7758100</v>
       </c>
       <c r="I17" s="3">
-        <v>5426900</v>
+        <v>6318800</v>
       </c>
       <c r="J17" s="3">
+        <v>5554200</v>
+      </c>
+      <c r="K17" s="3">
         <v>3494900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4510700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3330500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5054200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6229300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6264600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5986700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5652000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6430200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5483700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5738100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4596200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4899700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4581100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>6672500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5163400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>6659000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3314400</v>
+        <v>3429900</v>
       </c>
       <c r="E18" s="3">
-        <v>1940900</v>
+        <v>3392100</v>
       </c>
       <c r="F18" s="3">
-        <v>1485100</v>
+        <v>1986500</v>
       </c>
       <c r="G18" s="3">
-        <v>908600</v>
+        <v>1520000</v>
       </c>
       <c r="H18" s="3">
-        <v>1073200</v>
+        <v>929900</v>
       </c>
       <c r="I18" s="3">
-        <v>985400</v>
+        <v>1098400</v>
       </c>
       <c r="J18" s="3">
+        <v>1008600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1448200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-674600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>92700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>138500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>861500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1022900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>1112900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>811000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1424200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>726600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>527000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>868500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>604800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>631700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-892000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>1027700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-312200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,393 +1582,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>448800</v>
+        <v>58200</v>
       </c>
       <c r="E20" s="3">
-        <v>269300</v>
+        <v>459400</v>
       </c>
       <c r="F20" s="3">
-        <v>128700</v>
+        <v>275600</v>
       </c>
       <c r="G20" s="3">
-        <v>202500</v>
+        <v>131700</v>
       </c>
       <c r="H20" s="3">
-        <v>206500</v>
+        <v>207200</v>
       </c>
       <c r="I20" s="3">
-        <v>200500</v>
+        <v>211300</v>
       </c>
       <c r="J20" s="3">
+        <v>205200</v>
+      </c>
+      <c r="K20" s="3">
         <v>84800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>57100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>52400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-51300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>131900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>144500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>227000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>161500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>88700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>154000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>176800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>90000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>25800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>225500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>113300</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>149200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>118600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4247900</v>
+        <v>4173000</v>
       </c>
       <c r="E21" s="3">
-        <v>2813700</v>
+        <v>4347600</v>
       </c>
       <c r="F21" s="3">
-        <v>3566700</v>
+        <v>2879700</v>
       </c>
       <c r="G21" s="3">
-        <v>1803300</v>
+        <v>3650400</v>
       </c>
       <c r="H21" s="3">
-        <v>1929000</v>
+        <v>1845600</v>
       </c>
       <c r="I21" s="3">
-        <v>1816300</v>
+        <v>1974200</v>
       </c>
       <c r="J21" s="3">
+        <v>1858900</v>
+      </c>
+      <c r="K21" s="3">
         <v>2091500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>816800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>738500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>862900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1752300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1906100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>2063400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1644800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>2102000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1385600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1233100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1452700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1227500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1405900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-194100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1677400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1205500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>110700</v>
+        <v>105100</v>
       </c>
       <c r="E22" s="3">
-        <v>94800</v>
+        <v>113300</v>
       </c>
       <c r="F22" s="3">
+        <v>97000</v>
+      </c>
+      <c r="G22" s="3">
+        <v>84700</v>
+      </c>
+      <c r="H22" s="3">
+        <v>100000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>77600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K22" s="3">
+        <v>70800</v>
+      </c>
+      <c r="L22" s="3">
+        <v>73700</v>
+      </c>
+      <c r="M22" s="3">
+        <v>68700</v>
+      </c>
+      <c r="N22" s="3">
+        <v>81800</v>
+      </c>
+      <c r="O22" s="3">
+        <v>85200</v>
+      </c>
+      <c r="P22" s="3">
+        <v>95500</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>90600</v>
+      </c>
+      <c r="R22" s="3">
+        <v>89700</v>
+      </c>
+      <c r="S22" s="3">
         <v>82800</v>
       </c>
-      <c r="G22" s="3">
-        <v>97700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>75800</v>
-      </c>
-      <c r="I22" s="3">
-        <v>76800</v>
-      </c>
-      <c r="J22" s="3">
-        <v>70800</v>
-      </c>
-      <c r="K22" s="3">
-        <v>73700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>68700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>81800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>85200</v>
-      </c>
-      <c r="O22" s="3">
-        <v>95500</v>
-      </c>
-      <c r="P22" s="3">
-        <v>90600</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>89700</v>
-      </c>
-      <c r="R22" s="3">
-        <v>82800</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>77500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>94400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>70300</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>80800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>69600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>68400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>74000</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3652500</v>
+        <v>3382900</v>
       </c>
       <c r="E23" s="3">
-        <v>2115500</v>
+        <v>3738200</v>
       </c>
       <c r="F23" s="3">
-        <v>1531000</v>
+        <v>2165100</v>
       </c>
       <c r="G23" s="3">
-        <v>1013400</v>
+        <v>1566900</v>
       </c>
       <c r="H23" s="3">
-        <v>1203900</v>
+        <v>1037100</v>
       </c>
       <c r="I23" s="3">
-        <v>1109100</v>
+        <v>1232100</v>
       </c>
       <c r="J23" s="3">
+        <v>1135100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1462200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-691200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>76400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>5500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>908200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1071900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1249300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>882800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1430100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>803000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>609400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>888300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>630600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>776400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-848200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>1108500</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-267600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1147000</v>
+        <v>1995700</v>
       </c>
       <c r="E24" s="3">
-        <v>1261700</v>
+        <v>1173900</v>
       </c>
       <c r="F24" s="3">
-        <v>855800</v>
+        <v>1291300</v>
       </c>
       <c r="G24" s="3">
-        <v>530600</v>
+        <v>875800</v>
       </c>
       <c r="H24" s="3">
-        <v>398000</v>
+        <v>543100</v>
       </c>
       <c r="I24" s="3">
-        <v>276300</v>
+        <v>407300</v>
       </c>
       <c r="J24" s="3">
+        <v>282800</v>
+      </c>
+      <c r="K24" s="3">
         <v>-478800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-216900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>79600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>373600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>416500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>475300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>289500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>492100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>366600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>306300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>305200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>159300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>166100</v>
-      </c>
-      <c r="X24" s="3">
-        <v>193000</v>
       </c>
       <c r="Y24" s="3">
         <v>193000</v>
       </c>
       <c r="Z24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="AA24" s="3">
         <v>120900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2505500</v>
+        <v>1387300</v>
       </c>
       <c r="E26" s="3">
-        <v>853800</v>
+        <v>2564200</v>
       </c>
       <c r="F26" s="3">
-        <v>675200</v>
+        <v>873800</v>
       </c>
       <c r="G26" s="3">
-        <v>482700</v>
+        <v>691100</v>
       </c>
       <c r="H26" s="3">
-        <v>805900</v>
+        <v>494100</v>
       </c>
       <c r="I26" s="3">
-        <v>832800</v>
+        <v>824800</v>
       </c>
       <c r="J26" s="3">
+        <v>852400</v>
+      </c>
+      <c r="K26" s="3">
         <v>1940900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-474300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>62200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-74200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>534700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>655400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>774100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>593300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>938000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>436400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>303000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>583000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>471200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>610400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>915500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-388500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1941900</v>
+        <v>850300</v>
       </c>
       <c r="E27" s="3">
-        <v>544600</v>
+        <v>1987500</v>
       </c>
       <c r="F27" s="3">
-        <v>536600</v>
+        <v>557400</v>
       </c>
       <c r="G27" s="3">
-        <v>278300</v>
+        <v>549200</v>
       </c>
       <c r="H27" s="3">
-        <v>620400</v>
+        <v>284800</v>
       </c>
       <c r="I27" s="3">
-        <v>652300</v>
+        <v>634900</v>
       </c>
       <c r="J27" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1875100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-505500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>26200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-173500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>414400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>520600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>638800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>423500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>719200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>244800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>222900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>445800</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>348900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>491400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>798900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-442500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-448800</v>
+        <v>-58200</v>
       </c>
       <c r="E32" s="3">
-        <v>-269300</v>
+        <v>-459400</v>
       </c>
       <c r="F32" s="3">
-        <v>-128700</v>
+        <v>-275600</v>
       </c>
       <c r="G32" s="3">
-        <v>-202500</v>
+        <v>-131700</v>
       </c>
       <c r="H32" s="3">
-        <v>-206500</v>
+        <v>-207200</v>
       </c>
       <c r="I32" s="3">
-        <v>-200500</v>
+        <v>-211300</v>
       </c>
       <c r="J32" s="3">
+        <v>-205200</v>
+      </c>
+      <c r="K32" s="3">
         <v>-84800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-57100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-52400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>51300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-131900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-144500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-227000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-161500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-88700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-154000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-176800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-90000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-25800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-225500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-113300</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-149200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-118600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1941900</v>
+        <v>850300</v>
       </c>
       <c r="E33" s="3">
-        <v>544600</v>
+        <v>1987500</v>
       </c>
       <c r="F33" s="3">
-        <v>536600</v>
+        <v>557400</v>
       </c>
       <c r="G33" s="3">
-        <v>278300</v>
+        <v>549200</v>
       </c>
       <c r="H33" s="3">
-        <v>620400</v>
+        <v>284800</v>
       </c>
       <c r="I33" s="3">
-        <v>652300</v>
+        <v>634900</v>
       </c>
       <c r="J33" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1875100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-505500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>26200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-173500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>414400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>520600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>638800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>423500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>719200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>244800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>222900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>445800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>348900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>491400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>798900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-442500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1941900</v>
+        <v>850300</v>
       </c>
       <c r="E35" s="3">
-        <v>544600</v>
+        <v>1987500</v>
       </c>
       <c r="F35" s="3">
-        <v>536600</v>
+        <v>557400</v>
       </c>
       <c r="G35" s="3">
-        <v>278300</v>
+        <v>549200</v>
       </c>
       <c r="H35" s="3">
-        <v>620400</v>
+        <v>284800</v>
       </c>
       <c r="I35" s="3">
-        <v>652300</v>
+        <v>634900</v>
       </c>
       <c r="J35" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1875100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-505500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>26200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-173500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>414400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>520600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>638800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>423500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>719200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>244800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>222900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>445800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>348900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>491400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>798900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-442500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,701 +3007,729 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6525000</v>
+        <v>7766200</v>
       </c>
       <c r="E41" s="3">
-        <v>6004300</v>
+        <v>6678100</v>
       </c>
       <c r="F41" s="3">
-        <v>5036900</v>
+        <v>6145200</v>
       </c>
       <c r="G41" s="3">
-        <v>4050400</v>
+        <v>5155000</v>
       </c>
       <c r="H41" s="3">
-        <v>3084000</v>
+        <v>4145500</v>
       </c>
       <c r="I41" s="3">
-        <v>3418100</v>
+        <v>3156300</v>
       </c>
       <c r="J41" s="3">
+        <v>3498300</v>
+      </c>
+      <c r="K41" s="3">
         <v>2846600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>7608800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>6360000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3020700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3421700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3867300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4342100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>4382900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>4762400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3780200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>3213800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4718100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4456500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>5209400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4715700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>3504000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2428600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7699900</v>
+        <v>7624400</v>
       </c>
       <c r="E42" s="3">
-        <v>7337900</v>
+        <v>7880600</v>
       </c>
       <c r="F42" s="3">
-        <v>5134600</v>
+        <v>7510000</v>
       </c>
       <c r="G42" s="3">
-        <v>6196800</v>
+        <v>5255100</v>
       </c>
       <c r="H42" s="3">
-        <v>8985600</v>
+        <v>6342200</v>
       </c>
       <c r="I42" s="3">
-        <v>3562700</v>
+        <v>9196400</v>
       </c>
       <c r="J42" s="3">
+        <v>3646300</v>
+      </c>
+      <c r="K42" s="3">
         <v>3010200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>3291200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>5491600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>6987300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3643500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>2736600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>3435100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>2978500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3225800</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>4229900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2617600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1327500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1279100</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>1220700</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>905400</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>821300</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1461400</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5281200</v>
+        <v>5879800</v>
       </c>
       <c r="E43" s="3">
-        <v>5372000</v>
+        <v>5405100</v>
       </c>
       <c r="F43" s="3">
-        <v>4613000</v>
+        <v>5498000</v>
       </c>
       <c r="G43" s="3">
-        <v>3513800</v>
+        <v>4721200</v>
       </c>
       <c r="H43" s="3">
-        <v>3919800</v>
+        <v>3596300</v>
       </c>
       <c r="I43" s="3">
-        <v>4100300</v>
+        <v>4011700</v>
       </c>
       <c r="J43" s="3">
+        <v>4196500</v>
+      </c>
+      <c r="K43" s="3">
         <v>3343300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1941900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1843600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2862500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3564100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3807300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3585700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>4357800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>4056200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3196500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2945900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3542100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2825200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2287700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2318000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2921700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2924000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5123600</v>
+        <v>5432700</v>
       </c>
       <c r="E44" s="3">
-        <v>3901800</v>
+        <v>5243800</v>
       </c>
       <c r="F44" s="3">
-        <v>3141800</v>
+        <v>3993400</v>
       </c>
       <c r="G44" s="3">
-        <v>3006200</v>
+        <v>3215500</v>
       </c>
       <c r="H44" s="3">
-        <v>2551300</v>
+        <v>3076700</v>
       </c>
       <c r="I44" s="3">
-        <v>2363800</v>
+        <v>2611200</v>
       </c>
       <c r="J44" s="3">
+        <v>2419300</v>
+      </c>
+      <c r="K44" s="3">
         <v>2345900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1541300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1538200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1572000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2153900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2370400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1909300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2075400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1858300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1845300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1639300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1486700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1686400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1729000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1495600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1647100</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1952000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>738100</v>
+        <v>965700</v>
       </c>
       <c r="E45" s="3">
-        <v>704200</v>
+        <v>755400</v>
       </c>
       <c r="F45" s="3">
-        <v>620400</v>
+        <v>720700</v>
       </c>
       <c r="G45" s="3">
-        <v>486700</v>
+        <v>634900</v>
       </c>
       <c r="H45" s="3">
-        <v>406900</v>
+        <v>498200</v>
       </c>
       <c r="I45" s="3">
-        <v>507700</v>
+        <v>416500</v>
       </c>
       <c r="J45" s="3">
+        <v>519600</v>
+      </c>
+      <c r="K45" s="3">
         <v>534600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>273000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>293500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>370900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>347900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>286600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>294100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>330200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>312300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>418700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>424900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>362300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>297300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>269300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>286100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>280500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>232400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>25367900</v>
+        <v>27668800</v>
       </c>
       <c r="E46" s="3">
-        <v>23320200</v>
+        <v>25963000</v>
       </c>
       <c r="F46" s="3">
-        <v>18546700</v>
+        <v>23867300</v>
       </c>
       <c r="G46" s="3">
-        <v>17254000</v>
+        <v>18981800</v>
       </c>
       <c r="H46" s="3">
-        <v>18947600</v>
+        <v>17658800</v>
       </c>
       <c r="I46" s="3">
-        <v>13952600</v>
+        <v>19392100</v>
       </c>
       <c r="J46" s="3">
+        <v>14280000</v>
+      </c>
+      <c r="K46" s="3">
         <v>12080500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>14656200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>15526900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14813500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>13131000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>13068200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>13566200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14124700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>14214900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13470600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>10841700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>11436800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10544500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10716100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9720900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>9174500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>8998400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>10611300</v>
+        <v>11605500</v>
       </c>
       <c r="E47" s="3">
-        <v>10822800</v>
+        <v>10860300</v>
       </c>
       <c r="F47" s="3">
-        <v>10589400</v>
+        <v>11076700</v>
       </c>
       <c r="G47" s="3">
-        <v>12937300</v>
+        <v>10837800</v>
       </c>
       <c r="H47" s="3">
-        <v>12947200</v>
+        <v>13240800</v>
       </c>
       <c r="I47" s="3">
-        <v>12280000</v>
+        <v>13251000</v>
       </c>
       <c r="J47" s="3">
+        <v>12568100</v>
+      </c>
+      <c r="K47" s="3">
         <v>11737400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>7767600</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>8480700</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>8646600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>8831500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>9770500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>6566700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>6554000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>6707000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>5998800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>5680000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>5236400</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5466300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>4431900</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>4404900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>4145800</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4468700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19018400</v>
+        <v>19612600</v>
       </c>
       <c r="E48" s="3">
-        <v>18743100</v>
+        <v>19464600</v>
       </c>
       <c r="F48" s="3">
-        <v>18520700</v>
+        <v>19182900</v>
       </c>
       <c r="G48" s="3">
-        <v>18271400</v>
+        <v>18955200</v>
       </c>
       <c r="H48" s="3">
-        <v>18181600</v>
+        <v>18700000</v>
       </c>
       <c r="I48" s="3">
-        <v>18130700</v>
+        <v>18608200</v>
       </c>
       <c r="J48" s="3">
+        <v>18556100</v>
+      </c>
+      <c r="K48" s="3">
         <v>19153100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>14920900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>16464000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>16726900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19237700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20358100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>19369400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19616500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>17879500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>15679200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>15670700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>14865800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15319700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15457700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15748300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>16063500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>17152900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2585300</v>
+        <v>2728600</v>
       </c>
       <c r="E49" s="3">
-        <v>2565300</v>
+        <v>2645900</v>
       </c>
       <c r="F49" s="3">
-        <v>3152800</v>
+        <v>2625500</v>
       </c>
       <c r="G49" s="3">
-        <v>3345300</v>
+        <v>3226700</v>
       </c>
       <c r="H49" s="3">
-        <v>3338300</v>
+        <v>3423800</v>
       </c>
       <c r="I49" s="3">
-        <v>3483900</v>
+        <v>3416600</v>
       </c>
       <c r="J49" s="3">
+        <v>3565700</v>
+      </c>
+      <c r="K49" s="3">
         <v>3434000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3190500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>4212000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>4215300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>4859900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>5203800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4843200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>5048000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3923700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3202100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3188600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>2882300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>2971000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>1852400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>1867000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>1934300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2010700</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +3885,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2886500</v>
+        <v>3105300</v>
       </c>
       <c r="E52" s="3">
-        <v>2946300</v>
+        <v>2954200</v>
       </c>
       <c r="F52" s="3">
-        <v>2848600</v>
+        <v>3015400</v>
       </c>
       <c r="G52" s="3">
-        <v>3043100</v>
+        <v>2915400</v>
       </c>
       <c r="H52" s="3">
-        <v>3067000</v>
+        <v>3114500</v>
       </c>
       <c r="I52" s="3">
-        <v>3931800</v>
+        <v>3139000</v>
       </c>
       <c r="J52" s="3">
+        <v>4024000</v>
+      </c>
+      <c r="K52" s="3">
         <v>2737900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2099700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2086900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1795600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1074000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>977500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>905800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>958200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>996000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>1256000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1408700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>1115600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1126500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>935700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1169100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>3635200</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>5062600</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>60469400</v>
+        <v>64720800</v>
       </c>
       <c r="E54" s="3">
-        <v>58397800</v>
+        <v>61888000</v>
       </c>
       <c r="F54" s="3">
-        <v>53658100</v>
+        <v>59767800</v>
       </c>
       <c r="G54" s="3">
-        <v>54851000</v>
+        <v>54917000</v>
       </c>
       <c r="H54" s="3">
-        <v>56481800</v>
+        <v>56137900</v>
       </c>
       <c r="I54" s="3">
-        <v>51779000</v>
+        <v>57806900</v>
       </c>
       <c r="J54" s="3">
+        <v>52993800</v>
+      </c>
+      <c r="K54" s="3">
         <v>49142900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>42634900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>46770600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>46197900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>47134200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>49378100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>45251400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46301300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>43721200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>39606700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>36789600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>35536800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>35428000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>33393800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>32910200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>34953400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>37693400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4187,489 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5491700</v>
+        <v>6153400</v>
       </c>
       <c r="E57" s="3">
-        <v>5566500</v>
+        <v>5620500</v>
       </c>
       <c r="F57" s="3">
-        <v>4847400</v>
+        <v>5697100</v>
       </c>
       <c r="G57" s="3">
-        <v>3736300</v>
+        <v>4961100</v>
       </c>
       <c r="H57" s="3">
-        <v>4171100</v>
+        <v>3823900</v>
       </c>
       <c r="I57" s="3">
-        <v>4504300</v>
+        <v>4269000</v>
       </c>
       <c r="J57" s="3">
+        <v>4609900</v>
+      </c>
+      <c r="K57" s="3">
         <v>4292800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2667400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2607300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>3769100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4850600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4789700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4173900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5197500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5205900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4101400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>3877000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>3910000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>3659900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3268400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3028300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3460200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4379500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1882100</v>
+        <v>1049400</v>
       </c>
       <c r="E58" s="3">
-        <v>1092200</v>
+        <v>1926200</v>
       </c>
       <c r="F58" s="3">
-        <v>1272700</v>
+        <v>1117800</v>
       </c>
       <c r="G58" s="3">
-        <v>1715500</v>
+        <v>1302500</v>
       </c>
       <c r="H58" s="3">
-        <v>985400</v>
+        <v>1755800</v>
       </c>
       <c r="I58" s="3">
-        <v>1825200</v>
+        <v>1008600</v>
       </c>
       <c r="J58" s="3">
+        <v>1868100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1689600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>855200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>916400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>613100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>943300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1768900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1664600</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1934300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>997200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>965800</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1001400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1902800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>1012000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>274900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>218800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>190700</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>305200</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10007900</v>
+        <v>11073600</v>
       </c>
       <c r="E59" s="3">
-        <v>10219400</v>
+        <v>10242700</v>
       </c>
       <c r="F59" s="3">
-        <v>7521400</v>
+        <v>10459100</v>
       </c>
       <c r="G59" s="3">
-        <v>9281800</v>
+        <v>7697900</v>
       </c>
       <c r="H59" s="3">
-        <v>11059200</v>
+        <v>9499600</v>
       </c>
       <c r="I59" s="3">
-        <v>5283200</v>
+        <v>11318600</v>
       </c>
       <c r="J59" s="3">
+        <v>5407200</v>
+      </c>
+      <c r="K59" s="3">
         <v>4606000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5440700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6826900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8336700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5174000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4881600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5518500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5219000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5247300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6182600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>4643400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>3090900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2986700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>2753400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>2555900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2606400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>3211500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>17381700</v>
+        <v>18276400</v>
       </c>
       <c r="E60" s="3">
-        <v>16878000</v>
+        <v>17789500</v>
       </c>
       <c r="F60" s="3">
-        <v>13641400</v>
+        <v>17274000</v>
       </c>
       <c r="G60" s="3">
-        <v>14733600</v>
+        <v>13961500</v>
       </c>
       <c r="H60" s="3">
-        <v>16215700</v>
+        <v>15079300</v>
       </c>
       <c r="I60" s="3">
-        <v>11612700</v>
+        <v>16596200</v>
       </c>
       <c r="J60" s="3">
+        <v>11885200</v>
+      </c>
+      <c r="K60" s="3">
         <v>10588400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>8963300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>10350600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12718900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10967800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>11440200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>11357000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12350800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11450500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11249900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>9521900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>8903700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7658700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6296600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>5802900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6257300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7896200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9243900</v>
+        <v>9434200</v>
       </c>
       <c r="E61" s="3">
-        <v>9950100</v>
+        <v>9460800</v>
       </c>
       <c r="F61" s="3">
-        <v>9552100</v>
+        <v>10183500</v>
       </c>
       <c r="G61" s="3">
-        <v>9550100</v>
+        <v>9776200</v>
       </c>
       <c r="H61" s="3">
-        <v>10273200</v>
+        <v>9774200</v>
       </c>
       <c r="I61" s="3">
-        <v>10317100</v>
+        <v>10514200</v>
       </c>
       <c r="J61" s="3">
+        <v>10559200</v>
+      </c>
+      <c r="K61" s="3">
         <v>10215400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>9427200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>9955600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6896700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7957100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>8107000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6550200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6260900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>5806900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>5052900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>5035400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5017900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5375500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5134200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5244200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5276700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5869100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8109900</v>
+        <v>8715600</v>
       </c>
       <c r="E62" s="3">
-        <v>8321300</v>
+        <v>8300100</v>
       </c>
       <c r="F62" s="3">
-        <v>8525800</v>
+        <v>8516500</v>
       </c>
       <c r="G62" s="3">
-        <v>8770100</v>
+        <v>8725800</v>
       </c>
       <c r="H62" s="3">
-        <v>9096300</v>
+        <v>8975900</v>
       </c>
       <c r="I62" s="3">
-        <v>8656400</v>
+        <v>9309700</v>
       </c>
       <c r="J62" s="3">
+        <v>8859500</v>
+      </c>
+      <c r="K62" s="3">
         <v>8491900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7635800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8515600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8213500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8523300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>9412800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8512400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8335100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8315800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>6928000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>6508900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>6244300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6311200</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>5978000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6342600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>7216600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>7582800</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41878800</v>
+        <v>44125100</v>
       </c>
       <c r="E66" s="3">
-        <v>41806000</v>
+        <v>42861400</v>
       </c>
       <c r="F66" s="3">
-        <v>38193400</v>
+        <v>42786800</v>
       </c>
       <c r="G66" s="3">
-        <v>39371400</v>
+        <v>39089500</v>
       </c>
       <c r="H66" s="3">
-        <v>41663400</v>
+        <v>40295100</v>
       </c>
       <c r="I66" s="3">
-        <v>36891800</v>
+        <v>42640900</v>
       </c>
       <c r="J66" s="3">
+        <v>37757400</v>
+      </c>
+      <c r="K66" s="3">
         <v>35438600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>29841700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>32870200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32113100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>31943800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33628400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>30806400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31501900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>29637600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>26852700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>24489800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>23702500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>22843700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>20852200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>20777000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>22206400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>24881300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15788800</v>
+        <v>17729300</v>
       </c>
       <c r="E72" s="3">
-        <v>13789100</v>
+        <v>16159300</v>
       </c>
       <c r="F72" s="3">
-        <v>12578200</v>
+        <v>14112600</v>
       </c>
       <c r="G72" s="3">
-        <v>11936900</v>
+        <v>12873300</v>
       </c>
       <c r="H72" s="3">
-        <v>11275600</v>
+        <v>12216900</v>
       </c>
       <c r="I72" s="3">
-        <v>11343400</v>
+        <v>11540100</v>
       </c>
       <c r="J72" s="3">
+        <v>11609600</v>
+      </c>
+      <c r="K72" s="3">
         <v>10195400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>9106500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11379300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>11564700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>12445800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>12920000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11727500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12038600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>11306200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>10196600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>9765600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>9846900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>9714200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9680500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9272100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9885900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9820100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18590500</v>
+        <v>20595700</v>
       </c>
       <c r="E76" s="3">
-        <v>16591700</v>
+        <v>19026700</v>
       </c>
       <c r="F76" s="3">
-        <v>15464700</v>
+        <v>16981000</v>
       </c>
       <c r="G76" s="3">
-        <v>15479600</v>
+        <v>15827500</v>
       </c>
       <c r="H76" s="3">
-        <v>14818400</v>
+        <v>15842800</v>
       </c>
       <c r="I76" s="3">
-        <v>14887200</v>
+        <v>15166000</v>
       </c>
       <c r="J76" s="3">
+        <v>15236500</v>
+      </c>
+      <c r="K76" s="3">
         <v>13704300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12793200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13900400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14084700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>15190300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>15749700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14445000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14799400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>14083600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>12754000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>12299800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>11834200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12584200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12541600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12133200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12746900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12812100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1941900</v>
+        <v>850300</v>
       </c>
       <c r="E81" s="3">
-        <v>544600</v>
+        <v>1987500</v>
       </c>
       <c r="F81" s="3">
-        <v>536600</v>
+        <v>557400</v>
       </c>
       <c r="G81" s="3">
-        <v>278300</v>
+        <v>549200</v>
       </c>
       <c r="H81" s="3">
-        <v>620400</v>
+        <v>284800</v>
       </c>
       <c r="I81" s="3">
-        <v>652300</v>
+        <v>634900</v>
       </c>
       <c r="J81" s="3">
+        <v>667600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1875100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-505500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>26200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-173500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>414400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>520600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>638800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>423500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>719200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>244800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>222900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>445800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>348900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>491400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>798900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-442500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6012,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>484700</v>
+        <v>685000</v>
       </c>
       <c r="E83" s="3">
-        <v>603400</v>
+        <v>496100</v>
       </c>
       <c r="F83" s="3">
-        <v>1952900</v>
+        <v>617600</v>
       </c>
       <c r="G83" s="3">
-        <v>692200</v>
+        <v>1998700</v>
       </c>
       <c r="H83" s="3">
-        <v>649300</v>
+        <v>708400</v>
       </c>
       <c r="I83" s="3">
-        <v>630400</v>
+        <v>664500</v>
       </c>
       <c r="J83" s="3">
+        <v>645100</v>
+      </c>
+      <c r="K83" s="3">
         <v>558500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1434400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>593500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>775600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>758800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>738700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>723500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>672300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>589100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>505100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>529200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>494100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>596900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>548700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>584600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>500400</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>1533000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>461800</v>
+        <v>3248200</v>
       </c>
       <c r="E89" s="3">
-        <v>2668000</v>
+        <v>472600</v>
       </c>
       <c r="F89" s="3">
-        <v>2775800</v>
+        <v>2730600</v>
       </c>
       <c r="G89" s="3">
-        <v>1603800</v>
+        <v>2840900</v>
       </c>
       <c r="H89" s="3">
-        <v>1557900</v>
+        <v>1641400</v>
       </c>
       <c r="I89" s="3">
-        <v>1061200</v>
+        <v>1594500</v>
       </c>
       <c r="J89" s="3">
+        <v>1086100</v>
+      </c>
+      <c r="K89" s="3">
         <v>677200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>822000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>592400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1225100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>1145200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>1316900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1334000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1035900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1318900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1075500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1353800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1181400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>832500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>888600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1110800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1036700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>718400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6602,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-649300</v>
+        <v>-750300</v>
       </c>
       <c r="E91" s="3">
-        <v>-645300</v>
+        <v>-664500</v>
       </c>
       <c r="F91" s="3">
-        <v>-756000</v>
+        <v>-660500</v>
       </c>
       <c r="G91" s="3">
-        <v>-577500</v>
+        <v>-773800</v>
       </c>
       <c r="H91" s="3">
-        <v>-619400</v>
+        <v>-591000</v>
       </c>
       <c r="I91" s="3">
-        <v>-537600</v>
+        <v>-633900</v>
       </c>
       <c r="J91" s="3">
+        <v>-550200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-562500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-402700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-462500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-637100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-706300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-665200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-578800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-619600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-671900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-547200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-473200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-571100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-356800</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-373600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-478000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +6840,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>1022300</v>
+        <v>-913600</v>
       </c>
       <c r="E94" s="3">
-        <v>-1154000</v>
+        <v>1046300</v>
       </c>
       <c r="F94" s="3">
-        <v>-459800</v>
+        <v>-1181100</v>
       </c>
       <c r="G94" s="3">
-        <v>-594500</v>
+        <v>-470600</v>
       </c>
       <c r="H94" s="3">
-        <v>-111700</v>
+        <v>-608400</v>
       </c>
       <c r="I94" s="3">
-        <v>-649300</v>
+        <v>-114300</v>
       </c>
       <c r="J94" s="3">
+        <v>-664500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4438400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-440100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-472400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-699300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-744800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3178800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-488200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1184200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-886000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-495100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-590700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-352300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>379200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>445400</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-206600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,85 +6952,89 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-286800</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-83800</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-32900</v>
+        <v>-85700</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-33700</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-451800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-240000</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>115600</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-908200</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>85200</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-760900</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>59500</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-653000</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-99800</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7270,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-952500</v>
+        <v>-1233100</v>
       </c>
       <c r="E100" s="3">
-        <v>-483700</v>
+        <v>-974900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1318600</v>
+        <v>-495100</v>
       </c>
       <c r="G100" s="3">
-        <v>-61800</v>
+        <v>-1349500</v>
       </c>
       <c r="H100" s="3">
-        <v>-1780400</v>
+        <v>-63300</v>
       </c>
       <c r="I100" s="3">
-        <v>191500</v>
+        <v>-1822100</v>
       </c>
       <c r="J100" s="3">
+        <v>196000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-687200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1201900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3212700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-661100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-640900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1214000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-818800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-275100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>288600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-39900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-232800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>886400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-31400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-682200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-142500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>191300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3000</v>
+        <v>5100</v>
       </c>
       <c r="E101" s="3">
-        <v>-62800</v>
+        <v>3100</v>
       </c>
       <c r="F101" s="3">
-        <v>-10000</v>
+        <v>-64300</v>
       </c>
       <c r="G101" s="3">
-        <v>-4000</v>
+        <v>-10200</v>
       </c>
       <c r="H101" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-2000</v>
       </c>
-      <c r="I101" s="3">
-        <v>-9000</v>
-      </c>
       <c r="J101" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-5000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-24900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-41500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-15200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>5900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-10800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-13300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-5500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-7700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-7900</v>
-      </c>
-      <c r="W101" s="3">
-        <v>-11200</v>
       </c>
       <c r="X101" s="3">
         <v>-11200</v>
       </c>
       <c r="Y101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="Z101" s="3">
         <v>-16800</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-39900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>534600</v>
+        <v>1106500</v>
       </c>
       <c r="E102" s="3">
-        <v>967500</v>
+        <v>547100</v>
       </c>
       <c r="F102" s="3">
-        <v>987400</v>
+        <v>990200</v>
       </c>
       <c r="G102" s="3">
-        <v>943500</v>
+        <v>1010600</v>
       </c>
       <c r="H102" s="3">
-        <v>-336100</v>
+        <v>965700</v>
       </c>
       <c r="I102" s="3">
-        <v>594500</v>
+        <v>-344000</v>
       </c>
       <c r="J102" s="3">
+        <v>608400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-4453400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1558900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>3333800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-176700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-255700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-654100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>32900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-434200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>723900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>527200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>350300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-742800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>493700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>796600</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>1322800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>663200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -782,25 +782,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>17527100</v>
+        <v>18165900</v>
       </c>
       <c r="E8" s="3">
-        <v>15100700</v>
+        <v>15651000</v>
       </c>
       <c r="F8" s="3">
-        <v>16157200</v>
+        <v>16746000</v>
       </c>
       <c r="G8" s="3">
-        <v>13626700</v>
+        <v>14123200</v>
       </c>
       <c r="H8" s="3">
-        <v>8688000</v>
+        <v>9004600</v>
       </c>
       <c r="I8" s="3">
-        <v>7417100</v>
+        <v>7687400</v>
       </c>
       <c r="J8" s="3">
-        <v>6562700</v>
+        <v>6801900</v>
       </c>
       <c r="K8" s="3">
         <v>4943100</v>
@@ -862,25 +862,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12124000</v>
+        <v>12565900</v>
       </c>
       <c r="E9" s="3">
-        <v>10909300</v>
+        <v>11306800</v>
       </c>
       <c r="F9" s="3">
-        <v>10306000</v>
+        <v>10681600</v>
       </c>
       <c r="G9" s="3">
-        <v>9009600</v>
+        <v>9337900</v>
       </c>
       <c r="H9" s="3">
-        <v>6236100</v>
+        <v>6463300</v>
       </c>
       <c r="I9" s="3">
-        <v>4912100</v>
+        <v>5091100</v>
       </c>
       <c r="J9" s="3">
-        <v>4242400</v>
+        <v>4397000</v>
       </c>
       <c r="K9" s="3">
         <v>3634500</v>
@@ -942,25 +942,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5403100</v>
+        <v>5600000</v>
       </c>
       <c r="E10" s="3">
-        <v>4191400</v>
+        <v>4344100</v>
       </c>
       <c r="F10" s="3">
-        <v>5851200</v>
+        <v>6064500</v>
       </c>
       <c r="G10" s="3">
-        <v>4617100</v>
+        <v>4785300</v>
       </c>
       <c r="H10" s="3">
-        <v>2452000</v>
+        <v>2541300</v>
       </c>
       <c r="I10" s="3">
-        <v>2505000</v>
+        <v>2596300</v>
       </c>
       <c r="J10" s="3">
-        <v>2320300</v>
+        <v>2404800</v>
       </c>
       <c r="K10" s="3">
         <v>1308600</v>
@@ -1052,25 +1052,25 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>57200</v>
+        <v>59200</v>
       </c>
       <c r="E12" s="3">
-        <v>79600</v>
+        <v>82500</v>
       </c>
       <c r="F12" s="3">
-        <v>10200</v>
+        <v>10600</v>
       </c>
       <c r="G12" s="3">
-        <v>155200</v>
+        <v>160800</v>
       </c>
       <c r="H12" s="3">
-        <v>45900</v>
+        <v>47600</v>
       </c>
       <c r="I12" s="3">
-        <v>45900</v>
+        <v>47600</v>
       </c>
       <c r="J12" s="3">
-        <v>38800</v>
+        <v>40200</v>
       </c>
       <c r="K12" s="3">
         <v>43900</v>
@@ -1212,13 +1212,13 @@
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E14" s="3">
-        <v>-161300</v>
+        <v>-167200</v>
       </c>
       <c r="F14" s="3">
-        <v>1034100</v>
+        <v>1071800</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>10</v>
@@ -1292,25 +1292,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>643100</v>
+        <v>666500</v>
       </c>
       <c r="E15" s="3">
-        <v>171500</v>
+        <v>177700</v>
       </c>
       <c r="F15" s="3">
-        <v>606400</v>
+        <v>628500</v>
       </c>
       <c r="G15" s="3">
-        <v>1885400</v>
+        <v>1954100</v>
       </c>
       <c r="H15" s="3">
-        <v>683900</v>
+        <v>708900</v>
       </c>
       <c r="I15" s="3">
-        <v>631900</v>
+        <v>654900</v>
       </c>
       <c r="J15" s="3">
-        <v>626800</v>
+        <v>649600</v>
       </c>
       <c r="K15" s="3">
         <v>342100</v>
@@ -1399,25 +1399,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14097200</v>
+        <v>14611000</v>
       </c>
       <c r="E17" s="3">
-        <v>11708600</v>
+        <v>12135300</v>
       </c>
       <c r="F17" s="3">
-        <v>14170700</v>
+        <v>14687200</v>
       </c>
       <c r="G17" s="3">
-        <v>12106700</v>
+        <v>12547900</v>
       </c>
       <c r="H17" s="3">
-        <v>7758100</v>
+        <v>8040800</v>
       </c>
       <c r="I17" s="3">
-        <v>6318800</v>
+        <v>6549000</v>
       </c>
       <c r="J17" s="3">
-        <v>5554200</v>
+        <v>5756600</v>
       </c>
       <c r="K17" s="3">
         <v>3494900</v>
@@ -1479,25 +1479,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3429900</v>
+        <v>3554900</v>
       </c>
       <c r="E18" s="3">
-        <v>3392100</v>
+        <v>3515700</v>
       </c>
       <c r="F18" s="3">
-        <v>1986500</v>
+        <v>2058900</v>
       </c>
       <c r="G18" s="3">
-        <v>1520000</v>
+        <v>1575400</v>
       </c>
       <c r="H18" s="3">
-        <v>929900</v>
+        <v>963800</v>
       </c>
       <c r="I18" s="3">
-        <v>1098400</v>
+        <v>1138400</v>
       </c>
       <c r="J18" s="3">
-        <v>1008600</v>
+        <v>1045300</v>
       </c>
       <c r="K18" s="3">
         <v>1448200</v>
@@ -1589,25 +1589,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>58200</v>
+        <v>60300</v>
       </c>
       <c r="E20" s="3">
-        <v>459400</v>
+        <v>476100</v>
       </c>
       <c r="F20" s="3">
-        <v>275600</v>
+        <v>285700</v>
       </c>
       <c r="G20" s="3">
-        <v>131700</v>
+        <v>136500</v>
       </c>
       <c r="H20" s="3">
-        <v>207200</v>
+        <v>214800</v>
       </c>
       <c r="I20" s="3">
-        <v>211300</v>
+        <v>219000</v>
       </c>
       <c r="J20" s="3">
-        <v>205200</v>
+        <v>212700</v>
       </c>
       <c r="K20" s="3">
         <v>84800</v>
@@ -1669,25 +1669,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4173000</v>
+        <v>4325100</v>
       </c>
       <c r="E21" s="3">
-        <v>4347600</v>
+        <v>4506000</v>
       </c>
       <c r="F21" s="3">
-        <v>2879700</v>
+        <v>2984600</v>
       </c>
       <c r="G21" s="3">
-        <v>3650400</v>
+        <v>3783400</v>
       </c>
       <c r="H21" s="3">
-        <v>1845600</v>
+        <v>1912900</v>
       </c>
       <c r="I21" s="3">
-        <v>1974200</v>
+        <v>2046200</v>
       </c>
       <c r="J21" s="3">
-        <v>1858900</v>
+        <v>1926600</v>
       </c>
       <c r="K21" s="3">
         <v>2091500</v>
@@ -1749,25 +1749,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>105100</v>
+        <v>109000</v>
       </c>
       <c r="E22" s="3">
-        <v>113300</v>
+        <v>117400</v>
       </c>
       <c r="F22" s="3">
-        <v>97000</v>
+        <v>100500</v>
       </c>
       <c r="G22" s="3">
-        <v>84700</v>
+        <v>87800</v>
       </c>
       <c r="H22" s="3">
-        <v>100000</v>
+        <v>103700</v>
       </c>
       <c r="I22" s="3">
-        <v>77600</v>
+        <v>80400</v>
       </c>
       <c r="J22" s="3">
-        <v>78600</v>
+        <v>81500</v>
       </c>
       <c r="K22" s="3">
         <v>70800</v>
@@ -1829,25 +1829,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3382900</v>
+        <v>3506200</v>
       </c>
       <c r="E23" s="3">
-        <v>3738200</v>
+        <v>3874400</v>
       </c>
       <c r="F23" s="3">
-        <v>2165100</v>
+        <v>2244000</v>
       </c>
       <c r="G23" s="3">
-        <v>1566900</v>
+        <v>1624000</v>
       </c>
       <c r="H23" s="3">
-        <v>1037100</v>
+        <v>1074900</v>
       </c>
       <c r="I23" s="3">
-        <v>1232100</v>
+        <v>1277000</v>
       </c>
       <c r="J23" s="3">
-        <v>1135100</v>
+        <v>1176500</v>
       </c>
       <c r="K23" s="3">
         <v>1462200</v>
@@ -1909,25 +1909,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1995700</v>
+        <v>2068400</v>
       </c>
       <c r="E24" s="3">
-        <v>1173900</v>
+        <v>1216700</v>
       </c>
       <c r="F24" s="3">
-        <v>1291300</v>
+        <v>1338400</v>
       </c>
       <c r="G24" s="3">
-        <v>875800</v>
+        <v>907800</v>
       </c>
       <c r="H24" s="3">
-        <v>543100</v>
+        <v>562900</v>
       </c>
       <c r="I24" s="3">
-        <v>407300</v>
+        <v>422100</v>
       </c>
       <c r="J24" s="3">
-        <v>282800</v>
+        <v>293100</v>
       </c>
       <c r="K24" s="3">
         <v>-478800</v>
@@ -2069,25 +2069,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1387300</v>
+        <v>1437800</v>
       </c>
       <c r="E26" s="3">
-        <v>2564200</v>
+        <v>2657700</v>
       </c>
       <c r="F26" s="3">
-        <v>873800</v>
+        <v>905600</v>
       </c>
       <c r="G26" s="3">
-        <v>691100</v>
+        <v>716300</v>
       </c>
       <c r="H26" s="3">
-        <v>494100</v>
+        <v>512100</v>
       </c>
       <c r="I26" s="3">
-        <v>824800</v>
+        <v>854900</v>
       </c>
       <c r="J26" s="3">
-        <v>852400</v>
+        <v>883400</v>
       </c>
       <c r="K26" s="3">
         <v>1940900</v>
@@ -2149,25 +2149,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>850300</v>
+        <v>881300</v>
       </c>
       <c r="E27" s="3">
-        <v>1987500</v>
+        <v>2059900</v>
       </c>
       <c r="F27" s="3">
-        <v>557400</v>
+        <v>577700</v>
       </c>
       <c r="G27" s="3">
-        <v>549200</v>
+        <v>569200</v>
       </c>
       <c r="H27" s="3">
-        <v>284800</v>
+        <v>295200</v>
       </c>
       <c r="I27" s="3">
-        <v>634900</v>
+        <v>658100</v>
       </c>
       <c r="J27" s="3">
-        <v>667600</v>
+        <v>691900</v>
       </c>
       <c r="K27" s="3">
         <v>1875100</v>
@@ -2549,25 +2549,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-58200</v>
+        <v>-60300</v>
       </c>
       <c r="E32" s="3">
-        <v>-459400</v>
+        <v>-476100</v>
       </c>
       <c r="F32" s="3">
-        <v>-275600</v>
+        <v>-285700</v>
       </c>
       <c r="G32" s="3">
-        <v>-131700</v>
+        <v>-136500</v>
       </c>
       <c r="H32" s="3">
-        <v>-207200</v>
+        <v>-214800</v>
       </c>
       <c r="I32" s="3">
-        <v>-211300</v>
+        <v>-219000</v>
       </c>
       <c r="J32" s="3">
-        <v>-205200</v>
+        <v>-212700</v>
       </c>
       <c r="K32" s="3">
         <v>-84800</v>
@@ -2629,25 +2629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>850300</v>
+        <v>881300</v>
       </c>
       <c r="E33" s="3">
-        <v>1987500</v>
+        <v>2059900</v>
       </c>
       <c r="F33" s="3">
-        <v>557400</v>
+        <v>577700</v>
       </c>
       <c r="G33" s="3">
-        <v>549200</v>
+        <v>569200</v>
       </c>
       <c r="H33" s="3">
-        <v>284800</v>
+        <v>295200</v>
       </c>
       <c r="I33" s="3">
-        <v>634900</v>
+        <v>658100</v>
       </c>
       <c r="J33" s="3">
-        <v>667600</v>
+        <v>691900</v>
       </c>
       <c r="K33" s="3">
         <v>1875100</v>
@@ -2789,25 +2789,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>850300</v>
+        <v>881300</v>
       </c>
       <c r="E35" s="3">
-        <v>1987500</v>
+        <v>2059900</v>
       </c>
       <c r="F35" s="3">
-        <v>557400</v>
+        <v>577700</v>
       </c>
       <c r="G35" s="3">
-        <v>549200</v>
+        <v>569200</v>
       </c>
       <c r="H35" s="3">
-        <v>284800</v>
+        <v>295200</v>
       </c>
       <c r="I35" s="3">
-        <v>634900</v>
+        <v>658100</v>
       </c>
       <c r="J35" s="3">
-        <v>667600</v>
+        <v>691900</v>
       </c>
       <c r="K35" s="3">
         <v>1875100</v>
@@ -3014,25 +3014,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7766200</v>
+        <v>8049300</v>
       </c>
       <c r="E41" s="3">
-        <v>6678100</v>
+        <v>6921400</v>
       </c>
       <c r="F41" s="3">
-        <v>6145200</v>
+        <v>6369200</v>
       </c>
       <c r="G41" s="3">
-        <v>5155000</v>
+        <v>5342900</v>
       </c>
       <c r="H41" s="3">
-        <v>4145500</v>
+        <v>4296500</v>
       </c>
       <c r="I41" s="3">
-        <v>3156300</v>
+        <v>3271300</v>
       </c>
       <c r="J41" s="3">
-        <v>3498300</v>
+        <v>3625800</v>
       </c>
       <c r="K41" s="3">
         <v>2846600</v>
@@ -3094,25 +3094,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7624400</v>
+        <v>7902200</v>
       </c>
       <c r="E42" s="3">
-        <v>7880600</v>
+        <v>8167800</v>
       </c>
       <c r="F42" s="3">
-        <v>7510000</v>
+        <v>7783700</v>
       </c>
       <c r="G42" s="3">
-        <v>5255100</v>
+        <v>5446600</v>
       </c>
       <c r="H42" s="3">
-        <v>6342200</v>
+        <v>6573400</v>
       </c>
       <c r="I42" s="3">
-        <v>9196400</v>
+        <v>9531500</v>
       </c>
       <c r="J42" s="3">
-        <v>3646300</v>
+        <v>3779200</v>
       </c>
       <c r="K42" s="3">
         <v>3010200</v>
@@ -3174,25 +3174,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>5879800</v>
+        <v>6094100</v>
       </c>
       <c r="E43" s="3">
-        <v>5405100</v>
+        <v>5602100</v>
       </c>
       <c r="F43" s="3">
-        <v>5498000</v>
+        <v>5698400</v>
       </c>
       <c r="G43" s="3">
-        <v>4721200</v>
+        <v>4893300</v>
       </c>
       <c r="H43" s="3">
-        <v>3596300</v>
+        <v>3727300</v>
       </c>
       <c r="I43" s="3">
-        <v>4011700</v>
+        <v>4157900</v>
       </c>
       <c r="J43" s="3">
-        <v>4196500</v>
+        <v>4349400</v>
       </c>
       <c r="K43" s="3">
         <v>3343300</v>
@@ -3254,25 +3254,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5432700</v>
+        <v>5630700</v>
       </c>
       <c r="E44" s="3">
-        <v>5243800</v>
+        <v>5434900</v>
       </c>
       <c r="F44" s="3">
-        <v>3993400</v>
+        <v>4138900</v>
       </c>
       <c r="G44" s="3">
-        <v>3215500</v>
+        <v>3332700</v>
       </c>
       <c r="H44" s="3">
-        <v>3076700</v>
+        <v>3188800</v>
       </c>
       <c r="I44" s="3">
-        <v>2611200</v>
+        <v>2706400</v>
       </c>
       <c r="J44" s="3">
-        <v>2419300</v>
+        <v>2507500</v>
       </c>
       <c r="K44" s="3">
         <v>2345900</v>
@@ -3334,25 +3334,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>965700</v>
+        <v>1000900</v>
       </c>
       <c r="E45" s="3">
-        <v>755400</v>
+        <v>782900</v>
       </c>
       <c r="F45" s="3">
-        <v>720700</v>
+        <v>746900</v>
       </c>
       <c r="G45" s="3">
-        <v>634900</v>
+        <v>658100</v>
       </c>
       <c r="H45" s="3">
-        <v>498200</v>
+        <v>516300</v>
       </c>
       <c r="I45" s="3">
-        <v>416500</v>
+        <v>431700</v>
       </c>
       <c r="J45" s="3">
-        <v>519600</v>
+        <v>538500</v>
       </c>
       <c r="K45" s="3">
         <v>534600</v>
@@ -3414,25 +3414,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27668800</v>
+        <v>28677100</v>
       </c>
       <c r="E46" s="3">
-        <v>25963000</v>
+        <v>26909200</v>
       </c>
       <c r="F46" s="3">
-        <v>23867300</v>
+        <v>24737100</v>
       </c>
       <c r="G46" s="3">
-        <v>18981800</v>
+        <v>19673500</v>
       </c>
       <c r="H46" s="3">
-        <v>17658800</v>
+        <v>18302300</v>
       </c>
       <c r="I46" s="3">
-        <v>19392100</v>
+        <v>20098800</v>
       </c>
       <c r="J46" s="3">
-        <v>14280000</v>
+        <v>14800400</v>
       </c>
       <c r="K46" s="3">
         <v>12080500</v>
@@ -3494,25 +3494,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>11605500</v>
+        <v>12028400</v>
       </c>
       <c r="E47" s="3">
-        <v>10860300</v>
+        <v>11256100</v>
       </c>
       <c r="F47" s="3">
-        <v>11076700</v>
+        <v>11480400</v>
       </c>
       <c r="G47" s="3">
-        <v>10837800</v>
+        <v>11232800</v>
       </c>
       <c r="H47" s="3">
-        <v>13240800</v>
+        <v>13723300</v>
       </c>
       <c r="I47" s="3">
-        <v>13251000</v>
+        <v>13733900</v>
       </c>
       <c r="J47" s="3">
-        <v>12568100</v>
+        <v>13026100</v>
       </c>
       <c r="K47" s="3">
         <v>11737400</v>
@@ -3574,25 +3574,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>19612600</v>
+        <v>20327400</v>
       </c>
       <c r="E48" s="3">
-        <v>19464600</v>
+        <v>20173900</v>
       </c>
       <c r="F48" s="3">
-        <v>19182900</v>
+        <v>19881900</v>
       </c>
       <c r="G48" s="3">
-        <v>18955200</v>
+        <v>19646000</v>
       </c>
       <c r="H48" s="3">
-        <v>18700000</v>
+        <v>19381500</v>
       </c>
       <c r="I48" s="3">
-        <v>18608200</v>
+        <v>19286300</v>
       </c>
       <c r="J48" s="3">
-        <v>18556100</v>
+        <v>19232300</v>
       </c>
       <c r="K48" s="3">
         <v>19153100</v>
@@ -3654,25 +3654,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2728600</v>
+        <v>2828000</v>
       </c>
       <c r="E49" s="3">
-        <v>2645900</v>
+        <v>2742300</v>
       </c>
       <c r="F49" s="3">
-        <v>2625500</v>
+        <v>2721200</v>
       </c>
       <c r="G49" s="3">
-        <v>3226700</v>
+        <v>3344300</v>
       </c>
       <c r="H49" s="3">
-        <v>3423800</v>
+        <v>3548500</v>
       </c>
       <c r="I49" s="3">
-        <v>3416600</v>
+        <v>3541100</v>
       </c>
       <c r="J49" s="3">
-        <v>3565700</v>
+        <v>3695600</v>
       </c>
       <c r="K49" s="3">
         <v>3434000</v>
@@ -3894,25 +3894,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3105300</v>
+        <v>3218400</v>
       </c>
       <c r="E52" s="3">
-        <v>2954200</v>
+        <v>3061900</v>
       </c>
       <c r="F52" s="3">
-        <v>3015400</v>
+        <v>3125300</v>
       </c>
       <c r="G52" s="3">
-        <v>2915400</v>
+        <v>3021600</v>
       </c>
       <c r="H52" s="3">
-        <v>3114500</v>
+        <v>3228000</v>
       </c>
       <c r="I52" s="3">
-        <v>3139000</v>
+        <v>3253400</v>
       </c>
       <c r="J52" s="3">
-        <v>4024000</v>
+        <v>4170600</v>
       </c>
       <c r="K52" s="3">
         <v>2737900</v>
@@ -4054,25 +4054,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>64720800</v>
+        <v>67079300</v>
       </c>
       <c r="E54" s="3">
-        <v>61888000</v>
+        <v>64143400</v>
       </c>
       <c r="F54" s="3">
-        <v>59767800</v>
+        <v>61945900</v>
       </c>
       <c r="G54" s="3">
-        <v>54917000</v>
+        <v>56918300</v>
       </c>
       <c r="H54" s="3">
-        <v>56137900</v>
+        <v>58183700</v>
       </c>
       <c r="I54" s="3">
-        <v>57806900</v>
+        <v>59913500</v>
       </c>
       <c r="J54" s="3">
-        <v>52993800</v>
+        <v>54925000</v>
       </c>
       <c r="K54" s="3">
         <v>49142900</v>
@@ -4194,25 +4194,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6153400</v>
+        <v>6377600</v>
       </c>
       <c r="E57" s="3">
-        <v>5620500</v>
+        <v>5825300</v>
       </c>
       <c r="F57" s="3">
-        <v>5697100</v>
+        <v>5904700</v>
       </c>
       <c r="G57" s="3">
-        <v>4961100</v>
+        <v>5141900</v>
       </c>
       <c r="H57" s="3">
-        <v>3823900</v>
+        <v>3963300</v>
       </c>
       <c r="I57" s="3">
-        <v>4269000</v>
+        <v>4424600</v>
       </c>
       <c r="J57" s="3">
-        <v>4609900</v>
+        <v>4777900</v>
       </c>
       <c r="K57" s="3">
         <v>4292800</v>
@@ -4274,25 +4274,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1049400</v>
+        <v>1087600</v>
       </c>
       <c r="E58" s="3">
-        <v>1926200</v>
+        <v>1996400</v>
       </c>
       <c r="F58" s="3">
-        <v>1117800</v>
+        <v>1158500</v>
       </c>
       <c r="G58" s="3">
-        <v>1302500</v>
+        <v>1350000</v>
       </c>
       <c r="H58" s="3">
-        <v>1755800</v>
+        <v>1819800</v>
       </c>
       <c r="I58" s="3">
-        <v>1008600</v>
+        <v>1045300</v>
       </c>
       <c r="J58" s="3">
-        <v>1868100</v>
+        <v>1936100</v>
       </c>
       <c r="K58" s="3">
         <v>1689600</v>
@@ -4354,25 +4354,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11073600</v>
+        <v>11477200</v>
       </c>
       <c r="E59" s="3">
-        <v>10242700</v>
+        <v>10616000</v>
       </c>
       <c r="F59" s="3">
-        <v>10459100</v>
+        <v>10840300</v>
       </c>
       <c r="G59" s="3">
-        <v>7697900</v>
+        <v>7978400</v>
       </c>
       <c r="H59" s="3">
-        <v>9499600</v>
+        <v>9845700</v>
       </c>
       <c r="I59" s="3">
-        <v>11318600</v>
+        <v>11731100</v>
       </c>
       <c r="J59" s="3">
-        <v>5407200</v>
+        <v>5604200</v>
       </c>
       <c r="K59" s="3">
         <v>4606000</v>
@@ -4434,25 +4434,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18276400</v>
+        <v>18942400</v>
       </c>
       <c r="E60" s="3">
-        <v>17789500</v>
+        <v>18437800</v>
       </c>
       <c r="F60" s="3">
-        <v>17274000</v>
+        <v>17903500</v>
       </c>
       <c r="G60" s="3">
-        <v>13961500</v>
+        <v>14470300</v>
       </c>
       <c r="H60" s="3">
-        <v>15079300</v>
+        <v>15628800</v>
       </c>
       <c r="I60" s="3">
-        <v>16596200</v>
+        <v>17201000</v>
       </c>
       <c r="J60" s="3">
-        <v>11885200</v>
+        <v>12318300</v>
       </c>
       <c r="K60" s="3">
         <v>10588400</v>
@@ -4514,25 +4514,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9434200</v>
+        <v>9778000</v>
       </c>
       <c r="E61" s="3">
-        <v>9460800</v>
+        <v>9805500</v>
       </c>
       <c r="F61" s="3">
-        <v>10183500</v>
+        <v>10554600</v>
       </c>
       <c r="G61" s="3">
-        <v>9776200</v>
+        <v>10132500</v>
       </c>
       <c r="H61" s="3">
-        <v>9774200</v>
+        <v>10130400</v>
       </c>
       <c r="I61" s="3">
-        <v>10514200</v>
+        <v>10897400</v>
       </c>
       <c r="J61" s="3">
-        <v>10559200</v>
+        <v>10944000</v>
       </c>
       <c r="K61" s="3">
         <v>10215400</v>
@@ -4594,25 +4594,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8715600</v>
+        <v>9033200</v>
       </c>
       <c r="E62" s="3">
-        <v>8300100</v>
+        <v>8602600</v>
       </c>
       <c r="F62" s="3">
-        <v>8516500</v>
+        <v>8826900</v>
       </c>
       <c r="G62" s="3">
-        <v>8725800</v>
+        <v>9043800</v>
       </c>
       <c r="H62" s="3">
-        <v>8975900</v>
+        <v>9303000</v>
       </c>
       <c r="I62" s="3">
-        <v>9309700</v>
+        <v>9649000</v>
       </c>
       <c r="J62" s="3">
-        <v>8859500</v>
+        <v>9182400</v>
       </c>
       <c r="K62" s="3">
         <v>8491900</v>
@@ -4914,25 +4914,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>44125100</v>
+        <v>45733100</v>
       </c>
       <c r="E66" s="3">
-        <v>42861400</v>
+        <v>44423300</v>
       </c>
       <c r="F66" s="3">
-        <v>42786800</v>
+        <v>44346100</v>
       </c>
       <c r="G66" s="3">
-        <v>39089500</v>
+        <v>40514000</v>
       </c>
       <c r="H66" s="3">
-        <v>40295100</v>
+        <v>41763500</v>
       </c>
       <c r="I66" s="3">
-        <v>42640900</v>
+        <v>44194800</v>
       </c>
       <c r="J66" s="3">
-        <v>37757400</v>
+        <v>39133300</v>
       </c>
       <c r="K66" s="3">
         <v>35438600</v>
@@ -5344,25 +5344,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17729300</v>
+        <v>18375300</v>
       </c>
       <c r="E72" s="3">
-        <v>16159300</v>
+        <v>16748100</v>
       </c>
       <c r="F72" s="3">
-        <v>14112600</v>
+        <v>14626900</v>
       </c>
       <c r="G72" s="3">
-        <v>12873300</v>
+        <v>13342400</v>
       </c>
       <c r="H72" s="3">
-        <v>12216900</v>
+        <v>12662100</v>
       </c>
       <c r="I72" s="3">
-        <v>11540100</v>
+        <v>11960700</v>
       </c>
       <c r="J72" s="3">
-        <v>11609600</v>
+        <v>12032600</v>
       </c>
       <c r="K72" s="3">
         <v>10195400</v>
@@ -5664,25 +5664,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20595700</v>
+        <v>21346200</v>
       </c>
       <c r="E76" s="3">
-        <v>19026700</v>
+        <v>19720100</v>
       </c>
       <c r="F76" s="3">
-        <v>16981000</v>
+        <v>17599800</v>
       </c>
       <c r="G76" s="3">
-        <v>15827500</v>
+        <v>16404300</v>
       </c>
       <c r="H76" s="3">
-        <v>15842800</v>
+        <v>16420200</v>
       </c>
       <c r="I76" s="3">
-        <v>15166000</v>
+        <v>15718700</v>
       </c>
       <c r="J76" s="3">
-        <v>15236500</v>
+        <v>15791700</v>
       </c>
       <c r="K76" s="3">
         <v>13704300</v>
@@ -5909,25 +5909,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>850300</v>
+        <v>881300</v>
       </c>
       <c r="E81" s="3">
-        <v>1987500</v>
+        <v>2059900</v>
       </c>
       <c r="F81" s="3">
-        <v>557400</v>
+        <v>577700</v>
       </c>
       <c r="G81" s="3">
-        <v>549200</v>
+        <v>569200</v>
       </c>
       <c r="H81" s="3">
-        <v>284800</v>
+        <v>295200</v>
       </c>
       <c r="I81" s="3">
-        <v>634900</v>
+        <v>658100</v>
       </c>
       <c r="J81" s="3">
-        <v>667600</v>
+        <v>691900</v>
       </c>
       <c r="K81" s="3">
         <v>1875100</v>
@@ -6019,25 +6019,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>685000</v>
+        <v>709900</v>
       </c>
       <c r="E83" s="3">
-        <v>496100</v>
+        <v>514200</v>
       </c>
       <c r="F83" s="3">
-        <v>617600</v>
+        <v>640100</v>
       </c>
       <c r="G83" s="3">
-        <v>1998700</v>
+        <v>2071600</v>
       </c>
       <c r="H83" s="3">
-        <v>708400</v>
+        <v>734300</v>
       </c>
       <c r="I83" s="3">
-        <v>664500</v>
+        <v>688800</v>
       </c>
       <c r="J83" s="3">
-        <v>645100</v>
+        <v>668700</v>
       </c>
       <c r="K83" s="3">
         <v>558500</v>
@@ -6499,25 +6499,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3248200</v>
+        <v>3366600</v>
       </c>
       <c r="E89" s="3">
-        <v>472600</v>
+        <v>489900</v>
       </c>
       <c r="F89" s="3">
-        <v>2730600</v>
+        <v>2830200</v>
       </c>
       <c r="G89" s="3">
-        <v>2840900</v>
+        <v>2944400</v>
       </c>
       <c r="H89" s="3">
-        <v>1641400</v>
+        <v>1701300</v>
       </c>
       <c r="I89" s="3">
-        <v>1594500</v>
+        <v>1652600</v>
       </c>
       <c r="J89" s="3">
-        <v>1086100</v>
+        <v>1125700</v>
       </c>
       <c r="K89" s="3">
         <v>677200</v>
@@ -6609,25 +6609,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-750300</v>
+        <v>-777600</v>
       </c>
       <c r="E91" s="3">
-        <v>-664500</v>
+        <v>-688800</v>
       </c>
       <c r="F91" s="3">
-        <v>-660500</v>
+        <v>-684500</v>
       </c>
       <c r="G91" s="3">
-        <v>-773800</v>
+        <v>-802000</v>
       </c>
       <c r="H91" s="3">
-        <v>-591000</v>
+        <v>-612600</v>
       </c>
       <c r="I91" s="3">
-        <v>-633900</v>
+        <v>-657000</v>
       </c>
       <c r="J91" s="3">
-        <v>-550200</v>
+        <v>-570300</v>
       </c>
       <c r="K91" s="3">
         <v>-562500</v>
@@ -6849,25 +6849,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-913600</v>
+        <v>-946900</v>
       </c>
       <c r="E94" s="3">
-        <v>1046300</v>
+        <v>1084500</v>
       </c>
       <c r="F94" s="3">
-        <v>-1181100</v>
+        <v>-1224100</v>
       </c>
       <c r="G94" s="3">
-        <v>-470600</v>
+        <v>-487700</v>
       </c>
       <c r="H94" s="3">
-        <v>-608400</v>
+        <v>-630600</v>
       </c>
       <c r="I94" s="3">
-        <v>-114300</v>
+        <v>-118500</v>
       </c>
       <c r="J94" s="3">
-        <v>-664500</v>
+        <v>-688800</v>
       </c>
       <c r="K94" s="3">
         <v>-4438400</v>
@@ -6959,7 +6959,7 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-286800</v>
+        <v>-297300</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -6968,10 +6968,10 @@
         <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-85700</v>
+        <v>-88900</v>
       </c>
       <c r="H96" s="3">
-        <v>-33700</v>
+        <v>-34900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1233100</v>
+        <v>-1278100</v>
       </c>
       <c r="E100" s="3">
-        <v>-974900</v>
+        <v>-1010400</v>
       </c>
       <c r="F100" s="3">
-        <v>-495100</v>
+        <v>-513100</v>
       </c>
       <c r="G100" s="3">
-        <v>-1349500</v>
+        <v>-1398700</v>
       </c>
       <c r="H100" s="3">
-        <v>-63300</v>
+        <v>-65600</v>
       </c>
       <c r="I100" s="3">
-        <v>-1822100</v>
+        <v>-1888500</v>
       </c>
       <c r="J100" s="3">
-        <v>196000</v>
+        <v>203100</v>
       </c>
       <c r="K100" s="3">
         <v>-687200</v>
@@ -7359,25 +7359,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="E101" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="F101" s="3">
-        <v>-64300</v>
+        <v>-66700</v>
       </c>
       <c r="G101" s="3">
-        <v>-10200</v>
+        <v>-10600</v>
       </c>
       <c r="H101" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="I101" s="3">
-        <v>-2000</v>
+        <v>-2100</v>
       </c>
       <c r="J101" s="3">
-        <v>-9200</v>
+        <v>-9500</v>
       </c>
       <c r="K101" s="3">
         <v>-5000</v>
@@ -7439,25 +7439,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1106500</v>
+        <v>1146900</v>
       </c>
       <c r="E102" s="3">
-        <v>547100</v>
+        <v>567100</v>
       </c>
       <c r="F102" s="3">
-        <v>990200</v>
+        <v>1026300</v>
       </c>
       <c r="G102" s="3">
-        <v>1010600</v>
+        <v>1047400</v>
       </c>
       <c r="H102" s="3">
-        <v>965700</v>
+        <v>1000900</v>
       </c>
       <c r="I102" s="3">
-        <v>-344000</v>
+        <v>-356500</v>
       </c>
       <c r="J102" s="3">
-        <v>608400</v>
+        <v>630600</v>
       </c>
       <c r="K102" s="3">
         <v>-4453400</v>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,359 +665,384 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>18165900</v>
+        <v>11807100</v>
       </c>
       <c r="E8" s="3">
-        <v>15651000</v>
+        <v>15622600</v>
       </c>
       <c r="F8" s="3">
-        <v>16746000</v>
+        <v>18490400</v>
       </c>
       <c r="G8" s="3">
-        <v>14123200</v>
+        <v>15930600</v>
       </c>
       <c r="H8" s="3">
-        <v>9004600</v>
+        <v>17045200</v>
       </c>
       <c r="I8" s="3">
+        <v>14375500</v>
+      </c>
+      <c r="J8" s="3">
+        <v>9165500</v>
+      </c>
+      <c r="K8" s="3">
         <v>7687400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>6801900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4943100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3836100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>3423300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5192700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>7090800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>7287500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>7099600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>6463100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>7854500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>6210300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>6265200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5464700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>5504500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>5212800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>5780500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>6191100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>6346800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>12565900</v>
+        <v>8674400</v>
       </c>
       <c r="E9" s="3">
-        <v>11306800</v>
+        <v>12039700</v>
       </c>
       <c r="F9" s="3">
-        <v>10681600</v>
+        <v>12790300</v>
       </c>
       <c r="G9" s="3">
-        <v>9337900</v>
+        <v>11508800</v>
       </c>
       <c r="H9" s="3">
-        <v>6463300</v>
+        <v>10872400</v>
       </c>
       <c r="I9" s="3">
+        <v>9504700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6578800</v>
+      </c>
+      <c r="K9" s="3">
         <v>5091100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4397000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>3634500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2510700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2211300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>3708000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>4687200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>4695400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>4537400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>4302700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>5203600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>4239900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>4662100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>3530100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>3775500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>3518600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>4149100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>4238900</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>6463000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>5600000</v>
+        <v>3132700</v>
       </c>
       <c r="E10" s="3">
-        <v>4344100</v>
+        <v>3582800</v>
       </c>
       <c r="F10" s="3">
-        <v>6064500</v>
+        <v>5700000</v>
       </c>
       <c r="G10" s="3">
-        <v>4785300</v>
+        <v>4421800</v>
       </c>
       <c r="H10" s="3">
-        <v>2541300</v>
+        <v>6172800</v>
       </c>
       <c r="I10" s="3">
+        <v>4870800</v>
+      </c>
+      <c r="J10" s="3">
+        <v>2586700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2596300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>2404800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>1308600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>1325400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>1212000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1484700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2403700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2592100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2562200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2160300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2650900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>1970400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>1603100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>1934700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>1729000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>1694200</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>1631400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>1952300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-116200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,88 +1071,96 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>59200</v>
+        <v>46300</v>
       </c>
       <c r="E12" s="3">
-        <v>82500</v>
+        <v>114200</v>
       </c>
       <c r="F12" s="3">
-        <v>10600</v>
+        <v>60300</v>
       </c>
       <c r="G12" s="3">
-        <v>160800</v>
+        <v>84000</v>
       </c>
       <c r="H12" s="3">
+        <v>10800</v>
+      </c>
+      <c r="I12" s="3">
+        <v>163700</v>
+      </c>
+      <c r="J12" s="3">
+        <v>48500</v>
+      </c>
+      <c r="K12" s="3">
         <v>47600</v>
       </c>
-      <c r="I12" s="3">
-        <v>47600</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>40200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>43900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>674600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>90500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>129800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>85200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>46500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>83500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>55000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>71000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>27700</v>
       </c>
-      <c r="U12" s="3">
+      <c r="W12" s="3">
         <v>58200</v>
       </c>
-      <c r="V12" s="3">
+      <c r="X12" s="3">
         <v>40600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>107700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>39300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>65100</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>35900</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>83300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,25 +1239,31 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>6300</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
-        <v>-167200</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>1071800</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>10</v>
+        <v>6500</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-170200</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1090900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>10</v>
@@ -1235,14 +1274,14 @@
       <c r="K14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>10</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>10</v>
@@ -1256,118 +1295,130 @@
       <c r="R14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U14" s="3">
         <v>-158500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>165000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-68100</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>-3400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>1362100</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>-153700</v>
       </c>
-      <c r="AA14" s="3" t="s">
+      <c r="AC14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB14" s="3" t="s">
+      <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>666500</v>
+        <v>656900</v>
       </c>
       <c r="E15" s="3">
-        <v>177700</v>
+        <v>889500</v>
       </c>
       <c r="F15" s="3">
-        <v>628500</v>
+        <v>678400</v>
       </c>
       <c r="G15" s="3">
-        <v>1954100</v>
+        <v>180900</v>
       </c>
       <c r="H15" s="3">
-        <v>708900</v>
+        <v>639700</v>
       </c>
       <c r="I15" s="3">
+        <v>1989000</v>
+      </c>
+      <c r="J15" s="3">
+        <v>721500</v>
+      </c>
+      <c r="K15" s="3">
         <v>654900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>649600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>342100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>986000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>536700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>690500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>728500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>719100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>677600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>656700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>553600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>495100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="W15" s="3">
         <v>516100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="X15" s="3">
         <v>486400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="Y15" s="3">
         <v>511600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Z15" s="3">
         <v>538600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="AA15" s="3">
         <v>518400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AB15" s="3">
         <v>509400</v>
       </c>
-      <c r="AA15" s="3" t="s">
+      <c r="AC15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AB15" s="3" t="s">
+      <c r="AD15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1444,182 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>14611000</v>
+        <v>10416900</v>
       </c>
       <c r="E17" s="3">
-        <v>12135300</v>
+        <v>13744500</v>
       </c>
       <c r="F17" s="3">
-        <v>14687200</v>
+        <v>14872000</v>
       </c>
       <c r="G17" s="3">
-        <v>12547900</v>
+        <v>12352000</v>
       </c>
       <c r="H17" s="3">
-        <v>8040800</v>
+        <v>14949500</v>
       </c>
       <c r="I17" s="3">
+        <v>12772000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>8184400</v>
+      </c>
+      <c r="K17" s="3">
         <v>6549000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5756600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3494900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4510700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>3330500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5054200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6229300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>6264600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5986700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5652000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>6430200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>5483700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>5738100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4596200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4899700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4581100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>6672500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>5163400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>6659000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3554900</v>
+        <v>1390300</v>
       </c>
       <c r="E18" s="3">
-        <v>3515700</v>
+        <v>1878100</v>
       </c>
       <c r="F18" s="3">
-        <v>2058900</v>
+        <v>3618400</v>
       </c>
       <c r="G18" s="3">
-        <v>1575400</v>
+        <v>3578500</v>
       </c>
       <c r="H18" s="3">
-        <v>963800</v>
+        <v>2095600</v>
       </c>
       <c r="I18" s="3">
+        <v>1603500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>981100</v>
+      </c>
+      <c r="K18" s="3">
         <v>1138400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1045300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1448200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-674600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>92700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>138500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>861500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>1022900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>1112900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>811000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>1424200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>726600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>527000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>868500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>604800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>631700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-892000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>1027700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-312200</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,408 +1648,440 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>60300</v>
+        <v>198100</v>
       </c>
       <c r="E20" s="3">
-        <v>476100</v>
+        <v>32300</v>
       </c>
       <c r="F20" s="3">
-        <v>285700</v>
+        <v>61400</v>
       </c>
       <c r="G20" s="3">
-        <v>136500</v>
+        <v>484600</v>
       </c>
       <c r="H20" s="3">
-        <v>214800</v>
+        <v>290800</v>
       </c>
       <c r="I20" s="3">
+        <v>138900</v>
+      </c>
+      <c r="J20" s="3">
+        <v>218600</v>
+      </c>
+      <c r="K20" s="3">
         <v>219000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>212700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>84800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>57100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>52400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-51300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>131900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>144500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>227000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>161500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>88700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>154000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>176800</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>90000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>25800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>225500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>113300</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>149200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>118600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>4325100</v>
+        <v>2278700</v>
       </c>
       <c r="E21" s="3">
-        <v>4506000</v>
+        <v>2885000</v>
       </c>
       <c r="F21" s="3">
-        <v>2984600</v>
+        <v>4402400</v>
       </c>
       <c r="G21" s="3">
-        <v>3783400</v>
+        <v>4586500</v>
       </c>
       <c r="H21" s="3">
-        <v>1912900</v>
+        <v>3037900</v>
       </c>
       <c r="I21" s="3">
+        <v>3851000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1947000</v>
+      </c>
+      <c r="K21" s="3">
         <v>2046200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1926600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>2091500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>816800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>738500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>862900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>1752300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>1906100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>2063400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1644800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>2102000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>1385600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1233100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1452700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>1227500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>1405900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-194100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1677400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>1205500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>109000</v>
+        <v>109800</v>
       </c>
       <c r="E22" s="3">
-        <v>117400</v>
+        <v>115200</v>
       </c>
       <c r="F22" s="3">
-        <v>100500</v>
+        <v>110900</v>
       </c>
       <c r="G22" s="3">
-        <v>87800</v>
+        <v>119500</v>
       </c>
       <c r="H22" s="3">
-        <v>103700</v>
+        <v>102300</v>
       </c>
       <c r="I22" s="3">
+        <v>89400</v>
+      </c>
+      <c r="J22" s="3">
+        <v>105500</v>
+      </c>
+      <c r="K22" s="3">
         <v>80400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>81500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>70800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>73700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>68700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>81800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>85200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>95500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>90600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>89700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>82800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>77500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>94400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>70300</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="Y22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>80800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="AA22" s="3">
         <v>69600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AB22" s="3">
         <v>68400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AC22" s="3">
         <v>74000</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AD22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3506200</v>
+        <v>1478600</v>
       </c>
       <c r="E23" s="3">
-        <v>3874400</v>
+        <v>1795200</v>
       </c>
       <c r="F23" s="3">
-        <v>2244000</v>
+        <v>3568800</v>
       </c>
       <c r="G23" s="3">
-        <v>1624000</v>
+        <v>3943600</v>
       </c>
       <c r="H23" s="3">
-        <v>1074900</v>
+        <v>2284100</v>
       </c>
       <c r="I23" s="3">
+        <v>1653000</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1094100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1277000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1176500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1462200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-691200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>76400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>5500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>908200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>1071900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>1249300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>882800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>1430100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>803000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>609400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>888300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>630600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>776400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-848200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>1108500</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-267600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>2068400</v>
+        <v>841100</v>
       </c>
       <c r="E24" s="3">
-        <v>1216700</v>
+        <v>1313800</v>
       </c>
       <c r="F24" s="3">
-        <v>1338400</v>
+        <v>2105300</v>
       </c>
       <c r="G24" s="3">
-        <v>907800</v>
+        <v>1238400</v>
       </c>
       <c r="H24" s="3">
-        <v>562900</v>
+        <v>1362300</v>
       </c>
       <c r="I24" s="3">
+        <v>924000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>572900</v>
+      </c>
+      <c r="K24" s="3">
         <v>422100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>293100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-478800</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-216900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>14200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>79600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>373600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>416500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>475300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>289500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>492100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>366600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>306300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>305200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>159300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>166100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>193000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>193000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>120900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AD24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1437800</v>
+        <v>637500</v>
       </c>
       <c r="E26" s="3">
-        <v>2657700</v>
+        <v>481400</v>
       </c>
       <c r="F26" s="3">
-        <v>905600</v>
+        <v>1463500</v>
       </c>
       <c r="G26" s="3">
-        <v>716300</v>
+        <v>2705200</v>
       </c>
       <c r="H26" s="3">
-        <v>512100</v>
+        <v>921800</v>
       </c>
       <c r="I26" s="3">
+        <v>729100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>521200</v>
+      </c>
+      <c r="K26" s="3">
         <v>854900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>883400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1940900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-474300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>62200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-74200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>534700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>655400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>774100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>593300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>938000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>436400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>303000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>583000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>471200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>610400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>915500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-388500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>881300</v>
+        <v>420000</v>
       </c>
       <c r="E27" s="3">
-        <v>2059900</v>
+        <v>331700</v>
       </c>
       <c r="F27" s="3">
-        <v>577700</v>
+        <v>897100</v>
       </c>
       <c r="G27" s="3">
-        <v>569200</v>
+        <v>2096700</v>
       </c>
       <c r="H27" s="3">
-        <v>295200</v>
+        <v>588000</v>
       </c>
       <c r="I27" s="3">
+        <v>579400</v>
+      </c>
+      <c r="J27" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K27" s="3">
         <v>658100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>691900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1875100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-505500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>26200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-173500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>414400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>520600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>638800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>423500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>719200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>244800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>222900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>445800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>348900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>491400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>798900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-442500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2676,186 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-60300</v>
+        <v>-198100</v>
       </c>
       <c r="E32" s="3">
-        <v>-476100</v>
+        <v>-32300</v>
       </c>
       <c r="F32" s="3">
-        <v>-285700</v>
+        <v>-61400</v>
       </c>
       <c r="G32" s="3">
-        <v>-136500</v>
+        <v>-484600</v>
       </c>
       <c r="H32" s="3">
-        <v>-214800</v>
+        <v>-290800</v>
       </c>
       <c r="I32" s="3">
+        <v>-138900</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-218600</v>
+      </c>
+      <c r="K32" s="3">
         <v>-219000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-212700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-84800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-57100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-52400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>51300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-131900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-144500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-227000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-161500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-88700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-154000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-176800</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-90000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-25800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>-225500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>-113300</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>-149200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>-118600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>881300</v>
+        <v>420000</v>
       </c>
       <c r="E33" s="3">
-        <v>2059900</v>
+        <v>331700</v>
       </c>
       <c r="F33" s="3">
-        <v>577700</v>
+        <v>897100</v>
       </c>
       <c r="G33" s="3">
-        <v>569200</v>
+        <v>2096700</v>
       </c>
       <c r="H33" s="3">
-        <v>295200</v>
+        <v>588000</v>
       </c>
       <c r="I33" s="3">
+        <v>579400</v>
+      </c>
+      <c r="J33" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K33" s="3">
         <v>658100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>691900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1875100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-505500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>26200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-173500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>414400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>520600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>638800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>423500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>719200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>244800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>222900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>445800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>348900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>491400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>798900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-442500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>881300</v>
+        <v>420000</v>
       </c>
       <c r="E35" s="3">
-        <v>2059900</v>
+        <v>331700</v>
       </c>
       <c r="F35" s="3">
-        <v>577700</v>
+        <v>897100</v>
       </c>
       <c r="G35" s="3">
-        <v>569200</v>
+        <v>2096700</v>
       </c>
       <c r="H35" s="3">
-        <v>295200</v>
+        <v>588000</v>
       </c>
       <c r="I35" s="3">
+        <v>579400</v>
+      </c>
+      <c r="J35" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K35" s="3">
         <v>658100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>691900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1875100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-505500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>26200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-173500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>414400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>520600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>638800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>423500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>719200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>244800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>222900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>445800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>348900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>491400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>798900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-442500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,728 +3179,784 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>8049300</v>
+        <v>10187500</v>
       </c>
       <c r="E41" s="3">
-        <v>6921400</v>
+        <v>8712100</v>
       </c>
       <c r="F41" s="3">
-        <v>6369200</v>
+        <v>8193100</v>
       </c>
       <c r="G41" s="3">
-        <v>5342900</v>
+        <v>7045100</v>
       </c>
       <c r="H41" s="3">
-        <v>4296500</v>
+        <v>6482900</v>
       </c>
       <c r="I41" s="3">
+        <v>5438300</v>
+      </c>
+      <c r="J41" s="3">
+        <v>4373300</v>
+      </c>
+      <c r="K41" s="3">
         <v>3271300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>3625800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>2846600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7608800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>6360000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>3020700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>3421700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>3867300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>4342100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>4382900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>4762400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3780200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3213800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4718100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>4456500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>5209400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>4715700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>3504000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>2428600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>7902200</v>
+        <v>2173200</v>
       </c>
       <c r="E42" s="3">
-        <v>8167800</v>
+        <v>4231100</v>
       </c>
       <c r="F42" s="3">
-        <v>7783700</v>
+        <v>8043400</v>
       </c>
       <c r="G42" s="3">
-        <v>5446600</v>
+        <v>8313700</v>
       </c>
       <c r="H42" s="3">
-        <v>6573400</v>
+        <v>7922800</v>
       </c>
       <c r="I42" s="3">
+        <v>5543900</v>
+      </c>
+      <c r="J42" s="3">
+        <v>6690800</v>
+      </c>
+      <c r="K42" s="3">
         <v>9531500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>3779200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>3010200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>3291200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>5491600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>6987300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>3643500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>2736600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>3435100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>2978500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>3225800</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>4229900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>2617600</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>1327500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>1279100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>1220700</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>905400</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AB42" s="3">
         <v>821300</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AC42" s="3">
         <v>1461400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>6094100</v>
+        <v>4294700</v>
       </c>
       <c r="E43" s="3">
-        <v>5602100</v>
+        <v>4651100</v>
       </c>
       <c r="F43" s="3">
-        <v>5698400</v>
+        <v>6202900</v>
       </c>
       <c r="G43" s="3">
-        <v>4893300</v>
+        <v>5702200</v>
       </c>
       <c r="H43" s="3">
-        <v>3727300</v>
+        <v>5800200</v>
       </c>
       <c r="I43" s="3">
+        <v>4980700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>3793900</v>
+      </c>
+      <c r="K43" s="3">
         <v>4157900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>4349400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>3343300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>1941900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1843600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2862500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3564100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>3807300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3585700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>4357800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>4056200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>3196500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2945900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>3542100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2825200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2287700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>2318000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>2921700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>2924000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AD43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>5630700</v>
+        <v>4338800</v>
       </c>
       <c r="E44" s="3">
-        <v>5434900</v>
+        <v>5205700</v>
       </c>
       <c r="F44" s="3">
-        <v>4138900</v>
+        <v>5731300</v>
       </c>
       <c r="G44" s="3">
-        <v>3332700</v>
+        <v>5532000</v>
       </c>
       <c r="H44" s="3">
-        <v>3188800</v>
+        <v>4212800</v>
       </c>
       <c r="I44" s="3">
+        <v>3392200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>3245800</v>
+      </c>
+      <c r="K44" s="3">
         <v>2706400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>2507500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>2345900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>1541300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1538200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>1572000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>2153900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>2370400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1909300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>2075400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>1858300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>1845300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1639300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>1486700</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>1686400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1729000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1495600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>1647100</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>1952000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1000900</v>
+        <v>1029500</v>
       </c>
       <c r="E45" s="3">
-        <v>782900</v>
+        <v>1289000</v>
       </c>
       <c r="F45" s="3">
-        <v>746900</v>
+        <v>1018700</v>
       </c>
       <c r="G45" s="3">
-        <v>658100</v>
+        <v>796900</v>
       </c>
       <c r="H45" s="3">
-        <v>516300</v>
+        <v>760300</v>
       </c>
       <c r="I45" s="3">
+        <v>669800</v>
+      </c>
+      <c r="J45" s="3">
+        <v>525500</v>
+      </c>
+      <c r="K45" s="3">
         <v>431700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>538500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>534600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>273000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>293500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>370900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>347900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>286600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>294100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>330200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>312300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>418700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>424900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>362300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>297300</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>269300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>286100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>280500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>232400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>28677100</v>
+        <v>22023700</v>
       </c>
       <c r="E46" s="3">
-        <v>26909200</v>
+        <v>24089200</v>
       </c>
       <c r="F46" s="3">
-        <v>24737100</v>
+        <v>29189400</v>
       </c>
       <c r="G46" s="3">
-        <v>19673500</v>
+        <v>27389900</v>
       </c>
       <c r="H46" s="3">
-        <v>18302300</v>
+        <v>25179000</v>
       </c>
       <c r="I46" s="3">
+        <v>20025000</v>
+      </c>
+      <c r="J46" s="3">
+        <v>18629300</v>
+      </c>
+      <c r="K46" s="3">
         <v>20098800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>14800400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>12080500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>14656200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>15526900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>14813500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>13131000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>13068200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>13566200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>14124700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>14214900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>13470600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>10841700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>11436800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>10544500</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>10716100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>9720900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>9174500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>8998400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>12028400</v>
+        <v>9478900</v>
       </c>
       <c r="E47" s="3">
-        <v>11256100</v>
+        <v>10007600</v>
       </c>
       <c r="F47" s="3">
-        <v>11480400</v>
+        <v>12243300</v>
       </c>
       <c r="G47" s="3">
-        <v>11232800</v>
+        <v>11457100</v>
       </c>
       <c r="H47" s="3">
-        <v>13723300</v>
+        <v>11685400</v>
       </c>
       <c r="I47" s="3">
+        <v>11433400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>13968500</v>
+      </c>
+      <c r="K47" s="3">
         <v>13733900</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>13026100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>11737400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>7767600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>8480700</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>8646600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>8831500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>9770500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>6566700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>6554000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>6707000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>5998800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>5680000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3">
         <v>5236400</v>
       </c>
-      <c r="W47" s="3">
+      <c r="Y47" s="3">
         <v>5466300</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Z47" s="3">
         <v>4431900</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="AA47" s="3">
         <v>4404900</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AB47" s="3">
         <v>4145800</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AC47" s="3">
         <v>4468700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AD47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20327400</v>
+        <v>20889700</v>
       </c>
       <c r="E48" s="3">
-        <v>20173900</v>
+        <v>20802500</v>
       </c>
       <c r="F48" s="3">
-        <v>19881900</v>
+        <v>20690500</v>
       </c>
       <c r="G48" s="3">
-        <v>19646000</v>
+        <v>20534300</v>
       </c>
       <c r="H48" s="3">
-        <v>19381500</v>
+        <v>20237100</v>
       </c>
       <c r="I48" s="3">
+        <v>19997000</v>
+      </c>
+      <c r="J48" s="3">
+        <v>19727700</v>
+      </c>
+      <c r="K48" s="3">
         <v>19286300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>19232300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>19153100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>14920900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>16464000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>16726900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>19237700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>20358100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>19369400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>19616500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>17879500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>15679200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>15670700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>14865800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>15319700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>15457700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>15748300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>16063500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>17152900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2828000</v>
+        <v>2788100</v>
       </c>
       <c r="E49" s="3">
-        <v>2742300</v>
+        <v>2703000</v>
       </c>
       <c r="F49" s="3">
-        <v>2721200</v>
+        <v>2878600</v>
       </c>
       <c r="G49" s="3">
-        <v>3344300</v>
+        <v>2791300</v>
       </c>
       <c r="H49" s="3">
-        <v>3548500</v>
+        <v>2769800</v>
       </c>
       <c r="I49" s="3">
+        <v>3404100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3611900</v>
+      </c>
+      <c r="K49" s="3">
         <v>3541100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>3695600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3434000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3190500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>4212000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>4215300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>4859900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>5203800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>4843200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>5048000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3923700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>3202100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>3188600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>2882300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>2971000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Z49" s="3">
         <v>1852400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>1867000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AB49" s="3">
         <v>1934300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AC49" s="3">
         <v>2010700</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AD49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,88 +4121,100 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3218400</v>
+        <v>3384700</v>
       </c>
       <c r="E52" s="3">
-        <v>3061900</v>
+        <v>3166100</v>
       </c>
       <c r="F52" s="3">
-        <v>3125300</v>
+        <v>3275900</v>
       </c>
       <c r="G52" s="3">
-        <v>3021600</v>
+        <v>3116500</v>
       </c>
       <c r="H52" s="3">
-        <v>3228000</v>
+        <v>3181200</v>
       </c>
       <c r="I52" s="3">
+        <v>3075600</v>
+      </c>
+      <c r="J52" s="3">
+        <v>3285600</v>
+      </c>
+      <c r="K52" s="3">
         <v>3253400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>4170600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>2737900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>2099700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>2086900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>1795600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>1074000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>977500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>905800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>958200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>996000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1256000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1408700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1115600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1126500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>935700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1169100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>3635200</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>5062600</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>67079300</v>
+        <v>58565100</v>
       </c>
       <c r="E54" s="3">
-        <v>64143400</v>
+        <v>60768400</v>
       </c>
       <c r="F54" s="3">
-        <v>61945900</v>
+        <v>68277600</v>
       </c>
       <c r="G54" s="3">
-        <v>56918300</v>
+        <v>65289200</v>
       </c>
       <c r="H54" s="3">
-        <v>58183700</v>
+        <v>63052500</v>
       </c>
       <c r="I54" s="3">
+        <v>57935100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>59223000</v>
+      </c>
+      <c r="K54" s="3">
         <v>59913500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>54925000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>49142900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>42634900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>46770600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>46197900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>47134200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>49378100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>45251400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>46301300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>43721200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>39606700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>36789600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>35536800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>35428000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>33393800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>32910200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>34953400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>37693400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,488 +4447,526 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6377600</v>
+        <v>4437900</v>
       </c>
       <c r="E57" s="3">
-        <v>5825300</v>
+        <v>5663400</v>
       </c>
       <c r="F57" s="3">
-        <v>5904700</v>
+        <v>6491600</v>
       </c>
       <c r="G57" s="3">
-        <v>5141900</v>
+        <v>5929400</v>
       </c>
       <c r="H57" s="3">
-        <v>3963300</v>
+        <v>6010200</v>
       </c>
       <c r="I57" s="3">
+        <v>5233700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4034100</v>
+      </c>
+      <c r="K57" s="3">
         <v>4424600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4777900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>4292800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2667400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2607300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>3769100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4850600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4789700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4173900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5197500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5205900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4101400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>3877000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>3910000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>3659900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>3268400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>3028300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>3460200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>4379500</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1087600</v>
+        <v>1668100</v>
       </c>
       <c r="E58" s="3">
-        <v>1996400</v>
+        <v>1694000</v>
       </c>
       <c r="F58" s="3">
-        <v>1158500</v>
+        <v>1107100</v>
       </c>
       <c r="G58" s="3">
-        <v>1350000</v>
+        <v>2032100</v>
       </c>
       <c r="H58" s="3">
-        <v>1819800</v>
+        <v>1179200</v>
       </c>
       <c r="I58" s="3">
+        <v>1374100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1852300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1045300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1936100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1689600</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>855200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>916400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>613100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>943300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1768900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1664600</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1934300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>997200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>965800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>1001400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>1902800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>1012000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>274900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>218800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>190700</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>305200</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11477200</v>
+        <v>6465700</v>
       </c>
       <c r="E59" s="3">
-        <v>10616000</v>
+        <v>7252900</v>
       </c>
       <c r="F59" s="3">
-        <v>10840300</v>
+        <v>11682200</v>
       </c>
       <c r="G59" s="3">
-        <v>7978400</v>
+        <v>10805600</v>
       </c>
       <c r="H59" s="3">
-        <v>9845700</v>
+        <v>11033900</v>
       </c>
       <c r="I59" s="3">
+        <v>8120900</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10021600</v>
+      </c>
+      <c r="K59" s="3">
         <v>11731100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5604200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>4606000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5440700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6826900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>8336700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>5174000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>4881600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>5518500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5219000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>5247300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>6182600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>4643400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>3090900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>2986700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>2753400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2555900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>2606400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>3211500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18942400</v>
+        <v>12571700</v>
       </c>
       <c r="E60" s="3">
-        <v>18437800</v>
+        <v>14610300</v>
       </c>
       <c r="F60" s="3">
-        <v>17903500</v>
+        <v>19280800</v>
       </c>
       <c r="G60" s="3">
-        <v>14470300</v>
+        <v>18767100</v>
       </c>
       <c r="H60" s="3">
-        <v>15628800</v>
+        <v>18223300</v>
       </c>
       <c r="I60" s="3">
+        <v>14728800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>15908000</v>
+      </c>
+      <c r="K60" s="3">
         <v>17201000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>12318300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>10588400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>8963300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>10350600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12718900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10967800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>11440200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>11357000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>12350800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>11450500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>11249900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>9521900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>8903700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7658700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>6296600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>5802900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>6257300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>7896200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9778000</v>
+        <v>9424000</v>
       </c>
       <c r="E61" s="3">
-        <v>9805500</v>
+        <v>9380900</v>
       </c>
       <c r="F61" s="3">
-        <v>10554600</v>
+        <v>9952700</v>
       </c>
       <c r="G61" s="3">
-        <v>10132500</v>
+        <v>9980700</v>
       </c>
       <c r="H61" s="3">
-        <v>10130400</v>
+        <v>10743200</v>
       </c>
       <c r="I61" s="3">
+        <v>10313500</v>
+      </c>
+      <c r="J61" s="3">
+        <v>10311300</v>
+      </c>
+      <c r="K61" s="3">
         <v>10897400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>10944000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>10215400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>9427200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>9955600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>6896700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>7957100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>8107000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>6550200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>6260900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>5806900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>5052900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>5035400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>5017900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>5375500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>5134200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>5244200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>5276700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>5869100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AD61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9033200</v>
+        <v>7794600</v>
       </c>
       <c r="E62" s="3">
-        <v>8602600</v>
+        <v>8101500</v>
       </c>
       <c r="F62" s="3">
-        <v>8826900</v>
+        <v>9194600</v>
       </c>
       <c r="G62" s="3">
-        <v>9043800</v>
+        <v>8756300</v>
       </c>
       <c r="H62" s="3">
-        <v>9303000</v>
+        <v>8984600</v>
       </c>
       <c r="I62" s="3">
+        <v>9205300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9469200</v>
+      </c>
+      <c r="K62" s="3">
         <v>9649000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>9182400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>8491900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>7635800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>8515600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>8213500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>8523300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>9412800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>8512400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>8335100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>8315800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>6928000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>6508900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>6244300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>6311200</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>5978000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>6342600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>7216600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>7582800</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AD62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>45733100</v>
+        <v>37911200</v>
       </c>
       <c r="E66" s="3">
-        <v>44423300</v>
+        <v>40145800</v>
       </c>
       <c r="F66" s="3">
-        <v>44346100</v>
+        <v>46550100</v>
       </c>
       <c r="G66" s="3">
-        <v>40514000</v>
+        <v>45216900</v>
       </c>
       <c r="H66" s="3">
-        <v>41763500</v>
+        <v>45138300</v>
       </c>
       <c r="I66" s="3">
+        <v>41237700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>42509600</v>
+      </c>
+      <c r="K66" s="3">
         <v>44194800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>39133300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>35438600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>29841700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>32870200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>32113100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>31943800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>33628400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>30806400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>31501900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>29637600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>26852700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>24489800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>23702500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>22843700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>20852200</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>20777000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>22206400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>24881300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>18375300</v>
+        <v>17629900</v>
       </c>
       <c r="E72" s="3">
-        <v>16748100</v>
+        <v>17869000</v>
       </c>
       <c r="F72" s="3">
-        <v>14626900</v>
+        <v>18703600</v>
       </c>
       <c r="G72" s="3">
-        <v>13342400</v>
+        <v>17047300</v>
       </c>
       <c r="H72" s="3">
-        <v>12662100</v>
+        <v>14888100</v>
       </c>
       <c r="I72" s="3">
+        <v>13580800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>12888300</v>
+      </c>
+      <c r="K72" s="3">
         <v>11960700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>12032600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>10195400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>9106500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>11379300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>11564700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>12445800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>12920000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>11727500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>12038600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>11306200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>10196600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>9765600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>9846900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>9714200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>9680500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>9272100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>9885900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>9820100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>21346200</v>
+        <v>20653900</v>
       </c>
       <c r="E76" s="3">
-        <v>19720100</v>
+        <v>20622600</v>
       </c>
       <c r="F76" s="3">
-        <v>17599800</v>
+        <v>21727500</v>
       </c>
       <c r="G76" s="3">
-        <v>16404300</v>
+        <v>20072300</v>
       </c>
       <c r="H76" s="3">
-        <v>16420200</v>
+        <v>17914200</v>
       </c>
       <c r="I76" s="3">
+        <v>16697300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>16713500</v>
+      </c>
+      <c r="K76" s="3">
         <v>15718700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>15791700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13704300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>12793200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13900400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>14084700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>15190300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>15749700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>14445000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>14799400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>14083600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12754000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>12299800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>11834200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>12584200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>12541600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>12133200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>12746900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>12812100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>881300</v>
+        <v>420000</v>
       </c>
       <c r="E81" s="3">
-        <v>2059900</v>
+        <v>331700</v>
       </c>
       <c r="F81" s="3">
-        <v>577700</v>
+        <v>897100</v>
       </c>
       <c r="G81" s="3">
-        <v>569200</v>
+        <v>2096700</v>
       </c>
       <c r="H81" s="3">
-        <v>295200</v>
+        <v>588000</v>
       </c>
       <c r="I81" s="3">
+        <v>579400</v>
+      </c>
+      <c r="J81" s="3">
+        <v>300500</v>
+      </c>
+      <c r="K81" s="3">
         <v>658100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>691900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1875100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-505500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>26200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-173500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>414400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>520600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>638800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>423500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>719200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>244800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>222900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>445800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>348900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>491400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>798900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-442500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,88 +6408,96 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>709900</v>
+        <v>690300</v>
       </c>
       <c r="E83" s="3">
-        <v>514200</v>
+        <v>974600</v>
       </c>
       <c r="F83" s="3">
-        <v>640100</v>
+        <v>722600</v>
       </c>
       <c r="G83" s="3">
-        <v>2071600</v>
+        <v>523400</v>
       </c>
       <c r="H83" s="3">
-        <v>734300</v>
+        <v>651500</v>
       </c>
       <c r="I83" s="3">
+        <v>2108600</v>
+      </c>
+      <c r="J83" s="3">
+        <v>747400</v>
+      </c>
+      <c r="K83" s="3">
         <v>688800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>668700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>558500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>1434400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>593500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>775600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>758800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>738700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>723500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>672300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>589100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>505100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>529200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>494100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>596900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>548700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>584600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>500400</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>1533000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AD83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>3366600</v>
+        <v>2892600</v>
       </c>
       <c r="E89" s="3">
-        <v>489900</v>
+        <v>1548600</v>
       </c>
       <c r="F89" s="3">
-        <v>2830200</v>
+        <v>3426700</v>
       </c>
       <c r="G89" s="3">
-        <v>2944400</v>
+        <v>498600</v>
       </c>
       <c r="H89" s="3">
-        <v>1701300</v>
+        <v>2880700</v>
       </c>
       <c r="I89" s="3">
+        <v>2997000</v>
+      </c>
+      <c r="J89" s="3">
+        <v>1731700</v>
+      </c>
+      <c r="K89" s="3">
         <v>1652600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1125700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>677200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>822000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>592400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>1225100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>1145200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>1316900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>1334000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>1035900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>1318900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>1075500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>1353800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>1181400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>832500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>888600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>1110800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>1036700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>718400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +7042,96 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-777600</v>
+        <v>-858000</v>
       </c>
       <c r="E91" s="3">
-        <v>-688800</v>
+        <v>-910000</v>
       </c>
       <c r="F91" s="3">
-        <v>-684500</v>
+        <v>-735000</v>
       </c>
       <c r="G91" s="3">
-        <v>-802000</v>
+        <v>-651000</v>
       </c>
       <c r="H91" s="3">
-        <v>-612600</v>
+        <v>-647000</v>
       </c>
       <c r="I91" s="3">
+        <v>-758000</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-579000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-657000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-570300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-562500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-402700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-462500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-637100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-706300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-665200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-578800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-619600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-671900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-547200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-473200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-571100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-356800</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-373600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-478000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AD91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7296,100 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-946900</v>
+        <v>-1059700</v>
       </c>
       <c r="E94" s="3">
-        <v>1084500</v>
+        <v>-1011200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1224100</v>
+        <v>-963800</v>
       </c>
       <c r="G94" s="3">
-        <v>-487700</v>
+        <v>1103800</v>
       </c>
       <c r="H94" s="3">
-        <v>-630600</v>
+        <v>-1246000</v>
       </c>
       <c r="I94" s="3">
+        <v>-496500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-641800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-118500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-688800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-4438400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-440100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-472400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-699300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-744800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-3178800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-488200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-1184200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-886000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-495100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-590700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-352300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>379200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>445400</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-206600</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,88 +7418,96 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-297300</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>607400</v>
       </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-302600</v>
       </c>
       <c r="G96" s="3">
-        <v>-88900</v>
+        <v>0</v>
       </c>
       <c r="H96" s="3">
-        <v>-34900</v>
+        <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-90500</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-35500</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-451800</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-240000</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>115600</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-908200</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>85200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>-760900</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
-      <c r="W96" s="3">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>59500</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-653000</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-99800</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,244 +7758,268 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1278100</v>
+        <v>-114200</v>
       </c>
       <c r="E100" s="3">
-        <v>-1010400</v>
+        <v>-12900</v>
       </c>
       <c r="F100" s="3">
-        <v>-513100</v>
+        <v>-1300900</v>
       </c>
       <c r="G100" s="3">
-        <v>-1398700</v>
+        <v>-1028400</v>
       </c>
       <c r="H100" s="3">
-        <v>-65600</v>
+        <v>-522300</v>
       </c>
       <c r="I100" s="3">
+        <v>-1423700</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-66800</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1888500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>203100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-687200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1201900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3212700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-661100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-640900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1214000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-818800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-275100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>288600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-39900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-232800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>886400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-31400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-682200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-142500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>191300</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AD100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5300</v>
+        <v>-8600</v>
       </c>
       <c r="E101" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F101" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G101" s="3">
         <v>3200</v>
       </c>
-      <c r="F101" s="3">
-        <v>-66700</v>
-      </c>
-      <c r="G101" s="3">
-        <v>-10600</v>
-      </c>
       <c r="H101" s="3">
-        <v>-4200</v>
+        <v>-67800</v>
       </c>
       <c r="I101" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="K101" s="3">
         <v>-2100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-9500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-5000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-24900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-41500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-15200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-6100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>5900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-10800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>2400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-13300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-5500</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-7700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-7900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-11200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="AA101" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>-16800</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-39900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1146900</v>
+        <v>1710100</v>
       </c>
       <c r="E102" s="3">
-        <v>567100</v>
+        <v>506100</v>
       </c>
       <c r="F102" s="3">
-        <v>1026300</v>
+        <v>1167400</v>
       </c>
       <c r="G102" s="3">
-        <v>1047400</v>
+        <v>577200</v>
       </c>
       <c r="H102" s="3">
-        <v>1000900</v>
+        <v>1044600</v>
       </c>
       <c r="I102" s="3">
+        <v>1066100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>1018700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-356500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>630600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-4453400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1558900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>3333800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-176700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-255700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-654100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>32900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-434200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>723900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>527200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>350300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-742800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>493700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>796600</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>1322800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>663200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11807100</v>
+        <v>9738500</v>
       </c>
       <c r="E8" s="3">
-        <v>15622600</v>
+        <v>11886100</v>
       </c>
       <c r="F8" s="3">
-        <v>18490400</v>
+        <v>15727000</v>
       </c>
       <c r="G8" s="3">
-        <v>15930600</v>
+        <v>18614000</v>
       </c>
       <c r="H8" s="3">
-        <v>17045200</v>
+        <v>16037100</v>
       </c>
       <c r="I8" s="3">
-        <v>14375500</v>
+        <v>17159100</v>
       </c>
       <c r="J8" s="3">
+        <v>14471700</v>
+      </c>
+      <c r="K8" s="3">
         <v>9165500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7687400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6801900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4943100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3836100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3423300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5192700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>7090800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7287500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7099600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>6463100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>7854500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>6210300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6265200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5464700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5504500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5212800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5780500</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>6191100</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6346800</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>8674400</v>
+        <v>7071600</v>
       </c>
       <c r="E9" s="3">
-        <v>12039700</v>
+        <v>8732400</v>
       </c>
       <c r="F9" s="3">
-        <v>12790300</v>
+        <v>12120200</v>
       </c>
       <c r="G9" s="3">
-        <v>11508800</v>
+        <v>12875900</v>
       </c>
       <c r="H9" s="3">
-        <v>10872400</v>
+        <v>11585800</v>
       </c>
       <c r="I9" s="3">
-        <v>9504700</v>
+        <v>10945100</v>
       </c>
       <c r="J9" s="3">
+        <v>9568300</v>
+      </c>
+      <c r="K9" s="3">
         <v>6578800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5091100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>4397000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>3634500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2510700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2211300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>3708000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>4687200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4695400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4537400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4302700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>5203600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>4239900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4662100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>3530100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3775500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3518600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>4149100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4238900</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>6463000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3132700</v>
+        <v>2666900</v>
       </c>
       <c r="E10" s="3">
-        <v>3582800</v>
+        <v>3153600</v>
       </c>
       <c r="F10" s="3">
-        <v>5700000</v>
+        <v>3606800</v>
       </c>
       <c r="G10" s="3">
-        <v>4421800</v>
+        <v>5738100</v>
       </c>
       <c r="H10" s="3">
-        <v>6172800</v>
+        <v>4451300</v>
       </c>
       <c r="I10" s="3">
-        <v>4870800</v>
+        <v>6214100</v>
       </c>
       <c r="J10" s="3">
+        <v>4903400</v>
+      </c>
+      <c r="K10" s="3">
         <v>2586700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2596300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2404800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1308600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1325400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1212000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1484700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2403700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2592100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2562200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2160300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2650900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>1970400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1603100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1934700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1729000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1694200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1631400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1952300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>-116200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,94 +1086,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>46300</v>
+        <v>29300</v>
       </c>
       <c r="E12" s="3">
-        <v>114200</v>
+        <v>46600</v>
       </c>
       <c r="F12" s="3">
-        <v>60300</v>
+        <v>114900</v>
       </c>
       <c r="G12" s="3">
-        <v>84000</v>
+        <v>60700</v>
       </c>
       <c r="H12" s="3">
+        <v>84600</v>
+      </c>
+      <c r="I12" s="3">
         <v>10800</v>
       </c>
-      <c r="I12" s="3">
-        <v>163700</v>
-      </c>
       <c r="J12" s="3">
+        <v>164800</v>
+      </c>
+      <c r="K12" s="3">
         <v>48500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>47600</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>40200</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>43900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>674600</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>90500</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>129800</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>85200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>46500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>83500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>55000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>71000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>27700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>58200</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>40600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>107700</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>39300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>65100</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>35900</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>83300</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1245,28 +1262,31 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>75900</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>6500</v>
       </c>
-      <c r="G14" s="3">
-        <v>-170200</v>
-      </c>
       <c r="H14" s="3">
-        <v>1090900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>10</v>
+        <v>-171300</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1098200</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>10</v>
@@ -1280,11 +1300,11 @@
       <c r="M14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="N14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>10</v>
@@ -1301,124 +1321,130 @@
       <c r="T14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="3">
         <v>-158500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>165000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-68100</v>
       </c>
-      <c r="X14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>1362100</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-153700</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>656900</v>
+        <v>638500</v>
       </c>
       <c r="E15" s="3">
-        <v>889500</v>
+        <v>661300</v>
       </c>
       <c r="F15" s="3">
-        <v>678400</v>
+        <v>895500</v>
       </c>
       <c r="G15" s="3">
-        <v>180900</v>
+        <v>683000</v>
       </c>
       <c r="H15" s="3">
-        <v>639700</v>
+        <v>182100</v>
       </c>
       <c r="I15" s="3">
-        <v>1989000</v>
+        <v>644000</v>
       </c>
       <c r="J15" s="3">
+        <v>2002300</v>
+      </c>
+      <c r="K15" s="3">
         <v>721500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>654900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>649600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>342100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>986000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>536700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>690500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>728500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>719100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>677600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>656700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>553600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>495100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>516100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>486400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>511600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>538600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>518400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>509400</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AD15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10416900</v>
+        <v>8537300</v>
       </c>
       <c r="E17" s="3">
-        <v>13744500</v>
+        <v>10486500</v>
       </c>
       <c r="F17" s="3">
-        <v>14872000</v>
+        <v>13836400</v>
       </c>
       <c r="G17" s="3">
-        <v>12352000</v>
+        <v>14971400</v>
       </c>
       <c r="H17" s="3">
-        <v>14949500</v>
+        <v>12434600</v>
       </c>
       <c r="I17" s="3">
-        <v>12772000</v>
+        <v>15049500</v>
       </c>
       <c r="J17" s="3">
+        <v>12857400</v>
+      </c>
+      <c r="K17" s="3">
         <v>8184400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6549000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5756600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3494900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4510700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3330500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5054200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6229300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6264600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5986700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5652000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>6430200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5483700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5738100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4596200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4899700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4581100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>6672500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>5163400</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>6659000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1390300</v>
+        <v>1201200</v>
       </c>
       <c r="E18" s="3">
-        <v>1878100</v>
+        <v>1399600</v>
       </c>
       <c r="F18" s="3">
-        <v>3618400</v>
+        <v>1890700</v>
       </c>
       <c r="G18" s="3">
-        <v>3578500</v>
+        <v>3642600</v>
       </c>
       <c r="H18" s="3">
-        <v>2095600</v>
+        <v>3602500</v>
       </c>
       <c r="I18" s="3">
-        <v>1603500</v>
+        <v>2109700</v>
       </c>
       <c r="J18" s="3">
+        <v>1614200</v>
+      </c>
+      <c r="K18" s="3">
         <v>981100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1138400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1045300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1448200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-674600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>92700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>138500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>861500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>1022900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1112900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>811000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>1424200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>726600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>527000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>868500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>604800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>631700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-892000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>1027700</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>-312200</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,438 +1683,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>198100</v>
+        <v>-194100</v>
       </c>
       <c r="E20" s="3">
-        <v>32300</v>
+        <v>199500</v>
       </c>
       <c r="F20" s="3">
-        <v>61400</v>
+        <v>32500</v>
       </c>
       <c r="G20" s="3">
-        <v>484600</v>
+        <v>61800</v>
       </c>
       <c r="H20" s="3">
-        <v>290800</v>
+        <v>487800</v>
       </c>
       <c r="I20" s="3">
-        <v>138900</v>
+        <v>292700</v>
       </c>
       <c r="J20" s="3">
+        <v>139800</v>
+      </c>
+      <c r="K20" s="3">
         <v>218600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>219000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>212700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>84800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>57100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>52400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-51300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>131900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>144500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>227000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>161500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>88700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>154000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>176800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>90000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>25800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>225500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>113300</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>149200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>118600</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>2278700</v>
+        <v>1734600</v>
       </c>
       <c r="E21" s="3">
-        <v>2885000</v>
+        <v>2294000</v>
       </c>
       <c r="F21" s="3">
-        <v>4402400</v>
+        <v>2904300</v>
       </c>
       <c r="G21" s="3">
-        <v>4586500</v>
+        <v>4431800</v>
       </c>
       <c r="H21" s="3">
-        <v>3037900</v>
+        <v>4617200</v>
       </c>
       <c r="I21" s="3">
-        <v>3851000</v>
+        <v>3058200</v>
       </c>
       <c r="J21" s="3">
+        <v>3876700</v>
+      </c>
+      <c r="K21" s="3">
         <v>1947000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>2046200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1926600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>2091500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>816800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>738500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>862900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1752300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1906100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>2063400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1644800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>2102000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>1385600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1233100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1452700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1227500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1405900</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-194100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>1677400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1205500</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>109800</v>
+        <v>99700</v>
       </c>
       <c r="E22" s="3">
-        <v>115200</v>
+        <v>110600</v>
       </c>
       <c r="F22" s="3">
-        <v>110900</v>
+        <v>116000</v>
       </c>
       <c r="G22" s="3">
-        <v>119500</v>
+        <v>111700</v>
       </c>
       <c r="H22" s="3">
-        <v>102300</v>
+        <v>120300</v>
       </c>
       <c r="I22" s="3">
-        <v>89400</v>
+        <v>103000</v>
       </c>
       <c r="J22" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K22" s="3">
         <v>105500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>80400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>81500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>70800</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>73700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>68700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>81800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>85200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>95500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>90600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>89700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>82800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>77500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>94400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>70300</v>
       </c>
-      <c r="Y22" s="3" t="s">
+      <c r="Z22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>80800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>69600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>68400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>74000</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1478600</v>
+        <v>907400</v>
       </c>
       <c r="E23" s="3">
-        <v>1795200</v>
+        <v>1488500</v>
       </c>
       <c r="F23" s="3">
-        <v>3568800</v>
+        <v>1807200</v>
       </c>
       <c r="G23" s="3">
-        <v>3943600</v>
+        <v>3592700</v>
       </c>
       <c r="H23" s="3">
-        <v>2284100</v>
+        <v>3970000</v>
       </c>
       <c r="I23" s="3">
-        <v>1653000</v>
+        <v>2299400</v>
       </c>
       <c r="J23" s="3">
+        <v>1664100</v>
+      </c>
+      <c r="K23" s="3">
         <v>1094100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1277000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1176500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1462200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-691200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>76400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>908200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1071900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1249300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>882800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1430100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>803000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>609400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>888300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>630600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>776400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-848200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>1108500</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-267600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>841100</v>
+        <v>554000</v>
       </c>
       <c r="E24" s="3">
-        <v>1313800</v>
+        <v>846700</v>
       </c>
       <c r="F24" s="3">
-        <v>2105300</v>
+        <v>1322600</v>
       </c>
       <c r="G24" s="3">
-        <v>1238400</v>
+        <v>2119400</v>
       </c>
       <c r="H24" s="3">
-        <v>1362300</v>
+        <v>1246700</v>
       </c>
       <c r="I24" s="3">
-        <v>924000</v>
+        <v>1371400</v>
       </c>
       <c r="J24" s="3">
+        <v>930200</v>
+      </c>
+      <c r="K24" s="3">
         <v>572900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>422100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>293100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-478800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-216900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>79600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>373600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>416500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>475300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>289500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>492100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>366600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>306300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>305200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>159300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>166100</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>193000</v>
       </c>
       <c r="AB24" s="3">
         <v>193000</v>
       </c>
       <c r="AC24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="AD24" s="3">
         <v>120900</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>637500</v>
+        <v>353400</v>
       </c>
       <c r="E26" s="3">
-        <v>481400</v>
+        <v>641800</v>
       </c>
       <c r="F26" s="3">
-        <v>1463500</v>
+        <v>484600</v>
       </c>
       <c r="G26" s="3">
-        <v>2705200</v>
+        <v>1473300</v>
       </c>
       <c r="H26" s="3">
-        <v>921800</v>
+        <v>2723300</v>
       </c>
       <c r="I26" s="3">
-        <v>729100</v>
+        <v>928000</v>
       </c>
       <c r="J26" s="3">
+        <v>733900</v>
+      </c>
+      <c r="K26" s="3">
         <v>521200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>854900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>883400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1940900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-474300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>62200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-74200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>534700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>655400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>774100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>593300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>938000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>436400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>303000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>583000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>471200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>610400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>915500</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-388500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>420000</v>
+        <v>412000</v>
       </c>
       <c r="E27" s="3">
-        <v>331700</v>
+        <v>422800</v>
       </c>
       <c r="F27" s="3">
-        <v>897100</v>
+        <v>333900</v>
       </c>
       <c r="G27" s="3">
-        <v>2096700</v>
+        <v>903100</v>
       </c>
       <c r="H27" s="3">
-        <v>588000</v>
+        <v>2110700</v>
       </c>
       <c r="I27" s="3">
-        <v>579400</v>
+        <v>591900</v>
       </c>
       <c r="J27" s="3">
+        <v>583200</v>
+      </c>
+      <c r="K27" s="3">
         <v>300500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>658100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>691900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1875100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-505500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>26200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-173500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>414400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>520600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>638800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>423500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>719200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>244800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>222900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>445800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>348900</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>491400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>798900</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-442500</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-198100</v>
+        <v>194100</v>
       </c>
       <c r="E32" s="3">
-        <v>-32300</v>
+        <v>-199500</v>
       </c>
       <c r="F32" s="3">
-        <v>-61400</v>
+        <v>-32500</v>
       </c>
       <c r="G32" s="3">
-        <v>-484600</v>
+        <v>-61800</v>
       </c>
       <c r="H32" s="3">
-        <v>-290800</v>
+        <v>-487800</v>
       </c>
       <c r="I32" s="3">
-        <v>-138900</v>
+        <v>-292700</v>
       </c>
       <c r="J32" s="3">
+        <v>-139800</v>
+      </c>
+      <c r="K32" s="3">
         <v>-218600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-219000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-212700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-84800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-57100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-52400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>51300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-131900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-144500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-227000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-161500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-88700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-154000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-176800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-90000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-25800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-225500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-113300</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-149200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-118600</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>420000</v>
+        <v>412000</v>
       </c>
       <c r="E33" s="3">
-        <v>331700</v>
+        <v>422800</v>
       </c>
       <c r="F33" s="3">
-        <v>897100</v>
+        <v>333900</v>
       </c>
       <c r="G33" s="3">
-        <v>2096700</v>
+        <v>903100</v>
       </c>
       <c r="H33" s="3">
-        <v>588000</v>
+        <v>2110700</v>
       </c>
       <c r="I33" s="3">
-        <v>579400</v>
+        <v>591900</v>
       </c>
       <c r="J33" s="3">
+        <v>583200</v>
+      </c>
+      <c r="K33" s="3">
         <v>300500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>658100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>691900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1875100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-505500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>26200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-173500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>414400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>520600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>638800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>423500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>719200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>244800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>222900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>445800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>348900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>491400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>798900</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-442500</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>420000</v>
+        <v>412000</v>
       </c>
       <c r="E35" s="3">
-        <v>331700</v>
+        <v>422800</v>
       </c>
       <c r="F35" s="3">
-        <v>897100</v>
+        <v>333900</v>
       </c>
       <c r="G35" s="3">
-        <v>2096700</v>
+        <v>903100</v>
       </c>
       <c r="H35" s="3">
-        <v>588000</v>
+        <v>2110700</v>
       </c>
       <c r="I35" s="3">
-        <v>579400</v>
+        <v>591900</v>
       </c>
       <c r="J35" s="3">
+        <v>583200</v>
+      </c>
+      <c r="K35" s="3">
         <v>300500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>658100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>691900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1875100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-505500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>26200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-173500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>414400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>520600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>638800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>423500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>719200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>244800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>222900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>445800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>348900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>491400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>798900</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-442500</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,782 +3267,810 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>10187500</v>
+        <v>6781000</v>
       </c>
       <c r="E41" s="3">
-        <v>8712100</v>
+        <v>10255600</v>
       </c>
       <c r="F41" s="3">
-        <v>8193100</v>
+        <v>8770400</v>
       </c>
       <c r="G41" s="3">
-        <v>7045100</v>
+        <v>8247800</v>
       </c>
       <c r="H41" s="3">
-        <v>6482900</v>
+        <v>7092200</v>
       </c>
       <c r="I41" s="3">
-        <v>5438300</v>
+        <v>6526300</v>
       </c>
       <c r="J41" s="3">
+        <v>5474700</v>
+      </c>
+      <c r="K41" s="3">
         <v>4373300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3271300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3625800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2846600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>7608800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6360000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3020700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3421700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3867300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>4342100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4382900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4762400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3780200</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3213800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4718100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4456500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>5209400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>4715700</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>3504000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>2428600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2173200</v>
+        <v>2312400</v>
       </c>
       <c r="E42" s="3">
-        <v>4231100</v>
+        <v>2187700</v>
       </c>
       <c r="F42" s="3">
-        <v>8043400</v>
+        <v>4259400</v>
       </c>
       <c r="G42" s="3">
-        <v>8313700</v>
+        <v>8097100</v>
       </c>
       <c r="H42" s="3">
-        <v>7922800</v>
+        <v>8369300</v>
       </c>
       <c r="I42" s="3">
-        <v>5543900</v>
+        <v>7975700</v>
       </c>
       <c r="J42" s="3">
+        <v>5580900</v>
+      </c>
+      <c r="K42" s="3">
         <v>6690800</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>9531500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>3779200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3010200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3291200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>5491600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>6987300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>3643500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>2736600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>3435100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>2978500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>3225800</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>4229900</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>2617600</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>1327500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1279100</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1220700</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>905400</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>821300</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>1461400</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>4294700</v>
+        <v>3016000</v>
       </c>
       <c r="E43" s="3">
-        <v>4651100</v>
+        <v>4323400</v>
       </c>
       <c r="F43" s="3">
-        <v>6202900</v>
+        <v>4682200</v>
       </c>
       <c r="G43" s="3">
-        <v>5702200</v>
+        <v>6244400</v>
       </c>
       <c r="H43" s="3">
-        <v>5800200</v>
+        <v>5740300</v>
       </c>
       <c r="I43" s="3">
-        <v>4980700</v>
+        <v>5839000</v>
       </c>
       <c r="J43" s="3">
+        <v>5014000</v>
+      </c>
+      <c r="K43" s="3">
         <v>3793900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>4157900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4349400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3343300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1941900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1843600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2862500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3564100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3807300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3585700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>4357800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4056200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3196500</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2945900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3542100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>2825200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2287700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2318000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2921700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2924000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4338800</v>
+        <v>4392800</v>
       </c>
       <c r="E44" s="3">
-        <v>5205700</v>
+        <v>4367800</v>
       </c>
       <c r="F44" s="3">
-        <v>5731300</v>
+        <v>5240500</v>
       </c>
       <c r="G44" s="3">
-        <v>5532000</v>
+        <v>5769600</v>
       </c>
       <c r="H44" s="3">
-        <v>4212800</v>
+        <v>5569000</v>
       </c>
       <c r="I44" s="3">
-        <v>3392200</v>
+        <v>4241000</v>
       </c>
       <c r="J44" s="3">
+        <v>3414900</v>
+      </c>
+      <c r="K44" s="3">
         <v>3245800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2706400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2507500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2345900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1541300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1538200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1572000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2153900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2370400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1909300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2075400</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1858300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1845300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1639300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1486700</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1686400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1729000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1495600</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1647100</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1952000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1029500</v>
+        <v>939900</v>
       </c>
       <c r="E45" s="3">
-        <v>1289000</v>
+        <v>1036400</v>
       </c>
       <c r="F45" s="3">
-        <v>1018700</v>
+        <v>1297700</v>
       </c>
       <c r="G45" s="3">
-        <v>796900</v>
+        <v>1025600</v>
       </c>
       <c r="H45" s="3">
-        <v>760300</v>
+        <v>802200</v>
       </c>
       <c r="I45" s="3">
-        <v>669800</v>
+        <v>765400</v>
       </c>
       <c r="J45" s="3">
+        <v>674300</v>
+      </c>
+      <c r="K45" s="3">
         <v>525500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>431700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>538500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>534600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>273000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>293500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>370900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>347900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>286600</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>294100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>330200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>312300</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>418700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>424900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>362300</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>297300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>269300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>286100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>280500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>232400</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>22023700</v>
+        <v>17442100</v>
       </c>
       <c r="E46" s="3">
-        <v>24089200</v>
+        <v>22170900</v>
       </c>
       <c r="F46" s="3">
-        <v>29189400</v>
+        <v>24250200</v>
       </c>
       <c r="G46" s="3">
-        <v>27389900</v>
+        <v>29384500</v>
       </c>
       <c r="H46" s="3">
-        <v>25179000</v>
+        <v>27573000</v>
       </c>
       <c r="I46" s="3">
-        <v>20025000</v>
+        <v>25347300</v>
       </c>
       <c r="J46" s="3">
+        <v>20158800</v>
+      </c>
+      <c r="K46" s="3">
         <v>18629300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20098800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>14800400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>12080500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>14656200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>15526900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>14813500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>13131000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13068200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13566200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>14124700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14214900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>13470600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10841700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>11436800</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>10544500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10716100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>9720900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>9174500</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>8998400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9478900</v>
+        <v>9367700</v>
       </c>
       <c r="E47" s="3">
-        <v>10007600</v>
+        <v>9542200</v>
       </c>
       <c r="F47" s="3">
-        <v>12243300</v>
+        <v>10074500</v>
       </c>
       <c r="G47" s="3">
-        <v>11457100</v>
+        <v>12325100</v>
       </c>
       <c r="H47" s="3">
-        <v>11685400</v>
+        <v>11533700</v>
       </c>
       <c r="I47" s="3">
-        <v>11433400</v>
+        <v>11763600</v>
       </c>
       <c r="J47" s="3">
+        <v>11509900</v>
+      </c>
+      <c r="K47" s="3">
         <v>13968500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13733900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13026100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11737400</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>7767600</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>8480700</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8646600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8831500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>9770500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>6566700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6554000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6707000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>5998800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5680000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5236400</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5466300</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>4431900</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>4404900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>4145800</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>4468700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>20889700</v>
+        <v>22180700</v>
       </c>
       <c r="E48" s="3">
-        <v>20802500</v>
+        <v>21029400</v>
       </c>
       <c r="F48" s="3">
-        <v>20690500</v>
+        <v>20941600</v>
       </c>
       <c r="G48" s="3">
-        <v>20534300</v>
+        <v>20828800</v>
       </c>
       <c r="H48" s="3">
-        <v>20237100</v>
+        <v>20671600</v>
       </c>
       <c r="I48" s="3">
-        <v>19997000</v>
+        <v>20372400</v>
       </c>
       <c r="J48" s="3">
+        <v>20130700</v>
+      </c>
+      <c r="K48" s="3">
         <v>19727700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19286300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19232300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19153100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>14920900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>16464000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16726900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>19237700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>20358100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>19369400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19616500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>17879500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>15679200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15670700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>14865800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>15319700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15457700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15748300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>16063500</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>17152900</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2788100</v>
+        <v>2339500</v>
       </c>
       <c r="E49" s="3">
-        <v>2703000</v>
+        <v>2806700</v>
       </c>
       <c r="F49" s="3">
-        <v>2878600</v>
+        <v>2721100</v>
       </c>
       <c r="G49" s="3">
-        <v>2791300</v>
+        <v>2897800</v>
       </c>
       <c r="H49" s="3">
-        <v>2769800</v>
+        <v>2810000</v>
       </c>
       <c r="I49" s="3">
-        <v>3404100</v>
+        <v>2788300</v>
       </c>
       <c r="J49" s="3">
+        <v>3426800</v>
+      </c>
+      <c r="K49" s="3">
         <v>3611900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3541100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3695600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3434000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3190500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>4212000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4215300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4859900</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>5203800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>4843200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>5048000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>3923700</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3202100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3188600</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>2882300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2971000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>1852400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1867000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1934300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>2010700</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3384700</v>
+        <v>2858800</v>
       </c>
       <c r="E52" s="3">
-        <v>3166100</v>
+        <v>3407300</v>
       </c>
       <c r="F52" s="3">
-        <v>3275900</v>
+        <v>3187300</v>
       </c>
       <c r="G52" s="3">
-        <v>3116500</v>
+        <v>3297800</v>
       </c>
       <c r="H52" s="3">
-        <v>3181200</v>
+        <v>3137400</v>
       </c>
       <c r="I52" s="3">
-        <v>3075600</v>
+        <v>3202400</v>
       </c>
       <c r="J52" s="3">
+        <v>3096200</v>
+      </c>
+      <c r="K52" s="3">
         <v>3285600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3253400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>4170600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2737900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2099700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2086900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1795600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1074000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>977500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>905800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>958200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>996000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>1256000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1408700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1115600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1126500</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>935700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>1169100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>3635200</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>5062600</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>58565100</v>
+        <v>54188700</v>
       </c>
       <c r="E54" s="3">
-        <v>60768400</v>
+        <v>58956600</v>
       </c>
       <c r="F54" s="3">
-        <v>68277600</v>
+        <v>61174700</v>
       </c>
       <c r="G54" s="3">
-        <v>65289200</v>
+        <v>68734100</v>
       </c>
       <c r="H54" s="3">
-        <v>63052500</v>
+        <v>65725700</v>
       </c>
       <c r="I54" s="3">
-        <v>57935100</v>
+        <v>63474100</v>
       </c>
       <c r="J54" s="3">
+        <v>58322400</v>
+      </c>
+      <c r="K54" s="3">
         <v>59223000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59913500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>54925000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>49142900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>42634900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>46770600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46197900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>47134200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>49378100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>45251400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>46301300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>43721200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>39606700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>36789600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>35536800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>35428000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>33393800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>32910200</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>34953400</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>37693400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,524 +4579,543 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4437900</v>
+        <v>4092500</v>
       </c>
       <c r="E57" s="3">
-        <v>5663400</v>
+        <v>4467600</v>
       </c>
       <c r="F57" s="3">
-        <v>6491600</v>
+        <v>5701300</v>
       </c>
       <c r="G57" s="3">
-        <v>5929400</v>
+        <v>6535000</v>
       </c>
       <c r="H57" s="3">
-        <v>6010200</v>
+        <v>5969100</v>
       </c>
       <c r="I57" s="3">
-        <v>5233700</v>
+        <v>6050400</v>
       </c>
       <c r="J57" s="3">
+        <v>5268700</v>
+      </c>
+      <c r="K57" s="3">
         <v>4034100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4424600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4777900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4292800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2667400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2607300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>3769100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4850600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4789700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4173900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5197500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5205900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4101400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>3877000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3910000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3659900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3268400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3028300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3460200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>4379500</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1668100</v>
+        <v>1512300</v>
       </c>
       <c r="E58" s="3">
-        <v>1694000</v>
+        <v>1679300</v>
       </c>
       <c r="F58" s="3">
-        <v>1107100</v>
+        <v>1705300</v>
       </c>
       <c r="G58" s="3">
-        <v>2032100</v>
+        <v>1114500</v>
       </c>
       <c r="H58" s="3">
-        <v>1179200</v>
+        <v>2045700</v>
       </c>
       <c r="I58" s="3">
-        <v>1374100</v>
+        <v>1187100</v>
       </c>
       <c r="J58" s="3">
+        <v>1383300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1852300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1045300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1936100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1689600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>855200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>916400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>613100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>943300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>1768900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1664600</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1934300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>997200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>965800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>1001400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1902800</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1012000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>274900</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>218800</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>190700</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>305200</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>6465700</v>
+        <v>4591200</v>
       </c>
       <c r="E59" s="3">
-        <v>7252900</v>
+        <v>6508900</v>
       </c>
       <c r="F59" s="3">
-        <v>11682200</v>
+        <v>7301400</v>
       </c>
       <c r="G59" s="3">
-        <v>10805600</v>
+        <v>11760300</v>
       </c>
       <c r="H59" s="3">
-        <v>11033900</v>
+        <v>10877900</v>
       </c>
       <c r="I59" s="3">
-        <v>8120900</v>
+        <v>11107700</v>
       </c>
       <c r="J59" s="3">
+        <v>8175200</v>
+      </c>
+      <c r="K59" s="3">
         <v>10021600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11731100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5604200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>4606000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5440700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6826900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8336700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5174000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4881600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5518500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5219000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5247300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6182600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>4643400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>3090900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>2986700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2753400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2555900</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2606400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>3211500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>12571700</v>
+        <v>10196000</v>
       </c>
       <c r="E60" s="3">
-        <v>14610300</v>
+        <v>12655800</v>
       </c>
       <c r="F60" s="3">
-        <v>19280800</v>
+        <v>14708000</v>
       </c>
       <c r="G60" s="3">
-        <v>18767100</v>
+        <v>19409700</v>
       </c>
       <c r="H60" s="3">
-        <v>18223300</v>
+        <v>18892600</v>
       </c>
       <c r="I60" s="3">
-        <v>14728800</v>
+        <v>18345100</v>
       </c>
       <c r="J60" s="3">
+        <v>14827200</v>
+      </c>
+      <c r="K60" s="3">
         <v>15908000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17201000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12318300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10588400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>8963300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>10350600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12718900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10967800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>11440200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11357000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12350800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>11450500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11249900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>9521900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>8903700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>7658700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6296600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5802900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>6257300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>7896200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>9424000</v>
+        <v>8823500</v>
       </c>
       <c r="E61" s="3">
-        <v>9380900</v>
+        <v>9487000</v>
       </c>
       <c r="F61" s="3">
-        <v>9952700</v>
+        <v>9443600</v>
       </c>
       <c r="G61" s="3">
-        <v>9980700</v>
+        <v>10019300</v>
       </c>
       <c r="H61" s="3">
-        <v>10743200</v>
+        <v>10047400</v>
       </c>
       <c r="I61" s="3">
-        <v>10313500</v>
+        <v>10815000</v>
       </c>
       <c r="J61" s="3">
+        <v>10382400</v>
+      </c>
+      <c r="K61" s="3">
         <v>10311300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10897400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10944000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10215400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>9427200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9955600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>6896700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>7957100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>8107000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>6550200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6260900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>5806900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5052900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5035400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5017900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5375500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5134200</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5244200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5276700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5869100</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7794600</v>
+        <v>8069000</v>
       </c>
       <c r="E62" s="3">
-        <v>8101500</v>
+        <v>7846700</v>
       </c>
       <c r="F62" s="3">
-        <v>9194600</v>
+        <v>8155700</v>
       </c>
       <c r="G62" s="3">
-        <v>8756300</v>
+        <v>9256000</v>
       </c>
       <c r="H62" s="3">
-        <v>8984600</v>
+        <v>8814800</v>
       </c>
       <c r="I62" s="3">
-        <v>9205300</v>
+        <v>9044600</v>
       </c>
       <c r="J62" s="3">
+        <v>9266900</v>
+      </c>
+      <c r="K62" s="3">
         <v>9469200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9649000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9182400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>8491900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7635800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>8515600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8213500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8523300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>9412800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>8512400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8335100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8315800</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>6928000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6508900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6244300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6311200</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>5978000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>6342600</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>7216600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>7582800</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>37911200</v>
+        <v>34896100</v>
       </c>
       <c r="E66" s="3">
-        <v>40145800</v>
+        <v>38164700</v>
       </c>
       <c r="F66" s="3">
-        <v>46550100</v>
+        <v>40414200</v>
       </c>
       <c r="G66" s="3">
-        <v>45216900</v>
+        <v>46861300</v>
       </c>
       <c r="H66" s="3">
-        <v>45138300</v>
+        <v>45519200</v>
       </c>
       <c r="I66" s="3">
-        <v>41237700</v>
+        <v>45440100</v>
       </c>
       <c r="J66" s="3">
+        <v>41513400</v>
+      </c>
+      <c r="K66" s="3">
         <v>42509600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>44194800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>39133300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>35438600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>29841700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>32870200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32113100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>31943800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>33628400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>30806400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>31501900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>29637600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>26852700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>24489800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>23702500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>22843700</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>20852200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20777000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>22206400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>24881300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>17629900</v>
+        <v>16248500</v>
       </c>
       <c r="E72" s="3">
-        <v>17869000</v>
+        <v>17747800</v>
       </c>
       <c r="F72" s="3">
-        <v>18703600</v>
+        <v>17988500</v>
       </c>
       <c r="G72" s="3">
-        <v>17047300</v>
+        <v>18828600</v>
       </c>
       <c r="H72" s="3">
-        <v>14888100</v>
+        <v>17161300</v>
       </c>
       <c r="I72" s="3">
-        <v>13580800</v>
+        <v>14987700</v>
       </c>
       <c r="J72" s="3">
+        <v>13671600</v>
+      </c>
+      <c r="K72" s="3">
         <v>12888300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>11960700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>12032600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>10195400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>9106500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>11379300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11564700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>12445800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12920000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>11727500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>12038600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>11306200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>10196600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>9765600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9846900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9714200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9680500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9272100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9885900</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>9820100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>20653900</v>
+        <v>19292600</v>
       </c>
       <c r="E76" s="3">
-        <v>20622600</v>
+        <v>20792000</v>
       </c>
       <c r="F76" s="3">
-        <v>21727500</v>
+        <v>20760500</v>
       </c>
       <c r="G76" s="3">
-        <v>20072300</v>
+        <v>21872800</v>
       </c>
       <c r="H76" s="3">
-        <v>17914200</v>
+        <v>20206500</v>
       </c>
       <c r="I76" s="3">
-        <v>16697300</v>
+        <v>18034000</v>
       </c>
       <c r="J76" s="3">
+        <v>16809000</v>
+      </c>
+      <c r="K76" s="3">
         <v>16713500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>15718700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15791700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13704300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12793200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13900400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14084700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>15190300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15749700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>14445000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14799400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14083600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12754000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12299800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>11834200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>12584200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12541600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12133200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12746900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12812100</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>420000</v>
+        <v>412000</v>
       </c>
       <c r="E81" s="3">
-        <v>331700</v>
+        <v>422800</v>
       </c>
       <c r="F81" s="3">
-        <v>897100</v>
+        <v>333900</v>
       </c>
       <c r="G81" s="3">
-        <v>2096700</v>
+        <v>903100</v>
       </c>
       <c r="H81" s="3">
-        <v>588000</v>
+        <v>2110700</v>
       </c>
       <c r="I81" s="3">
-        <v>579400</v>
+        <v>591900</v>
       </c>
       <c r="J81" s="3">
+        <v>583200</v>
+      </c>
+      <c r="K81" s="3">
         <v>300500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>658100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>691900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1875100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-505500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>26200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-173500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>414400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>520600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>638800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>423500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>719200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>244800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>222900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>445800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>348900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>491400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>798900</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-442500</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>690300</v>
+        <v>727400</v>
       </c>
       <c r="E83" s="3">
-        <v>974600</v>
+        <v>694900</v>
       </c>
       <c r="F83" s="3">
-        <v>722600</v>
+        <v>981100</v>
       </c>
       <c r="G83" s="3">
-        <v>523400</v>
+        <v>727400</v>
       </c>
       <c r="H83" s="3">
-        <v>651500</v>
+        <v>526900</v>
       </c>
       <c r="I83" s="3">
-        <v>2108600</v>
+        <v>655900</v>
       </c>
       <c r="J83" s="3">
+        <v>2122700</v>
+      </c>
+      <c r="K83" s="3">
         <v>747400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>688800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>668700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>558500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1434400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>593500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>775600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>758800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>738700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>723500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>672300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>589100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>505100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>529200</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>494100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>596900</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>548700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>584600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>500400</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>1533000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>2892600</v>
+        <v>245000</v>
       </c>
       <c r="E89" s="3">
-        <v>1548600</v>
+        <v>2911900</v>
       </c>
       <c r="F89" s="3">
-        <v>3426700</v>
+        <v>1558900</v>
       </c>
       <c r="G89" s="3">
-        <v>498600</v>
+        <v>3449600</v>
       </c>
       <c r="H89" s="3">
-        <v>2880700</v>
+        <v>501900</v>
       </c>
       <c r="I89" s="3">
-        <v>2997000</v>
+        <v>2900000</v>
       </c>
       <c r="J89" s="3">
+        <v>3017100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1731700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1652600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1125700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>677200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>822000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>592400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>1225100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1145200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1316900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1334000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1035900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1318900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1075500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1353800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1181400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>832500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>888600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>1110800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1036700</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>718400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-821000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-858000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-910000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-735000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-651000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-647000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-758000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-579000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-657000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-570300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-562500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-402700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-462500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-637100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-706300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-665200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-578800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-619600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-671900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-547200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-473200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-571100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-356800</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-373600</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-478000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1059700</v>
+        <v>-853200</v>
       </c>
       <c r="E94" s="3">
-        <v>-1011200</v>
+        <v>-1066800</v>
       </c>
       <c r="F94" s="3">
-        <v>-963800</v>
+        <v>-1018000</v>
       </c>
       <c r="G94" s="3">
-        <v>1103800</v>
+        <v>-970300</v>
       </c>
       <c r="H94" s="3">
-        <v>-1246000</v>
+        <v>1111200</v>
       </c>
       <c r="I94" s="3">
-        <v>-496500</v>
+        <v>-1254300</v>
       </c>
       <c r="J94" s="3">
+        <v>-499800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-641800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-118500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-688800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-4438400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-440100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-472400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-699300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-744800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-3178800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-488200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1184200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-886000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-495100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-590700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-352300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>379200</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>445400</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-206600</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,94 +7653,98 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2052200</v>
       </c>
       <c r="E96" s="3">
-        <v>607400</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-302600</v>
+        <v>611400</v>
       </c>
       <c r="G96" s="3">
-        <v>0</v>
+        <v>-304600</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
       <c r="I96" s="3">
-        <v>-90500</v>
+        <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>-91100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-35500</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-451800</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-240000</v>
       </c>
-      <c r="P96" s="3">
-        <v>0</v>
-      </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>115600</v>
       </c>
-      <c r="R96" s="3">
-        <v>0</v>
-      </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-908200</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>85200</v>
       </c>
-      <c r="V96" s="3">
-        <v>0</v>
-      </c>
       <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-760900</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
       <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z96" s="3">
         <v>59500</v>
       </c>
-      <c r="Z96" s="3">
-        <v>0</v>
-      </c>
       <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-653000</v>
       </c>
-      <c r="AB96" s="3">
-        <v>0</v>
-      </c>
       <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-99800</v>
       </c>
-      <c r="AD96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-114200</v>
+        <v>-2918400</v>
       </c>
       <c r="E100" s="3">
-        <v>-12900</v>
+        <v>-114900</v>
       </c>
       <c r="F100" s="3">
-        <v>-1300900</v>
+        <v>-13000</v>
       </c>
       <c r="G100" s="3">
-        <v>-1028400</v>
+        <v>-1309600</v>
       </c>
       <c r="H100" s="3">
-        <v>-522300</v>
+        <v>-1035300</v>
       </c>
       <c r="I100" s="3">
-        <v>-1423700</v>
+        <v>-525800</v>
       </c>
       <c r="J100" s="3">
+        <v>-1433200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-66800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1888500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>203100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-687200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1201900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3212700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-661100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-640900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1214000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-818800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-275100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>288600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-39900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-232800</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>886400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-31400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-682200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-142500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>191300</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-8600</v>
+        <v>-7600</v>
       </c>
       <c r="E101" s="3">
-        <v>-18300</v>
+        <v>-8700</v>
       </c>
       <c r="F101" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="G101" s="3">
         <v>5400</v>
       </c>
-      <c r="G101" s="3">
-        <v>3200</v>
-      </c>
       <c r="H101" s="3">
-        <v>-67800</v>
+        <v>3300</v>
       </c>
       <c r="I101" s="3">
+        <v>-68300</v>
+      </c>
+      <c r="J101" s="3">
         <v>-10800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-2100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-9500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-5000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-24900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-41500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-15200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-6100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>5900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-13300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-5500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-7700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-7900</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>-11200</v>
       </c>
       <c r="AA101" s="3">
         <v>-11200</v>
       </c>
       <c r="AB101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="AC101" s="3">
         <v>-16800</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-39900</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1710100</v>
+        <v>-3534200</v>
       </c>
       <c r="E102" s="3">
-        <v>506100</v>
+        <v>1721600</v>
       </c>
       <c r="F102" s="3">
-        <v>1167400</v>
+        <v>509500</v>
       </c>
       <c r="G102" s="3">
-        <v>577200</v>
+        <v>1175200</v>
       </c>
       <c r="H102" s="3">
-        <v>1044600</v>
+        <v>581100</v>
       </c>
       <c r="I102" s="3">
-        <v>1066100</v>
+        <v>1051600</v>
       </c>
       <c r="J102" s="3">
+        <v>1073300</v>
+      </c>
+      <c r="K102" s="3">
         <v>1018700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-356500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>630600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-4453400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1558900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3333800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-176700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-255700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-654100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>32900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-434200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>723900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>527200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>350300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-742800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>493700</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>796600</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>1322800</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>663200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>496500</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/OMVKY_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,410 @@
     <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9738500</v>
+        <v>10273900</v>
       </c>
       <c r="E8" s="3">
-        <v>11886100</v>
+        <v>9746600</v>
       </c>
       <c r="F8" s="3">
-        <v>15727000</v>
+        <v>11895900</v>
       </c>
       <c r="G8" s="3">
-        <v>18614000</v>
+        <v>15740100</v>
       </c>
       <c r="H8" s="3">
-        <v>16037100</v>
+        <v>18629500</v>
       </c>
       <c r="I8" s="3">
-        <v>17159100</v>
+        <v>16050400</v>
       </c>
       <c r="J8" s="3">
+        <v>17173400</v>
+      </c>
+      <c r="K8" s="3">
         <v>14471700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>9165500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7687400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6801900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4943100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3836100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3423300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5192700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>7090800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>7287500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>7099600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>6463100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>7854500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>6210300</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>6265200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5464700</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5504500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5212800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5780500</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>6191100</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>6346800</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>6161300</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7071600</v>
+        <v>7120900</v>
       </c>
       <c r="E9" s="3">
-        <v>8732400</v>
+        <v>7077500</v>
       </c>
       <c r="F9" s="3">
-        <v>12120200</v>
+        <v>8739700</v>
       </c>
       <c r="G9" s="3">
-        <v>12875900</v>
+        <v>12130300</v>
       </c>
       <c r="H9" s="3">
-        <v>11585800</v>
+        <v>12886500</v>
       </c>
       <c r="I9" s="3">
-        <v>10945100</v>
+        <v>11595400</v>
       </c>
       <c r="J9" s="3">
+        <v>10954200</v>
+      </c>
+      <c r="K9" s="3">
         <v>9568300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>6578800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5091100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>4397000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>3634500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2510700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2211300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>3708000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>4687200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>4695400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>4537400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>4302700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>5203600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>4239900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>4662100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>3530100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>3775500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>3518600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>4149100</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>4238900</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>6463000</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>5864400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2666900</v>
+        <v>3153000</v>
       </c>
       <c r="E10" s="3">
-        <v>3153600</v>
+        <v>2669100</v>
       </c>
       <c r="F10" s="3">
-        <v>3606800</v>
+        <v>3156300</v>
       </c>
       <c r="G10" s="3">
-        <v>5738100</v>
+        <v>3609800</v>
       </c>
       <c r="H10" s="3">
-        <v>4451300</v>
+        <v>5742900</v>
       </c>
       <c r="I10" s="3">
-        <v>6214100</v>
+        <v>4455000</v>
       </c>
       <c r="J10" s="3">
+        <v>6219200</v>
+      </c>
+      <c r="K10" s="3">
         <v>4903400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2586700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2596300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2404800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>1308600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>1325400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>1212000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>1484700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2403700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2592100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2562200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2160300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2650900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>1970400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>1603100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>1934700</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>1729000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>1694200</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>1631400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>1952300</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>-116200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>297000</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,97 +1100,101 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E12" s="3">
         <v>29300</v>
       </c>
-      <c r="E12" s="3">
-        <v>46600</v>
-      </c>
       <c r="F12" s="3">
-        <v>114900</v>
+        <v>46700</v>
       </c>
       <c r="G12" s="3">
-        <v>60700</v>
+        <v>115000</v>
       </c>
       <c r="H12" s="3">
+        <v>60800</v>
+      </c>
+      <c r="I12" s="3">
         <v>84600</v>
       </c>
-      <c r="I12" s="3">
-        <v>10800</v>
-      </c>
       <c r="J12" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K12" s="3">
         <v>164800</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>48500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>47600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>40200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>43900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>674600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>90500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>129800</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>85200</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>46500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>83500</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>55000</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>71000</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>27700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>58200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>40600</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>107700</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>39300</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>65100</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>35900</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>83300</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AF12" s="3">
         <v>77500</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1265,31 +1282,34 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>75900</v>
+        <v>-14100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>76000</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>6500</v>
       </c>
-      <c r="H14" s="3">
-        <v>-171300</v>
-      </c>
       <c r="I14" s="3">
-        <v>1098200</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>10</v>
+        <v>-171400</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1099100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>10</v>
@@ -1303,11 +1323,11 @@
       <c r="N14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>10</v>
@@ -1324,127 +1344,133 @@
       <c r="U14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="3">
         <v>-158500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>165000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-68100</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Z14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>1362100</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-153700</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AE14" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>638500</v>
+        <v>708500</v>
       </c>
       <c r="E15" s="3">
-        <v>661300</v>
+        <v>639100</v>
       </c>
       <c r="F15" s="3">
-        <v>895500</v>
+        <v>661900</v>
       </c>
       <c r="G15" s="3">
-        <v>683000</v>
+        <v>896200</v>
       </c>
       <c r="H15" s="3">
-        <v>182100</v>
+        <v>683600</v>
       </c>
       <c r="I15" s="3">
-        <v>644000</v>
+        <v>182300</v>
       </c>
       <c r="J15" s="3">
+        <v>644500</v>
+      </c>
+      <c r="K15" s="3">
         <v>2002300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>721500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>654900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>649600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>342100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>986000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>536700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>690500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>728500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>719100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>677600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>656700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>553600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>495100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>516100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>486400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>511600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>538600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>518400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>509400</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="AE15" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1499,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8537300</v>
+        <v>8894800</v>
       </c>
       <c r="E17" s="3">
-        <v>10486500</v>
+        <v>8544400</v>
       </c>
       <c r="F17" s="3">
-        <v>13836400</v>
+        <v>10495200</v>
       </c>
       <c r="G17" s="3">
-        <v>14971400</v>
+        <v>13847900</v>
       </c>
       <c r="H17" s="3">
-        <v>12434600</v>
+        <v>14983900</v>
       </c>
       <c r="I17" s="3">
-        <v>15049500</v>
+        <v>12445000</v>
       </c>
       <c r="J17" s="3">
+        <v>15062000</v>
+      </c>
+      <c r="K17" s="3">
         <v>12857400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8184400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6549000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5756600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3494900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4510700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3330500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5054200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6229300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>6264600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5986700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5652000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>6430200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>5483700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>5738100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4596200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4899700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4581100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>6672500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>5163400</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>6659000</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>6087400</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1201200</v>
+        <v>1379000</v>
       </c>
       <c r="E18" s="3">
-        <v>1399600</v>
+        <v>1202200</v>
       </c>
       <c r="F18" s="3">
-        <v>1890700</v>
+        <v>1400700</v>
       </c>
       <c r="G18" s="3">
-        <v>3642600</v>
+        <v>1892200</v>
       </c>
       <c r="H18" s="3">
-        <v>3602500</v>
+        <v>3645600</v>
       </c>
       <c r="I18" s="3">
-        <v>2109700</v>
+        <v>3605500</v>
       </c>
       <c r="J18" s="3">
+        <v>2111400</v>
+      </c>
+      <c r="K18" s="3">
         <v>1614200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>981100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1138400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1045300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1448200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-674600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>92700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>138500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>861500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>1022900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>1112900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>811000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>1424200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>726600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>527000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>868500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>604800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>631700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-892000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>1027700</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>-312200</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>74000</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,453 +1717,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-194100</v>
+        <v>180100</v>
       </c>
       <c r="E20" s="3">
-        <v>199500</v>
+        <v>-194200</v>
       </c>
       <c r="F20" s="3">
-        <v>32500</v>
+        <v>199600</v>
       </c>
       <c r="G20" s="3">
+        <v>32600</v>
+      </c>
+      <c r="H20" s="3">
         <v>61800</v>
       </c>
-      <c r="H20" s="3">
-        <v>487800</v>
-      </c>
       <c r="I20" s="3">
-        <v>292700</v>
+        <v>488300</v>
       </c>
       <c r="J20" s="3">
+        <v>292900</v>
+      </c>
+      <c r="K20" s="3">
         <v>139800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>218600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>219000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>212700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>84800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>57100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>52400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-51300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>131900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>144500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>227000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>161500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>88700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>154000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>176800</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>90000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>25800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>225500</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>113300</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>149200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>118600</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>166700</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1734600</v>
+        <v>2272000</v>
       </c>
       <c r="E21" s="3">
-        <v>2294000</v>
+        <v>1736000</v>
       </c>
       <c r="F21" s="3">
-        <v>2904300</v>
+        <v>2295900</v>
       </c>
       <c r="G21" s="3">
-        <v>4431800</v>
+        <v>2906700</v>
       </c>
       <c r="H21" s="3">
-        <v>4617200</v>
+        <v>4435500</v>
       </c>
       <c r="I21" s="3">
-        <v>3058200</v>
+        <v>4621000</v>
       </c>
       <c r="J21" s="3">
+        <v>3060800</v>
+      </c>
+      <c r="K21" s="3">
         <v>3876700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1947000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>2046200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1926600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>2091500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>816800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>738500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>862900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1752300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1906100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>2063400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1644800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>2102000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1385600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1233100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1452700</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>1227500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>1405900</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-194100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>1677400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>1205500</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>1295900</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>99700</v>
+        <v>123700</v>
       </c>
       <c r="E22" s="3">
-        <v>110600</v>
+        <v>99800</v>
       </c>
       <c r="F22" s="3">
-        <v>116000</v>
+        <v>110700</v>
       </c>
       <c r="G22" s="3">
-        <v>111700</v>
+        <v>116100</v>
       </c>
       <c r="H22" s="3">
-        <v>120300</v>
+        <v>111800</v>
       </c>
       <c r="I22" s="3">
-        <v>103000</v>
+        <v>120400</v>
       </c>
       <c r="J22" s="3">
+        <v>103100</v>
+      </c>
+      <c r="K22" s="3">
         <v>90000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>105500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>80400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>81500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>70800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>73700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>68700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>81800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>85200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>95500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>90600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>89700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>82800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>77500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>94400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>70300</v>
       </c>
-      <c r="Z22" s="3" t="s">
+      <c r="AA22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>80800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>69600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>68400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>74000</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>78600</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>907400</v>
+        <v>1435500</v>
       </c>
       <c r="E23" s="3">
-        <v>1488500</v>
+        <v>908100</v>
       </c>
       <c r="F23" s="3">
-        <v>1807200</v>
+        <v>1489700</v>
       </c>
       <c r="G23" s="3">
-        <v>3592700</v>
+        <v>1808700</v>
       </c>
       <c r="H23" s="3">
-        <v>3970000</v>
+        <v>3595700</v>
       </c>
       <c r="I23" s="3">
-        <v>2299400</v>
+        <v>3973300</v>
       </c>
       <c r="J23" s="3">
+        <v>2301300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1664100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1094100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1277000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1176500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1462200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-691200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>76400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>908200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1071900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1249300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>882800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1430100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>803000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>609400</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>888300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>630600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>776400</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-848200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>1108500</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-267600</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>162000</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>554000</v>
+        <v>695500</v>
       </c>
       <c r="E24" s="3">
-        <v>846700</v>
+        <v>554400</v>
       </c>
       <c r="F24" s="3">
-        <v>1322600</v>
+        <v>847400</v>
       </c>
       <c r="G24" s="3">
-        <v>2119400</v>
+        <v>1323700</v>
       </c>
       <c r="H24" s="3">
-        <v>1246700</v>
+        <v>2121200</v>
       </c>
       <c r="I24" s="3">
-        <v>1371400</v>
+        <v>1247800</v>
       </c>
       <c r="J24" s="3">
+        <v>1372500</v>
+      </c>
+      <c r="K24" s="3">
         <v>930200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>572900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>422100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>293100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-478800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-216900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>79600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>373600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>416500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>475300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>289500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>492100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>366600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>306300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>305200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>159300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>166100</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>193000</v>
       </c>
       <c r="AC24" s="3">
         <v>193000</v>
       </c>
       <c r="AD24" s="3">
+        <v>193000</v>
+      </c>
+      <c r="AE24" s="3">
         <v>120900</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>353400</v>
+        <v>740000</v>
       </c>
       <c r="E26" s="3">
-        <v>641800</v>
+        <v>353700</v>
       </c>
       <c r="F26" s="3">
-        <v>484600</v>
+        <v>642300</v>
       </c>
       <c r="G26" s="3">
-        <v>1473300</v>
+        <v>485000</v>
       </c>
       <c r="H26" s="3">
-        <v>2723300</v>
+        <v>1474500</v>
       </c>
       <c r="I26" s="3">
-        <v>928000</v>
+        <v>2725500</v>
       </c>
       <c r="J26" s="3">
+        <v>928800</v>
+      </c>
+      <c r="K26" s="3">
         <v>733900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>521200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>854900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>883400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1940900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-474300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>62200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-74200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>534700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>655400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>774100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>593300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>938000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>436400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>303000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>583000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>471200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>610400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1041200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>915500</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-388500</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>152600</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>412000</v>
+        <v>512100</v>
       </c>
       <c r="E27" s="3">
-        <v>422800</v>
+        <v>412300</v>
       </c>
       <c r="F27" s="3">
-        <v>333900</v>
+        <v>423200</v>
       </c>
       <c r="G27" s="3">
-        <v>903100</v>
+        <v>334200</v>
       </c>
       <c r="H27" s="3">
-        <v>2110700</v>
+        <v>903800</v>
       </c>
       <c r="I27" s="3">
-        <v>591900</v>
+        <v>2112500</v>
       </c>
       <c r="J27" s="3">
+        <v>592400</v>
+      </c>
+      <c r="K27" s="3">
         <v>583200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>300500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>658100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>691900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1875100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-505500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>26200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-173500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>414400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>520600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>638800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>423500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>719200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>244800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>222900</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>445800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>348900</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>491400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1153400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>798900</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-442500</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,186 +2819,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>194100</v>
+        <v>-180100</v>
       </c>
       <c r="E32" s="3">
-        <v>-199500</v>
+        <v>194200</v>
       </c>
       <c r="F32" s="3">
-        <v>-32500</v>
+        <v>-199600</v>
       </c>
       <c r="G32" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="H32" s="3">
         <v>-61800</v>
       </c>
-      <c r="H32" s="3">
-        <v>-487800</v>
-      </c>
       <c r="I32" s="3">
-        <v>-292700</v>
+        <v>-488300</v>
       </c>
       <c r="J32" s="3">
+        <v>-292900</v>
+      </c>
+      <c r="K32" s="3">
         <v>-139800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-218600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-219000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-212700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-84800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-57100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-52400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>51300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-131900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-144500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-227000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-161500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-88700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-154000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-176800</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-90000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-25800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-225500</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-113300</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-149200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-118600</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-166700</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>412000</v>
+        <v>512100</v>
       </c>
       <c r="E33" s="3">
-        <v>422800</v>
+        <v>412300</v>
       </c>
       <c r="F33" s="3">
-        <v>333900</v>
+        <v>423200</v>
       </c>
       <c r="G33" s="3">
-        <v>903100</v>
+        <v>334200</v>
       </c>
       <c r="H33" s="3">
-        <v>2110700</v>
+        <v>903800</v>
       </c>
       <c r="I33" s="3">
-        <v>591900</v>
+        <v>2112500</v>
       </c>
       <c r="J33" s="3">
+        <v>592400</v>
+      </c>
+      <c r="K33" s="3">
         <v>583200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>300500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>658100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>691900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1875100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-505500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>26200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-173500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>414400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>520600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>638800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>423500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>719200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>244800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>222900</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>445800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>348900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>491400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1153400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>798900</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-442500</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>412000</v>
+        <v>512100</v>
       </c>
       <c r="E35" s="3">
-        <v>422800</v>
+        <v>412300</v>
       </c>
       <c r="F35" s="3">
-        <v>333900</v>
+        <v>423200</v>
       </c>
       <c r="G35" s="3">
-        <v>903100</v>
+        <v>334200</v>
       </c>
       <c r="H35" s="3">
-        <v>2110700</v>
+        <v>903800</v>
       </c>
       <c r="I35" s="3">
-        <v>591900</v>
+        <v>2112500</v>
       </c>
       <c r="J35" s="3">
+        <v>592400</v>
+      </c>
+      <c r="K35" s="3">
         <v>583200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>300500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>658100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>691900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1875100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-505500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>26200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-173500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>414400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>520600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>638800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>423500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>719200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>244800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>222900</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>445800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>348900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>491400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1153400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>798900</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-442500</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,809 +3354,837 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6781000</v>
+        <v>8445600</v>
       </c>
       <c r="E41" s="3">
-        <v>10255600</v>
+        <v>6786700</v>
       </c>
       <c r="F41" s="3">
-        <v>8770400</v>
+        <v>10264100</v>
       </c>
       <c r="G41" s="3">
-        <v>8247800</v>
+        <v>8777700</v>
       </c>
       <c r="H41" s="3">
-        <v>7092200</v>
+        <v>8254700</v>
       </c>
       <c r="I41" s="3">
-        <v>6526300</v>
+        <v>7098100</v>
       </c>
       <c r="J41" s="3">
+        <v>6531700</v>
+      </c>
+      <c r="K41" s="3">
         <v>5474700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4373300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3271300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3625800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2846600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>7608800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6360000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3020700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3421700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3867300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>4342100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>4382900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>4762400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3780200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3213800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4718100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>4456500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>5209400</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>4715700</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>3504000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>2428600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>2051800</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2312400</v>
+        <v>2422800</v>
       </c>
       <c r="E42" s="3">
-        <v>2187700</v>
+        <v>2314300</v>
       </c>
       <c r="F42" s="3">
-        <v>4259400</v>
+        <v>2189500</v>
       </c>
       <c r="G42" s="3">
-        <v>8097100</v>
+        <v>4263000</v>
       </c>
       <c r="H42" s="3">
-        <v>8369300</v>
+        <v>8103900</v>
       </c>
       <c r="I42" s="3">
-        <v>7975700</v>
+        <v>8376200</v>
       </c>
       <c r="J42" s="3">
+        <v>7982300</v>
+      </c>
+      <c r="K42" s="3">
         <v>5580900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>6690800</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>9531500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>3779200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>3010200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>3291200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>5491600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>6987300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>3643500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>2736600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>3435100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>2978500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>3225800</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>4229900</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Y42" s="3">
         <v>2617600</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>1327500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>1279100</v>
       </c>
-      <c r="AA42" s="3">
+      <c r="AB42" s="3">
         <v>1220700</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AC42" s="3">
         <v>905400</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AD42" s="3">
         <v>821300</v>
       </c>
-      <c r="AD42" s="3">
+      <c r="AE42" s="3">
         <v>1461400</v>
       </c>
-      <c r="AE42" s="3">
+      <c r="AF42" s="3">
         <v>1007100</v>
       </c>
     </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3016000</v>
+        <v>3368900</v>
       </c>
       <c r="E43" s="3">
-        <v>4323400</v>
+        <v>3018500</v>
       </c>
       <c r="F43" s="3">
-        <v>4682200</v>
+        <v>4327000</v>
       </c>
       <c r="G43" s="3">
-        <v>6244400</v>
+        <v>4686100</v>
       </c>
       <c r="H43" s="3">
-        <v>5740300</v>
+        <v>6249600</v>
       </c>
       <c r="I43" s="3">
-        <v>5839000</v>
+        <v>5745100</v>
       </c>
       <c r="J43" s="3">
+        <v>5843800</v>
+      </c>
+      <c r="K43" s="3">
         <v>5014000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3793900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>4157900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>4349400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3343300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1941900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1843600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2862500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3564100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3807300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3585700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>4357800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>4056200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3196500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2945900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3542100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2825200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2287700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2318000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>2921700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>2924000</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>3400500</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>4392800</v>
+        <v>4343300</v>
       </c>
       <c r="E44" s="3">
-        <v>4367800</v>
+        <v>4396400</v>
       </c>
       <c r="F44" s="3">
-        <v>5240500</v>
+        <v>4371500</v>
       </c>
       <c r="G44" s="3">
-        <v>5769600</v>
+        <v>5244900</v>
       </c>
       <c r="H44" s="3">
-        <v>5569000</v>
+        <v>5774400</v>
       </c>
       <c r="I44" s="3">
-        <v>4241000</v>
+        <v>5573600</v>
       </c>
       <c r="J44" s="3">
+        <v>4244500</v>
+      </c>
+      <c r="K44" s="3">
         <v>3414900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3245800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2706400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2507500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2345900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1541300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1538200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1572000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2153900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2370400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1909300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2075400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1858300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1845300</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1639300</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>1486700</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1686400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1729000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1495600</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>1647100</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>1952000</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AF44" s="3">
         <v>2046000</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>939900</v>
+        <v>1006900</v>
       </c>
       <c r="E45" s="3">
-        <v>1036400</v>
+        <v>940700</v>
       </c>
       <c r="F45" s="3">
-        <v>1297700</v>
+        <v>1037300</v>
       </c>
       <c r="G45" s="3">
-        <v>1025600</v>
+        <v>1298700</v>
       </c>
       <c r="H45" s="3">
-        <v>802200</v>
+        <v>1026400</v>
       </c>
       <c r="I45" s="3">
-        <v>765400</v>
+        <v>802900</v>
       </c>
       <c r="J45" s="3">
+        <v>766000</v>
+      </c>
+      <c r="K45" s="3">
         <v>674300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>525500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>431700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>538500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>534600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>273000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>293500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>370900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>347900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>286600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>294100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>330200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>312300</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>418700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>424900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>362300</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>297300</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>269300</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>286100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>280500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>232400</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>367400</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17442100</v>
+        <v>19587500</v>
       </c>
       <c r="E46" s="3">
-        <v>22170900</v>
+        <v>17456600</v>
       </c>
       <c r="F46" s="3">
-        <v>24250200</v>
+        <v>22189300</v>
       </c>
       <c r="G46" s="3">
-        <v>29384500</v>
+        <v>24270400</v>
       </c>
       <c r="H46" s="3">
-        <v>27573000</v>
+        <v>29408900</v>
       </c>
       <c r="I46" s="3">
-        <v>25347300</v>
+        <v>27595900</v>
       </c>
       <c r="J46" s="3">
+        <v>25368400</v>
+      </c>
+      <c r="K46" s="3">
         <v>20158800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18629300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20098800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>14800400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>12080500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>14656200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15526900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>14813500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>13131000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>13068200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>13566200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>14124700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>14214900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>13470600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>10841700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>11436800</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>10544500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>10716100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>9720900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>9174500</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>8998400</v>
       </c>
-      <c r="AE46" s="3">
+      <c r="AF46" s="3">
         <v>8872800</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>9367700</v>
+        <v>9415600</v>
       </c>
       <c r="E47" s="3">
-        <v>9542200</v>
+        <v>9375500</v>
       </c>
       <c r="F47" s="3">
-        <v>10074500</v>
+        <v>9550200</v>
       </c>
       <c r="G47" s="3">
-        <v>12325100</v>
+        <v>10082900</v>
       </c>
       <c r="H47" s="3">
-        <v>11533700</v>
+        <v>12335400</v>
       </c>
       <c r="I47" s="3">
-        <v>11763600</v>
+        <v>11543300</v>
       </c>
       <c r="J47" s="3">
+        <v>11773300</v>
+      </c>
+      <c r="K47" s="3">
         <v>11509900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>13968500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>13733900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>13026100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11737400</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>7767600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>8480700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>8646600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>8831500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>9770500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>6566700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>6554000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>6707000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>5998800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>5680000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>5236400</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>5466300</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>4431900</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>4404900</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>4145800</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>4468700</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>4164700</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>22180700</v>
+        <v>22014700</v>
       </c>
       <c r="E48" s="3">
-        <v>21029400</v>
+        <v>22199100</v>
       </c>
       <c r="F48" s="3">
-        <v>20941600</v>
+        <v>21046800</v>
       </c>
       <c r="G48" s="3">
-        <v>20828800</v>
+        <v>20958900</v>
       </c>
       <c r="H48" s="3">
-        <v>20671600</v>
+        <v>20846100</v>
       </c>
       <c r="I48" s="3">
-        <v>20372400</v>
+        <v>20688800</v>
       </c>
       <c r="J48" s="3">
+        <v>20389300</v>
+      </c>
+      <c r="K48" s="3">
         <v>20130700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>19727700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>19286300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>19232300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>19153100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>14920900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>16464000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>16726900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>19237700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>20358100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>19369400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>19616500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>17879500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>15679200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>15670700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>14865800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>15319700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>15457700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>15748300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>16063500</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>17152900</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>17763300</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2339500</v>
+        <v>2374000</v>
       </c>
       <c r="E49" s="3">
-        <v>2806700</v>
+        <v>2341400</v>
       </c>
       <c r="F49" s="3">
-        <v>2721100</v>
+        <v>2809100</v>
       </c>
       <c r="G49" s="3">
-        <v>2897800</v>
+        <v>2723400</v>
       </c>
       <c r="H49" s="3">
-        <v>2810000</v>
+        <v>2900200</v>
       </c>
       <c r="I49" s="3">
-        <v>2788300</v>
+        <v>2812300</v>
       </c>
       <c r="J49" s="3">
+        <v>2790600</v>
+      </c>
+      <c r="K49" s="3">
         <v>3426800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>3611900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3541100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3695600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3434000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3190500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>4212000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>4215300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>4859900</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>5203800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>4843200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>5048000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>3923700</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>3202100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>3188600</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>2882300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>2971000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>1852400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>1867000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>1934300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>2010700</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>2851200</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,97 +4364,103 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2858800</v>
+        <v>1514700</v>
       </c>
       <c r="E52" s="3">
-        <v>3407300</v>
+        <v>2861100</v>
       </c>
       <c r="F52" s="3">
-        <v>3187300</v>
+        <v>3410200</v>
       </c>
       <c r="G52" s="3">
-        <v>3297800</v>
+        <v>3189900</v>
       </c>
       <c r="H52" s="3">
-        <v>3137400</v>
+        <v>3300600</v>
       </c>
       <c r="I52" s="3">
-        <v>3202400</v>
+        <v>3140000</v>
       </c>
       <c r="J52" s="3">
+        <v>3205100</v>
+      </c>
+      <c r="K52" s="3">
         <v>3096200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>3285600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>3253400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>4170600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2737900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2099700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2086900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1795600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>1074000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>977500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>905800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>958200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>996000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1256000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1408700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>1115600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>1126500</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>935700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>1169100</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>3635200</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>5062600</v>
       </c>
-      <c r="AE52" s="3">
+      <c r="AF52" s="3">
         <v>2902800</v>
       </c>
     </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4548,103 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>54188700</v>
+        <v>54906400</v>
       </c>
       <c r="E54" s="3">
-        <v>58956600</v>
+        <v>54233700</v>
       </c>
       <c r="F54" s="3">
-        <v>61174700</v>
+        <v>59005600</v>
       </c>
       <c r="G54" s="3">
-        <v>68734100</v>
+        <v>61225500</v>
       </c>
       <c r="H54" s="3">
-        <v>65725700</v>
+        <v>68791200</v>
       </c>
       <c r="I54" s="3">
-        <v>63474100</v>
+        <v>65780300</v>
       </c>
       <c r="J54" s="3">
+        <v>63526800</v>
+      </c>
+      <c r="K54" s="3">
         <v>58322400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>59223000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>59913500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>54925000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>49142900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>42634900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>46770600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>46197900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>47134200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>49378100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>45251400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>46301300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>43721200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>39606700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>36789600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>35536800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>35428000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>33393800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>32910200</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>34953400</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>37693400</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>36554800</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,542 +4710,561 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4092500</v>
+        <v>4478900</v>
       </c>
       <c r="E57" s="3">
-        <v>4467600</v>
+        <v>4095900</v>
       </c>
       <c r="F57" s="3">
-        <v>5701300</v>
+        <v>4471300</v>
       </c>
       <c r="G57" s="3">
-        <v>6535000</v>
+        <v>5706000</v>
       </c>
       <c r="H57" s="3">
-        <v>5969100</v>
+        <v>6540400</v>
       </c>
       <c r="I57" s="3">
-        <v>6050400</v>
+        <v>5974000</v>
       </c>
       <c r="J57" s="3">
+        <v>6055400</v>
+      </c>
+      <c r="K57" s="3">
         <v>5268700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4034100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4424600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>4777900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4292800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2667400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2607300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>3769100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4850600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4789700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4173900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5197500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5205900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>4101400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>3877000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>3910000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>3659900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>3268400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>3028300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>3460200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>4379500</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>4035600</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1512300</v>
+        <v>1683900</v>
       </c>
       <c r="E58" s="3">
-        <v>1679300</v>
+        <v>1513600</v>
       </c>
       <c r="F58" s="3">
-        <v>1705300</v>
+        <v>1680700</v>
       </c>
       <c r="G58" s="3">
-        <v>1114500</v>
+        <v>1706700</v>
       </c>
       <c r="H58" s="3">
-        <v>2045700</v>
+        <v>1115400</v>
       </c>
       <c r="I58" s="3">
-        <v>1187100</v>
+        <v>2047400</v>
       </c>
       <c r="J58" s="3">
+        <v>1188100</v>
+      </c>
+      <c r="K58" s="3">
         <v>1383300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1852300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1045300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1936100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1689600</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>855200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>916400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>613100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>943300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>1768900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>1664600</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>1934300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>997200</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>965800</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>1001400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>1902800</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>1012000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>274900</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>218800</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>190700</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>305200</v>
       </c>
-      <c r="AE58" s="3">
+      <c r="AF58" s="3">
         <v>721900</v>
       </c>
     </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>4591200</v>
+        <v>5180900</v>
       </c>
       <c r="E59" s="3">
-        <v>6508900</v>
+        <v>4595000</v>
       </c>
       <c r="F59" s="3">
-        <v>7301400</v>
+        <v>6514300</v>
       </c>
       <c r="G59" s="3">
-        <v>11760300</v>
+        <v>7307500</v>
       </c>
       <c r="H59" s="3">
-        <v>10877900</v>
+        <v>11770100</v>
       </c>
       <c r="I59" s="3">
-        <v>11107700</v>
+        <v>10886900</v>
       </c>
       <c r="J59" s="3">
+        <v>11116900</v>
+      </c>
+      <c r="K59" s="3">
         <v>8175200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10021600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11731100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5604200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4606000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5440700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6826900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8336700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5174000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>4881600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5518500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5219000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5247300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6182600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>4643400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>3090900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>2986700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>2753400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>2555900</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>2606400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>3211500</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>3006100</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>10196000</v>
+        <v>11343700</v>
       </c>
       <c r="E60" s="3">
-        <v>12655800</v>
+        <v>10204400</v>
       </c>
       <c r="F60" s="3">
-        <v>14708000</v>
+        <v>12666300</v>
       </c>
       <c r="G60" s="3">
-        <v>19409700</v>
+        <v>14720200</v>
       </c>
       <c r="H60" s="3">
-        <v>18892600</v>
+        <v>19425800</v>
       </c>
       <c r="I60" s="3">
-        <v>18345100</v>
+        <v>18908300</v>
       </c>
       <c r="J60" s="3">
+        <v>18360400</v>
+      </c>
+      <c r="K60" s="3">
         <v>14827200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15908000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17201000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12318300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10588400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>8963300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>10350600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>12718900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>10967800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>11440200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>11357000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>12350800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>11450500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>11249900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>9521900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>8903700</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>7658700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>6296600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>5802900</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>6257300</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>7896200</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AF60" s="3">
         <v>7763600</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>8823500</v>
+        <v>8652900</v>
       </c>
       <c r="E61" s="3">
-        <v>9487000</v>
+        <v>8830800</v>
       </c>
       <c r="F61" s="3">
-        <v>9443600</v>
+        <v>9494800</v>
       </c>
       <c r="G61" s="3">
-        <v>10019300</v>
+        <v>9451400</v>
       </c>
       <c r="H61" s="3">
-        <v>10047400</v>
+        <v>10027600</v>
       </c>
       <c r="I61" s="3">
-        <v>10815000</v>
+        <v>10055800</v>
       </c>
       <c r="J61" s="3">
+        <v>10824000</v>
+      </c>
+      <c r="K61" s="3">
         <v>10382400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>10311300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>10897400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>10944000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>10215400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>9427200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>9955600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6896700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7957100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>8107000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6550200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6260900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>5806900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>5052900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>5035400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>5017900</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>5375500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>5134200</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>5244200</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>5276700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>5869100</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>5379600</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8069000</v>
+        <v>7204400</v>
       </c>
       <c r="E62" s="3">
-        <v>7846700</v>
+        <v>8075700</v>
       </c>
       <c r="F62" s="3">
-        <v>8155700</v>
+        <v>7853200</v>
       </c>
       <c r="G62" s="3">
-        <v>9256000</v>
+        <v>8162500</v>
       </c>
       <c r="H62" s="3">
-        <v>8814800</v>
+        <v>9263700</v>
       </c>
       <c r="I62" s="3">
-        <v>9044600</v>
+        <v>8822100</v>
       </c>
       <c r="J62" s="3">
+        <v>9052200</v>
+      </c>
+      <c r="K62" s="3">
         <v>9266900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9469200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>9649000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>9182400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>8491900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7635800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>8515600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>8213500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>8523300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9412800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>8512400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>8335100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>8315800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>6928000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>6508900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>6244300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>6311200</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>5978000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>6342600</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>7216600</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>7582800</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>6944300</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5536,103 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>34896100</v>
+        <v>34927200</v>
       </c>
       <c r="E66" s="3">
-        <v>38164700</v>
+        <v>34925100</v>
       </c>
       <c r="F66" s="3">
-        <v>40414200</v>
+        <v>38196300</v>
       </c>
       <c r="G66" s="3">
-        <v>46861300</v>
+        <v>40447700</v>
       </c>
       <c r="H66" s="3">
-        <v>45519200</v>
+        <v>46900200</v>
       </c>
       <c r="I66" s="3">
-        <v>45440100</v>
+        <v>45557000</v>
       </c>
       <c r="J66" s="3">
+        <v>45477800</v>
+      </c>
+      <c r="K66" s="3">
         <v>41513400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>42509600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>44194800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>39133300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>35438600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>29841700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>32870200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>32113100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>31943800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>33628400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>30806400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>31501900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>29637600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>26852700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>24489800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>23702500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>22843700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>20852200</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>20777000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>22206400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>24881300</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>23502000</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6030,103 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>16248500</v>
+        <v>16932500</v>
       </c>
       <c r="E72" s="3">
-        <v>17747800</v>
+        <v>16262000</v>
       </c>
       <c r="F72" s="3">
-        <v>17988500</v>
+        <v>17762500</v>
       </c>
       <c r="G72" s="3">
-        <v>18828600</v>
+        <v>18003400</v>
       </c>
       <c r="H72" s="3">
-        <v>17161300</v>
+        <v>18844300</v>
       </c>
       <c r="I72" s="3">
-        <v>14987700</v>
+        <v>17175600</v>
       </c>
       <c r="J72" s="3">
+        <v>15000100</v>
+      </c>
+      <c r="K72" s="3">
         <v>13671600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>12888300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>11960700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>12032600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>10195400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>9106500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>11379300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>11564700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>12445800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>12920000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>11727500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>12038600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>11306200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>10196600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>9765600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>9846900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>9714200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>9680500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>9272100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>9885900</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>9820100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>10059600</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6398,103 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>19292600</v>
+        <v>19979200</v>
       </c>
       <c r="E76" s="3">
-        <v>20792000</v>
+        <v>19308700</v>
       </c>
       <c r="F76" s="3">
-        <v>20760500</v>
+        <v>20809200</v>
       </c>
       <c r="G76" s="3">
-        <v>21872800</v>
+        <v>20777800</v>
       </c>
       <c r="H76" s="3">
-        <v>20206500</v>
+        <v>21891000</v>
       </c>
       <c r="I76" s="3">
-        <v>18034000</v>
+        <v>20223300</v>
       </c>
       <c r="J76" s="3">
+        <v>18049000</v>
+      </c>
+      <c r="K76" s="3">
         <v>16809000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>16713500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>15718700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>15791700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13704300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>12793200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13900400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>14084700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>15190300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>15749700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>14445000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>14799400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>14083600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12754000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>12299800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>11834200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>12584200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>12541600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>12133200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>12746900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>12812100</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>13052800</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>412000</v>
+        <v>512100</v>
       </c>
       <c r="E81" s="3">
-        <v>422800</v>
+        <v>412300</v>
       </c>
       <c r="F81" s="3">
-        <v>333900</v>
+        <v>423200</v>
       </c>
       <c r="G81" s="3">
-        <v>903100</v>
+        <v>334200</v>
       </c>
       <c r="H81" s="3">
-        <v>2110700</v>
+        <v>903800</v>
       </c>
       <c r="I81" s="3">
-        <v>591900</v>
+        <v>2112500</v>
       </c>
       <c r="J81" s="3">
+        <v>592400</v>
+      </c>
+      <c r="K81" s="3">
         <v>583200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>300500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>658100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>691900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1875100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-505500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>26200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-173500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>414400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>520600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>638800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>423500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>719200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>244800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>222900</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>445800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>348900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>491400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1153400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>798900</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-442500</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>57500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,97 +6807,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>727400</v>
+        <v>712800</v>
       </c>
       <c r="E83" s="3">
-        <v>694900</v>
+        <v>728000</v>
       </c>
       <c r="F83" s="3">
-        <v>981100</v>
+        <v>695500</v>
       </c>
       <c r="G83" s="3">
-        <v>727400</v>
+        <v>981900</v>
       </c>
       <c r="H83" s="3">
-        <v>526900</v>
+        <v>728000</v>
       </c>
       <c r="I83" s="3">
-        <v>655900</v>
+        <v>527300</v>
       </c>
       <c r="J83" s="3">
+        <v>656400</v>
+      </c>
+      <c r="K83" s="3">
         <v>2122700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>747400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>688800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>668700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>558500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>1434400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>593500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>775600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>758800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>738700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>723500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>672300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>589100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>505100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>529200</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>494100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>596900</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>548700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>584600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>500400</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>1533000</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>1055300</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>245000</v>
+        <v>1849900</v>
       </c>
       <c r="E89" s="3">
-        <v>2911900</v>
+        <v>245200</v>
       </c>
       <c r="F89" s="3">
-        <v>1558900</v>
+        <v>2914300</v>
       </c>
       <c r="G89" s="3">
-        <v>3449600</v>
+        <v>1560200</v>
       </c>
       <c r="H89" s="3">
-        <v>501900</v>
+        <v>3452500</v>
       </c>
       <c r="I89" s="3">
-        <v>2900000</v>
+        <v>502400</v>
       </c>
       <c r="J89" s="3">
+        <v>2902400</v>
+      </c>
+      <c r="K89" s="3">
         <v>3017100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>1731700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>1652600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>1125700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>677200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>822000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>592400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>1225100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>1145200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>1316900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>1334000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>1035900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>1318900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>1075500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>1353800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>1181400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>832500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>888600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>1110800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>1036700</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>718400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>764200</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,97 +7485,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-861000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-821000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-858000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-910000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-735000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-651000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-647000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-758000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-579000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-657000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-570300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-562500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-402700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-462500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-637100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-706300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-665200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-578800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-619600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-671900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-547200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1866600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-473200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-571100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-356800</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-373600</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-478000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-2844100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-505900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,97 +7759,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-853200</v>
+        <v>-272300</v>
       </c>
       <c r="E94" s="3">
-        <v>-1066800</v>
+        <v>-853900</v>
       </c>
       <c r="F94" s="3">
-        <v>-1018000</v>
+        <v>-1067600</v>
       </c>
       <c r="G94" s="3">
-        <v>-970300</v>
+        <v>-1018800</v>
       </c>
       <c r="H94" s="3">
-        <v>1111200</v>
+        <v>-971100</v>
       </c>
       <c r="I94" s="3">
-        <v>-1254300</v>
+        <v>1112100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1255300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-499800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-641800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-118500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-688800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-4438400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-440100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-472400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-699300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-744800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-3178800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-488200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-1184200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-886000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-495100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1777700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-590700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-2453800</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-352300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>379200</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>445400</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-206600</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-483600</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,97 +7887,101 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2052200</v>
+        <v>-39100</v>
       </c>
       <c r="E96" s="3">
-        <v>0</v>
+        <v>-2053900</v>
       </c>
       <c r="F96" s="3">
-        <v>611400</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
-        <v>-304600</v>
+        <v>611900</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-304900</v>
       </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-91100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-35500</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-451800</v>
       </c>
-      <c r="O96" s="3">
-        <v>0</v>
-      </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-240000</v>
       </c>
-      <c r="Q96" s="3">
-        <v>0</v>
-      </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>115600</v>
       </c>
-      <c r="S96" s="3">
-        <v>0</v>
-      </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-908200</v>
       </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
         <v>85200</v>
       </c>
-      <c r="W96" s="3">
-        <v>0</v>
-      </c>
       <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-760900</v>
       </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
         <v>59500</v>
       </c>
-      <c r="AA96" s="3">
-        <v>0</v>
-      </c>
       <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-653000</v>
       </c>
-      <c r="AC96" s="3">
-        <v>0</v>
-      </c>
       <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-99800</v>
       </c>
-      <c r="AE96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,271 +8253,283 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-2918400</v>
+        <v>-120400</v>
       </c>
       <c r="E100" s="3">
-        <v>-114900</v>
+        <v>-2920800</v>
       </c>
       <c r="F100" s="3">
+        <v>-115000</v>
+      </c>
+      <c r="G100" s="3">
         <v>-13000</v>
       </c>
-      <c r="G100" s="3">
-        <v>-1309600</v>
-      </c>
       <c r="H100" s="3">
-        <v>-1035300</v>
+        <v>-1310700</v>
       </c>
       <c r="I100" s="3">
-        <v>-525800</v>
+        <v>-1036200</v>
       </c>
       <c r="J100" s="3">
+        <v>-526200</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1433200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-66800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1888500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>203100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-687200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1201900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3212700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-661100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-640900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1214000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-818800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-275100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>288600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-39900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-1066200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-232800</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>886400</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-31400</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-682200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-142500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>191300</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>219500</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-7600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-8700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-18400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3300</v>
       </c>
-      <c r="I101" s="3">
-        <v>-68300</v>
-      </c>
       <c r="J101" s="3">
+        <v>-68400</v>
+      </c>
+      <c r="K101" s="3">
         <v>-10800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-2100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-9500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-5000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-24900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-41500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-15200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-6100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>5900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10800</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>2400</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-13300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-5500</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-7700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-7900</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>-11200</v>
       </c>
       <c r="AB101" s="3">
         <v>-11200</v>
       </c>
       <c r="AC101" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="AD101" s="3">
         <v>-16800</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>-39900</v>
       </c>
-      <c r="AE101" s="3">
+      <c r="AF101" s="3">
         <v>-3500</v>
       </c>
     </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3534200</v>
+        <v>1452800</v>
       </c>
       <c r="E102" s="3">
-        <v>1721600</v>
+        <v>-3537100</v>
       </c>
       <c r="F102" s="3">
-        <v>509500</v>
+        <v>1723000</v>
       </c>
       <c r="G102" s="3">
-        <v>1175200</v>
+        <v>510000</v>
       </c>
       <c r="H102" s="3">
-        <v>581100</v>
+        <v>1176100</v>
       </c>
       <c r="I102" s="3">
-        <v>1051600</v>
+        <v>581600</v>
       </c>
       <c r="J102" s="3">
+        <v>1052500</v>
+      </c>
+      <c r="K102" s="3">
         <v>1073300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1018700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-356500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>630600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-4453400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1558900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3333800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-176700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-255700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-654100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>32900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-434200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>723900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>527200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1495500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>350300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-742800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>493700</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>796600</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>1322800</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>663200</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>496500</v>
       </c>
     </row>
